--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9117200</v>
+        <v>8801100</v>
       </c>
       <c r="E8" s="3">
-        <v>8662200</v>
+        <v>8361900</v>
       </c>
       <c r="F8" s="3">
-        <v>8164100</v>
+        <v>7881000</v>
       </c>
       <c r="G8" s="3">
-        <v>8042300</v>
+        <v>7763400</v>
       </c>
       <c r="H8" s="3">
-        <v>7744000</v>
+        <v>7475500</v>
       </c>
       <c r="I8" s="3">
-        <v>7904100</v>
+        <v>7630000</v>
       </c>
       <c r="J8" s="3">
-        <v>7591600</v>
+        <v>7328400</v>
       </c>
       <c r="K8" s="3">
         <v>3551700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>949500</v>
+        <v>916500</v>
       </c>
       <c r="E9" s="3">
-        <v>913500</v>
+        <v>881800</v>
       </c>
       <c r="F9" s="3">
-        <v>888800</v>
+        <v>858000</v>
       </c>
       <c r="G9" s="3">
-        <v>895400</v>
+        <v>864300</v>
       </c>
       <c r="H9" s="3">
-        <v>843800</v>
+        <v>814600</v>
       </c>
       <c r="I9" s="3">
-        <v>920000</v>
+        <v>888100</v>
       </c>
       <c r="J9" s="3">
-        <v>964800</v>
+        <v>931300</v>
       </c>
       <c r="K9" s="3">
         <v>3145700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8167800</v>
+        <v>7884600</v>
       </c>
       <c r="E10" s="3">
-        <v>7748700</v>
+        <v>7480100</v>
       </c>
       <c r="F10" s="3">
-        <v>7275300</v>
+        <v>7023000</v>
       </c>
       <c r="G10" s="3">
-        <v>7146900</v>
+        <v>6899100</v>
       </c>
       <c r="H10" s="3">
-        <v>6900200</v>
+        <v>6661000</v>
       </c>
       <c r="I10" s="3">
-        <v>6984100</v>
+        <v>6741900</v>
       </c>
       <c r="J10" s="3">
-        <v>6626800</v>
+        <v>6397100</v>
       </c>
       <c r="K10" s="3">
         <v>406000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>58300</v>
+        <v>56300</v>
       </c>
       <c r="E14" s="3">
-        <v>103800</v>
+        <v>100200</v>
       </c>
       <c r="F14" s="3">
-        <v>74500</v>
+        <v>71900</v>
       </c>
       <c r="G14" s="3">
-        <v>21900</v>
+        <v>21100</v>
       </c>
       <c r="H14" s="3">
-        <v>31000</v>
+        <v>29900</v>
       </c>
       <c r="I14" s="3">
-        <v>95900</v>
+        <v>92500</v>
       </c>
       <c r="J14" s="3">
-        <v>254800</v>
+        <v>245900</v>
       </c>
       <c r="K14" s="3">
         <v>189800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7854800</v>
+        <v>7582500</v>
       </c>
       <c r="E17" s="3">
-        <v>7540600</v>
+        <v>7279100</v>
       </c>
       <c r="F17" s="3">
-        <v>7096700</v>
+        <v>6850600</v>
       </c>
       <c r="G17" s="3">
-        <v>6948600</v>
+        <v>6707700</v>
       </c>
       <c r="H17" s="3">
-        <v>6743900</v>
+        <v>6510100</v>
       </c>
       <c r="I17" s="3">
-        <v>7053200</v>
+        <v>6808700</v>
       </c>
       <c r="J17" s="3">
-        <v>7119100</v>
+        <v>6872300</v>
       </c>
       <c r="K17" s="3">
         <v>3356000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1262400</v>
+        <v>1218600</v>
       </c>
       <c r="E18" s="3">
-        <v>1121600</v>
+        <v>1082800</v>
       </c>
       <c r="F18" s="3">
-        <v>1067400</v>
+        <v>1030400</v>
       </c>
       <c r="G18" s="3">
-        <v>1093600</v>
+        <v>1055700</v>
       </c>
       <c r="H18" s="3">
-        <v>1000100</v>
+        <v>965400</v>
       </c>
       <c r="I18" s="3">
-        <v>850800</v>
+        <v>821300</v>
       </c>
       <c r="J18" s="3">
-        <v>472500</v>
+        <v>456100</v>
       </c>
       <c r="K18" s="3">
         <v>195700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1557800</v>
+        <v>1503900</v>
       </c>
       <c r="E21" s="3">
-        <v>1417400</v>
+        <v>1368300</v>
       </c>
       <c r="F21" s="3">
-        <v>1351500</v>
+        <v>1304700</v>
       </c>
       <c r="G21" s="3">
-        <v>1394900</v>
+        <v>1346700</v>
       </c>
       <c r="H21" s="3">
-        <v>1319500</v>
+        <v>1273800</v>
       </c>
       <c r="I21" s="3">
-        <v>1185400</v>
+        <v>1144400</v>
       </c>
       <c r="J21" s="3">
-        <v>800800</v>
+        <v>773100</v>
       </c>
       <c r="K21" s="3">
         <v>368200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1262400</v>
+        <v>1218600</v>
       </c>
       <c r="E23" s="3">
-        <v>1121600</v>
+        <v>1082800</v>
       </c>
       <c r="F23" s="3">
-        <v>1067400</v>
+        <v>1030400</v>
       </c>
       <c r="G23" s="3">
-        <v>1093600</v>
+        <v>1055700</v>
       </c>
       <c r="H23" s="3">
-        <v>1000100</v>
+        <v>965400</v>
       </c>
       <c r="I23" s="3">
-        <v>850800</v>
+        <v>821300</v>
       </c>
       <c r="J23" s="3">
-        <v>472500</v>
+        <v>456100</v>
       </c>
       <c r="K23" s="3">
         <v>195700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>311500</v>
+        <v>300700</v>
       </c>
       <c r="E24" s="3">
-        <v>262400</v>
+        <v>253300</v>
       </c>
       <c r="F24" s="3">
-        <v>288100</v>
+        <v>278100</v>
       </c>
       <c r="G24" s="3">
-        <v>289100</v>
+        <v>279100</v>
       </c>
       <c r="H24" s="3">
-        <v>264200</v>
+        <v>255100</v>
       </c>
       <c r="I24" s="3">
-        <v>203900</v>
+        <v>196800</v>
       </c>
       <c r="J24" s="3">
-        <v>129300</v>
+        <v>124800</v>
       </c>
       <c r="K24" s="3">
         <v>97800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>950900</v>
+        <v>918000</v>
       </c>
       <c r="E26" s="3">
-        <v>859200</v>
+        <v>829400</v>
       </c>
       <c r="F26" s="3">
-        <v>779300</v>
+        <v>752300</v>
       </c>
       <c r="G26" s="3">
-        <v>804500</v>
+        <v>776600</v>
       </c>
       <c r="H26" s="3">
-        <v>735900</v>
+        <v>710400</v>
       </c>
       <c r="I26" s="3">
-        <v>647000</v>
+        <v>624500</v>
       </c>
       <c r="J26" s="3">
-        <v>343100</v>
+        <v>331200</v>
       </c>
       <c r="K26" s="3">
         <v>97900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>950900</v>
+        <v>918000</v>
       </c>
       <c r="E27" s="3">
-        <v>859200</v>
+        <v>829400</v>
       </c>
       <c r="F27" s="3">
-        <v>779300</v>
+        <v>752300</v>
       </c>
       <c r="G27" s="3">
-        <v>804500</v>
+        <v>776600</v>
       </c>
       <c r="H27" s="3">
-        <v>735900</v>
+        <v>710400</v>
       </c>
       <c r="I27" s="3">
-        <v>647000</v>
+        <v>624500</v>
       </c>
       <c r="J27" s="3">
-        <v>343100</v>
+        <v>331200</v>
       </c>
       <c r="K27" s="3">
         <v>97900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>950900</v>
+        <v>918000</v>
       </c>
       <c r="E33" s="3">
-        <v>859200</v>
+        <v>829400</v>
       </c>
       <c r="F33" s="3">
-        <v>779300</v>
+        <v>752300</v>
       </c>
       <c r="G33" s="3">
-        <v>804500</v>
+        <v>776600</v>
       </c>
       <c r="H33" s="3">
-        <v>735900</v>
+        <v>710400</v>
       </c>
       <c r="I33" s="3">
-        <v>647000</v>
+        <v>624500</v>
       </c>
       <c r="J33" s="3">
-        <v>343100</v>
+        <v>331200</v>
       </c>
       <c r="K33" s="3">
         <v>97900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>950900</v>
+        <v>918000</v>
       </c>
       <c r="E35" s="3">
-        <v>859200</v>
+        <v>829400</v>
       </c>
       <c r="F35" s="3">
-        <v>779300</v>
+        <v>752300</v>
       </c>
       <c r="G35" s="3">
-        <v>804500</v>
+        <v>776600</v>
       </c>
       <c r="H35" s="3">
-        <v>735900</v>
+        <v>710400</v>
       </c>
       <c r="I35" s="3">
-        <v>647000</v>
+        <v>624500</v>
       </c>
       <c r="J35" s="3">
-        <v>343100</v>
+        <v>331200</v>
       </c>
       <c r="K35" s="3">
         <v>97900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>161000</v>
+        <v>155300</v>
       </c>
       <c r="E41" s="3">
-        <v>138600</v>
+        <v>133700</v>
       </c>
       <c r="F41" s="3">
-        <v>124900</v>
+        <v>120500</v>
       </c>
       <c r="G41" s="3">
-        <v>449100</v>
+        <v>433200</v>
       </c>
       <c r="H41" s="3">
-        <v>229800</v>
+        <v>221700</v>
       </c>
       <c r="I41" s="3">
-        <v>403300</v>
+        <v>389100</v>
       </c>
       <c r="J41" s="3">
-        <v>106000</v>
+        <v>102300</v>
       </c>
       <c r="K41" s="3">
         <v>177000</v>
@@ -1703,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>141400</v>
+        <v>136500</v>
       </c>
       <c r="K42" s="3">
         <v>163500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1029300</v>
+        <v>993000</v>
       </c>
       <c r="E43" s="3">
-        <v>1118700</v>
+        <v>1079200</v>
       </c>
       <c r="F43" s="3">
-        <v>972900</v>
+        <v>938600</v>
       </c>
       <c r="G43" s="3">
-        <v>835200</v>
+        <v>805800</v>
       </c>
       <c r="H43" s="3">
-        <v>830800</v>
+        <v>801500</v>
       </c>
       <c r="I43" s="3">
-        <v>786400</v>
+        <v>758700</v>
       </c>
       <c r="J43" s="3">
-        <v>1687600</v>
+        <v>1628200</v>
       </c>
       <c r="K43" s="3">
         <v>2175800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>825100</v>
+        <v>796000</v>
       </c>
       <c r="E44" s="3">
-        <v>709700</v>
+        <v>684700</v>
       </c>
       <c r="F44" s="3">
-        <v>694500</v>
+        <v>670100</v>
       </c>
       <c r="G44" s="3">
-        <v>704200</v>
+        <v>679400</v>
       </c>
       <c r="H44" s="3">
-        <v>657300</v>
+        <v>634100</v>
       </c>
       <c r="I44" s="3">
-        <v>608200</v>
+        <v>586800</v>
       </c>
       <c r="J44" s="3">
-        <v>686400</v>
+        <v>662200</v>
       </c>
       <c r="K44" s="3">
         <v>1072900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>436800</v>
+        <v>421400</v>
       </c>
       <c r="E45" s="3">
-        <v>370000</v>
+        <v>357000</v>
       </c>
       <c r="F45" s="3">
-        <v>362900</v>
+        <v>350100</v>
       </c>
       <c r="G45" s="3">
-        <v>423200</v>
+        <v>408300</v>
       </c>
       <c r="H45" s="3">
-        <v>514600</v>
+        <v>496500</v>
       </c>
       <c r="I45" s="3">
-        <v>360800</v>
+        <v>348100</v>
       </c>
       <c r="J45" s="3">
-        <v>498300</v>
+        <v>480800</v>
       </c>
       <c r="K45" s="3">
         <v>508400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2452100</v>
+        <v>2365700</v>
       </c>
       <c r="E46" s="3">
-        <v>2337000</v>
+        <v>2254700</v>
       </c>
       <c r="F46" s="3">
-        <v>2155300</v>
+        <v>2079300</v>
       </c>
       <c r="G46" s="3">
-        <v>2411700</v>
+        <v>2326700</v>
       </c>
       <c r="H46" s="3">
-        <v>2232400</v>
+        <v>2153800</v>
       </c>
       <c r="I46" s="3">
-        <v>2158700</v>
+        <v>2082600</v>
       </c>
       <c r="J46" s="3">
-        <v>2019900</v>
+        <v>1948700</v>
       </c>
       <c r="K46" s="3">
         <v>2021200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>301000</v>
+        <v>290400</v>
       </c>
       <c r="E47" s="3">
-        <v>271700</v>
+        <v>262100</v>
       </c>
       <c r="F47" s="3">
-        <v>266800</v>
+        <v>257400</v>
       </c>
       <c r="G47" s="3">
-        <v>256300</v>
+        <v>247200</v>
       </c>
       <c r="H47" s="3">
-        <v>234900</v>
+        <v>226600</v>
       </c>
       <c r="I47" s="3">
-        <v>181100</v>
+        <v>174800</v>
       </c>
       <c r="J47" s="3">
-        <v>163300</v>
+        <v>157600</v>
       </c>
       <c r="K47" s="3">
         <v>29400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>299400</v>
+        <v>288800</v>
       </c>
       <c r="E48" s="3">
-        <v>292200</v>
+        <v>281900</v>
       </c>
       <c r="F48" s="3">
-        <v>298600</v>
+        <v>288000</v>
       </c>
       <c r="G48" s="3">
-        <v>330700</v>
+        <v>319000</v>
       </c>
       <c r="H48" s="3">
-        <v>356200</v>
+        <v>343600</v>
       </c>
       <c r="I48" s="3">
-        <v>366500</v>
+        <v>353600</v>
       </c>
       <c r="J48" s="3">
-        <v>357700</v>
+        <v>345100</v>
       </c>
       <c r="K48" s="3">
         <v>731200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6237500</v>
+        <v>6017700</v>
       </c>
       <c r="E49" s="3">
-        <v>5887600</v>
+        <v>5680200</v>
       </c>
       <c r="F49" s="3">
-        <v>5683900</v>
+        <v>5483700</v>
       </c>
       <c r="G49" s="3">
-        <v>5603100</v>
+        <v>5405700</v>
       </c>
       <c r="H49" s="3">
-        <v>5800800</v>
+        <v>5596500</v>
       </c>
       <c r="I49" s="3">
-        <v>5451300</v>
+        <v>5259200</v>
       </c>
       <c r="J49" s="3">
-        <v>5985100</v>
+        <v>5774300</v>
       </c>
       <c r="K49" s="3">
         <v>10341600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>211500</v>
+        <v>204100</v>
       </c>
       <c r="E52" s="3">
-        <v>184100</v>
+        <v>177700</v>
       </c>
       <c r="F52" s="3">
-        <v>174500</v>
+        <v>168300</v>
       </c>
       <c r="G52" s="3">
-        <v>200900</v>
+        <v>193800</v>
       </c>
       <c r="H52" s="3">
-        <v>249000</v>
+        <v>240200</v>
       </c>
       <c r="I52" s="3">
-        <v>299300</v>
+        <v>288700</v>
       </c>
       <c r="J52" s="3">
-        <v>347700</v>
+        <v>335400</v>
       </c>
       <c r="K52" s="3">
         <v>535600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9501500</v>
+        <v>9166800</v>
       </c>
       <c r="E54" s="3">
-        <v>8972600</v>
+        <v>8656500</v>
       </c>
       <c r="F54" s="3">
-        <v>8579000</v>
+        <v>8276700</v>
       </c>
       <c r="G54" s="3">
-        <v>8802600</v>
+        <v>8492500</v>
       </c>
       <c r="H54" s="3">
-        <v>8873300</v>
+        <v>8560700</v>
       </c>
       <c r="I54" s="3">
-        <v>8456900</v>
+        <v>8159000</v>
       </c>
       <c r="J54" s="3">
-        <v>8189800</v>
+        <v>7901300</v>
       </c>
       <c r="K54" s="3">
         <v>7955800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>834800</v>
+        <v>805400</v>
       </c>
       <c r="E57" s="3">
-        <v>854300</v>
+        <v>824200</v>
       </c>
       <c r="F57" s="3">
-        <v>756000</v>
+        <v>729400</v>
       </c>
       <c r="G57" s="3">
-        <v>834000</v>
+        <v>804600</v>
       </c>
       <c r="H57" s="3">
-        <v>838300</v>
+        <v>808800</v>
       </c>
       <c r="I57" s="3">
-        <v>798200</v>
+        <v>770100</v>
       </c>
       <c r="J57" s="3">
-        <v>842400</v>
+        <v>812700</v>
       </c>
       <c r="K57" s="3">
         <v>1817900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>85400</v>
+        <v>82400</v>
       </c>
       <c r="E58" s="3">
-        <v>262400</v>
+        <v>253200</v>
       </c>
       <c r="F58" s="3">
-        <v>92200</v>
+        <v>88900</v>
       </c>
       <c r="G58" s="3">
-        <v>144600</v>
+        <v>139500</v>
       </c>
       <c r="H58" s="3">
-        <v>173800</v>
+        <v>167700</v>
       </c>
       <c r="I58" s="3">
-        <v>60500</v>
+        <v>58400</v>
       </c>
       <c r="J58" s="3">
-        <v>402100</v>
+        <v>388000</v>
       </c>
       <c r="K58" s="3">
         <v>77900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1250900</v>
+        <v>1206900</v>
       </c>
       <c r="E59" s="3">
-        <v>1231800</v>
+        <v>1188400</v>
       </c>
       <c r="F59" s="3">
-        <v>1185500</v>
+        <v>1143700</v>
       </c>
       <c r="G59" s="3">
-        <v>1113200</v>
+        <v>1074000</v>
       </c>
       <c r="H59" s="3">
-        <v>1327400</v>
+        <v>1280600</v>
       </c>
       <c r="I59" s="3">
-        <v>1232700</v>
+        <v>1189200</v>
       </c>
       <c r="J59" s="3">
-        <v>1376700</v>
+        <v>1328200</v>
       </c>
       <c r="K59" s="3">
         <v>2383800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2171100</v>
+        <v>2094700</v>
       </c>
       <c r="E60" s="3">
-        <v>2348500</v>
+        <v>2265700</v>
       </c>
       <c r="F60" s="3">
-        <v>2033700</v>
+        <v>1962100</v>
       </c>
       <c r="G60" s="3">
-        <v>2091800</v>
+        <v>2018100</v>
       </c>
       <c r="H60" s="3">
-        <v>2339500</v>
+        <v>2257100</v>
       </c>
       <c r="I60" s="3">
-        <v>2091400</v>
+        <v>2017700</v>
       </c>
       <c r="J60" s="3">
-        <v>2621200</v>
+        <v>2528900</v>
       </c>
       <c r="K60" s="3">
         <v>2249400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1669500</v>
+        <v>1610600</v>
       </c>
       <c r="E61" s="3">
-        <v>1093300</v>
+        <v>1054800</v>
       </c>
       <c r="F61" s="3">
-        <v>1309500</v>
+        <v>1263400</v>
       </c>
       <c r="G61" s="3">
-        <v>1294000</v>
+        <v>1248400</v>
       </c>
       <c r="H61" s="3">
-        <v>1427400</v>
+        <v>1377100</v>
       </c>
       <c r="I61" s="3">
-        <v>1956800</v>
+        <v>1887800</v>
       </c>
       <c r="J61" s="3">
-        <v>1755800</v>
+        <v>1693900</v>
       </c>
       <c r="K61" s="3">
         <v>2378500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>478600</v>
+        <v>461800</v>
       </c>
       <c r="E62" s="3">
-        <v>498600</v>
+        <v>481000</v>
       </c>
       <c r="F62" s="3">
-        <v>566500</v>
+        <v>546500</v>
       </c>
       <c r="G62" s="3">
-        <v>550400</v>
+        <v>531000</v>
       </c>
       <c r="H62" s="3">
-        <v>527800</v>
+        <v>509200</v>
       </c>
       <c r="I62" s="3">
-        <v>653300</v>
+        <v>630200</v>
       </c>
       <c r="J62" s="3">
-        <v>759700</v>
+        <v>733000</v>
       </c>
       <c r="K62" s="3">
         <v>1604300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4319200</v>
+        <v>4167100</v>
       </c>
       <c r="E66" s="3">
-        <v>3940300</v>
+        <v>3801500</v>
       </c>
       <c r="F66" s="3">
-        <v>3909700</v>
+        <v>3771900</v>
       </c>
       <c r="G66" s="3">
-        <v>3936100</v>
+        <v>3797500</v>
       </c>
       <c r="H66" s="3">
-        <v>4294700</v>
+        <v>4143400</v>
       </c>
       <c r="I66" s="3">
-        <v>4701400</v>
+        <v>4535800</v>
       </c>
       <c r="J66" s="3">
-        <v>5136700</v>
+        <v>4955800</v>
       </c>
       <c r="K66" s="3">
         <v>5408400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3431100</v>
+        <v>3310200</v>
       </c>
       <c r="E72" s="3">
-        <v>3200400</v>
+        <v>3087700</v>
       </c>
       <c r="F72" s="3">
-        <v>2856400</v>
+        <v>2755800</v>
       </c>
       <c r="G72" s="3">
-        <v>2844700</v>
+        <v>2744500</v>
       </c>
       <c r="H72" s="3">
-        <v>2301700</v>
+        <v>2220600</v>
       </c>
       <c r="I72" s="3">
-        <v>1773600</v>
+        <v>1711100</v>
       </c>
       <c r="J72" s="3">
-        <v>1168300</v>
+        <v>1127100</v>
       </c>
       <c r="K72" s="3">
         <v>1656900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5182300</v>
+        <v>4999700</v>
       </c>
       <c r="E76" s="3">
-        <v>5032300</v>
+        <v>4855000</v>
       </c>
       <c r="F76" s="3">
-        <v>4669300</v>
+        <v>4504800</v>
       </c>
       <c r="G76" s="3">
-        <v>4866500</v>
+        <v>4695100</v>
       </c>
       <c r="H76" s="3">
-        <v>4578600</v>
+        <v>4417300</v>
       </c>
       <c r="I76" s="3">
-        <v>3755500</v>
+        <v>3623200</v>
       </c>
       <c r="J76" s="3">
-        <v>3053100</v>
+        <v>2945500</v>
       </c>
       <c r="K76" s="3">
         <v>2547400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>950900</v>
+        <v>918000</v>
       </c>
       <c r="E81" s="3">
-        <v>859200</v>
+        <v>829400</v>
       </c>
       <c r="F81" s="3">
-        <v>779300</v>
+        <v>752300</v>
       </c>
       <c r="G81" s="3">
-        <v>804500</v>
+        <v>776600</v>
       </c>
       <c r="H81" s="3">
-        <v>735900</v>
+        <v>710400</v>
       </c>
       <c r="I81" s="3">
-        <v>647000</v>
+        <v>624500</v>
       </c>
       <c r="J81" s="3">
-        <v>343100</v>
+        <v>331200</v>
       </c>
       <c r="K81" s="3">
         <v>97900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>295300</v>
+        <v>285100</v>
       </c>
       <c r="E83" s="3">
-        <v>295600</v>
+        <v>285400</v>
       </c>
       <c r="F83" s="3">
-        <v>284000</v>
+        <v>274100</v>
       </c>
       <c r="G83" s="3">
-        <v>301200</v>
+        <v>290700</v>
       </c>
       <c r="H83" s="3">
-        <v>319200</v>
+        <v>308100</v>
       </c>
       <c r="I83" s="3">
-        <v>334400</v>
+        <v>322800</v>
       </c>
       <c r="J83" s="3">
-        <v>328200</v>
+        <v>316800</v>
       </c>
       <c r="K83" s="3">
         <v>172200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1230000</v>
+        <v>1187400</v>
       </c>
       <c r="E89" s="3">
-        <v>1124200</v>
+        <v>1085200</v>
       </c>
       <c r="F89" s="3">
-        <v>1022700</v>
+        <v>987200</v>
       </c>
       <c r="G89" s="3">
-        <v>1003500</v>
+        <v>968700</v>
       </c>
       <c r="H89" s="3">
-        <v>970600</v>
+        <v>936900</v>
       </c>
       <c r="I89" s="3">
-        <v>884400</v>
+        <v>853700</v>
       </c>
       <c r="J89" s="3">
-        <v>505300</v>
+        <v>487800</v>
       </c>
       <c r="K89" s="3">
         <v>456400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-122000</v>
+        <v>-117800</v>
       </c>
       <c r="E91" s="3">
-        <v>-107800</v>
+        <v>-104100</v>
       </c>
       <c r="F91" s="3">
-        <v>-84800</v>
+        <v>-81900</v>
       </c>
       <c r="G91" s="3">
-        <v>-124600</v>
+        <v>-120300</v>
       </c>
       <c r="H91" s="3">
-        <v>-92200</v>
+        <v>-89000</v>
       </c>
       <c r="I91" s="3">
-        <v>-136600</v>
+        <v>-131900</v>
       </c>
       <c r="J91" s="3">
-        <v>-106900</v>
+        <v>-103200</v>
       </c>
       <c r="K91" s="3">
         <v>-48000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-715800</v>
+        <v>-690900</v>
       </c>
       <c r="E94" s="3">
-        <v>-434700</v>
+        <v>-419600</v>
       </c>
       <c r="F94" s="3">
-        <v>-445800</v>
+        <v>-430400</v>
       </c>
       <c r="G94" s="3">
-        <v>-288100</v>
+        <v>-278100</v>
       </c>
       <c r="H94" s="3">
-        <v>-193600</v>
+        <v>-186900</v>
       </c>
       <c r="I94" s="3">
-        <v>-241800</v>
+        <v>-233400</v>
       </c>
       <c r="J94" s="3">
-        <v>-176000</v>
+        <v>-169900</v>
       </c>
       <c r="K94" s="3">
         <v>-2120300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-473600</v>
+        <v>-457200</v>
       </c>
       <c r="E100" s="3">
-        <v>-661700</v>
+        <v>-638800</v>
       </c>
       <c r="F100" s="3">
-        <v>-890500</v>
+        <v>-859700</v>
       </c>
       <c r="G100" s="3">
-        <v>-501600</v>
+        <v>-484200</v>
       </c>
       <c r="H100" s="3">
-        <v>-981400</v>
+        <v>-947400</v>
       </c>
       <c r="I100" s="3">
-        <v>-311700</v>
+        <v>-300900</v>
       </c>
       <c r="J100" s="3">
-        <v>-335700</v>
+        <v>-324100</v>
       </c>
       <c r="K100" s="3">
         <v>1700900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18300</v>
+        <v>-17600</v>
       </c>
       <c r="E101" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="F101" s="3">
-        <v>-10500</v>
+        <v>-10100</v>
       </c>
       <c r="G101" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="H101" s="3">
-        <v>30900</v>
+        <v>29800</v>
       </c>
       <c r="I101" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="J101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22400</v>
+        <v>21600</v>
       </c>
       <c r="E102" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="F102" s="3">
-        <v>-324200</v>
+        <v>-313000</v>
       </c>
       <c r="G102" s="3">
-        <v>219300</v>
+        <v>211700</v>
       </c>
       <c r="H102" s="3">
-        <v>-173500</v>
+        <v>-167500</v>
       </c>
       <c r="I102" s="3">
-        <v>323300</v>
+        <v>312100</v>
       </c>
       <c r="J102" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="K102" s="3">
         <v>39000</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8801100</v>
+        <v>9217700</v>
       </c>
       <c r="E8" s="3">
-        <v>8361900</v>
+        <v>8757700</v>
       </c>
       <c r="F8" s="3">
-        <v>7881000</v>
+        <v>8254100</v>
       </c>
       <c r="G8" s="3">
-        <v>7763400</v>
+        <v>8130900</v>
       </c>
       <c r="H8" s="3">
-        <v>7475500</v>
+        <v>7829400</v>
       </c>
       <c r="I8" s="3">
-        <v>7630000</v>
+        <v>7991200</v>
       </c>
       <c r="J8" s="3">
-        <v>7328400</v>
+        <v>7675300</v>
       </c>
       <c r="K8" s="3">
         <v>3551700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>916500</v>
+        <v>959900</v>
       </c>
       <c r="E9" s="3">
-        <v>881800</v>
+        <v>923600</v>
       </c>
       <c r="F9" s="3">
-        <v>858000</v>
+        <v>898600</v>
       </c>
       <c r="G9" s="3">
-        <v>864300</v>
+        <v>905200</v>
       </c>
       <c r="H9" s="3">
-        <v>814600</v>
+        <v>853100</v>
       </c>
       <c r="I9" s="3">
-        <v>888100</v>
+        <v>930200</v>
       </c>
       <c r="J9" s="3">
-        <v>931300</v>
+        <v>975400</v>
       </c>
       <c r="K9" s="3">
         <v>3145700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7884600</v>
+        <v>8257800</v>
       </c>
       <c r="E10" s="3">
-        <v>7480100</v>
+        <v>7834200</v>
       </c>
       <c r="F10" s="3">
-        <v>7023000</v>
+        <v>7355500</v>
       </c>
       <c r="G10" s="3">
-        <v>6899100</v>
+        <v>7225700</v>
       </c>
       <c r="H10" s="3">
-        <v>6661000</v>
+        <v>6976300</v>
       </c>
       <c r="I10" s="3">
-        <v>6741900</v>
+        <v>7061100</v>
       </c>
       <c r="J10" s="3">
-        <v>6397100</v>
+        <v>6699900</v>
       </c>
       <c r="K10" s="3">
         <v>406000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>56300</v>
+        <v>58900</v>
       </c>
       <c r="E14" s="3">
-        <v>100200</v>
+        <v>104900</v>
       </c>
       <c r="F14" s="3">
-        <v>71900</v>
+        <v>75300</v>
       </c>
       <c r="G14" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="H14" s="3">
-        <v>29900</v>
+        <v>31400</v>
       </c>
       <c r="I14" s="3">
-        <v>92500</v>
+        <v>96900</v>
       </c>
       <c r="J14" s="3">
-        <v>245900</v>
+        <v>257600</v>
       </c>
       <c r="K14" s="3">
         <v>189800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7582500</v>
+        <v>7941400</v>
       </c>
       <c r="E17" s="3">
-        <v>7279100</v>
+        <v>7623700</v>
       </c>
       <c r="F17" s="3">
-        <v>6850600</v>
+        <v>7174900</v>
       </c>
       <c r="G17" s="3">
-        <v>6707700</v>
+        <v>7025200</v>
       </c>
       <c r="H17" s="3">
-        <v>6510100</v>
+        <v>6818300</v>
       </c>
       <c r="I17" s="3">
-        <v>6808700</v>
+        <v>7131000</v>
       </c>
       <c r="J17" s="3">
-        <v>6872300</v>
+        <v>7197600</v>
       </c>
       <c r="K17" s="3">
         <v>3356000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1218600</v>
+        <v>1276300</v>
       </c>
       <c r="E18" s="3">
-        <v>1082800</v>
+        <v>1134000</v>
       </c>
       <c r="F18" s="3">
-        <v>1030400</v>
+        <v>1079100</v>
       </c>
       <c r="G18" s="3">
-        <v>1055700</v>
+        <v>1105700</v>
       </c>
       <c r="H18" s="3">
-        <v>965400</v>
+        <v>1011100</v>
       </c>
       <c r="I18" s="3">
-        <v>821300</v>
+        <v>860200</v>
       </c>
       <c r="J18" s="3">
-        <v>456100</v>
+        <v>477700</v>
       </c>
       <c r="K18" s="3">
         <v>195700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1503900</v>
+        <v>1574200</v>
       </c>
       <c r="E21" s="3">
-        <v>1368300</v>
+        <v>1432200</v>
       </c>
       <c r="F21" s="3">
-        <v>1304700</v>
+        <v>1365600</v>
       </c>
       <c r="G21" s="3">
-        <v>1346700</v>
+        <v>1409500</v>
       </c>
       <c r="H21" s="3">
-        <v>1273800</v>
+        <v>1333200</v>
       </c>
       <c r="I21" s="3">
-        <v>1144400</v>
+        <v>1197600</v>
       </c>
       <c r="J21" s="3">
-        <v>773100</v>
+        <v>808700</v>
       </c>
       <c r="K21" s="3">
         <v>368200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1218600</v>
+        <v>1276300</v>
       </c>
       <c r="E23" s="3">
-        <v>1082800</v>
+        <v>1134000</v>
       </c>
       <c r="F23" s="3">
-        <v>1030400</v>
+        <v>1079100</v>
       </c>
       <c r="G23" s="3">
-        <v>1055700</v>
+        <v>1105700</v>
       </c>
       <c r="H23" s="3">
-        <v>965400</v>
+        <v>1011100</v>
       </c>
       <c r="I23" s="3">
-        <v>821300</v>
+        <v>860200</v>
       </c>
       <c r="J23" s="3">
-        <v>456100</v>
+        <v>477700</v>
       </c>
       <c r="K23" s="3">
         <v>195700</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300700</v>
+        <v>314900</v>
       </c>
       <c r="E24" s="3">
-        <v>253300</v>
+        <v>265300</v>
       </c>
       <c r="F24" s="3">
-        <v>278100</v>
+        <v>291300</v>
       </c>
       <c r="G24" s="3">
-        <v>279100</v>
+        <v>292300</v>
       </c>
       <c r="H24" s="3">
-        <v>255100</v>
+        <v>267100</v>
       </c>
       <c r="I24" s="3">
-        <v>196800</v>
+        <v>206100</v>
       </c>
       <c r="J24" s="3">
-        <v>124800</v>
+        <v>130800</v>
       </c>
       <c r="K24" s="3">
         <v>97800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>918000</v>
+        <v>961400</v>
       </c>
       <c r="E26" s="3">
-        <v>829400</v>
+        <v>868700</v>
       </c>
       <c r="F26" s="3">
-        <v>752300</v>
+        <v>787900</v>
       </c>
       <c r="G26" s="3">
-        <v>776600</v>
+        <v>813400</v>
       </c>
       <c r="H26" s="3">
-        <v>710400</v>
+        <v>744000</v>
       </c>
       <c r="I26" s="3">
-        <v>624500</v>
+        <v>654100</v>
       </c>
       <c r="J26" s="3">
-        <v>331200</v>
+        <v>346900</v>
       </c>
       <c r="K26" s="3">
         <v>97900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>918000</v>
+        <v>961400</v>
       </c>
       <c r="E27" s="3">
-        <v>829400</v>
+        <v>868700</v>
       </c>
       <c r="F27" s="3">
-        <v>752300</v>
+        <v>787900</v>
       </c>
       <c r="G27" s="3">
-        <v>776600</v>
+        <v>813400</v>
       </c>
       <c r="H27" s="3">
-        <v>710400</v>
+        <v>744000</v>
       </c>
       <c r="I27" s="3">
-        <v>624500</v>
+        <v>654100</v>
       </c>
       <c r="J27" s="3">
-        <v>331200</v>
+        <v>346900</v>
       </c>
       <c r="K27" s="3">
         <v>97900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>918000</v>
+        <v>961400</v>
       </c>
       <c r="E33" s="3">
-        <v>829400</v>
+        <v>868700</v>
       </c>
       <c r="F33" s="3">
-        <v>752300</v>
+        <v>787900</v>
       </c>
       <c r="G33" s="3">
-        <v>776600</v>
+        <v>813400</v>
       </c>
       <c r="H33" s="3">
-        <v>710400</v>
+        <v>744000</v>
       </c>
       <c r="I33" s="3">
-        <v>624500</v>
+        <v>654100</v>
       </c>
       <c r="J33" s="3">
-        <v>331200</v>
+        <v>346900</v>
       </c>
       <c r="K33" s="3">
         <v>97900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>918000</v>
+        <v>961400</v>
       </c>
       <c r="E35" s="3">
-        <v>829400</v>
+        <v>868700</v>
       </c>
       <c r="F35" s="3">
-        <v>752300</v>
+        <v>787900</v>
       </c>
       <c r="G35" s="3">
-        <v>776600</v>
+        <v>813400</v>
       </c>
       <c r="H35" s="3">
-        <v>710400</v>
+        <v>744000</v>
       </c>
       <c r="I35" s="3">
-        <v>624500</v>
+        <v>654100</v>
       </c>
       <c r="J35" s="3">
-        <v>331200</v>
+        <v>346900</v>
       </c>
       <c r="K35" s="3">
         <v>97900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>155300</v>
+        <v>162700</v>
       </c>
       <c r="E41" s="3">
-        <v>133700</v>
+        <v>140100</v>
       </c>
       <c r="F41" s="3">
-        <v>120500</v>
+        <v>126200</v>
       </c>
       <c r="G41" s="3">
-        <v>433200</v>
+        <v>454000</v>
       </c>
       <c r="H41" s="3">
-        <v>221700</v>
+        <v>232300</v>
       </c>
       <c r="I41" s="3">
-        <v>389100</v>
+        <v>407700</v>
       </c>
       <c r="J41" s="3">
-        <v>102300</v>
+        <v>107200</v>
       </c>
       <c r="K41" s="3">
         <v>177000</v>
@@ -1703,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>136500</v>
+        <v>143000</v>
       </c>
       <c r="K42" s="3">
         <v>163500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>993000</v>
+        <v>1040600</v>
       </c>
       <c r="E43" s="3">
-        <v>1079200</v>
+        <v>1131000</v>
       </c>
       <c r="F43" s="3">
-        <v>938600</v>
+        <v>983600</v>
       </c>
       <c r="G43" s="3">
-        <v>805800</v>
+        <v>844400</v>
       </c>
       <c r="H43" s="3">
-        <v>801500</v>
+        <v>839900</v>
       </c>
       <c r="I43" s="3">
-        <v>758700</v>
+        <v>795000</v>
       </c>
       <c r="J43" s="3">
-        <v>1628200</v>
+        <v>1706200</v>
       </c>
       <c r="K43" s="3">
         <v>2175800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>796000</v>
+        <v>834200</v>
       </c>
       <c r="E44" s="3">
-        <v>684700</v>
+        <v>717600</v>
       </c>
       <c r="F44" s="3">
-        <v>670100</v>
+        <v>702200</v>
       </c>
       <c r="G44" s="3">
-        <v>679400</v>
+        <v>712000</v>
       </c>
       <c r="H44" s="3">
-        <v>634100</v>
+        <v>664500</v>
       </c>
       <c r="I44" s="3">
-        <v>586800</v>
+        <v>615000</v>
       </c>
       <c r="J44" s="3">
-        <v>662200</v>
+        <v>694000</v>
       </c>
       <c r="K44" s="3">
         <v>1072900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>421400</v>
+        <v>441600</v>
       </c>
       <c r="E45" s="3">
-        <v>357000</v>
+        <v>374100</v>
       </c>
       <c r="F45" s="3">
-        <v>350100</v>
+        <v>366900</v>
       </c>
       <c r="G45" s="3">
-        <v>408300</v>
+        <v>427800</v>
       </c>
       <c r="H45" s="3">
-        <v>496500</v>
+        <v>520300</v>
       </c>
       <c r="I45" s="3">
-        <v>348100</v>
+        <v>364800</v>
       </c>
       <c r="J45" s="3">
-        <v>480800</v>
+        <v>503800</v>
       </c>
       <c r="K45" s="3">
         <v>508400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2365700</v>
+        <v>2479200</v>
       </c>
       <c r="E46" s="3">
-        <v>2254700</v>
+        <v>2362800</v>
       </c>
       <c r="F46" s="3">
-        <v>2079300</v>
+        <v>2179000</v>
       </c>
       <c r="G46" s="3">
-        <v>2326700</v>
+        <v>2438300</v>
       </c>
       <c r="H46" s="3">
-        <v>2153800</v>
+        <v>2257000</v>
       </c>
       <c r="I46" s="3">
-        <v>2082600</v>
+        <v>2182500</v>
       </c>
       <c r="J46" s="3">
-        <v>1948700</v>
+        <v>2042100</v>
       </c>
       <c r="K46" s="3">
         <v>2021200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>290400</v>
+        <v>304300</v>
       </c>
       <c r="E47" s="3">
-        <v>262100</v>
+        <v>274700</v>
       </c>
       <c r="F47" s="3">
-        <v>257400</v>
+        <v>269700</v>
       </c>
       <c r="G47" s="3">
-        <v>247200</v>
+        <v>259100</v>
       </c>
       <c r="H47" s="3">
-        <v>226600</v>
+        <v>237500</v>
       </c>
       <c r="I47" s="3">
-        <v>174800</v>
+        <v>183100</v>
       </c>
       <c r="J47" s="3">
-        <v>157600</v>
+        <v>165100</v>
       </c>
       <c r="K47" s="3">
         <v>29400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>288800</v>
+        <v>302700</v>
       </c>
       <c r="E48" s="3">
-        <v>281900</v>
+        <v>295400</v>
       </c>
       <c r="F48" s="3">
-        <v>288000</v>
+        <v>301900</v>
       </c>
       <c r="G48" s="3">
-        <v>319000</v>
+        <v>334300</v>
       </c>
       <c r="H48" s="3">
-        <v>343600</v>
+        <v>360100</v>
       </c>
       <c r="I48" s="3">
-        <v>353600</v>
+        <v>370600</v>
       </c>
       <c r="J48" s="3">
-        <v>345100</v>
+        <v>361600</v>
       </c>
       <c r="K48" s="3">
         <v>731200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6017700</v>
+        <v>6306300</v>
       </c>
       <c r="E49" s="3">
-        <v>5680200</v>
+        <v>5952500</v>
       </c>
       <c r="F49" s="3">
-        <v>5483700</v>
+        <v>5746600</v>
       </c>
       <c r="G49" s="3">
-        <v>5405700</v>
+        <v>5664900</v>
       </c>
       <c r="H49" s="3">
-        <v>5596500</v>
+        <v>5864800</v>
       </c>
       <c r="I49" s="3">
-        <v>5259200</v>
+        <v>5511400</v>
       </c>
       <c r="J49" s="3">
-        <v>5774300</v>
+        <v>6051100</v>
       </c>
       <c r="K49" s="3">
         <v>10341600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>204100</v>
+        <v>213900</v>
       </c>
       <c r="E52" s="3">
-        <v>177700</v>
+        <v>186200</v>
       </c>
       <c r="F52" s="3">
-        <v>168300</v>
+        <v>176400</v>
       </c>
       <c r="G52" s="3">
-        <v>193800</v>
+        <v>203100</v>
       </c>
       <c r="H52" s="3">
-        <v>240200</v>
+        <v>251800</v>
       </c>
       <c r="I52" s="3">
-        <v>288700</v>
+        <v>302600</v>
       </c>
       <c r="J52" s="3">
-        <v>335400</v>
+        <v>351500</v>
       </c>
       <c r="K52" s="3">
         <v>535600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9166800</v>
+        <v>9606300</v>
       </c>
       <c r="E54" s="3">
-        <v>8656500</v>
+        <v>9071500</v>
       </c>
       <c r="F54" s="3">
-        <v>8276700</v>
+        <v>8673500</v>
       </c>
       <c r="G54" s="3">
-        <v>8492500</v>
+        <v>8899700</v>
       </c>
       <c r="H54" s="3">
-        <v>8560700</v>
+        <v>8971200</v>
       </c>
       <c r="I54" s="3">
-        <v>8159000</v>
+        <v>8550100</v>
       </c>
       <c r="J54" s="3">
-        <v>7901300</v>
+        <v>8280100</v>
       </c>
       <c r="K54" s="3">
         <v>7955800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>805400</v>
+        <v>844000</v>
       </c>
       <c r="E57" s="3">
-        <v>824200</v>
+        <v>863700</v>
       </c>
       <c r="F57" s="3">
-        <v>729400</v>
+        <v>764400</v>
       </c>
       <c r="G57" s="3">
-        <v>804600</v>
+        <v>843200</v>
       </c>
       <c r="H57" s="3">
-        <v>808800</v>
+        <v>847600</v>
       </c>
       <c r="I57" s="3">
-        <v>770100</v>
+        <v>807000</v>
       </c>
       <c r="J57" s="3">
-        <v>812700</v>
+        <v>851700</v>
       </c>
       <c r="K57" s="3">
         <v>1817900</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>82400</v>
+        <v>86400</v>
       </c>
       <c r="E58" s="3">
-        <v>253200</v>
+        <v>265300</v>
       </c>
       <c r="F58" s="3">
-        <v>88900</v>
+        <v>93200</v>
       </c>
       <c r="G58" s="3">
-        <v>139500</v>
+        <v>146200</v>
       </c>
       <c r="H58" s="3">
-        <v>167700</v>
+        <v>175700</v>
       </c>
       <c r="I58" s="3">
-        <v>58400</v>
+        <v>61200</v>
       </c>
       <c r="J58" s="3">
-        <v>388000</v>
+        <v>406600</v>
       </c>
       <c r="K58" s="3">
         <v>77900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1206900</v>
+        <v>1264700</v>
       </c>
       <c r="E59" s="3">
-        <v>1188400</v>
+        <v>1245400</v>
       </c>
       <c r="F59" s="3">
-        <v>1143700</v>
+        <v>1198500</v>
       </c>
       <c r="G59" s="3">
-        <v>1074000</v>
+        <v>1125500</v>
       </c>
       <c r="H59" s="3">
-        <v>1280600</v>
+        <v>1342000</v>
       </c>
       <c r="I59" s="3">
-        <v>1189200</v>
+        <v>1246300</v>
       </c>
       <c r="J59" s="3">
-        <v>1328200</v>
+        <v>1391900</v>
       </c>
       <c r="K59" s="3">
         <v>2383800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2094700</v>
+        <v>2195100</v>
       </c>
       <c r="E60" s="3">
-        <v>2265700</v>
+        <v>2374300</v>
       </c>
       <c r="F60" s="3">
-        <v>1962100</v>
+        <v>2056100</v>
       </c>
       <c r="G60" s="3">
-        <v>2018100</v>
+        <v>2114800</v>
       </c>
       <c r="H60" s="3">
-        <v>2257100</v>
+        <v>2365300</v>
       </c>
       <c r="I60" s="3">
-        <v>2017700</v>
+        <v>2114500</v>
       </c>
       <c r="J60" s="3">
-        <v>2528900</v>
+        <v>2650100</v>
       </c>
       <c r="K60" s="3">
         <v>2249400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1610600</v>
+        <v>1687900</v>
       </c>
       <c r="E61" s="3">
-        <v>1054800</v>
+        <v>1105300</v>
       </c>
       <c r="F61" s="3">
-        <v>1263400</v>
+        <v>1323900</v>
       </c>
       <c r="G61" s="3">
-        <v>1248400</v>
+        <v>1308300</v>
       </c>
       <c r="H61" s="3">
-        <v>1377100</v>
+        <v>1443200</v>
       </c>
       <c r="I61" s="3">
-        <v>1887800</v>
+        <v>1978300</v>
       </c>
       <c r="J61" s="3">
-        <v>1693900</v>
+        <v>1775100</v>
       </c>
       <c r="K61" s="3">
         <v>2378500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>461800</v>
+        <v>483900</v>
       </c>
       <c r="E62" s="3">
-        <v>481000</v>
+        <v>504100</v>
       </c>
       <c r="F62" s="3">
-        <v>546500</v>
+        <v>572700</v>
       </c>
       <c r="G62" s="3">
-        <v>531000</v>
+        <v>556400</v>
       </c>
       <c r="H62" s="3">
-        <v>509200</v>
+        <v>533600</v>
       </c>
       <c r="I62" s="3">
-        <v>630200</v>
+        <v>660500</v>
       </c>
       <c r="J62" s="3">
-        <v>733000</v>
+        <v>768100</v>
       </c>
       <c r="K62" s="3">
         <v>1604300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4167100</v>
+        <v>4366900</v>
       </c>
       <c r="E66" s="3">
-        <v>3801500</v>
+        <v>3983700</v>
       </c>
       <c r="F66" s="3">
-        <v>3771900</v>
+        <v>3952800</v>
       </c>
       <c r="G66" s="3">
-        <v>3797500</v>
+        <v>3979500</v>
       </c>
       <c r="H66" s="3">
-        <v>4143400</v>
+        <v>4342100</v>
       </c>
       <c r="I66" s="3">
-        <v>4535800</v>
+        <v>4753300</v>
       </c>
       <c r="J66" s="3">
-        <v>4955800</v>
+        <v>5193400</v>
       </c>
       <c r="K66" s="3">
         <v>5408400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3310200</v>
+        <v>3468900</v>
       </c>
       <c r="E72" s="3">
-        <v>3087700</v>
+        <v>3235700</v>
       </c>
       <c r="F72" s="3">
-        <v>2755800</v>
+        <v>2887900</v>
       </c>
       <c r="G72" s="3">
-        <v>2744500</v>
+        <v>2876000</v>
       </c>
       <c r="H72" s="3">
-        <v>2220600</v>
+        <v>2327100</v>
       </c>
       <c r="I72" s="3">
-        <v>1711100</v>
+        <v>1793100</v>
       </c>
       <c r="J72" s="3">
-        <v>1127100</v>
+        <v>1181200</v>
       </c>
       <c r="K72" s="3">
         <v>1656900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4999700</v>
+        <v>5239400</v>
       </c>
       <c r="E76" s="3">
-        <v>4855000</v>
+        <v>5087700</v>
       </c>
       <c r="F76" s="3">
-        <v>4504800</v>
+        <v>4720800</v>
       </c>
       <c r="G76" s="3">
-        <v>4695100</v>
+        <v>4920100</v>
       </c>
       <c r="H76" s="3">
-        <v>4417300</v>
+        <v>4629100</v>
       </c>
       <c r="I76" s="3">
-        <v>3623200</v>
+        <v>3796900</v>
       </c>
       <c r="J76" s="3">
-        <v>2945500</v>
+        <v>3086800</v>
       </c>
       <c r="K76" s="3">
         <v>2547400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>918000</v>
+        <v>961400</v>
       </c>
       <c r="E81" s="3">
-        <v>829400</v>
+        <v>868700</v>
       </c>
       <c r="F81" s="3">
-        <v>752300</v>
+        <v>787900</v>
       </c>
       <c r="G81" s="3">
-        <v>776600</v>
+        <v>813400</v>
       </c>
       <c r="H81" s="3">
-        <v>710400</v>
+        <v>744000</v>
       </c>
       <c r="I81" s="3">
-        <v>624500</v>
+        <v>654100</v>
       </c>
       <c r="J81" s="3">
-        <v>331200</v>
+        <v>346900</v>
       </c>
       <c r="K81" s="3">
         <v>97900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>285100</v>
+        <v>298600</v>
       </c>
       <c r="E83" s="3">
-        <v>285400</v>
+        <v>298900</v>
       </c>
       <c r="F83" s="3">
-        <v>274100</v>
+        <v>287100</v>
       </c>
       <c r="G83" s="3">
-        <v>290700</v>
+        <v>304500</v>
       </c>
       <c r="H83" s="3">
-        <v>308100</v>
+        <v>322700</v>
       </c>
       <c r="I83" s="3">
-        <v>322800</v>
+        <v>338100</v>
       </c>
       <c r="J83" s="3">
-        <v>316800</v>
+        <v>331800</v>
       </c>
       <c r="K83" s="3">
         <v>172200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1187400</v>
+        <v>1243600</v>
       </c>
       <c r="E89" s="3">
-        <v>1085200</v>
+        <v>1136600</v>
       </c>
       <c r="F89" s="3">
-        <v>987200</v>
+        <v>1034000</v>
       </c>
       <c r="G89" s="3">
-        <v>968700</v>
+        <v>1014600</v>
       </c>
       <c r="H89" s="3">
-        <v>936900</v>
+        <v>981300</v>
       </c>
       <c r="I89" s="3">
-        <v>853700</v>
+        <v>894200</v>
       </c>
       <c r="J89" s="3">
-        <v>487800</v>
+        <v>510900</v>
       </c>
       <c r="K89" s="3">
         <v>456400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117800</v>
+        <v>-123300</v>
       </c>
       <c r="E91" s="3">
-        <v>-104100</v>
+        <v>-109000</v>
       </c>
       <c r="F91" s="3">
-        <v>-81900</v>
+        <v>-85700</v>
       </c>
       <c r="G91" s="3">
-        <v>-120300</v>
+        <v>-126000</v>
       </c>
       <c r="H91" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="I91" s="3">
-        <v>-131900</v>
+        <v>-138100</v>
       </c>
       <c r="J91" s="3">
-        <v>-103200</v>
+        <v>-108000</v>
       </c>
       <c r="K91" s="3">
         <v>-48000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-690900</v>
+        <v>-723700</v>
       </c>
       <c r="E94" s="3">
-        <v>-419600</v>
+        <v>-439500</v>
       </c>
       <c r="F94" s="3">
-        <v>-430400</v>
+        <v>-450800</v>
       </c>
       <c r="G94" s="3">
-        <v>-278100</v>
+        <v>-291300</v>
       </c>
       <c r="H94" s="3">
-        <v>-186900</v>
+        <v>-195700</v>
       </c>
       <c r="I94" s="3">
-        <v>-233400</v>
+        <v>-244400</v>
       </c>
       <c r="J94" s="3">
-        <v>-169900</v>
+        <v>-178000</v>
       </c>
       <c r="K94" s="3">
         <v>-2120300</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-457200</v>
+        <v>-478800</v>
       </c>
       <c r="E100" s="3">
-        <v>-638800</v>
+        <v>-669000</v>
       </c>
       <c r="F100" s="3">
-        <v>-859700</v>
+        <v>-900400</v>
       </c>
       <c r="G100" s="3">
-        <v>-484200</v>
+        <v>-507100</v>
       </c>
       <c r="H100" s="3">
-        <v>-947400</v>
+        <v>-992200</v>
       </c>
       <c r="I100" s="3">
-        <v>-300900</v>
+        <v>-315100</v>
       </c>
       <c r="J100" s="3">
-        <v>-324100</v>
+        <v>-339400</v>
       </c>
       <c r="K100" s="3">
         <v>1700900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17600</v>
+        <v>-18500</v>
       </c>
       <c r="E101" s="3">
-        <v>-13600</v>
+        <v>-14300</v>
       </c>
       <c r="F101" s="3">
-        <v>-10100</v>
+        <v>-10600</v>
       </c>
       <c r="G101" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="H101" s="3">
-        <v>29800</v>
+        <v>31200</v>
       </c>
       <c r="I101" s="3">
-        <v>-7300</v>
+        <v>-7700</v>
       </c>
       <c r="J101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21600</v>
+        <v>22600</v>
       </c>
       <c r="E102" s="3">
-        <v>13200</v>
+        <v>13900</v>
       </c>
       <c r="F102" s="3">
-        <v>-313000</v>
+        <v>-327800</v>
       </c>
       <c r="G102" s="3">
-        <v>211700</v>
+        <v>221700</v>
       </c>
       <c r="H102" s="3">
-        <v>-167500</v>
+        <v>-175400</v>
       </c>
       <c r="I102" s="3">
-        <v>312100</v>
+        <v>326900</v>
       </c>
       <c r="J102" s="3">
-        <v>-5000</v>
+        <v>-5300</v>
       </c>
       <c r="K102" s="3">
         <v>39000</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>GIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41912</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9217700</v>
+        <v>9364200</v>
       </c>
       <c r="E8" s="3">
-        <v>8757700</v>
+        <v>9323500</v>
       </c>
       <c r="F8" s="3">
-        <v>8254100</v>
+        <v>8858200</v>
       </c>
       <c r="G8" s="3">
-        <v>8130900</v>
+        <v>8348700</v>
       </c>
       <c r="H8" s="3">
-        <v>7829400</v>
+        <v>8224200</v>
       </c>
       <c r="I8" s="3">
-        <v>7991200</v>
+        <v>7919200</v>
       </c>
       <c r="J8" s="3">
+        <v>8082900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7675300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3551700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3245000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>959900</v>
+        <v>6822700</v>
       </c>
       <c r="E9" s="3">
-        <v>923600</v>
+        <v>6481800</v>
       </c>
       <c r="F9" s="3">
-        <v>898600</v>
+        <v>6204800</v>
       </c>
       <c r="G9" s="3">
-        <v>905200</v>
+        <v>5845400</v>
       </c>
       <c r="H9" s="3">
-        <v>853100</v>
+        <v>5730800</v>
       </c>
       <c r="I9" s="3">
-        <v>930200</v>
+        <v>5521100</v>
       </c>
       <c r="J9" s="3">
+        <v>5726000</v>
+      </c>
+      <c r="K9" s="3">
         <v>975400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3145700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2835500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8257800</v>
+        <v>2541500</v>
       </c>
       <c r="E10" s="3">
-        <v>7834200</v>
+        <v>2841700</v>
       </c>
       <c r="F10" s="3">
-        <v>7355500</v>
+        <v>2653400</v>
       </c>
       <c r="G10" s="3">
-        <v>7225700</v>
+        <v>2503300</v>
       </c>
       <c r="H10" s="3">
-        <v>6976300</v>
+        <v>2493400</v>
       </c>
       <c r="I10" s="3">
-        <v>7061100</v>
+        <v>2398100</v>
       </c>
       <c r="J10" s="3">
+        <v>2356900</v>
+      </c>
+      <c r="K10" s="3">
         <v>6699900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>406000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>409500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>58900</v>
+        <v>192600</v>
       </c>
       <c r="E14" s="3">
-        <v>104900</v>
+        <v>59600</v>
       </c>
       <c r="F14" s="3">
-        <v>75300</v>
+        <v>106100</v>
       </c>
       <c r="G14" s="3">
-        <v>22100</v>
+        <v>76200</v>
       </c>
       <c r="H14" s="3">
-        <v>31400</v>
+        <v>22400</v>
       </c>
       <c r="I14" s="3">
-        <v>96900</v>
+        <v>31700</v>
       </c>
       <c r="J14" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K14" s="3">
         <v>257600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>189800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,15 +972,18 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>60400</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7941400</v>
+        <v>8196900</v>
       </c>
       <c r="E17" s="3">
-        <v>7623700</v>
+        <v>8032500</v>
       </c>
       <c r="F17" s="3">
-        <v>7174900</v>
+        <v>7711200</v>
       </c>
       <c r="G17" s="3">
-        <v>7025200</v>
+        <v>7257200</v>
       </c>
       <c r="H17" s="3">
-        <v>6818300</v>
+        <v>7105800</v>
       </c>
       <c r="I17" s="3">
-        <v>7131000</v>
+        <v>6896500</v>
       </c>
       <c r="J17" s="3">
+        <v>7212800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7197600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3356000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2831800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1276300</v>
+        <v>1167300</v>
       </c>
       <c r="E18" s="3">
-        <v>1134000</v>
+        <v>1290900</v>
       </c>
       <c r="F18" s="3">
-        <v>1079100</v>
+        <v>1147000</v>
       </c>
       <c r="G18" s="3">
-        <v>1105700</v>
+        <v>1091500</v>
       </c>
       <c r="H18" s="3">
-        <v>1011100</v>
+        <v>1118400</v>
       </c>
       <c r="I18" s="3">
-        <v>860200</v>
+        <v>1022700</v>
       </c>
       <c r="J18" s="3">
+        <v>870100</v>
+      </c>
+      <c r="K18" s="3">
         <v>477700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>195700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>413200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,8 +1082,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,42 +1115,48 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1574200</v>
+        <v>1602000</v>
       </c>
       <c r="E21" s="3">
-        <v>1432200</v>
+        <v>1592400</v>
       </c>
       <c r="F21" s="3">
-        <v>1365600</v>
+        <v>1448800</v>
       </c>
       <c r="G21" s="3">
-        <v>1409500</v>
+        <v>1381400</v>
       </c>
       <c r="H21" s="3">
-        <v>1333200</v>
+        <v>1425800</v>
       </c>
       <c r="I21" s="3">
-        <v>1197600</v>
+        <v>1348600</v>
       </c>
       <c r="J21" s="3">
+        <v>1211500</v>
+      </c>
+      <c r="K21" s="3">
         <v>808700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>368200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>585600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1276300</v>
+        <v>1167300</v>
       </c>
       <c r="E23" s="3">
-        <v>1134000</v>
+        <v>1290900</v>
       </c>
       <c r="F23" s="3">
-        <v>1079100</v>
+        <v>1147000</v>
       </c>
       <c r="G23" s="3">
-        <v>1105700</v>
+        <v>1091500</v>
       </c>
       <c r="H23" s="3">
-        <v>1011100</v>
+        <v>1118400</v>
       </c>
       <c r="I23" s="3">
-        <v>860200</v>
+        <v>1022700</v>
       </c>
       <c r="J23" s="3">
+        <v>870100</v>
+      </c>
+      <c r="K23" s="3">
         <v>477700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>195700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>413200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>314900</v>
+        <v>306700</v>
       </c>
       <c r="E24" s="3">
-        <v>265300</v>
+        <v>318500</v>
       </c>
       <c r="F24" s="3">
-        <v>291300</v>
+        <v>268300</v>
       </c>
       <c r="G24" s="3">
-        <v>292300</v>
+        <v>294600</v>
       </c>
       <c r="H24" s="3">
-        <v>267100</v>
+        <v>295700</v>
       </c>
       <c r="I24" s="3">
-        <v>206100</v>
+        <v>270200</v>
       </c>
       <c r="J24" s="3">
+        <v>208500</v>
+      </c>
+      <c r="K24" s="3">
         <v>130800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>97800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>76600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>961400</v>
+        <v>860600</v>
       </c>
       <c r="E26" s="3">
-        <v>868700</v>
+        <v>972400</v>
       </c>
       <c r="F26" s="3">
-        <v>787900</v>
+        <v>878700</v>
       </c>
       <c r="G26" s="3">
-        <v>813400</v>
+        <v>796900</v>
       </c>
       <c r="H26" s="3">
-        <v>744000</v>
+        <v>822700</v>
       </c>
       <c r="I26" s="3">
-        <v>654100</v>
+        <v>752500</v>
       </c>
       <c r="J26" s="3">
+        <v>661600</v>
+      </c>
+      <c r="K26" s="3">
         <v>346900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>97900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>336600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>961400</v>
+        <v>860600</v>
       </c>
       <c r="E27" s="3">
-        <v>868700</v>
+        <v>972400</v>
       </c>
       <c r="F27" s="3">
-        <v>787900</v>
+        <v>878700</v>
       </c>
       <c r="G27" s="3">
-        <v>813400</v>
+        <v>796900</v>
       </c>
       <c r="H27" s="3">
-        <v>744000</v>
+        <v>822700</v>
       </c>
       <c r="I27" s="3">
-        <v>654100</v>
+        <v>752500</v>
       </c>
       <c r="J27" s="3">
+        <v>661600</v>
+      </c>
+      <c r="K27" s="3">
         <v>346900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>97900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>336400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,9 +1511,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1478,42 +1547,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>961400</v>
+        <v>860600</v>
       </c>
       <c r="E33" s="3">
-        <v>868700</v>
+        <v>972400</v>
       </c>
       <c r="F33" s="3">
-        <v>787900</v>
+        <v>878700</v>
       </c>
       <c r="G33" s="3">
-        <v>813400</v>
+        <v>796900</v>
       </c>
       <c r="H33" s="3">
-        <v>744000</v>
+        <v>822700</v>
       </c>
       <c r="I33" s="3">
-        <v>654100</v>
+        <v>752500</v>
       </c>
       <c r="J33" s="3">
+        <v>661600</v>
+      </c>
+      <c r="K33" s="3">
         <v>346900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>97900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>336400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>961400</v>
+        <v>860600</v>
       </c>
       <c r="E35" s="3">
-        <v>868700</v>
+        <v>972400</v>
       </c>
       <c r="F35" s="3">
-        <v>787900</v>
+        <v>878700</v>
       </c>
       <c r="G35" s="3">
-        <v>813400</v>
+        <v>796900</v>
       </c>
       <c r="H35" s="3">
-        <v>744000</v>
+        <v>822700</v>
       </c>
       <c r="I35" s="3">
-        <v>654100</v>
+        <v>752500</v>
       </c>
       <c r="J35" s="3">
+        <v>661600</v>
+      </c>
+      <c r="K35" s="3">
         <v>346900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>97900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>336400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41912</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162700</v>
+        <v>1314800</v>
       </c>
       <c r="E41" s="3">
-        <v>140100</v>
+        <v>164600</v>
       </c>
       <c r="F41" s="3">
-        <v>126200</v>
+        <v>141700</v>
       </c>
       <c r="G41" s="3">
-        <v>454000</v>
+        <v>127700</v>
       </c>
       <c r="H41" s="3">
-        <v>232300</v>
+        <v>459200</v>
       </c>
       <c r="I41" s="3">
-        <v>407700</v>
+        <v>235000</v>
       </c>
       <c r="J41" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K41" s="3">
         <v>107200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>177000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>143000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>163500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1040600</v>
+        <v>961200</v>
       </c>
       <c r="E43" s="3">
-        <v>1131000</v>
+        <v>1052600</v>
       </c>
       <c r="F43" s="3">
-        <v>983600</v>
+        <v>1144000</v>
       </c>
       <c r="G43" s="3">
-        <v>844400</v>
+        <v>994900</v>
       </c>
       <c r="H43" s="3">
-        <v>839900</v>
+        <v>854100</v>
       </c>
       <c r="I43" s="3">
-        <v>795000</v>
+        <v>849500</v>
       </c>
       <c r="J43" s="3">
+        <v>804100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1706200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2175800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>380100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>834200</v>
+        <v>827800</v>
       </c>
       <c r="E44" s="3">
-        <v>717600</v>
+        <v>843700</v>
       </c>
       <c r="F44" s="3">
-        <v>702200</v>
+        <v>725800</v>
       </c>
       <c r="G44" s="3">
-        <v>712000</v>
+        <v>710300</v>
       </c>
       <c r="H44" s="3">
-        <v>664500</v>
+        <v>720200</v>
       </c>
       <c r="I44" s="3">
-        <v>615000</v>
+        <v>672100</v>
       </c>
       <c r="J44" s="3">
+        <v>622000</v>
+      </c>
+      <c r="K44" s="3">
         <v>694000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1072900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>441600</v>
+        <v>696000</v>
       </c>
       <c r="E45" s="3">
-        <v>374100</v>
+        <v>446700</v>
       </c>
       <c r="F45" s="3">
-        <v>366900</v>
+        <v>378400</v>
       </c>
       <c r="G45" s="3">
-        <v>427800</v>
+        <v>371100</v>
       </c>
       <c r="H45" s="3">
-        <v>520300</v>
+        <v>432800</v>
       </c>
       <c r="I45" s="3">
-        <v>364800</v>
+        <v>526300</v>
       </c>
       <c r="J45" s="3">
+        <v>369000</v>
+      </c>
+      <c r="K45" s="3">
         <v>503800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>508400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>267400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2479200</v>
+        <v>3799800</v>
       </c>
       <c r="E46" s="3">
-        <v>2362800</v>
+        <v>2507600</v>
       </c>
       <c r="F46" s="3">
-        <v>2179000</v>
+        <v>2389900</v>
       </c>
       <c r="G46" s="3">
-        <v>2438300</v>
+        <v>2204000</v>
       </c>
       <c r="H46" s="3">
-        <v>2257000</v>
+        <v>2466200</v>
       </c>
       <c r="I46" s="3">
-        <v>2182500</v>
+        <v>2282900</v>
       </c>
       <c r="J46" s="3">
+        <v>2207500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2042100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2021200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1060300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>304300</v>
+        <v>304800</v>
       </c>
       <c r="E47" s="3">
-        <v>274700</v>
+        <v>307800</v>
       </c>
       <c r="F47" s="3">
-        <v>269700</v>
+        <v>277800</v>
       </c>
       <c r="G47" s="3">
-        <v>259100</v>
+        <v>272800</v>
       </c>
       <c r="H47" s="3">
-        <v>237500</v>
+        <v>262000</v>
       </c>
       <c r="I47" s="3">
-        <v>183100</v>
+        <v>240200</v>
       </c>
       <c r="J47" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K47" s="3">
         <v>165100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>302700</v>
+        <v>800500</v>
       </c>
       <c r="E48" s="3">
-        <v>295400</v>
+        <v>306100</v>
       </c>
       <c r="F48" s="3">
-        <v>301900</v>
+        <v>298800</v>
       </c>
       <c r="G48" s="3">
-        <v>334300</v>
+        <v>305300</v>
       </c>
       <c r="H48" s="3">
-        <v>360100</v>
+        <v>338200</v>
       </c>
       <c r="I48" s="3">
-        <v>370600</v>
+        <v>364200</v>
       </c>
       <c r="J48" s="3">
+        <v>374800</v>
+      </c>
+      <c r="K48" s="3">
         <v>361600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>731200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>384000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6306300</v>
+        <v>6852500</v>
       </c>
       <c r="E49" s="3">
-        <v>5952500</v>
+        <v>6378600</v>
       </c>
       <c r="F49" s="3">
-        <v>5746600</v>
+        <v>6020800</v>
       </c>
       <c r="G49" s="3">
-        <v>5664900</v>
+        <v>5812500</v>
       </c>
       <c r="H49" s="3">
-        <v>5864800</v>
+        <v>5729900</v>
       </c>
       <c r="I49" s="3">
-        <v>5511400</v>
+        <v>5932100</v>
       </c>
       <c r="J49" s="3">
+        <v>5574600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6051100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10341600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2561900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>213900</v>
+        <v>213400</v>
       </c>
       <c r="E52" s="3">
-        <v>186200</v>
+        <v>216300</v>
       </c>
       <c r="F52" s="3">
-        <v>176400</v>
+        <v>188300</v>
       </c>
       <c r="G52" s="3">
-        <v>203100</v>
+        <v>178400</v>
       </c>
       <c r="H52" s="3">
-        <v>251800</v>
+        <v>205400</v>
       </c>
       <c r="I52" s="3">
-        <v>302600</v>
+        <v>254600</v>
       </c>
       <c r="J52" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K52" s="3">
         <v>351500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>535600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>42600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9606300</v>
+        <v>11971000</v>
       </c>
       <c r="E54" s="3">
-        <v>9071500</v>
+        <v>9716500</v>
       </c>
       <c r="F54" s="3">
-        <v>8673500</v>
+        <v>9175500</v>
       </c>
       <c r="G54" s="3">
-        <v>8899700</v>
+        <v>8773000</v>
       </c>
       <c r="H54" s="3">
-        <v>8971200</v>
+        <v>9001800</v>
       </c>
       <c r="I54" s="3">
-        <v>8550100</v>
+        <v>9074100</v>
       </c>
       <c r="J54" s="3">
+        <v>8648200</v>
+      </c>
+      <c r="K54" s="3">
         <v>8280100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7955800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3577900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>844000</v>
+        <v>789800</v>
       </c>
       <c r="E57" s="3">
-        <v>863700</v>
+        <v>853600</v>
       </c>
       <c r="F57" s="3">
-        <v>764400</v>
+        <v>873600</v>
       </c>
       <c r="G57" s="3">
-        <v>843200</v>
+        <v>773100</v>
       </c>
       <c r="H57" s="3">
-        <v>847600</v>
+        <v>852900</v>
       </c>
       <c r="I57" s="3">
-        <v>807000</v>
+        <v>857300</v>
       </c>
       <c r="J57" s="3">
+        <v>816300</v>
+      </c>
+      <c r="K57" s="3">
         <v>851700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1817900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>233300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>86400</v>
+        <v>376800</v>
       </c>
       <c r="E58" s="3">
-        <v>265300</v>
+        <v>87400</v>
       </c>
       <c r="F58" s="3">
-        <v>93200</v>
+        <v>268300</v>
       </c>
       <c r="G58" s="3">
-        <v>146200</v>
+        <v>94300</v>
       </c>
       <c r="H58" s="3">
-        <v>175700</v>
+        <v>147800</v>
       </c>
       <c r="I58" s="3">
-        <v>61200</v>
+        <v>177800</v>
       </c>
       <c r="J58" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K58" s="3">
         <v>406600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>77900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>746400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1264700</v>
+        <v>1647700</v>
       </c>
       <c r="E59" s="3">
-        <v>1245400</v>
+        <v>1279200</v>
       </c>
       <c r="F59" s="3">
-        <v>1198500</v>
+        <v>1259600</v>
       </c>
       <c r="G59" s="3">
-        <v>1125500</v>
+        <v>1212300</v>
       </c>
       <c r="H59" s="3">
-        <v>1342000</v>
+        <v>1138400</v>
       </c>
       <c r="I59" s="3">
-        <v>1246300</v>
+        <v>1357400</v>
       </c>
       <c r="J59" s="3">
+        <v>1260600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1391900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2383800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>495800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2195100</v>
+        <v>2814300</v>
       </c>
       <c r="E60" s="3">
-        <v>2374300</v>
+        <v>2220300</v>
       </c>
       <c r="F60" s="3">
-        <v>2056100</v>
+        <v>2401600</v>
       </c>
       <c r="G60" s="3">
-        <v>2114800</v>
+        <v>2079700</v>
       </c>
       <c r="H60" s="3">
-        <v>2365300</v>
+        <v>2139100</v>
       </c>
       <c r="I60" s="3">
-        <v>2114500</v>
+        <v>2392400</v>
       </c>
       <c r="J60" s="3">
+        <v>2138700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2650100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2249400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1475400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1687900</v>
+        <v>3059300</v>
       </c>
       <c r="E61" s="3">
-        <v>1105300</v>
+        <v>1707200</v>
       </c>
       <c r="F61" s="3">
-        <v>1323900</v>
+        <v>1118000</v>
       </c>
       <c r="G61" s="3">
-        <v>1308300</v>
+        <v>1339100</v>
       </c>
       <c r="H61" s="3">
-        <v>1443200</v>
+        <v>1323300</v>
       </c>
       <c r="I61" s="3">
-        <v>1978300</v>
+        <v>1459700</v>
       </c>
       <c r="J61" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1775100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2378500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>84300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>483900</v>
+        <v>505300</v>
       </c>
       <c r="E62" s="3">
-        <v>504100</v>
+        <v>489500</v>
       </c>
       <c r="F62" s="3">
-        <v>572700</v>
+        <v>509800</v>
       </c>
       <c r="G62" s="3">
-        <v>556400</v>
+        <v>579300</v>
       </c>
       <c r="H62" s="3">
-        <v>533600</v>
+        <v>562800</v>
       </c>
       <c r="I62" s="3">
-        <v>660500</v>
+        <v>539700</v>
       </c>
       <c r="J62" s="3">
+        <v>668000</v>
+      </c>
+      <c r="K62" s="3">
         <v>768100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1604300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>401400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4366900</v>
+        <v>6378900</v>
       </c>
       <c r="E66" s="3">
-        <v>3983700</v>
+        <v>4417000</v>
       </c>
       <c r="F66" s="3">
-        <v>3952800</v>
+        <v>4029400</v>
       </c>
       <c r="G66" s="3">
-        <v>3979500</v>
+        <v>3998100</v>
       </c>
       <c r="H66" s="3">
-        <v>4342100</v>
+        <v>4025200</v>
       </c>
       <c r="I66" s="3">
-        <v>4753300</v>
+        <v>4391900</v>
       </c>
       <c r="J66" s="3">
+        <v>4807800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5193400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5408400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1773200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3468900</v>
+        <v>3621000</v>
       </c>
       <c r="E72" s="3">
-        <v>3235700</v>
+        <v>3508700</v>
       </c>
       <c r="F72" s="3">
-        <v>2887900</v>
+        <v>3272800</v>
       </c>
       <c r="G72" s="3">
-        <v>2876000</v>
+        <v>2921000</v>
       </c>
       <c r="H72" s="3">
-        <v>2327100</v>
+        <v>2909000</v>
       </c>
       <c r="I72" s="3">
-        <v>1793100</v>
+        <v>2353800</v>
       </c>
       <c r="J72" s="3">
+        <v>1813700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1181200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1656900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>812500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5239400</v>
+        <v>5592100</v>
       </c>
       <c r="E76" s="3">
-        <v>5087700</v>
+        <v>5299500</v>
       </c>
       <c r="F76" s="3">
-        <v>4720800</v>
+        <v>5146100</v>
       </c>
       <c r="G76" s="3">
-        <v>4920100</v>
+        <v>4774900</v>
       </c>
       <c r="H76" s="3">
-        <v>4629100</v>
+        <v>4976600</v>
       </c>
       <c r="I76" s="3">
-        <v>3796900</v>
+        <v>4682200</v>
       </c>
       <c r="J76" s="3">
+        <v>3840400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3086800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2547400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1804700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41912</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>961400</v>
+        <v>860600</v>
       </c>
       <c r="E81" s="3">
-        <v>868700</v>
+        <v>972400</v>
       </c>
       <c r="F81" s="3">
-        <v>787900</v>
+        <v>878700</v>
       </c>
       <c r="G81" s="3">
-        <v>813400</v>
+        <v>796900</v>
       </c>
       <c r="H81" s="3">
-        <v>744000</v>
+        <v>822700</v>
       </c>
       <c r="I81" s="3">
-        <v>654100</v>
+        <v>752500</v>
       </c>
       <c r="J81" s="3">
+        <v>661600</v>
+      </c>
+      <c r="K81" s="3">
         <v>346900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>97900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>336400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>298600</v>
+        <v>435500</v>
       </c>
       <c r="E83" s="3">
-        <v>298900</v>
+        <v>302000</v>
       </c>
       <c r="F83" s="3">
-        <v>287100</v>
+        <v>302300</v>
       </c>
       <c r="G83" s="3">
-        <v>304500</v>
+        <v>290400</v>
       </c>
       <c r="H83" s="3">
-        <v>322700</v>
+        <v>308000</v>
       </c>
       <c r="I83" s="3">
-        <v>338100</v>
+        <v>326400</v>
       </c>
       <c r="J83" s="3">
+        <v>342000</v>
+      </c>
+      <c r="K83" s="3">
         <v>331800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>172200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>171600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1243600</v>
+        <v>1492300</v>
       </c>
       <c r="E89" s="3">
-        <v>1136600</v>
+        <v>1257800</v>
       </c>
       <c r="F89" s="3">
-        <v>1034000</v>
+        <v>1149700</v>
       </c>
       <c r="G89" s="3">
-        <v>1014600</v>
+        <v>1045800</v>
       </c>
       <c r="H89" s="3">
-        <v>981300</v>
+        <v>1026200</v>
       </c>
       <c r="I89" s="3">
-        <v>894200</v>
+        <v>992500</v>
       </c>
       <c r="J89" s="3">
+        <v>904400</v>
+      </c>
+      <c r="K89" s="3">
         <v>510900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>456400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>437900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-123300</v>
+        <v>-98900</v>
       </c>
       <c r="E91" s="3">
-        <v>-109000</v>
+        <v>-124800</v>
       </c>
       <c r="F91" s="3">
-        <v>-85700</v>
+        <v>-110300</v>
       </c>
       <c r="G91" s="3">
-        <v>-126000</v>
+        <v>-86700</v>
       </c>
       <c r="H91" s="3">
-        <v>-93200</v>
+        <v>-127400</v>
       </c>
       <c r="I91" s="3">
-        <v>-138100</v>
+        <v>-94300</v>
       </c>
       <c r="J91" s="3">
+        <v>-139700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-108000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-92000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-723700</v>
+        <v>-440700</v>
       </c>
       <c r="E94" s="3">
-        <v>-439500</v>
+        <v>-732000</v>
       </c>
       <c r="F94" s="3">
-        <v>-450800</v>
+        <v>-444500</v>
       </c>
       <c r="G94" s="3">
-        <v>-291300</v>
+        <v>-455900</v>
       </c>
       <c r="H94" s="3">
-        <v>-195700</v>
+        <v>-294600</v>
       </c>
       <c r="I94" s="3">
-        <v>-244400</v>
+        <v>-197900</v>
       </c>
       <c r="J94" s="3">
+        <v>-247200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-178000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2120300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-478800</v>
+        <v>72500</v>
       </c>
       <c r="E100" s="3">
-        <v>-669000</v>
+        <v>-484300</v>
       </c>
       <c r="F100" s="3">
-        <v>-900400</v>
+        <v>-676700</v>
       </c>
       <c r="G100" s="3">
-        <v>-507100</v>
+        <v>-910700</v>
       </c>
       <c r="H100" s="3">
-        <v>-992200</v>
+        <v>-512900</v>
       </c>
       <c r="I100" s="3">
-        <v>-315100</v>
+        <v>-1003600</v>
       </c>
       <c r="J100" s="3">
+        <v>-318800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-339400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-377700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18500</v>
+        <v>26100</v>
       </c>
       <c r="E101" s="3">
-        <v>-14300</v>
+        <v>-18700</v>
       </c>
       <c r="F101" s="3">
-        <v>-10600</v>
+        <v>-14400</v>
       </c>
       <c r="G101" s="3">
-        <v>5500</v>
+        <v>-10800</v>
       </c>
       <c r="H101" s="3">
-        <v>31200</v>
+        <v>5600</v>
       </c>
       <c r="I101" s="3">
-        <v>-7700</v>
+        <v>31600</v>
       </c>
       <c r="J101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22600</v>
+        <v>1150200</v>
       </c>
       <c r="E102" s="3">
-        <v>13900</v>
+        <v>22900</v>
       </c>
       <c r="F102" s="3">
-        <v>-327800</v>
+        <v>14000</v>
       </c>
       <c r="G102" s="3">
-        <v>221700</v>
+        <v>-331500</v>
       </c>
       <c r="H102" s="3">
-        <v>-175400</v>
+        <v>224200</v>
       </c>
       <c r="I102" s="3">
-        <v>326900</v>
+        <v>-177400</v>
       </c>
       <c r="J102" s="3">
+        <v>330700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9364200</v>
+        <v>9646400</v>
       </c>
       <c r="E8" s="3">
-        <v>9323500</v>
+        <v>9604500</v>
       </c>
       <c r="F8" s="3">
-        <v>8858200</v>
+        <v>9125100</v>
       </c>
       <c r="G8" s="3">
-        <v>8348700</v>
+        <v>8600400</v>
       </c>
       <c r="H8" s="3">
-        <v>8224200</v>
+        <v>8472000</v>
       </c>
       <c r="I8" s="3">
-        <v>7919200</v>
+        <v>8157900</v>
       </c>
       <c r="J8" s="3">
-        <v>8082900</v>
+        <v>8326500</v>
       </c>
       <c r="K8" s="3">
         <v>7675300</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6822700</v>
+        <v>1267200</v>
       </c>
       <c r="E9" s="3">
-        <v>6481800</v>
+        <v>1000200</v>
       </c>
       <c r="F9" s="3">
-        <v>6204800</v>
+        <v>962300</v>
       </c>
       <c r="G9" s="3">
-        <v>5845400</v>
+        <v>936300</v>
       </c>
       <c r="H9" s="3">
-        <v>5730800</v>
+        <v>943200</v>
       </c>
       <c r="I9" s="3">
-        <v>5521100</v>
+        <v>888900</v>
       </c>
       <c r="J9" s="3">
-        <v>5726000</v>
+        <v>969200</v>
       </c>
       <c r="K9" s="3">
         <v>975400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2541500</v>
+        <v>8379200</v>
       </c>
       <c r="E10" s="3">
-        <v>2841700</v>
+        <v>8604300</v>
       </c>
       <c r="F10" s="3">
-        <v>2653400</v>
+        <v>8162800</v>
       </c>
       <c r="G10" s="3">
-        <v>2503300</v>
+        <v>7664100</v>
       </c>
       <c r="H10" s="3">
-        <v>2493400</v>
+        <v>7528800</v>
       </c>
       <c r="I10" s="3">
-        <v>2398100</v>
+        <v>7269000</v>
       </c>
       <c r="J10" s="3">
-        <v>2356900</v>
+        <v>7357300</v>
       </c>
       <c r="K10" s="3">
         <v>6699900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>192600</v>
+        <v>198400</v>
       </c>
       <c r="E14" s="3">
-        <v>59600</v>
+        <v>61400</v>
       </c>
       <c r="F14" s="3">
-        <v>106100</v>
+        <v>109300</v>
       </c>
       <c r="G14" s="3">
-        <v>76200</v>
+        <v>78500</v>
       </c>
       <c r="H14" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="I14" s="3">
-        <v>31700</v>
+        <v>32700</v>
       </c>
       <c r="J14" s="3">
-        <v>98000</v>
+        <v>101000</v>
       </c>
       <c r="K14" s="3">
         <v>257600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8196900</v>
+        <v>8444000</v>
       </c>
       <c r="E17" s="3">
-        <v>8032500</v>
+        <v>8274600</v>
       </c>
       <c r="F17" s="3">
-        <v>7711200</v>
+        <v>7943600</v>
       </c>
       <c r="G17" s="3">
-        <v>7257200</v>
+        <v>7475900</v>
       </c>
       <c r="H17" s="3">
-        <v>7105800</v>
+        <v>7320000</v>
       </c>
       <c r="I17" s="3">
-        <v>6896500</v>
+        <v>7104300</v>
       </c>
       <c r="J17" s="3">
-        <v>7212800</v>
+        <v>7430200</v>
       </c>
       <c r="K17" s="3">
         <v>7197600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1167300</v>
+        <v>1202400</v>
       </c>
       <c r="E18" s="3">
-        <v>1290900</v>
+        <v>1329900</v>
       </c>
       <c r="F18" s="3">
-        <v>1147000</v>
+        <v>1181600</v>
       </c>
       <c r="G18" s="3">
-        <v>1091500</v>
+        <v>1124400</v>
       </c>
       <c r="H18" s="3">
-        <v>1118400</v>
+        <v>1152100</v>
       </c>
       <c r="I18" s="3">
-        <v>1022700</v>
+        <v>1053600</v>
       </c>
       <c r="J18" s="3">
-        <v>870100</v>
+        <v>896300</v>
       </c>
       <c r="K18" s="3">
         <v>477700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1602000</v>
+        <v>1652300</v>
       </c>
       <c r="E21" s="3">
-        <v>1592400</v>
+        <v>1641800</v>
       </c>
       <c r="F21" s="3">
-        <v>1448800</v>
+        <v>1493900</v>
       </c>
       <c r="G21" s="3">
-        <v>1381400</v>
+        <v>1424400</v>
       </c>
       <c r="H21" s="3">
-        <v>1425800</v>
+        <v>1470200</v>
       </c>
       <c r="I21" s="3">
-        <v>1348600</v>
+        <v>1390800</v>
       </c>
       <c r="J21" s="3">
-        <v>1211500</v>
+        <v>1249600</v>
       </c>
       <c r="K21" s="3">
         <v>808700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1167300</v>
+        <v>1202400</v>
       </c>
       <c r="E23" s="3">
-        <v>1290900</v>
+        <v>1329900</v>
       </c>
       <c r="F23" s="3">
-        <v>1147000</v>
+        <v>1181600</v>
       </c>
       <c r="G23" s="3">
-        <v>1091500</v>
+        <v>1124400</v>
       </c>
       <c r="H23" s="3">
-        <v>1118400</v>
+        <v>1152100</v>
       </c>
       <c r="I23" s="3">
-        <v>1022700</v>
+        <v>1053600</v>
       </c>
       <c r="J23" s="3">
-        <v>870100</v>
+        <v>896300</v>
       </c>
       <c r="K23" s="3">
         <v>477700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>306700</v>
+        <v>315900</v>
       </c>
       <c r="E24" s="3">
-        <v>318500</v>
+        <v>328100</v>
       </c>
       <c r="F24" s="3">
-        <v>268300</v>
+        <v>276400</v>
       </c>
       <c r="G24" s="3">
-        <v>294600</v>
+        <v>303500</v>
       </c>
       <c r="H24" s="3">
-        <v>295700</v>
+        <v>304600</v>
       </c>
       <c r="I24" s="3">
-        <v>270200</v>
+        <v>278300</v>
       </c>
       <c r="J24" s="3">
-        <v>208500</v>
+        <v>214800</v>
       </c>
       <c r="K24" s="3">
         <v>130800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>860600</v>
+        <v>886500</v>
       </c>
       <c r="E26" s="3">
-        <v>972400</v>
+        <v>1001700</v>
       </c>
       <c r="F26" s="3">
-        <v>878700</v>
+        <v>905200</v>
       </c>
       <c r="G26" s="3">
-        <v>796900</v>
+        <v>820900</v>
       </c>
       <c r="H26" s="3">
-        <v>822700</v>
+        <v>847500</v>
       </c>
       <c r="I26" s="3">
-        <v>752500</v>
+        <v>775200</v>
       </c>
       <c r="J26" s="3">
-        <v>661600</v>
+        <v>681600</v>
       </c>
       <c r="K26" s="3">
         <v>346900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>860600</v>
+        <v>886500</v>
       </c>
       <c r="E27" s="3">
-        <v>972400</v>
+        <v>1001700</v>
       </c>
       <c r="F27" s="3">
-        <v>878700</v>
+        <v>905200</v>
       </c>
       <c r="G27" s="3">
-        <v>796900</v>
+        <v>820900</v>
       </c>
       <c r="H27" s="3">
-        <v>822700</v>
+        <v>847500</v>
       </c>
       <c r="I27" s="3">
-        <v>752500</v>
+        <v>775200</v>
       </c>
       <c r="J27" s="3">
-        <v>661600</v>
+        <v>681600</v>
       </c>
       <c r="K27" s="3">
         <v>346900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>860600</v>
+        <v>886500</v>
       </c>
       <c r="E33" s="3">
-        <v>972400</v>
+        <v>1001700</v>
       </c>
       <c r="F33" s="3">
-        <v>878700</v>
+        <v>905200</v>
       </c>
       <c r="G33" s="3">
-        <v>796900</v>
+        <v>820900</v>
       </c>
       <c r="H33" s="3">
-        <v>822700</v>
+        <v>847500</v>
       </c>
       <c r="I33" s="3">
-        <v>752500</v>
+        <v>775200</v>
       </c>
       <c r="J33" s="3">
-        <v>661600</v>
+        <v>681600</v>
       </c>
       <c r="K33" s="3">
         <v>346900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>860600</v>
+        <v>886500</v>
       </c>
       <c r="E35" s="3">
-        <v>972400</v>
+        <v>1001700</v>
       </c>
       <c r="F35" s="3">
-        <v>878700</v>
+        <v>905200</v>
       </c>
       <c r="G35" s="3">
-        <v>796900</v>
+        <v>820900</v>
       </c>
       <c r="H35" s="3">
-        <v>822700</v>
+        <v>847500</v>
       </c>
       <c r="I35" s="3">
-        <v>752500</v>
+        <v>775200</v>
       </c>
       <c r="J35" s="3">
-        <v>661600</v>
+        <v>681600</v>
       </c>
       <c r="K35" s="3">
         <v>346900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1314800</v>
+        <v>1354500</v>
       </c>
       <c r="E41" s="3">
-        <v>164600</v>
+        <v>169600</v>
       </c>
       <c r="F41" s="3">
-        <v>141700</v>
+        <v>146000</v>
       </c>
       <c r="G41" s="3">
-        <v>127700</v>
+        <v>131500</v>
       </c>
       <c r="H41" s="3">
-        <v>459200</v>
+        <v>473100</v>
       </c>
       <c r="I41" s="3">
-        <v>235000</v>
+        <v>242100</v>
       </c>
       <c r="J41" s="3">
-        <v>412400</v>
+        <v>424800</v>
       </c>
       <c r="K41" s="3">
         <v>107200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>961200</v>
+        <v>990200</v>
       </c>
       <c r="E43" s="3">
-        <v>1052600</v>
+        <v>1084300</v>
       </c>
       <c r="F43" s="3">
-        <v>1144000</v>
+        <v>1178400</v>
       </c>
       <c r="G43" s="3">
-        <v>994900</v>
+        <v>1024900</v>
       </c>
       <c r="H43" s="3">
-        <v>854100</v>
+        <v>879800</v>
       </c>
       <c r="I43" s="3">
-        <v>849500</v>
+        <v>875100</v>
       </c>
       <c r="J43" s="3">
-        <v>804100</v>
+        <v>828400</v>
       </c>
       <c r="K43" s="3">
         <v>1706200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>827800</v>
+        <v>852700</v>
       </c>
       <c r="E44" s="3">
-        <v>843700</v>
+        <v>869200</v>
       </c>
       <c r="F44" s="3">
-        <v>725800</v>
+        <v>747700</v>
       </c>
       <c r="G44" s="3">
-        <v>710300</v>
+        <v>731700</v>
       </c>
       <c r="H44" s="3">
-        <v>720200</v>
+        <v>741900</v>
       </c>
       <c r="I44" s="3">
-        <v>672100</v>
+        <v>692400</v>
       </c>
       <c r="J44" s="3">
-        <v>622000</v>
+        <v>640800</v>
       </c>
       <c r="K44" s="3">
         <v>694000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>696000</v>
+        <v>717000</v>
       </c>
       <c r="E45" s="3">
-        <v>446700</v>
+        <v>460100</v>
       </c>
       <c r="F45" s="3">
-        <v>378400</v>
+        <v>389800</v>
       </c>
       <c r="G45" s="3">
-        <v>371100</v>
+        <v>382300</v>
       </c>
       <c r="H45" s="3">
-        <v>432800</v>
+        <v>445800</v>
       </c>
       <c r="I45" s="3">
-        <v>526300</v>
+        <v>542100</v>
       </c>
       <c r="J45" s="3">
-        <v>369000</v>
+        <v>380100</v>
       </c>
       <c r="K45" s="3">
         <v>503800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3799800</v>
+        <v>3914300</v>
       </c>
       <c r="E46" s="3">
-        <v>2507600</v>
+        <v>2583200</v>
       </c>
       <c r="F46" s="3">
-        <v>2389900</v>
+        <v>2461900</v>
       </c>
       <c r="G46" s="3">
-        <v>2204000</v>
+        <v>2270400</v>
       </c>
       <c r="H46" s="3">
-        <v>2466200</v>
+        <v>2540600</v>
       </c>
       <c r="I46" s="3">
-        <v>2282900</v>
+        <v>2351700</v>
       </c>
       <c r="J46" s="3">
-        <v>2207500</v>
+        <v>2274100</v>
       </c>
       <c r="K46" s="3">
         <v>2042100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>304800</v>
+        <v>314000</v>
       </c>
       <c r="E47" s="3">
-        <v>307800</v>
+        <v>317100</v>
       </c>
       <c r="F47" s="3">
-        <v>277800</v>
+        <v>286200</v>
       </c>
       <c r="G47" s="3">
-        <v>272800</v>
+        <v>281000</v>
       </c>
       <c r="H47" s="3">
-        <v>262000</v>
+        <v>269900</v>
       </c>
       <c r="I47" s="3">
-        <v>240200</v>
+        <v>247500</v>
       </c>
       <c r="J47" s="3">
-        <v>185200</v>
+        <v>190800</v>
       </c>
       <c r="K47" s="3">
         <v>165100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800500</v>
+        <v>824600</v>
       </c>
       <c r="E48" s="3">
-        <v>306100</v>
+        <v>315400</v>
       </c>
       <c r="F48" s="3">
-        <v>298800</v>
+        <v>307800</v>
       </c>
       <c r="G48" s="3">
-        <v>305300</v>
+        <v>314500</v>
       </c>
       <c r="H48" s="3">
-        <v>338200</v>
+        <v>348400</v>
       </c>
       <c r="I48" s="3">
-        <v>364200</v>
+        <v>375200</v>
       </c>
       <c r="J48" s="3">
-        <v>374800</v>
+        <v>386100</v>
       </c>
       <c r="K48" s="3">
         <v>361600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6852500</v>
+        <v>7059000</v>
       </c>
       <c r="E49" s="3">
-        <v>6378600</v>
+        <v>6570800</v>
       </c>
       <c r="F49" s="3">
-        <v>6020800</v>
+        <v>6202200</v>
       </c>
       <c r="G49" s="3">
-        <v>5812500</v>
+        <v>5987700</v>
       </c>
       <c r="H49" s="3">
-        <v>5729900</v>
+        <v>5902500</v>
       </c>
       <c r="I49" s="3">
-        <v>5932100</v>
+        <v>6110800</v>
       </c>
       <c r="J49" s="3">
-        <v>5574600</v>
+        <v>5742600</v>
       </c>
       <c r="K49" s="3">
         <v>6051100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>213400</v>
+        <v>219800</v>
       </c>
       <c r="E52" s="3">
-        <v>216300</v>
+        <v>222900</v>
       </c>
       <c r="F52" s="3">
-        <v>188300</v>
+        <v>194000</v>
       </c>
       <c r="G52" s="3">
-        <v>178400</v>
+        <v>183800</v>
       </c>
       <c r="H52" s="3">
-        <v>205400</v>
+        <v>211600</v>
       </c>
       <c r="I52" s="3">
-        <v>254600</v>
+        <v>262300</v>
       </c>
       <c r="J52" s="3">
-        <v>306100</v>
+        <v>315300</v>
       </c>
       <c r="K52" s="3">
         <v>351500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11971000</v>
+        <v>12331700</v>
       </c>
       <c r="E54" s="3">
-        <v>9716500</v>
+        <v>10009300</v>
       </c>
       <c r="F54" s="3">
-        <v>9175500</v>
+        <v>9452100</v>
       </c>
       <c r="G54" s="3">
-        <v>8773000</v>
+        <v>9037400</v>
       </c>
       <c r="H54" s="3">
-        <v>9001800</v>
+        <v>9273000</v>
       </c>
       <c r="I54" s="3">
-        <v>9074100</v>
+        <v>9347500</v>
       </c>
       <c r="J54" s="3">
-        <v>8648200</v>
+        <v>8908800</v>
       </c>
       <c r="K54" s="3">
         <v>8280100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>789800</v>
+        <v>813600</v>
       </c>
       <c r="E57" s="3">
-        <v>853600</v>
+        <v>879400</v>
       </c>
       <c r="F57" s="3">
-        <v>873600</v>
+        <v>899900</v>
       </c>
       <c r="G57" s="3">
-        <v>773100</v>
+        <v>796400</v>
       </c>
       <c r="H57" s="3">
-        <v>852900</v>
+        <v>878600</v>
       </c>
       <c r="I57" s="3">
-        <v>857300</v>
+        <v>883100</v>
       </c>
       <c r="J57" s="3">
-        <v>816300</v>
+        <v>840900</v>
       </c>
       <c r="K57" s="3">
         <v>851700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>376800</v>
+        <v>388200</v>
       </c>
       <c r="E58" s="3">
-        <v>87400</v>
+        <v>90000</v>
       </c>
       <c r="F58" s="3">
-        <v>268300</v>
+        <v>276400</v>
       </c>
       <c r="G58" s="3">
-        <v>94300</v>
+        <v>97100</v>
       </c>
       <c r="H58" s="3">
-        <v>147800</v>
+        <v>152300</v>
       </c>
       <c r="I58" s="3">
-        <v>177800</v>
+        <v>183100</v>
       </c>
       <c r="J58" s="3">
-        <v>61900</v>
+        <v>63700</v>
       </c>
       <c r="K58" s="3">
         <v>406600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1647700</v>
+        <v>1697400</v>
       </c>
       <c r="E59" s="3">
-        <v>1279200</v>
+        <v>1317800</v>
       </c>
       <c r="F59" s="3">
-        <v>1259600</v>
+        <v>1297600</v>
       </c>
       <c r="G59" s="3">
-        <v>1212300</v>
+        <v>1248800</v>
       </c>
       <c r="H59" s="3">
-        <v>1138400</v>
+        <v>1172700</v>
       </c>
       <c r="I59" s="3">
-        <v>1357400</v>
+        <v>1398300</v>
       </c>
       <c r="J59" s="3">
-        <v>1260600</v>
+        <v>1298500</v>
       </c>
       <c r="K59" s="3">
         <v>1391900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2814300</v>
+        <v>2899100</v>
       </c>
       <c r="E60" s="3">
-        <v>2220300</v>
+        <v>2287200</v>
       </c>
       <c r="F60" s="3">
-        <v>2401600</v>
+        <v>2474000</v>
       </c>
       <c r="G60" s="3">
-        <v>2079700</v>
+        <v>2142400</v>
       </c>
       <c r="H60" s="3">
-        <v>2139100</v>
+        <v>2203500</v>
       </c>
       <c r="I60" s="3">
-        <v>2392400</v>
+        <v>2464500</v>
       </c>
       <c r="J60" s="3">
-        <v>2138700</v>
+        <v>2203200</v>
       </c>
       <c r="K60" s="3">
         <v>2650100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3059300</v>
+        <v>3151400</v>
       </c>
       <c r="E61" s="3">
-        <v>1707200</v>
+        <v>1758700</v>
       </c>
       <c r="F61" s="3">
-        <v>1118000</v>
+        <v>1151700</v>
       </c>
       <c r="G61" s="3">
-        <v>1339100</v>
+        <v>1379500</v>
       </c>
       <c r="H61" s="3">
-        <v>1323300</v>
+        <v>1363200</v>
       </c>
       <c r="I61" s="3">
-        <v>1459700</v>
+        <v>1503700</v>
       </c>
       <c r="J61" s="3">
-        <v>2001000</v>
+        <v>2061300</v>
       </c>
       <c r="K61" s="3">
         <v>1775100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>505300</v>
+        <v>520500</v>
       </c>
       <c r="E62" s="3">
-        <v>489500</v>
+        <v>504200</v>
       </c>
       <c r="F62" s="3">
-        <v>509800</v>
+        <v>525200</v>
       </c>
       <c r="G62" s="3">
-        <v>579300</v>
+        <v>596700</v>
       </c>
       <c r="H62" s="3">
-        <v>562800</v>
+        <v>579800</v>
       </c>
       <c r="I62" s="3">
-        <v>539700</v>
+        <v>556000</v>
       </c>
       <c r="J62" s="3">
-        <v>668000</v>
+        <v>688200</v>
       </c>
       <c r="K62" s="3">
         <v>768100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6378900</v>
+        <v>6571100</v>
       </c>
       <c r="E66" s="3">
-        <v>4417000</v>
+        <v>4550100</v>
       </c>
       <c r="F66" s="3">
-        <v>4029400</v>
+        <v>4150900</v>
       </c>
       <c r="G66" s="3">
-        <v>3998100</v>
+        <v>4118600</v>
       </c>
       <c r="H66" s="3">
-        <v>4025200</v>
+        <v>4146500</v>
       </c>
       <c r="I66" s="3">
-        <v>4391900</v>
+        <v>4524300</v>
       </c>
       <c r="J66" s="3">
-        <v>4807800</v>
+        <v>4952700</v>
       </c>
       <c r="K66" s="3">
         <v>5193400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3621000</v>
+        <v>3730100</v>
       </c>
       <c r="E72" s="3">
-        <v>3508700</v>
+        <v>3614500</v>
       </c>
       <c r="F72" s="3">
-        <v>3272800</v>
+        <v>3371500</v>
       </c>
       <c r="G72" s="3">
-        <v>2921000</v>
+        <v>3009100</v>
       </c>
       <c r="H72" s="3">
-        <v>2909000</v>
+        <v>2996700</v>
       </c>
       <c r="I72" s="3">
-        <v>2353800</v>
+        <v>2424700</v>
       </c>
       <c r="J72" s="3">
-        <v>1813700</v>
+        <v>1868400</v>
       </c>
       <c r="K72" s="3">
         <v>1181200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5592100</v>
+        <v>5760600</v>
       </c>
       <c r="E76" s="3">
-        <v>5299500</v>
+        <v>5459200</v>
       </c>
       <c r="F76" s="3">
-        <v>5146100</v>
+        <v>5301200</v>
       </c>
       <c r="G76" s="3">
-        <v>4774900</v>
+        <v>4918800</v>
       </c>
       <c r="H76" s="3">
-        <v>4976600</v>
+        <v>5126600</v>
       </c>
       <c r="I76" s="3">
-        <v>4682200</v>
+        <v>4823300</v>
       </c>
       <c r="J76" s="3">
-        <v>3840400</v>
+        <v>3956200</v>
       </c>
       <c r="K76" s="3">
         <v>3086800</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>860600</v>
+        <v>886500</v>
       </c>
       <c r="E81" s="3">
-        <v>972400</v>
+        <v>1001700</v>
       </c>
       <c r="F81" s="3">
-        <v>878700</v>
+        <v>905200</v>
       </c>
       <c r="G81" s="3">
-        <v>796900</v>
+        <v>820900</v>
       </c>
       <c r="H81" s="3">
-        <v>822700</v>
+        <v>847500</v>
       </c>
       <c r="I81" s="3">
-        <v>752500</v>
+        <v>775200</v>
       </c>
       <c r="J81" s="3">
-        <v>661600</v>
+        <v>681600</v>
       </c>
       <c r="K81" s="3">
         <v>346900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>435500</v>
+        <v>448600</v>
       </c>
       <c r="E83" s="3">
-        <v>302000</v>
+        <v>311100</v>
       </c>
       <c r="F83" s="3">
-        <v>302300</v>
+        <v>311400</v>
       </c>
       <c r="G83" s="3">
-        <v>290400</v>
+        <v>299100</v>
       </c>
       <c r="H83" s="3">
-        <v>308000</v>
+        <v>317300</v>
       </c>
       <c r="I83" s="3">
-        <v>326400</v>
+        <v>336300</v>
       </c>
       <c r="J83" s="3">
-        <v>342000</v>
+        <v>352300</v>
       </c>
       <c r="K83" s="3">
         <v>331800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1492300</v>
+        <v>1537300</v>
       </c>
       <c r="E89" s="3">
-        <v>1257800</v>
+        <v>1295700</v>
       </c>
       <c r="F89" s="3">
-        <v>1149700</v>
+        <v>1184300</v>
       </c>
       <c r="G89" s="3">
-        <v>1045800</v>
+        <v>1077400</v>
       </c>
       <c r="H89" s="3">
-        <v>1026200</v>
+        <v>1057200</v>
       </c>
       <c r="I89" s="3">
-        <v>992500</v>
+        <v>1022400</v>
       </c>
       <c r="J89" s="3">
-        <v>904400</v>
+        <v>931700</v>
       </c>
       <c r="K89" s="3">
         <v>510900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-98900</v>
+        <v>-101900</v>
       </c>
       <c r="E91" s="3">
-        <v>-124800</v>
+        <v>-128500</v>
       </c>
       <c r="F91" s="3">
-        <v>-110300</v>
+        <v>-113600</v>
       </c>
       <c r="G91" s="3">
-        <v>-86700</v>
+        <v>-89300</v>
       </c>
       <c r="H91" s="3">
-        <v>-127400</v>
+        <v>-131300</v>
       </c>
       <c r="I91" s="3">
-        <v>-94300</v>
+        <v>-97100</v>
       </c>
       <c r="J91" s="3">
-        <v>-139700</v>
+        <v>-143900</v>
       </c>
       <c r="K91" s="3">
         <v>-108000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-440700</v>
+        <v>-454000</v>
       </c>
       <c r="E94" s="3">
-        <v>-732000</v>
+        <v>-754000</v>
       </c>
       <c r="F94" s="3">
-        <v>-444500</v>
+        <v>-457900</v>
       </c>
       <c r="G94" s="3">
-        <v>-455900</v>
+        <v>-469700</v>
       </c>
       <c r="H94" s="3">
-        <v>-294600</v>
+        <v>-303500</v>
       </c>
       <c r="I94" s="3">
-        <v>-197900</v>
+        <v>-203900</v>
       </c>
       <c r="J94" s="3">
-        <v>-247200</v>
+        <v>-254700</v>
       </c>
       <c r="K94" s="3">
         <v>-178000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>72500</v>
+        <v>74700</v>
       </c>
       <c r="E100" s="3">
-        <v>-484300</v>
+        <v>-498900</v>
       </c>
       <c r="F100" s="3">
-        <v>-676700</v>
+        <v>-697100</v>
       </c>
       <c r="G100" s="3">
-        <v>-910700</v>
+        <v>-938100</v>
       </c>
       <c r="H100" s="3">
-        <v>-512900</v>
+        <v>-528400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1003600</v>
+        <v>-1033800</v>
       </c>
       <c r="J100" s="3">
-        <v>-318800</v>
+        <v>-328400</v>
       </c>
       <c r="K100" s="3">
         <v>-339400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="E101" s="3">
-        <v>-18700</v>
+        <v>-19200</v>
       </c>
       <c r="F101" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="G101" s="3">
-        <v>-10800</v>
+        <v>-11100</v>
       </c>
       <c r="H101" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I101" s="3">
-        <v>31600</v>
+        <v>32500</v>
       </c>
       <c r="J101" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="K101" s="3">
         <v>1300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1150200</v>
+        <v>1184900</v>
       </c>
       <c r="E102" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="F102" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="G102" s="3">
-        <v>-331500</v>
+        <v>-341500</v>
       </c>
       <c r="H102" s="3">
-        <v>224200</v>
+        <v>231000</v>
       </c>
       <c r="I102" s="3">
-        <v>-177400</v>
+        <v>-182800</v>
       </c>
       <c r="J102" s="3">
-        <v>330700</v>
+        <v>340600</v>
       </c>
       <c r="K102" s="3">
         <v>-5300</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9646400</v>
+        <v>10084700</v>
       </c>
       <c r="E8" s="3">
-        <v>9604500</v>
+        <v>10040800</v>
       </c>
       <c r="F8" s="3">
-        <v>9125100</v>
+        <v>9539700</v>
       </c>
       <c r="G8" s="3">
-        <v>8600400</v>
+        <v>8991100</v>
       </c>
       <c r="H8" s="3">
-        <v>8472000</v>
+        <v>8857000</v>
       </c>
       <c r="I8" s="3">
-        <v>8157900</v>
+        <v>8528500</v>
       </c>
       <c r="J8" s="3">
-        <v>8326500</v>
+        <v>8704800</v>
       </c>
       <c r="K8" s="3">
         <v>7675300</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1267200</v>
+        <v>1324800</v>
       </c>
       <c r="E9" s="3">
-        <v>1000200</v>
+        <v>1045600</v>
       </c>
       <c r="F9" s="3">
-        <v>962300</v>
+        <v>1006000</v>
       </c>
       <c r="G9" s="3">
-        <v>936300</v>
+        <v>978800</v>
       </c>
       <c r="H9" s="3">
-        <v>943200</v>
+        <v>986100</v>
       </c>
       <c r="I9" s="3">
-        <v>888900</v>
+        <v>929300</v>
       </c>
       <c r="J9" s="3">
-        <v>969200</v>
+        <v>1013200</v>
       </c>
       <c r="K9" s="3">
         <v>975400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8379200</v>
+        <v>8759900</v>
       </c>
       <c r="E10" s="3">
-        <v>8604300</v>
+        <v>8995200</v>
       </c>
       <c r="F10" s="3">
-        <v>8162800</v>
+        <v>8533700</v>
       </c>
       <c r="G10" s="3">
-        <v>7664100</v>
+        <v>8012300</v>
       </c>
       <c r="H10" s="3">
-        <v>7528800</v>
+        <v>7870900</v>
       </c>
       <c r="I10" s="3">
-        <v>7269000</v>
+        <v>7599200</v>
       </c>
       <c r="J10" s="3">
-        <v>7357300</v>
+        <v>7691600</v>
       </c>
       <c r="K10" s="3">
         <v>6699900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>198400</v>
+        <v>207400</v>
       </c>
       <c r="E14" s="3">
-        <v>61400</v>
+        <v>64200</v>
       </c>
       <c r="F14" s="3">
-        <v>109300</v>
+        <v>114300</v>
       </c>
       <c r="G14" s="3">
-        <v>78500</v>
+        <v>82000</v>
       </c>
       <c r="H14" s="3">
-        <v>23100</v>
+        <v>24100</v>
       </c>
       <c r="I14" s="3">
-        <v>32700</v>
+        <v>34200</v>
       </c>
       <c r="J14" s="3">
-        <v>101000</v>
+        <v>105600</v>
       </c>
       <c r="K14" s="3">
         <v>257600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8444000</v>
+        <v>8827600</v>
       </c>
       <c r="E17" s="3">
-        <v>8274600</v>
+        <v>8650500</v>
       </c>
       <c r="F17" s="3">
-        <v>7943600</v>
+        <v>8304500</v>
       </c>
       <c r="G17" s="3">
-        <v>7475900</v>
+        <v>7815600</v>
       </c>
       <c r="H17" s="3">
-        <v>7320000</v>
+        <v>7652500</v>
       </c>
       <c r="I17" s="3">
-        <v>7104300</v>
+        <v>7427100</v>
       </c>
       <c r="J17" s="3">
-        <v>7430200</v>
+        <v>7767700</v>
       </c>
       <c r="K17" s="3">
         <v>7197600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1202400</v>
+        <v>1257100</v>
       </c>
       <c r="E18" s="3">
-        <v>1329900</v>
+        <v>1390300</v>
       </c>
       <c r="F18" s="3">
-        <v>1181600</v>
+        <v>1235300</v>
       </c>
       <c r="G18" s="3">
-        <v>1124400</v>
+        <v>1175500</v>
       </c>
       <c r="H18" s="3">
-        <v>1152100</v>
+        <v>1204400</v>
       </c>
       <c r="I18" s="3">
-        <v>1053600</v>
+        <v>1101400</v>
       </c>
       <c r="J18" s="3">
-        <v>896300</v>
+        <v>937000</v>
       </c>
       <c r="K18" s="3">
         <v>477700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1652300</v>
+        <v>1726900</v>
       </c>
       <c r="E21" s="3">
-        <v>1641800</v>
+        <v>1716100</v>
       </c>
       <c r="F21" s="3">
-        <v>1493900</v>
+        <v>1561400</v>
       </c>
       <c r="G21" s="3">
-        <v>1424400</v>
+        <v>1488800</v>
       </c>
       <c r="H21" s="3">
-        <v>1470200</v>
+        <v>1536700</v>
       </c>
       <c r="I21" s="3">
-        <v>1390800</v>
+        <v>1453700</v>
       </c>
       <c r="J21" s="3">
-        <v>1249600</v>
+        <v>1306000</v>
       </c>
       <c r="K21" s="3">
         <v>808700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1202400</v>
+        <v>1257100</v>
       </c>
       <c r="E23" s="3">
-        <v>1329900</v>
+        <v>1390300</v>
       </c>
       <c r="F23" s="3">
-        <v>1181600</v>
+        <v>1235300</v>
       </c>
       <c r="G23" s="3">
-        <v>1124400</v>
+        <v>1175500</v>
       </c>
       <c r="H23" s="3">
-        <v>1152100</v>
+        <v>1204400</v>
       </c>
       <c r="I23" s="3">
-        <v>1053600</v>
+        <v>1101400</v>
       </c>
       <c r="J23" s="3">
-        <v>896300</v>
+        <v>937000</v>
       </c>
       <c r="K23" s="3">
         <v>477700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>315900</v>
+        <v>330300</v>
       </c>
       <c r="E24" s="3">
-        <v>328100</v>
+        <v>343000</v>
       </c>
       <c r="F24" s="3">
-        <v>276400</v>
+        <v>289000</v>
       </c>
       <c r="G24" s="3">
-        <v>303500</v>
+        <v>317300</v>
       </c>
       <c r="H24" s="3">
-        <v>304600</v>
+        <v>318400</v>
       </c>
       <c r="I24" s="3">
-        <v>278300</v>
+        <v>291000</v>
       </c>
       <c r="J24" s="3">
-        <v>214800</v>
+        <v>224500</v>
       </c>
       <c r="K24" s="3">
         <v>130800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>886500</v>
+        <v>926800</v>
       </c>
       <c r="E26" s="3">
-        <v>1001700</v>
+        <v>1047300</v>
       </c>
       <c r="F26" s="3">
-        <v>905200</v>
+        <v>946300</v>
       </c>
       <c r="G26" s="3">
-        <v>820900</v>
+        <v>858200</v>
       </c>
       <c r="H26" s="3">
-        <v>847500</v>
+        <v>886000</v>
       </c>
       <c r="I26" s="3">
-        <v>775200</v>
+        <v>810400</v>
       </c>
       <c r="J26" s="3">
-        <v>681600</v>
+        <v>712500</v>
       </c>
       <c r="K26" s="3">
         <v>346900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>886500</v>
+        <v>926800</v>
       </c>
       <c r="E27" s="3">
-        <v>1001700</v>
+        <v>1047300</v>
       </c>
       <c r="F27" s="3">
-        <v>905200</v>
+        <v>946300</v>
       </c>
       <c r="G27" s="3">
-        <v>820900</v>
+        <v>858200</v>
       </c>
       <c r="H27" s="3">
-        <v>847500</v>
+        <v>886000</v>
       </c>
       <c r="I27" s="3">
-        <v>775200</v>
+        <v>810400</v>
       </c>
       <c r="J27" s="3">
-        <v>681600</v>
+        <v>712500</v>
       </c>
       <c r="K27" s="3">
         <v>346900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>886500</v>
+        <v>926800</v>
       </c>
       <c r="E33" s="3">
-        <v>1001700</v>
+        <v>1047300</v>
       </c>
       <c r="F33" s="3">
-        <v>905200</v>
+        <v>946300</v>
       </c>
       <c r="G33" s="3">
-        <v>820900</v>
+        <v>858200</v>
       </c>
       <c r="H33" s="3">
-        <v>847500</v>
+        <v>886000</v>
       </c>
       <c r="I33" s="3">
-        <v>775200</v>
+        <v>810400</v>
       </c>
       <c r="J33" s="3">
-        <v>681600</v>
+        <v>712500</v>
       </c>
       <c r="K33" s="3">
         <v>346900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>886500</v>
+        <v>926800</v>
       </c>
       <c r="E35" s="3">
-        <v>1001700</v>
+        <v>1047300</v>
       </c>
       <c r="F35" s="3">
-        <v>905200</v>
+        <v>946300</v>
       </c>
       <c r="G35" s="3">
-        <v>820900</v>
+        <v>858200</v>
       </c>
       <c r="H35" s="3">
-        <v>847500</v>
+        <v>886000</v>
       </c>
       <c r="I35" s="3">
-        <v>775200</v>
+        <v>810400</v>
       </c>
       <c r="J35" s="3">
-        <v>681600</v>
+        <v>712500</v>
       </c>
       <c r="K35" s="3">
         <v>346900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1354500</v>
+        <v>1416000</v>
       </c>
       <c r="E41" s="3">
-        <v>169600</v>
+        <v>177300</v>
       </c>
       <c r="F41" s="3">
-        <v>146000</v>
+        <v>152600</v>
       </c>
       <c r="G41" s="3">
-        <v>131500</v>
+        <v>137500</v>
       </c>
       <c r="H41" s="3">
-        <v>473100</v>
+        <v>494600</v>
       </c>
       <c r="I41" s="3">
-        <v>242100</v>
+        <v>253100</v>
       </c>
       <c r="J41" s="3">
-        <v>424800</v>
+        <v>444100</v>
       </c>
       <c r="K41" s="3">
         <v>107200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>990200</v>
+        <v>1035200</v>
       </c>
       <c r="E43" s="3">
-        <v>1084300</v>
+        <v>1133600</v>
       </c>
       <c r="F43" s="3">
-        <v>1178400</v>
+        <v>1232000</v>
       </c>
       <c r="G43" s="3">
-        <v>1024900</v>
+        <v>1071500</v>
       </c>
       <c r="H43" s="3">
-        <v>879800</v>
+        <v>919800</v>
       </c>
       <c r="I43" s="3">
-        <v>875100</v>
+        <v>914900</v>
       </c>
       <c r="J43" s="3">
-        <v>828400</v>
+        <v>866000</v>
       </c>
       <c r="K43" s="3">
         <v>1706200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>852700</v>
+        <v>891400</v>
       </c>
       <c r="E44" s="3">
-        <v>869200</v>
+        <v>908700</v>
       </c>
       <c r="F44" s="3">
-        <v>747700</v>
+        <v>781600</v>
       </c>
       <c r="G44" s="3">
-        <v>731700</v>
+        <v>764900</v>
       </c>
       <c r="H44" s="3">
-        <v>741900</v>
+        <v>775600</v>
       </c>
       <c r="I44" s="3">
-        <v>692400</v>
+        <v>723800</v>
       </c>
       <c r="J44" s="3">
-        <v>640800</v>
+        <v>669900</v>
       </c>
       <c r="K44" s="3">
         <v>694000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>717000</v>
+        <v>749500</v>
       </c>
       <c r="E45" s="3">
-        <v>460100</v>
+        <v>481000</v>
       </c>
       <c r="F45" s="3">
-        <v>389800</v>
+        <v>407500</v>
       </c>
       <c r="G45" s="3">
-        <v>382300</v>
+        <v>399700</v>
       </c>
       <c r="H45" s="3">
-        <v>445800</v>
+        <v>466000</v>
       </c>
       <c r="I45" s="3">
-        <v>542100</v>
+        <v>566700</v>
       </c>
       <c r="J45" s="3">
-        <v>380100</v>
+        <v>397400</v>
       </c>
       <c r="K45" s="3">
         <v>503800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3914300</v>
+        <v>4092200</v>
       </c>
       <c r="E46" s="3">
-        <v>2583200</v>
+        <v>2700500</v>
       </c>
       <c r="F46" s="3">
-        <v>2461900</v>
+        <v>2573700</v>
       </c>
       <c r="G46" s="3">
-        <v>2270400</v>
+        <v>2373600</v>
       </c>
       <c r="H46" s="3">
-        <v>2540600</v>
+        <v>2656000</v>
       </c>
       <c r="I46" s="3">
-        <v>2351700</v>
+        <v>2458600</v>
       </c>
       <c r="J46" s="3">
-        <v>2274100</v>
+        <v>2377400</v>
       </c>
       <c r="K46" s="3">
         <v>2042100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>314000</v>
+        <v>328300</v>
       </c>
       <c r="E47" s="3">
-        <v>317100</v>
+        <v>331500</v>
       </c>
       <c r="F47" s="3">
-        <v>286200</v>
+        <v>299200</v>
       </c>
       <c r="G47" s="3">
-        <v>281000</v>
+        <v>293800</v>
       </c>
       <c r="H47" s="3">
-        <v>269900</v>
+        <v>282200</v>
       </c>
       <c r="I47" s="3">
-        <v>247500</v>
+        <v>258700</v>
       </c>
       <c r="J47" s="3">
-        <v>190800</v>
+        <v>199500</v>
       </c>
       <c r="K47" s="3">
         <v>165100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>824600</v>
+        <v>862100</v>
       </c>
       <c r="E48" s="3">
-        <v>315400</v>
+        <v>329700</v>
       </c>
       <c r="F48" s="3">
-        <v>307800</v>
+        <v>321700</v>
       </c>
       <c r="G48" s="3">
-        <v>314500</v>
+        <v>328800</v>
       </c>
       <c r="H48" s="3">
-        <v>348400</v>
+        <v>364200</v>
       </c>
       <c r="I48" s="3">
-        <v>375200</v>
+        <v>392200</v>
       </c>
       <c r="J48" s="3">
-        <v>386100</v>
+        <v>403600</v>
       </c>
       <c r="K48" s="3">
         <v>361600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7059000</v>
+        <v>7379700</v>
       </c>
       <c r="E49" s="3">
-        <v>6570800</v>
+        <v>6869400</v>
       </c>
       <c r="F49" s="3">
-        <v>6202200</v>
+        <v>6484000</v>
       </c>
       <c r="G49" s="3">
-        <v>5987700</v>
+        <v>6259700</v>
       </c>
       <c r="H49" s="3">
-        <v>5902500</v>
+        <v>6170700</v>
       </c>
       <c r="I49" s="3">
-        <v>6110800</v>
+        <v>6388500</v>
       </c>
       <c r="J49" s="3">
-        <v>5742600</v>
+        <v>6003500</v>
       </c>
       <c r="K49" s="3">
         <v>6051100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>219800</v>
+        <v>229800</v>
       </c>
       <c r="E52" s="3">
-        <v>222900</v>
+        <v>233000</v>
       </c>
       <c r="F52" s="3">
-        <v>194000</v>
+        <v>202800</v>
       </c>
       <c r="G52" s="3">
-        <v>183800</v>
+        <v>192100</v>
       </c>
       <c r="H52" s="3">
-        <v>211600</v>
+        <v>221200</v>
       </c>
       <c r="I52" s="3">
-        <v>262300</v>
+        <v>274200</v>
       </c>
       <c r="J52" s="3">
-        <v>315300</v>
+        <v>329600</v>
       </c>
       <c r="K52" s="3">
         <v>351500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12331700</v>
+        <v>12892000</v>
       </c>
       <c r="E54" s="3">
-        <v>10009300</v>
+        <v>10464100</v>
       </c>
       <c r="F54" s="3">
-        <v>9452100</v>
+        <v>9881500</v>
       </c>
       <c r="G54" s="3">
-        <v>9037400</v>
+        <v>9448000</v>
       </c>
       <c r="H54" s="3">
-        <v>9273000</v>
+        <v>9694400</v>
       </c>
       <c r="I54" s="3">
-        <v>9347500</v>
+        <v>9772200</v>
       </c>
       <c r="J54" s="3">
-        <v>8908800</v>
+        <v>9313600</v>
       </c>
       <c r="K54" s="3">
         <v>8280100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>813600</v>
+        <v>850600</v>
       </c>
       <c r="E57" s="3">
-        <v>879400</v>
+        <v>919300</v>
       </c>
       <c r="F57" s="3">
-        <v>899900</v>
+        <v>940800</v>
       </c>
       <c r="G57" s="3">
-        <v>796400</v>
+        <v>832600</v>
       </c>
       <c r="H57" s="3">
-        <v>878600</v>
+        <v>918500</v>
       </c>
       <c r="I57" s="3">
-        <v>883100</v>
+        <v>923300</v>
       </c>
       <c r="J57" s="3">
-        <v>840900</v>
+        <v>879100</v>
       </c>
       <c r="K57" s="3">
         <v>851700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>388200</v>
+        <v>405800</v>
       </c>
       <c r="E58" s="3">
-        <v>90000</v>
+        <v>94100</v>
       </c>
       <c r="F58" s="3">
-        <v>276400</v>
+        <v>289000</v>
       </c>
       <c r="G58" s="3">
-        <v>97100</v>
+        <v>101500</v>
       </c>
       <c r="H58" s="3">
-        <v>152300</v>
+        <v>159200</v>
       </c>
       <c r="I58" s="3">
-        <v>183100</v>
+        <v>191400</v>
       </c>
       <c r="J58" s="3">
-        <v>63700</v>
+        <v>66600</v>
       </c>
       <c r="K58" s="3">
         <v>406600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1697400</v>
+        <v>1774500</v>
       </c>
       <c r="E59" s="3">
-        <v>1317800</v>
+        <v>1377600</v>
       </c>
       <c r="F59" s="3">
-        <v>1297600</v>
+        <v>1356600</v>
       </c>
       <c r="G59" s="3">
-        <v>1248800</v>
+        <v>1305600</v>
       </c>
       <c r="H59" s="3">
-        <v>1172700</v>
+        <v>1226000</v>
       </c>
       <c r="I59" s="3">
-        <v>1398300</v>
+        <v>1461800</v>
       </c>
       <c r="J59" s="3">
-        <v>1298500</v>
+        <v>1357500</v>
       </c>
       <c r="K59" s="3">
         <v>1391900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2899100</v>
+        <v>3030900</v>
       </c>
       <c r="E60" s="3">
-        <v>2287200</v>
+        <v>2391100</v>
       </c>
       <c r="F60" s="3">
-        <v>2474000</v>
+        <v>2586400</v>
       </c>
       <c r="G60" s="3">
-        <v>2142400</v>
+        <v>2239700</v>
       </c>
       <c r="H60" s="3">
-        <v>2203500</v>
+        <v>2303700</v>
       </c>
       <c r="I60" s="3">
-        <v>2464500</v>
+        <v>2576500</v>
       </c>
       <c r="J60" s="3">
-        <v>2203200</v>
+        <v>2303300</v>
       </c>
       <c r="K60" s="3">
         <v>2650100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3151400</v>
+        <v>3294600</v>
       </c>
       <c r="E61" s="3">
-        <v>1758700</v>
+        <v>1838600</v>
       </c>
       <c r="F61" s="3">
-        <v>1151700</v>
+        <v>1204000</v>
       </c>
       <c r="G61" s="3">
-        <v>1379500</v>
+        <v>1442200</v>
       </c>
       <c r="H61" s="3">
-        <v>1363200</v>
+        <v>1425100</v>
       </c>
       <c r="I61" s="3">
-        <v>1503700</v>
+        <v>1572000</v>
       </c>
       <c r="J61" s="3">
-        <v>2061300</v>
+        <v>2155000</v>
       </c>
       <c r="K61" s="3">
         <v>1775100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>520500</v>
+        <v>544200</v>
       </c>
       <c r="E62" s="3">
-        <v>504200</v>
+        <v>527100</v>
       </c>
       <c r="F62" s="3">
-        <v>525200</v>
+        <v>549100</v>
       </c>
       <c r="G62" s="3">
-        <v>596700</v>
+        <v>623900</v>
       </c>
       <c r="H62" s="3">
-        <v>579800</v>
+        <v>606100</v>
       </c>
       <c r="I62" s="3">
-        <v>556000</v>
+        <v>581300</v>
       </c>
       <c r="J62" s="3">
-        <v>688200</v>
+        <v>719400</v>
       </c>
       <c r="K62" s="3">
         <v>768100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6571100</v>
+        <v>6869700</v>
       </c>
       <c r="E66" s="3">
-        <v>4550100</v>
+        <v>4756800</v>
       </c>
       <c r="F66" s="3">
-        <v>4150900</v>
+        <v>4339500</v>
       </c>
       <c r="G66" s="3">
-        <v>4118600</v>
+        <v>4305700</v>
       </c>
       <c r="H66" s="3">
-        <v>4146500</v>
+        <v>4334900</v>
       </c>
       <c r="I66" s="3">
-        <v>4524300</v>
+        <v>4729800</v>
       </c>
       <c r="J66" s="3">
-        <v>4952700</v>
+        <v>5177700</v>
       </c>
       <c r="K66" s="3">
         <v>5193400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3730100</v>
+        <v>3899600</v>
       </c>
       <c r="E72" s="3">
-        <v>3614500</v>
+        <v>3778700</v>
       </c>
       <c r="F72" s="3">
-        <v>3371500</v>
+        <v>3524600</v>
       </c>
       <c r="G72" s="3">
-        <v>3009100</v>
+        <v>3145800</v>
       </c>
       <c r="H72" s="3">
-        <v>2996700</v>
+        <v>3132900</v>
       </c>
       <c r="I72" s="3">
-        <v>2424700</v>
+        <v>2534900</v>
       </c>
       <c r="J72" s="3">
-        <v>1868400</v>
+        <v>1953200</v>
       </c>
       <c r="K72" s="3">
         <v>1181200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5760600</v>
+        <v>6022400</v>
       </c>
       <c r="E76" s="3">
-        <v>5459200</v>
+        <v>5707300</v>
       </c>
       <c r="F76" s="3">
-        <v>5301200</v>
+        <v>5542000</v>
       </c>
       <c r="G76" s="3">
-        <v>4918800</v>
+        <v>5142300</v>
       </c>
       <c r="H76" s="3">
-        <v>5126600</v>
+        <v>5359500</v>
       </c>
       <c r="I76" s="3">
-        <v>4823300</v>
+        <v>5042400</v>
       </c>
       <c r="J76" s="3">
-        <v>3956200</v>
+        <v>4135900</v>
       </c>
       <c r="K76" s="3">
         <v>3086800</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>886500</v>
+        <v>926800</v>
       </c>
       <c r="E81" s="3">
-        <v>1001700</v>
+        <v>1047300</v>
       </c>
       <c r="F81" s="3">
-        <v>905200</v>
+        <v>946300</v>
       </c>
       <c r="G81" s="3">
-        <v>820900</v>
+        <v>858200</v>
       </c>
       <c r="H81" s="3">
-        <v>847500</v>
+        <v>886000</v>
       </c>
       <c r="I81" s="3">
-        <v>775200</v>
+        <v>810400</v>
       </c>
       <c r="J81" s="3">
-        <v>681600</v>
+        <v>712500</v>
       </c>
       <c r="K81" s="3">
         <v>346900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>448600</v>
+        <v>469000</v>
       </c>
       <c r="E83" s="3">
-        <v>311100</v>
+        <v>325200</v>
       </c>
       <c r="F83" s="3">
-        <v>311400</v>
+        <v>325500</v>
       </c>
       <c r="G83" s="3">
-        <v>299100</v>
+        <v>312700</v>
       </c>
       <c r="H83" s="3">
-        <v>317300</v>
+        <v>331700</v>
       </c>
       <c r="I83" s="3">
-        <v>336300</v>
+        <v>351600</v>
       </c>
       <c r="J83" s="3">
-        <v>352300</v>
+        <v>368300</v>
       </c>
       <c r="K83" s="3">
         <v>331800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1537300</v>
+        <v>1607200</v>
       </c>
       <c r="E89" s="3">
-        <v>1295700</v>
+        <v>1354600</v>
       </c>
       <c r="F89" s="3">
-        <v>1184300</v>
+        <v>1238100</v>
       </c>
       <c r="G89" s="3">
-        <v>1077400</v>
+        <v>1126300</v>
       </c>
       <c r="H89" s="3">
-        <v>1057200</v>
+        <v>1105200</v>
       </c>
       <c r="I89" s="3">
-        <v>1022400</v>
+        <v>1068900</v>
       </c>
       <c r="J89" s="3">
-        <v>931700</v>
+        <v>974000</v>
       </c>
       <c r="K89" s="3">
         <v>510900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-101900</v>
+        <v>-106500</v>
       </c>
       <c r="E91" s="3">
-        <v>-128500</v>
+        <v>-134400</v>
       </c>
       <c r="F91" s="3">
-        <v>-113600</v>
+        <v>-118800</v>
       </c>
       <c r="G91" s="3">
-        <v>-89300</v>
+        <v>-93400</v>
       </c>
       <c r="H91" s="3">
-        <v>-131300</v>
+        <v>-137200</v>
       </c>
       <c r="I91" s="3">
-        <v>-97100</v>
+        <v>-101600</v>
       </c>
       <c r="J91" s="3">
-        <v>-143900</v>
+        <v>-150400</v>
       </c>
       <c r="K91" s="3">
         <v>-108000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-454000</v>
+        <v>-474600</v>
       </c>
       <c r="E94" s="3">
-        <v>-754000</v>
+        <v>-788300</v>
       </c>
       <c r="F94" s="3">
-        <v>-457900</v>
+        <v>-478700</v>
       </c>
       <c r="G94" s="3">
-        <v>-469700</v>
+        <v>-491000</v>
       </c>
       <c r="H94" s="3">
-        <v>-303500</v>
+        <v>-317300</v>
       </c>
       <c r="I94" s="3">
-        <v>-203900</v>
+        <v>-213200</v>
       </c>
       <c r="J94" s="3">
-        <v>-254700</v>
+        <v>-266300</v>
       </c>
       <c r="K94" s="3">
         <v>-178000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>74700</v>
+        <v>78100</v>
       </c>
       <c r="E100" s="3">
-        <v>-498900</v>
+        <v>-521600</v>
       </c>
       <c r="F100" s="3">
-        <v>-697100</v>
+        <v>-728800</v>
       </c>
       <c r="G100" s="3">
-        <v>-938100</v>
+        <v>-980800</v>
       </c>
       <c r="H100" s="3">
-        <v>-528400</v>
+        <v>-552400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1033800</v>
+        <v>-1080800</v>
       </c>
       <c r="J100" s="3">
-        <v>-328400</v>
+        <v>-343300</v>
       </c>
       <c r="K100" s="3">
         <v>-339400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26900</v>
+        <v>28100</v>
       </c>
       <c r="E101" s="3">
-        <v>-19200</v>
+        <v>-20100</v>
       </c>
       <c r="F101" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="G101" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="H101" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="I101" s="3">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="J101" s="3">
-        <v>-8000</v>
+        <v>-8400</v>
       </c>
       <c r="K101" s="3">
         <v>1300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1184900</v>
+        <v>1238700</v>
       </c>
       <c r="E102" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="F102" s="3">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="G102" s="3">
-        <v>-341500</v>
+        <v>-357000</v>
       </c>
       <c r="H102" s="3">
-        <v>231000</v>
+        <v>241500</v>
       </c>
       <c r="I102" s="3">
-        <v>-182800</v>
+        <v>-191100</v>
       </c>
       <c r="J102" s="3">
-        <v>340600</v>
+        <v>356100</v>
       </c>
       <c r="K102" s="3">
         <v>-5300</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10084700</v>
+        <v>9484000</v>
       </c>
       <c r="E8" s="3">
-        <v>10040800</v>
+        <v>9442800</v>
       </c>
       <c r="F8" s="3">
-        <v>9539700</v>
+        <v>8971500</v>
       </c>
       <c r="G8" s="3">
-        <v>8991100</v>
+        <v>8455600</v>
       </c>
       <c r="H8" s="3">
-        <v>8857000</v>
+        <v>8329400</v>
       </c>
       <c r="I8" s="3">
-        <v>8528500</v>
+        <v>8020500</v>
       </c>
       <c r="J8" s="3">
-        <v>8704800</v>
+        <v>8186300</v>
       </c>
       <c r="K8" s="3">
         <v>7675300</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1324800</v>
+        <v>1245800</v>
       </c>
       <c r="E9" s="3">
-        <v>1045600</v>
+        <v>983400</v>
       </c>
       <c r="F9" s="3">
-        <v>1006000</v>
+        <v>946100</v>
       </c>
       <c r="G9" s="3">
-        <v>978800</v>
+        <v>920500</v>
       </c>
       <c r="H9" s="3">
-        <v>986100</v>
+        <v>927300</v>
       </c>
       <c r="I9" s="3">
-        <v>929300</v>
+        <v>874000</v>
       </c>
       <c r="J9" s="3">
-        <v>1013200</v>
+        <v>952900</v>
       </c>
       <c r="K9" s="3">
         <v>975400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8759900</v>
+        <v>8238100</v>
       </c>
       <c r="E10" s="3">
-        <v>8995200</v>
+        <v>8459400</v>
       </c>
       <c r="F10" s="3">
-        <v>8533700</v>
+        <v>8025400</v>
       </c>
       <c r="G10" s="3">
-        <v>8012300</v>
+        <v>7535100</v>
       </c>
       <c r="H10" s="3">
-        <v>7870900</v>
+        <v>7402100</v>
       </c>
       <c r="I10" s="3">
-        <v>7599200</v>
+        <v>7146600</v>
       </c>
       <c r="J10" s="3">
-        <v>7691600</v>
+        <v>7233400</v>
       </c>
       <c r="K10" s="3">
         <v>6699900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>207400</v>
+        <v>195000</v>
       </c>
       <c r="E14" s="3">
-        <v>64200</v>
+        <v>60400</v>
       </c>
       <c r="F14" s="3">
-        <v>114300</v>
+        <v>107500</v>
       </c>
       <c r="G14" s="3">
-        <v>82000</v>
+        <v>77100</v>
       </c>
       <c r="H14" s="3">
-        <v>24100</v>
+        <v>22700</v>
       </c>
       <c r="I14" s="3">
-        <v>34200</v>
+        <v>32100</v>
       </c>
       <c r="J14" s="3">
-        <v>105600</v>
+        <v>99300</v>
       </c>
       <c r="K14" s="3">
         <v>257600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8827600</v>
+        <v>8301800</v>
       </c>
       <c r="E17" s="3">
-        <v>8650500</v>
+        <v>8135300</v>
       </c>
       <c r="F17" s="3">
-        <v>8304500</v>
+        <v>7809800</v>
       </c>
       <c r="G17" s="3">
-        <v>7815600</v>
+        <v>7350100</v>
       </c>
       <c r="H17" s="3">
-        <v>7652500</v>
+        <v>7196700</v>
       </c>
       <c r="I17" s="3">
-        <v>7427100</v>
+        <v>6984700</v>
       </c>
       <c r="J17" s="3">
-        <v>7767700</v>
+        <v>7305100</v>
       </c>
       <c r="K17" s="3">
         <v>7197600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1257100</v>
+        <v>1182200</v>
       </c>
       <c r="E18" s="3">
-        <v>1390300</v>
+        <v>1307500</v>
       </c>
       <c r="F18" s="3">
-        <v>1235300</v>
+        <v>1161700</v>
       </c>
       <c r="G18" s="3">
-        <v>1175500</v>
+        <v>1105500</v>
       </c>
       <c r="H18" s="3">
-        <v>1204400</v>
+        <v>1132700</v>
       </c>
       <c r="I18" s="3">
-        <v>1101400</v>
+        <v>1035800</v>
       </c>
       <c r="J18" s="3">
-        <v>937000</v>
+        <v>881200</v>
       </c>
       <c r="K18" s="3">
         <v>477700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1726900</v>
+        <v>1629200</v>
       </c>
       <c r="E21" s="3">
-        <v>1716100</v>
+        <v>1617500</v>
       </c>
       <c r="F21" s="3">
-        <v>1561400</v>
+        <v>1472000</v>
       </c>
       <c r="G21" s="3">
-        <v>1488800</v>
+        <v>1403600</v>
       </c>
       <c r="H21" s="3">
-        <v>1536700</v>
+        <v>1448800</v>
       </c>
       <c r="I21" s="3">
-        <v>1453700</v>
+        <v>1370900</v>
       </c>
       <c r="J21" s="3">
-        <v>1306000</v>
+        <v>1232300</v>
       </c>
       <c r="K21" s="3">
         <v>808700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1257100</v>
+        <v>1182200</v>
       </c>
       <c r="E23" s="3">
-        <v>1390300</v>
+        <v>1307500</v>
       </c>
       <c r="F23" s="3">
-        <v>1235300</v>
+        <v>1161700</v>
       </c>
       <c r="G23" s="3">
-        <v>1175500</v>
+        <v>1105500</v>
       </c>
       <c r="H23" s="3">
-        <v>1204400</v>
+        <v>1132700</v>
       </c>
       <c r="I23" s="3">
-        <v>1101400</v>
+        <v>1035800</v>
       </c>
       <c r="J23" s="3">
-        <v>937000</v>
+        <v>881200</v>
       </c>
       <c r="K23" s="3">
         <v>477700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>330300</v>
+        <v>310600</v>
       </c>
       <c r="E24" s="3">
-        <v>343000</v>
+        <v>322600</v>
       </c>
       <c r="F24" s="3">
-        <v>289000</v>
+        <v>271800</v>
       </c>
       <c r="G24" s="3">
-        <v>317300</v>
+        <v>298400</v>
       </c>
       <c r="H24" s="3">
-        <v>318400</v>
+        <v>299400</v>
       </c>
       <c r="I24" s="3">
-        <v>291000</v>
+        <v>273700</v>
       </c>
       <c r="J24" s="3">
-        <v>224500</v>
+        <v>211100</v>
       </c>
       <c r="K24" s="3">
         <v>130800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>926800</v>
+        <v>871600</v>
       </c>
       <c r="E26" s="3">
-        <v>1047300</v>
+        <v>984900</v>
       </c>
       <c r="F26" s="3">
-        <v>946300</v>
+        <v>889900</v>
       </c>
       <c r="G26" s="3">
-        <v>858200</v>
+        <v>807100</v>
       </c>
       <c r="H26" s="3">
-        <v>886000</v>
+        <v>833200</v>
       </c>
       <c r="I26" s="3">
-        <v>810400</v>
+        <v>762200</v>
       </c>
       <c r="J26" s="3">
-        <v>712500</v>
+        <v>670100</v>
       </c>
       <c r="K26" s="3">
         <v>346900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>926800</v>
+        <v>871600</v>
       </c>
       <c r="E27" s="3">
-        <v>1047300</v>
+        <v>984900</v>
       </c>
       <c r="F27" s="3">
-        <v>946300</v>
+        <v>889900</v>
       </c>
       <c r="G27" s="3">
-        <v>858200</v>
+        <v>807100</v>
       </c>
       <c r="H27" s="3">
-        <v>886000</v>
+        <v>833200</v>
       </c>
       <c r="I27" s="3">
-        <v>810400</v>
+        <v>762200</v>
       </c>
       <c r="J27" s="3">
-        <v>712500</v>
+        <v>670100</v>
       </c>
       <c r="K27" s="3">
         <v>346900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>926800</v>
+        <v>871600</v>
       </c>
       <c r="E33" s="3">
-        <v>1047300</v>
+        <v>984900</v>
       </c>
       <c r="F33" s="3">
-        <v>946300</v>
+        <v>889900</v>
       </c>
       <c r="G33" s="3">
-        <v>858200</v>
+        <v>807100</v>
       </c>
       <c r="H33" s="3">
-        <v>886000</v>
+        <v>833200</v>
       </c>
       <c r="I33" s="3">
-        <v>810400</v>
+        <v>762200</v>
       </c>
       <c r="J33" s="3">
-        <v>712500</v>
+        <v>670100</v>
       </c>
       <c r="K33" s="3">
         <v>346900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>926800</v>
+        <v>871600</v>
       </c>
       <c r="E35" s="3">
-        <v>1047300</v>
+        <v>984900</v>
       </c>
       <c r="F35" s="3">
-        <v>946300</v>
+        <v>889900</v>
       </c>
       <c r="G35" s="3">
-        <v>858200</v>
+        <v>807100</v>
       </c>
       <c r="H35" s="3">
-        <v>886000</v>
+        <v>833200</v>
       </c>
       <c r="I35" s="3">
-        <v>810400</v>
+        <v>762200</v>
       </c>
       <c r="J35" s="3">
-        <v>712500</v>
+        <v>670100</v>
       </c>
       <c r="K35" s="3">
         <v>346900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1416000</v>
+        <v>1331700</v>
       </c>
       <c r="E41" s="3">
-        <v>177300</v>
+        <v>166700</v>
       </c>
       <c r="F41" s="3">
-        <v>152600</v>
+        <v>143500</v>
       </c>
       <c r="G41" s="3">
-        <v>137500</v>
+        <v>129300</v>
       </c>
       <c r="H41" s="3">
-        <v>494600</v>
+        <v>465100</v>
       </c>
       <c r="I41" s="3">
-        <v>253100</v>
+        <v>238000</v>
       </c>
       <c r="J41" s="3">
-        <v>444100</v>
+        <v>417700</v>
       </c>
       <c r="K41" s="3">
         <v>107200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1035200</v>
+        <v>973500</v>
       </c>
       <c r="E43" s="3">
-        <v>1133600</v>
+        <v>1066000</v>
       </c>
       <c r="F43" s="3">
-        <v>1232000</v>
+        <v>1158600</v>
       </c>
       <c r="G43" s="3">
-        <v>1071500</v>
+        <v>1007700</v>
       </c>
       <c r="H43" s="3">
-        <v>919800</v>
+        <v>865000</v>
       </c>
       <c r="I43" s="3">
-        <v>914900</v>
+        <v>860400</v>
       </c>
       <c r="J43" s="3">
-        <v>866000</v>
+        <v>814400</v>
       </c>
       <c r="K43" s="3">
         <v>1706200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>891400</v>
+        <v>838300</v>
       </c>
       <c r="E44" s="3">
-        <v>908700</v>
+        <v>854500</v>
       </c>
       <c r="F44" s="3">
-        <v>781600</v>
+        <v>735100</v>
       </c>
       <c r="G44" s="3">
-        <v>764900</v>
+        <v>719300</v>
       </c>
       <c r="H44" s="3">
-        <v>775600</v>
+        <v>729400</v>
       </c>
       <c r="I44" s="3">
-        <v>723800</v>
+        <v>680700</v>
       </c>
       <c r="J44" s="3">
-        <v>669900</v>
+        <v>630000</v>
       </c>
       <c r="K44" s="3">
         <v>694000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>749500</v>
+        <v>704900</v>
       </c>
       <c r="E45" s="3">
-        <v>481000</v>
+        <v>452400</v>
       </c>
       <c r="F45" s="3">
-        <v>407500</v>
+        <v>383200</v>
       </c>
       <c r="G45" s="3">
-        <v>399700</v>
+        <v>375900</v>
       </c>
       <c r="H45" s="3">
-        <v>466000</v>
+        <v>438300</v>
       </c>
       <c r="I45" s="3">
-        <v>566700</v>
+        <v>533000</v>
       </c>
       <c r="J45" s="3">
-        <v>397400</v>
+        <v>373700</v>
       </c>
       <c r="K45" s="3">
         <v>503800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4092200</v>
+        <v>3848400</v>
       </c>
       <c r="E46" s="3">
-        <v>2700500</v>
+        <v>2539700</v>
       </c>
       <c r="F46" s="3">
-        <v>2573700</v>
+        <v>2420400</v>
       </c>
       <c r="G46" s="3">
-        <v>2373600</v>
+        <v>2232200</v>
       </c>
       <c r="H46" s="3">
-        <v>2656000</v>
+        <v>2497800</v>
       </c>
       <c r="I46" s="3">
-        <v>2458600</v>
+        <v>2312100</v>
       </c>
       <c r="J46" s="3">
-        <v>2377400</v>
+        <v>2235800</v>
       </c>
       <c r="K46" s="3">
         <v>2042100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>328300</v>
+        <v>308700</v>
       </c>
       <c r="E47" s="3">
-        <v>331500</v>
+        <v>311800</v>
       </c>
       <c r="F47" s="3">
-        <v>299200</v>
+        <v>281400</v>
       </c>
       <c r="G47" s="3">
-        <v>293800</v>
+        <v>276300</v>
       </c>
       <c r="H47" s="3">
-        <v>282200</v>
+        <v>265400</v>
       </c>
       <c r="I47" s="3">
-        <v>258700</v>
+        <v>243300</v>
       </c>
       <c r="J47" s="3">
-        <v>199500</v>
+        <v>187600</v>
       </c>
       <c r="K47" s="3">
         <v>165100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>862100</v>
+        <v>810700</v>
       </c>
       <c r="E48" s="3">
-        <v>329700</v>
+        <v>310000</v>
       </c>
       <c r="F48" s="3">
-        <v>321700</v>
+        <v>302600</v>
       </c>
       <c r="G48" s="3">
-        <v>328800</v>
+        <v>309200</v>
       </c>
       <c r="H48" s="3">
-        <v>364200</v>
+        <v>342500</v>
       </c>
       <c r="I48" s="3">
-        <v>392200</v>
+        <v>368900</v>
       </c>
       <c r="J48" s="3">
-        <v>403600</v>
+        <v>379600</v>
       </c>
       <c r="K48" s="3">
         <v>361600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7379700</v>
+        <v>6940100</v>
       </c>
       <c r="E49" s="3">
-        <v>6869400</v>
+        <v>6460200</v>
       </c>
       <c r="F49" s="3">
-        <v>6484000</v>
+        <v>6097800</v>
       </c>
       <c r="G49" s="3">
-        <v>6259700</v>
+        <v>5886900</v>
       </c>
       <c r="H49" s="3">
-        <v>6170700</v>
+        <v>5803200</v>
       </c>
       <c r="I49" s="3">
-        <v>6388500</v>
+        <v>6008000</v>
       </c>
       <c r="J49" s="3">
-        <v>6003500</v>
+        <v>5645900</v>
       </c>
       <c r="K49" s="3">
         <v>6051100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>229800</v>
+        <v>216100</v>
       </c>
       <c r="E52" s="3">
-        <v>233000</v>
+        <v>219100</v>
       </c>
       <c r="F52" s="3">
-        <v>202800</v>
+        <v>190700</v>
       </c>
       <c r="G52" s="3">
-        <v>192100</v>
+        <v>180700</v>
       </c>
       <c r="H52" s="3">
-        <v>221200</v>
+        <v>208100</v>
       </c>
       <c r="I52" s="3">
-        <v>274200</v>
+        <v>257900</v>
       </c>
       <c r="J52" s="3">
-        <v>329600</v>
+        <v>310000</v>
       </c>
       <c r="K52" s="3">
         <v>351500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12892000</v>
+        <v>12124100</v>
       </c>
       <c r="E54" s="3">
-        <v>10464100</v>
+        <v>9840800</v>
       </c>
       <c r="F54" s="3">
-        <v>9881500</v>
+        <v>9292900</v>
       </c>
       <c r="G54" s="3">
-        <v>9448000</v>
+        <v>8885300</v>
       </c>
       <c r="H54" s="3">
-        <v>9694400</v>
+        <v>9116900</v>
       </c>
       <c r="I54" s="3">
-        <v>9772200</v>
+        <v>9190200</v>
       </c>
       <c r="J54" s="3">
-        <v>9313600</v>
+        <v>8758900</v>
       </c>
       <c r="K54" s="3">
         <v>8280100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>850600</v>
+        <v>799900</v>
       </c>
       <c r="E57" s="3">
-        <v>919300</v>
+        <v>864600</v>
       </c>
       <c r="F57" s="3">
-        <v>940800</v>
+        <v>884800</v>
       </c>
       <c r="G57" s="3">
-        <v>832600</v>
+        <v>783000</v>
       </c>
       <c r="H57" s="3">
-        <v>918500</v>
+        <v>863800</v>
       </c>
       <c r="I57" s="3">
-        <v>923300</v>
+        <v>868300</v>
       </c>
       <c r="J57" s="3">
-        <v>879100</v>
+        <v>826700</v>
       </c>
       <c r="K57" s="3">
         <v>851700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>405800</v>
+        <v>381600</v>
       </c>
       <c r="E58" s="3">
-        <v>94100</v>
+        <v>88500</v>
       </c>
       <c r="F58" s="3">
-        <v>289000</v>
+        <v>271800</v>
       </c>
       <c r="G58" s="3">
-        <v>101500</v>
+        <v>95500</v>
       </c>
       <c r="H58" s="3">
-        <v>159200</v>
+        <v>149700</v>
       </c>
       <c r="I58" s="3">
-        <v>191400</v>
+        <v>180000</v>
       </c>
       <c r="J58" s="3">
-        <v>66600</v>
+        <v>62700</v>
       </c>
       <c r="K58" s="3">
         <v>406600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1774500</v>
+        <v>1668800</v>
       </c>
       <c r="E59" s="3">
-        <v>1377600</v>
+        <v>1295600</v>
       </c>
       <c r="F59" s="3">
-        <v>1356600</v>
+        <v>1275800</v>
       </c>
       <c r="G59" s="3">
-        <v>1305600</v>
+        <v>1227800</v>
       </c>
       <c r="H59" s="3">
-        <v>1226000</v>
+        <v>1152900</v>
       </c>
       <c r="I59" s="3">
-        <v>1461800</v>
+        <v>1374700</v>
       </c>
       <c r="J59" s="3">
-        <v>1357500</v>
+        <v>1276700</v>
       </c>
       <c r="K59" s="3">
         <v>1391900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3030900</v>
+        <v>2850300</v>
       </c>
       <c r="E60" s="3">
-        <v>2391100</v>
+        <v>2248700</v>
       </c>
       <c r="F60" s="3">
-        <v>2586400</v>
+        <v>2432300</v>
       </c>
       <c r="G60" s="3">
-        <v>2239700</v>
+        <v>2106300</v>
       </c>
       <c r="H60" s="3">
-        <v>2303700</v>
+        <v>2166400</v>
       </c>
       <c r="I60" s="3">
-        <v>2576500</v>
+        <v>2423000</v>
       </c>
       <c r="J60" s="3">
-        <v>2303300</v>
+        <v>2166100</v>
       </c>
       <c r="K60" s="3">
         <v>2650100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3294600</v>
+        <v>3098400</v>
       </c>
       <c r="E61" s="3">
-        <v>1838600</v>
+        <v>1729100</v>
       </c>
       <c r="F61" s="3">
-        <v>1204000</v>
+        <v>1132300</v>
       </c>
       <c r="G61" s="3">
-        <v>1442200</v>
+        <v>1356300</v>
       </c>
       <c r="H61" s="3">
-        <v>1425100</v>
+        <v>1340200</v>
       </c>
       <c r="I61" s="3">
-        <v>1572000</v>
+        <v>1478400</v>
       </c>
       <c r="J61" s="3">
-        <v>2155000</v>
+        <v>2026600</v>
       </c>
       <c r="K61" s="3">
         <v>1775100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>544200</v>
+        <v>511800</v>
       </c>
       <c r="E62" s="3">
-        <v>527100</v>
+        <v>495700</v>
       </c>
       <c r="F62" s="3">
-        <v>549100</v>
+        <v>516400</v>
       </c>
       <c r="G62" s="3">
-        <v>623900</v>
+        <v>586700</v>
       </c>
       <c r="H62" s="3">
-        <v>606100</v>
+        <v>570000</v>
       </c>
       <c r="I62" s="3">
-        <v>581300</v>
+        <v>546700</v>
       </c>
       <c r="J62" s="3">
-        <v>719400</v>
+        <v>676600</v>
       </c>
       <c r="K62" s="3">
         <v>768100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6869700</v>
+        <v>6460500</v>
       </c>
       <c r="E66" s="3">
-        <v>4756800</v>
+        <v>4473500</v>
       </c>
       <c r="F66" s="3">
-        <v>4339500</v>
+        <v>4081000</v>
       </c>
       <c r="G66" s="3">
-        <v>4305700</v>
+        <v>4049300</v>
       </c>
       <c r="H66" s="3">
-        <v>4334900</v>
+        <v>4076700</v>
       </c>
       <c r="I66" s="3">
-        <v>4729800</v>
+        <v>4448100</v>
       </c>
       <c r="J66" s="3">
-        <v>5177700</v>
+        <v>4869300</v>
       </c>
       <c r="K66" s="3">
         <v>5193400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3899600</v>
+        <v>3667300</v>
       </c>
       <c r="E72" s="3">
-        <v>3778700</v>
+        <v>3553600</v>
       </c>
       <c r="F72" s="3">
-        <v>3524600</v>
+        <v>3314700</v>
       </c>
       <c r="G72" s="3">
-        <v>3145800</v>
+        <v>2958400</v>
       </c>
       <c r="H72" s="3">
-        <v>3132900</v>
+        <v>2946300</v>
       </c>
       <c r="I72" s="3">
-        <v>2534900</v>
+        <v>2383900</v>
       </c>
       <c r="J72" s="3">
-        <v>1953200</v>
+        <v>1836900</v>
       </c>
       <c r="K72" s="3">
         <v>1181200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6022400</v>
+        <v>5663600</v>
       </c>
       <c r="E76" s="3">
-        <v>5707300</v>
+        <v>5367300</v>
       </c>
       <c r="F76" s="3">
-        <v>5542000</v>
+        <v>5211900</v>
       </c>
       <c r="G76" s="3">
-        <v>5142300</v>
+        <v>4836000</v>
       </c>
       <c r="H76" s="3">
-        <v>5359500</v>
+        <v>5040300</v>
       </c>
       <c r="I76" s="3">
-        <v>5042400</v>
+        <v>4742100</v>
       </c>
       <c r="J76" s="3">
-        <v>4135900</v>
+        <v>3889600</v>
       </c>
       <c r="K76" s="3">
         <v>3086800</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>926800</v>
+        <v>871600</v>
       </c>
       <c r="E81" s="3">
-        <v>1047300</v>
+        <v>984900</v>
       </c>
       <c r="F81" s="3">
-        <v>946300</v>
+        <v>889900</v>
       </c>
       <c r="G81" s="3">
-        <v>858200</v>
+        <v>807100</v>
       </c>
       <c r="H81" s="3">
-        <v>886000</v>
+        <v>833200</v>
       </c>
       <c r="I81" s="3">
-        <v>810400</v>
+        <v>762200</v>
       </c>
       <c r="J81" s="3">
-        <v>712500</v>
+        <v>670100</v>
       </c>
       <c r="K81" s="3">
         <v>346900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>469000</v>
+        <v>441100</v>
       </c>
       <c r="E83" s="3">
-        <v>325200</v>
+        <v>305900</v>
       </c>
       <c r="F83" s="3">
-        <v>325500</v>
+        <v>306200</v>
       </c>
       <c r="G83" s="3">
-        <v>312700</v>
+        <v>294100</v>
       </c>
       <c r="H83" s="3">
-        <v>331700</v>
+        <v>311900</v>
       </c>
       <c r="I83" s="3">
-        <v>351600</v>
+        <v>330600</v>
       </c>
       <c r="J83" s="3">
-        <v>368300</v>
+        <v>346400</v>
       </c>
       <c r="K83" s="3">
         <v>331800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1607200</v>
+        <v>1511400</v>
       </c>
       <c r="E89" s="3">
-        <v>1354600</v>
+        <v>1273900</v>
       </c>
       <c r="F89" s="3">
-        <v>1238100</v>
+        <v>1164400</v>
       </c>
       <c r="G89" s="3">
-        <v>1126300</v>
+        <v>1059200</v>
       </c>
       <c r="H89" s="3">
-        <v>1105200</v>
+        <v>1039400</v>
       </c>
       <c r="I89" s="3">
-        <v>1068900</v>
+        <v>1005200</v>
       </c>
       <c r="J89" s="3">
-        <v>974000</v>
+        <v>916000</v>
       </c>
       <c r="K89" s="3">
         <v>510900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106500</v>
+        <v>-100200</v>
       </c>
       <c r="E91" s="3">
-        <v>-134400</v>
+        <v>-126400</v>
       </c>
       <c r="F91" s="3">
-        <v>-118800</v>
+        <v>-111700</v>
       </c>
       <c r="G91" s="3">
-        <v>-93400</v>
+        <v>-87800</v>
       </c>
       <c r="H91" s="3">
-        <v>-137200</v>
+        <v>-129000</v>
       </c>
       <c r="I91" s="3">
-        <v>-101600</v>
+        <v>-95500</v>
       </c>
       <c r="J91" s="3">
-        <v>-150400</v>
+        <v>-141500</v>
       </c>
       <c r="K91" s="3">
         <v>-108000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-474600</v>
+        <v>-446300</v>
       </c>
       <c r="E94" s="3">
-        <v>-788300</v>
+        <v>-741300</v>
       </c>
       <c r="F94" s="3">
-        <v>-478700</v>
+        <v>-450200</v>
       </c>
       <c r="G94" s="3">
-        <v>-491000</v>
+        <v>-461800</v>
       </c>
       <c r="H94" s="3">
-        <v>-317300</v>
+        <v>-298400</v>
       </c>
       <c r="I94" s="3">
-        <v>-213200</v>
+        <v>-200500</v>
       </c>
       <c r="J94" s="3">
-        <v>-266300</v>
+        <v>-250400</v>
       </c>
       <c r="K94" s="3">
         <v>-178000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>78100</v>
+        <v>73400</v>
       </c>
       <c r="E100" s="3">
-        <v>-521600</v>
+        <v>-490500</v>
       </c>
       <c r="F100" s="3">
-        <v>-728800</v>
+        <v>-685400</v>
       </c>
       <c r="G100" s="3">
-        <v>-980800</v>
+        <v>-922300</v>
       </c>
       <c r="H100" s="3">
-        <v>-552400</v>
+        <v>-519500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1080800</v>
+        <v>-1016400</v>
       </c>
       <c r="J100" s="3">
-        <v>-343300</v>
+        <v>-322800</v>
       </c>
       <c r="K100" s="3">
         <v>-339400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>28100</v>
+        <v>26400</v>
       </c>
       <c r="E101" s="3">
-        <v>-20100</v>
+        <v>-18900</v>
       </c>
       <c r="F101" s="3">
-        <v>-15500</v>
+        <v>-14600</v>
       </c>
       <c r="G101" s="3">
-        <v>-11600</v>
+        <v>-10900</v>
       </c>
       <c r="H101" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="I101" s="3">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="J101" s="3">
-        <v>-8400</v>
+        <v>-7900</v>
       </c>
       <c r="K101" s="3">
         <v>1300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1238700</v>
+        <v>1164900</v>
       </c>
       <c r="E102" s="3">
-        <v>24700</v>
+        <v>23200</v>
       </c>
       <c r="F102" s="3">
-        <v>15100</v>
+        <v>14200</v>
       </c>
       <c r="G102" s="3">
-        <v>-357000</v>
+        <v>-335800</v>
       </c>
       <c r="H102" s="3">
-        <v>241500</v>
+        <v>227100</v>
       </c>
       <c r="I102" s="3">
-        <v>-191100</v>
+        <v>-179700</v>
       </c>
       <c r="J102" s="3">
-        <v>356100</v>
+        <v>334900</v>
       </c>
       <c r="K102" s="3">
         <v>-5300</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>GIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40816</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9484000</v>
+        <v>9520100</v>
       </c>
       <c r="E8" s="3">
-        <v>9442800</v>
+        <v>9549400</v>
       </c>
       <c r="F8" s="3">
-        <v>8971500</v>
+        <v>9507900</v>
       </c>
       <c r="G8" s="3">
-        <v>8455600</v>
+        <v>9033400</v>
       </c>
       <c r="H8" s="3">
-        <v>8329400</v>
+        <v>8513900</v>
       </c>
       <c r="I8" s="3">
-        <v>8020500</v>
+        <v>8386900</v>
       </c>
       <c r="J8" s="3">
+        <v>8075900</v>
+      </c>
+      <c r="K8" s="3">
         <v>8186300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7675300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3551700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3245000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1245800</v>
+        <v>1211000</v>
       </c>
       <c r="E9" s="3">
-        <v>983400</v>
+        <v>1254400</v>
       </c>
       <c r="F9" s="3">
-        <v>946100</v>
+        <v>990100</v>
       </c>
       <c r="G9" s="3">
-        <v>920500</v>
+        <v>952600</v>
       </c>
       <c r="H9" s="3">
-        <v>927300</v>
+        <v>926900</v>
       </c>
       <c r="I9" s="3">
-        <v>874000</v>
+        <v>933700</v>
       </c>
       <c r="J9" s="3">
+        <v>880000</v>
+      </c>
+      <c r="K9" s="3">
         <v>952900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>975400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3145700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2835500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8238100</v>
+        <v>8309100</v>
       </c>
       <c r="E10" s="3">
-        <v>8459400</v>
+        <v>8295000</v>
       </c>
       <c r="F10" s="3">
-        <v>8025400</v>
+        <v>8517800</v>
       </c>
       <c r="G10" s="3">
-        <v>7535100</v>
+        <v>8080800</v>
       </c>
       <c r="H10" s="3">
-        <v>7402100</v>
+        <v>7587000</v>
       </c>
       <c r="I10" s="3">
-        <v>7146600</v>
+        <v>7453200</v>
       </c>
       <c r="J10" s="3">
+        <v>7195900</v>
+      </c>
+      <c r="K10" s="3">
         <v>7233400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6699900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>406000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>409500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>195000</v>
+        <v>13400</v>
       </c>
       <c r="E14" s="3">
-        <v>60400</v>
+        <v>196400</v>
       </c>
       <c r="F14" s="3">
-        <v>107500</v>
+        <v>60800</v>
       </c>
       <c r="G14" s="3">
-        <v>77100</v>
+        <v>108200</v>
       </c>
       <c r="H14" s="3">
-        <v>22700</v>
+        <v>77700</v>
       </c>
       <c r="I14" s="3">
-        <v>32100</v>
+        <v>22800</v>
       </c>
       <c r="J14" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K14" s="3">
         <v>99300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>257600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>189800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -975,15 +997,18 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>60400</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8301800</v>
+        <v>8077200</v>
       </c>
       <c r="E17" s="3">
-        <v>8135300</v>
+        <v>8359100</v>
       </c>
       <c r="F17" s="3">
-        <v>7809800</v>
+        <v>8191400</v>
       </c>
       <c r="G17" s="3">
-        <v>7350100</v>
+        <v>7863700</v>
       </c>
       <c r="H17" s="3">
-        <v>7196700</v>
+        <v>7400800</v>
       </c>
       <c r="I17" s="3">
-        <v>6984700</v>
+        <v>7246400</v>
       </c>
       <c r="J17" s="3">
+        <v>7032900</v>
+      </c>
+      <c r="K17" s="3">
         <v>7305100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7197600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3356000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2831800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1182200</v>
+        <v>1442900</v>
       </c>
       <c r="E18" s="3">
-        <v>1307500</v>
+        <v>1190300</v>
       </c>
       <c r="F18" s="3">
-        <v>1161700</v>
+        <v>1316500</v>
       </c>
       <c r="G18" s="3">
-        <v>1105500</v>
+        <v>1169700</v>
       </c>
       <c r="H18" s="3">
-        <v>1132700</v>
+        <v>1113100</v>
       </c>
       <c r="I18" s="3">
-        <v>1035800</v>
+        <v>1140500</v>
       </c>
       <c r="J18" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="K18" s="3">
         <v>881200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>477700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>195700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>413200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,8 +1115,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,45 +1151,51 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1629200</v>
+        <v>1837100</v>
       </c>
       <c r="E21" s="3">
-        <v>1617500</v>
+        <v>1632800</v>
       </c>
       <c r="F21" s="3">
-        <v>1472000</v>
+        <v>1623300</v>
       </c>
       <c r="G21" s="3">
-        <v>1403600</v>
+        <v>1476800</v>
       </c>
       <c r="H21" s="3">
-        <v>1448800</v>
+        <v>1408100</v>
       </c>
       <c r="I21" s="3">
-        <v>1370900</v>
+        <v>1453400</v>
       </c>
       <c r="J21" s="3">
+        <v>1374600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1232300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>808700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>368200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>585600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1182200</v>
+        <v>1442900</v>
       </c>
       <c r="E23" s="3">
-        <v>1307500</v>
+        <v>1190300</v>
       </c>
       <c r="F23" s="3">
-        <v>1161700</v>
+        <v>1316500</v>
       </c>
       <c r="G23" s="3">
-        <v>1105500</v>
+        <v>1169700</v>
       </c>
       <c r="H23" s="3">
-        <v>1132700</v>
+        <v>1113100</v>
       </c>
       <c r="I23" s="3">
-        <v>1035800</v>
+        <v>1140500</v>
       </c>
       <c r="J23" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="K23" s="3">
         <v>881200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>477700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>195700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>413200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>310600</v>
+        <v>368100</v>
       </c>
       <c r="E24" s="3">
-        <v>322600</v>
+        <v>312800</v>
       </c>
       <c r="F24" s="3">
-        <v>271800</v>
+        <v>324800</v>
       </c>
       <c r="G24" s="3">
-        <v>298400</v>
+        <v>273700</v>
       </c>
       <c r="H24" s="3">
-        <v>299400</v>
+        <v>300400</v>
       </c>
       <c r="I24" s="3">
-        <v>273700</v>
+        <v>301500</v>
       </c>
       <c r="J24" s="3">
+        <v>275500</v>
+      </c>
+      <c r="K24" s="3">
         <v>211100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>130800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>76600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>871600</v>
+        <v>1074800</v>
       </c>
       <c r="E26" s="3">
-        <v>984900</v>
+        <v>877600</v>
       </c>
       <c r="F26" s="3">
-        <v>889900</v>
+        <v>991700</v>
       </c>
       <c r="G26" s="3">
-        <v>807100</v>
+        <v>896100</v>
       </c>
       <c r="H26" s="3">
-        <v>833200</v>
+        <v>812700</v>
       </c>
       <c r="I26" s="3">
-        <v>762200</v>
+        <v>839000</v>
       </c>
       <c r="J26" s="3">
+        <v>767400</v>
+      </c>
+      <c r="K26" s="3">
         <v>670100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>346900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>97900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>336600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>871600</v>
+        <v>1074800</v>
       </c>
       <c r="E27" s="3">
-        <v>984900</v>
+        <v>877600</v>
       </c>
       <c r="F27" s="3">
-        <v>889900</v>
+        <v>991700</v>
       </c>
       <c r="G27" s="3">
-        <v>807100</v>
+        <v>896100</v>
       </c>
       <c r="H27" s="3">
-        <v>833200</v>
+        <v>812700</v>
       </c>
       <c r="I27" s="3">
-        <v>762200</v>
+        <v>839000</v>
       </c>
       <c r="J27" s="3">
+        <v>767400</v>
+      </c>
+      <c r="K27" s="3">
         <v>670100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>346900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>97900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>336400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,9 +1580,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1550,45 +1619,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>871600</v>
+        <v>1074800</v>
       </c>
       <c r="E33" s="3">
-        <v>984900</v>
+        <v>877600</v>
       </c>
       <c r="F33" s="3">
-        <v>889900</v>
+        <v>991700</v>
       </c>
       <c r="G33" s="3">
-        <v>807100</v>
+        <v>896100</v>
       </c>
       <c r="H33" s="3">
-        <v>833200</v>
+        <v>812700</v>
       </c>
       <c r="I33" s="3">
-        <v>762200</v>
+        <v>839000</v>
       </c>
       <c r="J33" s="3">
+        <v>767400</v>
+      </c>
+      <c r="K33" s="3">
         <v>670100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>346900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>97900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>336400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>871600</v>
+        <v>1074800</v>
       </c>
       <c r="E35" s="3">
-        <v>984900</v>
+        <v>877600</v>
       </c>
       <c r="F35" s="3">
-        <v>889900</v>
+        <v>991700</v>
       </c>
       <c r="G35" s="3">
-        <v>807100</v>
+        <v>896100</v>
       </c>
       <c r="H35" s="3">
-        <v>833200</v>
+        <v>812700</v>
       </c>
       <c r="I35" s="3">
-        <v>762200</v>
+        <v>839000</v>
       </c>
       <c r="J35" s="3">
+        <v>767400</v>
+      </c>
+      <c r="K35" s="3">
         <v>670100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>346900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>97900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>336400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40816</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1331700</v>
+        <v>1334000</v>
       </c>
       <c r="E41" s="3">
-        <v>166700</v>
+        <v>1340900</v>
       </c>
       <c r="F41" s="3">
-        <v>143500</v>
+        <v>167900</v>
       </c>
       <c r="G41" s="3">
-        <v>129300</v>
+        <v>144500</v>
       </c>
       <c r="H41" s="3">
-        <v>465100</v>
+        <v>130200</v>
       </c>
       <c r="I41" s="3">
-        <v>238000</v>
+        <v>468300</v>
       </c>
       <c r="J41" s="3">
+        <v>239600</v>
+      </c>
+      <c r="K41" s="3">
         <v>417700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>107200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1795,269 +1884,293 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>143000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>163500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>973500</v>
+        <v>970600</v>
       </c>
       <c r="E43" s="3">
-        <v>1066000</v>
+        <v>980300</v>
       </c>
       <c r="F43" s="3">
-        <v>1158600</v>
+        <v>1073400</v>
       </c>
       <c r="G43" s="3">
-        <v>1007700</v>
+        <v>1166600</v>
       </c>
       <c r="H43" s="3">
-        <v>865000</v>
+        <v>1014600</v>
       </c>
       <c r="I43" s="3">
-        <v>860400</v>
+        <v>871000</v>
       </c>
       <c r="J43" s="3">
+        <v>866400</v>
+      </c>
+      <c r="K43" s="3">
         <v>814400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1706200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2175800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>380100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>838300</v>
+        <v>820400</v>
       </c>
       <c r="E44" s="3">
-        <v>854500</v>
+        <v>844100</v>
       </c>
       <c r="F44" s="3">
-        <v>735100</v>
+        <v>860400</v>
       </c>
       <c r="G44" s="3">
-        <v>719300</v>
+        <v>740200</v>
       </c>
       <c r="H44" s="3">
-        <v>729400</v>
+        <v>724300</v>
       </c>
       <c r="I44" s="3">
-        <v>680700</v>
+        <v>734400</v>
       </c>
       <c r="J44" s="3">
+        <v>685400</v>
+      </c>
+      <c r="K44" s="3">
         <v>630000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>694000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1072900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>704900</v>
+        <v>615900</v>
       </c>
       <c r="E45" s="3">
-        <v>452400</v>
+        <v>709800</v>
       </c>
       <c r="F45" s="3">
-        <v>383200</v>
+        <v>455500</v>
       </c>
       <c r="G45" s="3">
-        <v>375900</v>
+        <v>385900</v>
       </c>
       <c r="H45" s="3">
-        <v>438300</v>
+        <v>378500</v>
       </c>
       <c r="I45" s="3">
-        <v>533000</v>
+        <v>441300</v>
       </c>
       <c r="J45" s="3">
+        <v>536700</v>
+      </c>
+      <c r="K45" s="3">
         <v>373700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>503800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>508400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>267400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3848400</v>
+        <v>3740900</v>
       </c>
       <c r="E46" s="3">
-        <v>2539700</v>
+        <v>3875000</v>
       </c>
       <c r="F46" s="3">
-        <v>2420400</v>
+        <v>2557200</v>
       </c>
       <c r="G46" s="3">
-        <v>2232200</v>
+        <v>2437100</v>
       </c>
       <c r="H46" s="3">
-        <v>2497800</v>
+        <v>2247600</v>
       </c>
       <c r="I46" s="3">
-        <v>2312100</v>
+        <v>2515000</v>
       </c>
       <c r="J46" s="3">
+        <v>2328100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2235800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2042100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2021200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1060300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>308700</v>
+        <v>300800</v>
       </c>
       <c r="E47" s="3">
-        <v>311800</v>
+        <v>310800</v>
       </c>
       <c r="F47" s="3">
-        <v>281400</v>
+        <v>313900</v>
       </c>
       <c r="G47" s="3">
-        <v>276300</v>
+        <v>283300</v>
       </c>
       <c r="H47" s="3">
-        <v>265400</v>
+        <v>278200</v>
       </c>
       <c r="I47" s="3">
-        <v>243300</v>
+        <v>267200</v>
       </c>
       <c r="J47" s="3">
+        <v>245000</v>
+      </c>
+      <c r="K47" s="3">
         <v>187600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>165100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>35600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>810700</v>
+        <v>736600</v>
       </c>
       <c r="E48" s="3">
-        <v>310000</v>
+        <v>816300</v>
       </c>
       <c r="F48" s="3">
-        <v>302600</v>
+        <v>312200</v>
       </c>
       <c r="G48" s="3">
-        <v>309200</v>
+        <v>304700</v>
       </c>
       <c r="H48" s="3">
-        <v>342500</v>
+        <v>311400</v>
       </c>
       <c r="I48" s="3">
-        <v>368900</v>
+        <v>344900</v>
       </c>
       <c r="J48" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K48" s="3">
         <v>379600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>361600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>731200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>384000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6940100</v>
+        <v>6787900</v>
       </c>
       <c r="E49" s="3">
-        <v>6460200</v>
+        <v>6988000</v>
       </c>
       <c r="F49" s="3">
-        <v>6097800</v>
+        <v>6504800</v>
       </c>
       <c r="G49" s="3">
-        <v>5886900</v>
+        <v>6139900</v>
       </c>
       <c r="H49" s="3">
-        <v>5803200</v>
+        <v>5927500</v>
       </c>
       <c r="I49" s="3">
-        <v>6008000</v>
+        <v>5843200</v>
       </c>
       <c r="J49" s="3">
+        <v>6049400</v>
+      </c>
+      <c r="K49" s="3">
         <v>5645900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6051100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10341600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2561900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>216100</v>
+        <v>226000</v>
       </c>
       <c r="E52" s="3">
-        <v>219100</v>
+        <v>217600</v>
       </c>
       <c r="F52" s="3">
-        <v>190700</v>
+        <v>220600</v>
       </c>
       <c r="G52" s="3">
-        <v>180700</v>
+        <v>192000</v>
       </c>
       <c r="H52" s="3">
-        <v>208100</v>
+        <v>181900</v>
       </c>
       <c r="I52" s="3">
-        <v>257900</v>
+        <v>209500</v>
       </c>
       <c r="J52" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K52" s="3">
         <v>310000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>351500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>535600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>42600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12124100</v>
+        <v>11792300</v>
       </c>
       <c r="E54" s="3">
-        <v>9840800</v>
+        <v>12207800</v>
       </c>
       <c r="F54" s="3">
-        <v>9292900</v>
+        <v>9908700</v>
       </c>
       <c r="G54" s="3">
-        <v>8885300</v>
+        <v>9357100</v>
       </c>
       <c r="H54" s="3">
-        <v>9116900</v>
+        <v>8946600</v>
       </c>
       <c r="I54" s="3">
-        <v>9190200</v>
+        <v>9179900</v>
       </c>
       <c r="J54" s="3">
+        <v>9253600</v>
+      </c>
+      <c r="K54" s="3">
         <v>8758900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8280100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7955800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3577900</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>799900</v>
+        <v>699800</v>
       </c>
       <c r="E57" s="3">
-        <v>864600</v>
+        <v>805400</v>
       </c>
       <c r="F57" s="3">
-        <v>884800</v>
+        <v>870500</v>
       </c>
       <c r="G57" s="3">
-        <v>783000</v>
+        <v>890900</v>
       </c>
       <c r="H57" s="3">
-        <v>863800</v>
+        <v>788400</v>
       </c>
       <c r="I57" s="3">
-        <v>868300</v>
+        <v>869700</v>
       </c>
       <c r="J57" s="3">
+        <v>874300</v>
+      </c>
+      <c r="K57" s="3">
         <v>826700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>851700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1817900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>233300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>381600</v>
+        <v>440100</v>
       </c>
       <c r="E58" s="3">
-        <v>88500</v>
+        <v>384300</v>
       </c>
       <c r="F58" s="3">
-        <v>271800</v>
+        <v>89100</v>
       </c>
       <c r="G58" s="3">
-        <v>95500</v>
+        <v>273700</v>
       </c>
       <c r="H58" s="3">
-        <v>149700</v>
+        <v>96100</v>
       </c>
       <c r="I58" s="3">
-        <v>180000</v>
+        <v>150800</v>
       </c>
       <c r="J58" s="3">
+        <v>181300</v>
+      </c>
+      <c r="K58" s="3">
         <v>62700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>406600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>77900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>746400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1668800</v>
+        <v>1846100</v>
       </c>
       <c r="E59" s="3">
-        <v>1295600</v>
+        <v>1680300</v>
       </c>
       <c r="F59" s="3">
-        <v>1275800</v>
+        <v>1304500</v>
       </c>
       <c r="G59" s="3">
-        <v>1227800</v>
+        <v>1284600</v>
       </c>
       <c r="H59" s="3">
-        <v>1152900</v>
+        <v>1236300</v>
       </c>
       <c r="I59" s="3">
-        <v>1374700</v>
+        <v>1160900</v>
       </c>
       <c r="J59" s="3">
+        <v>1384200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1276700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1391900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2383800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>495800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2850300</v>
+        <v>2985900</v>
       </c>
       <c r="E60" s="3">
-        <v>2248700</v>
+        <v>2870000</v>
       </c>
       <c r="F60" s="3">
-        <v>2432300</v>
+        <v>2264200</v>
       </c>
       <c r="G60" s="3">
-        <v>2106300</v>
+        <v>2449100</v>
       </c>
       <c r="H60" s="3">
-        <v>2166400</v>
+        <v>2120900</v>
       </c>
       <c r="I60" s="3">
-        <v>2423000</v>
+        <v>2181400</v>
       </c>
       <c r="J60" s="3">
+        <v>2439800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2166100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2650100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2249400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1475400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3098400</v>
+        <v>2840400</v>
       </c>
       <c r="E61" s="3">
-        <v>1729100</v>
+        <v>3119800</v>
       </c>
       <c r="F61" s="3">
-        <v>1132300</v>
+        <v>1741000</v>
       </c>
       <c r="G61" s="3">
-        <v>1356300</v>
+        <v>1140100</v>
       </c>
       <c r="H61" s="3">
-        <v>1340200</v>
+        <v>1365600</v>
       </c>
       <c r="I61" s="3">
-        <v>1478400</v>
+        <v>1349500</v>
       </c>
       <c r="J61" s="3">
+        <v>1488600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2026600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1775100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2378500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>84300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>511800</v>
+        <v>481400</v>
       </c>
       <c r="E62" s="3">
-        <v>495700</v>
+        <v>515300</v>
       </c>
       <c r="F62" s="3">
-        <v>516400</v>
+        <v>499200</v>
       </c>
       <c r="G62" s="3">
-        <v>586700</v>
+        <v>519900</v>
       </c>
       <c r="H62" s="3">
-        <v>570000</v>
+        <v>590800</v>
       </c>
       <c r="I62" s="3">
-        <v>546700</v>
+        <v>574000</v>
       </c>
       <c r="J62" s="3">
+        <v>550400</v>
+      </c>
+      <c r="K62" s="3">
         <v>676600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>768100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1604300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>401400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6460500</v>
+        <v>6307700</v>
       </c>
       <c r="E66" s="3">
-        <v>4473500</v>
+        <v>6505100</v>
       </c>
       <c r="F66" s="3">
-        <v>4081000</v>
+        <v>4504300</v>
       </c>
       <c r="G66" s="3">
-        <v>4049300</v>
+        <v>4109200</v>
       </c>
       <c r="H66" s="3">
-        <v>4076700</v>
+        <v>4077200</v>
       </c>
       <c r="I66" s="3">
-        <v>4448100</v>
+        <v>4104800</v>
       </c>
       <c r="J66" s="3">
+        <v>4478800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4869300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5193400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5408400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1773200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3667300</v>
+        <v>3715000</v>
       </c>
       <c r="E72" s="3">
-        <v>3553600</v>
+        <v>3692600</v>
       </c>
       <c r="F72" s="3">
-        <v>3314700</v>
+        <v>3578100</v>
       </c>
       <c r="G72" s="3">
-        <v>2958400</v>
+        <v>3337600</v>
       </c>
       <c r="H72" s="3">
-        <v>2946300</v>
+        <v>2978800</v>
       </c>
       <c r="I72" s="3">
-        <v>2383900</v>
+        <v>2966600</v>
       </c>
       <c r="J72" s="3">
+        <v>2400400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1836900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1181200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1656900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>812500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5663600</v>
+        <v>5484500</v>
       </c>
       <c r="E76" s="3">
-        <v>5367300</v>
+        <v>5702700</v>
       </c>
       <c r="F76" s="3">
-        <v>5211900</v>
+        <v>5404400</v>
       </c>
       <c r="G76" s="3">
-        <v>4836000</v>
+        <v>5247900</v>
       </c>
       <c r="H76" s="3">
-        <v>5040300</v>
+        <v>4869400</v>
       </c>
       <c r="I76" s="3">
-        <v>4742100</v>
+        <v>5075000</v>
       </c>
       <c r="J76" s="3">
+        <v>4774800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3889600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3086800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2547400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1804700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40816</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>871600</v>
+        <v>1074800</v>
       </c>
       <c r="E81" s="3">
-        <v>984900</v>
+        <v>877600</v>
       </c>
       <c r="F81" s="3">
-        <v>889900</v>
+        <v>991700</v>
       </c>
       <c r="G81" s="3">
-        <v>807100</v>
+        <v>896100</v>
       </c>
       <c r="H81" s="3">
-        <v>833200</v>
+        <v>812700</v>
       </c>
       <c r="I81" s="3">
-        <v>762200</v>
+        <v>839000</v>
       </c>
       <c r="J81" s="3">
+        <v>767400</v>
+      </c>
+      <c r="K81" s="3">
         <v>670100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>346900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>97900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>336400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>441100</v>
+        <v>395700</v>
       </c>
       <c r="E83" s="3">
-        <v>305900</v>
+        <v>444100</v>
       </c>
       <c r="F83" s="3">
-        <v>306200</v>
+        <v>308000</v>
       </c>
       <c r="G83" s="3">
-        <v>294100</v>
+        <v>308300</v>
       </c>
       <c r="H83" s="3">
-        <v>311900</v>
+        <v>296100</v>
       </c>
       <c r="I83" s="3">
-        <v>330600</v>
+        <v>314100</v>
       </c>
       <c r="J83" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K83" s="3">
         <v>346400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>331800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>172200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>171600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1511400</v>
+        <v>1661100</v>
       </c>
       <c r="E89" s="3">
-        <v>1273900</v>
+        <v>1521900</v>
       </c>
       <c r="F89" s="3">
-        <v>1164400</v>
+        <v>1282700</v>
       </c>
       <c r="G89" s="3">
-        <v>1059200</v>
+        <v>1172400</v>
       </c>
       <c r="H89" s="3">
-        <v>1039400</v>
+        <v>1066500</v>
       </c>
       <c r="I89" s="3">
-        <v>1005200</v>
+        <v>1046500</v>
       </c>
       <c r="J89" s="3">
+        <v>1012200</v>
+      </c>
+      <c r="K89" s="3">
         <v>916000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>510900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>456400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>437900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100200</v>
+        <v>-95600</v>
       </c>
       <c r="E91" s="3">
-        <v>-126400</v>
+        <v>-100900</v>
       </c>
       <c r="F91" s="3">
-        <v>-111700</v>
+        <v>-127200</v>
       </c>
       <c r="G91" s="3">
-        <v>-87800</v>
+        <v>-112500</v>
       </c>
       <c r="H91" s="3">
-        <v>-129000</v>
+        <v>-88400</v>
       </c>
       <c r="I91" s="3">
-        <v>-95500</v>
+        <v>-129900</v>
       </c>
       <c r="J91" s="3">
+        <v>-96200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-141500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-108000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-92000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-446300</v>
+        <v>-312100</v>
       </c>
       <c r="E94" s="3">
-        <v>-741300</v>
+        <v>-449400</v>
       </c>
       <c r="F94" s="3">
-        <v>-450200</v>
+        <v>-746400</v>
       </c>
       <c r="G94" s="3">
-        <v>-461800</v>
+        <v>-453300</v>
       </c>
       <c r="H94" s="3">
-        <v>-298400</v>
+        <v>-465000</v>
       </c>
       <c r="I94" s="3">
-        <v>-200500</v>
+        <v>-300500</v>
       </c>
       <c r="J94" s="3">
+        <v>-201900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-250400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-178000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2120300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>73400</v>
+        <v>-1297900</v>
       </c>
       <c r="E100" s="3">
-        <v>-490500</v>
+        <v>73900</v>
       </c>
       <c r="F100" s="3">
-        <v>-685400</v>
+        <v>-493900</v>
       </c>
       <c r="G100" s="3">
-        <v>-922300</v>
+        <v>-690100</v>
       </c>
       <c r="H100" s="3">
-        <v>-519500</v>
+        <v>-928700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1016400</v>
+        <v>-523100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1023400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-322800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-339400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-377700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26400</v>
+        <v>-58000</v>
       </c>
       <c r="E101" s="3">
-        <v>-18900</v>
+        <v>26600</v>
       </c>
       <c r="F101" s="3">
-        <v>-14600</v>
+        <v>-19000</v>
       </c>
       <c r="G101" s="3">
-        <v>-10900</v>
+        <v>-14700</v>
       </c>
       <c r="H101" s="3">
-        <v>5600</v>
+        <v>-11000</v>
       </c>
       <c r="I101" s="3">
-        <v>32000</v>
+        <v>5700</v>
       </c>
       <c r="J101" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-7900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1164900</v>
+        <v>-6900</v>
       </c>
       <c r="E102" s="3">
-        <v>23200</v>
+        <v>1173000</v>
       </c>
       <c r="F102" s="3">
-        <v>14200</v>
+        <v>23300</v>
       </c>
       <c r="G102" s="3">
-        <v>-335800</v>
+        <v>14300</v>
       </c>
       <c r="H102" s="3">
-        <v>227100</v>
+        <v>-338100</v>
       </c>
       <c r="I102" s="3">
-        <v>-179700</v>
+        <v>228700</v>
       </c>
       <c r="J102" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="K102" s="3">
         <v>334900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-36800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9520100</v>
+        <v>9516400</v>
       </c>
       <c r="E8" s="3">
-        <v>9549400</v>
+        <v>9545700</v>
       </c>
       <c r="F8" s="3">
-        <v>9507900</v>
+        <v>9504200</v>
       </c>
       <c r="G8" s="3">
-        <v>9033400</v>
+        <v>9029900</v>
       </c>
       <c r="H8" s="3">
-        <v>8513900</v>
+        <v>8510600</v>
       </c>
       <c r="I8" s="3">
-        <v>8386900</v>
+        <v>8383600</v>
       </c>
       <c r="J8" s="3">
-        <v>8075900</v>
+        <v>8072700</v>
       </c>
       <c r="K8" s="3">
         <v>8186300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1211000</v>
+        <v>1210500</v>
       </c>
       <c r="E9" s="3">
-        <v>1254400</v>
+        <v>1253900</v>
       </c>
       <c r="F9" s="3">
-        <v>990100</v>
+        <v>989700</v>
       </c>
       <c r="G9" s="3">
-        <v>952600</v>
+        <v>952300</v>
       </c>
       <c r="H9" s="3">
-        <v>926900</v>
+        <v>926500</v>
       </c>
       <c r="I9" s="3">
-        <v>933700</v>
+        <v>933400</v>
       </c>
       <c r="J9" s="3">
-        <v>880000</v>
+        <v>879600</v>
       </c>
       <c r="K9" s="3">
         <v>952900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8309100</v>
+        <v>8305800</v>
       </c>
       <c r="E10" s="3">
-        <v>8295000</v>
+        <v>8291700</v>
       </c>
       <c r="F10" s="3">
-        <v>8517800</v>
+        <v>8514400</v>
       </c>
       <c r="G10" s="3">
-        <v>8080800</v>
+        <v>8077600</v>
       </c>
       <c r="H10" s="3">
-        <v>7587000</v>
+        <v>7584100</v>
       </c>
       <c r="I10" s="3">
-        <v>7453200</v>
+        <v>7450200</v>
       </c>
       <c r="J10" s="3">
-        <v>7195900</v>
+        <v>7193100</v>
       </c>
       <c r="K10" s="3">
         <v>7233400</v>
@@ -938,7 +938,7 @@
         <v>13400</v>
       </c>
       <c r="E14" s="3">
-        <v>196400</v>
+        <v>196300</v>
       </c>
       <c r="F14" s="3">
         <v>60800</v>
@@ -947,7 +947,7 @@
         <v>108200</v>
       </c>
       <c r="H14" s="3">
-        <v>77700</v>
+        <v>77600</v>
       </c>
       <c r="I14" s="3">
         <v>22800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8077200</v>
+        <v>8074000</v>
       </c>
       <c r="E17" s="3">
-        <v>8359100</v>
+        <v>8355800</v>
       </c>
       <c r="F17" s="3">
-        <v>8191400</v>
+        <v>8188200</v>
       </c>
       <c r="G17" s="3">
-        <v>7863700</v>
+        <v>7860600</v>
       </c>
       <c r="H17" s="3">
-        <v>7400800</v>
+        <v>7397900</v>
       </c>
       <c r="I17" s="3">
-        <v>7246400</v>
+        <v>7243500</v>
       </c>
       <c r="J17" s="3">
-        <v>7032900</v>
+        <v>7030100</v>
       </c>
       <c r="K17" s="3">
         <v>7305100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1442900</v>
+        <v>1442300</v>
       </c>
       <c r="E18" s="3">
-        <v>1190300</v>
+        <v>1189900</v>
       </c>
       <c r="F18" s="3">
-        <v>1316500</v>
+        <v>1316000</v>
       </c>
       <c r="G18" s="3">
-        <v>1169700</v>
+        <v>1169200</v>
       </c>
       <c r="H18" s="3">
-        <v>1113100</v>
+        <v>1112700</v>
       </c>
       <c r="I18" s="3">
-        <v>1140500</v>
+        <v>1140100</v>
       </c>
       <c r="J18" s="3">
-        <v>1043000</v>
+        <v>1042600</v>
       </c>
       <c r="K18" s="3">
         <v>881200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1837100</v>
+        <v>1836000</v>
       </c>
       <c r="E21" s="3">
-        <v>1632800</v>
+        <v>1631700</v>
       </c>
       <c r="F21" s="3">
-        <v>1623300</v>
+        <v>1622400</v>
       </c>
       <c r="G21" s="3">
-        <v>1476800</v>
+        <v>1475900</v>
       </c>
       <c r="H21" s="3">
-        <v>1408100</v>
+        <v>1407300</v>
       </c>
       <c r="I21" s="3">
-        <v>1453400</v>
+        <v>1452500</v>
       </c>
       <c r="J21" s="3">
-        <v>1374600</v>
+        <v>1373700</v>
       </c>
       <c r="K21" s="3">
         <v>1232300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1442900</v>
+        <v>1442300</v>
       </c>
       <c r="E23" s="3">
-        <v>1190300</v>
+        <v>1189900</v>
       </c>
       <c r="F23" s="3">
-        <v>1316500</v>
+        <v>1316000</v>
       </c>
       <c r="G23" s="3">
-        <v>1169700</v>
+        <v>1169200</v>
       </c>
       <c r="H23" s="3">
-        <v>1113100</v>
+        <v>1112700</v>
       </c>
       <c r="I23" s="3">
-        <v>1140500</v>
+        <v>1140100</v>
       </c>
       <c r="J23" s="3">
-        <v>1043000</v>
+        <v>1042600</v>
       </c>
       <c r="K23" s="3">
         <v>881200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>368100</v>
+        <v>368000</v>
       </c>
       <c r="E24" s="3">
-        <v>312800</v>
+        <v>312600</v>
       </c>
       <c r="F24" s="3">
-        <v>324800</v>
+        <v>324700</v>
       </c>
       <c r="G24" s="3">
-        <v>273700</v>
+        <v>273500</v>
       </c>
       <c r="H24" s="3">
-        <v>300400</v>
+        <v>300300</v>
       </c>
       <c r="I24" s="3">
-        <v>301500</v>
+        <v>301400</v>
       </c>
       <c r="J24" s="3">
-        <v>275500</v>
+        <v>275400</v>
       </c>
       <c r="K24" s="3">
         <v>211100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1074800</v>
+        <v>1074400</v>
       </c>
       <c r="E26" s="3">
-        <v>877600</v>
+        <v>877200</v>
       </c>
       <c r="F26" s="3">
-        <v>991700</v>
+        <v>991300</v>
       </c>
       <c r="G26" s="3">
-        <v>896100</v>
+        <v>895700</v>
       </c>
       <c r="H26" s="3">
-        <v>812700</v>
+        <v>812400</v>
       </c>
       <c r="I26" s="3">
-        <v>839000</v>
+        <v>838700</v>
       </c>
       <c r="J26" s="3">
-        <v>767400</v>
+        <v>767100</v>
       </c>
       <c r="K26" s="3">
         <v>670100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1074800</v>
+        <v>1074400</v>
       </c>
       <c r="E27" s="3">
-        <v>877600</v>
+        <v>877200</v>
       </c>
       <c r="F27" s="3">
-        <v>991700</v>
+        <v>991300</v>
       </c>
       <c r="G27" s="3">
-        <v>896100</v>
+        <v>895700</v>
       </c>
       <c r="H27" s="3">
-        <v>812700</v>
+        <v>812400</v>
       </c>
       <c r="I27" s="3">
-        <v>839000</v>
+        <v>838700</v>
       </c>
       <c r="J27" s="3">
-        <v>767400</v>
+        <v>767100</v>
       </c>
       <c r="K27" s="3">
         <v>670100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1074800</v>
+        <v>1074400</v>
       </c>
       <c r="E33" s="3">
-        <v>877600</v>
+        <v>877200</v>
       </c>
       <c r="F33" s="3">
-        <v>991700</v>
+        <v>991300</v>
       </c>
       <c r="G33" s="3">
-        <v>896100</v>
+        <v>895700</v>
       </c>
       <c r="H33" s="3">
-        <v>812700</v>
+        <v>812400</v>
       </c>
       <c r="I33" s="3">
-        <v>839000</v>
+        <v>838700</v>
       </c>
       <c r="J33" s="3">
-        <v>767400</v>
+        <v>767100</v>
       </c>
       <c r="K33" s="3">
         <v>670100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1074800</v>
+        <v>1074400</v>
       </c>
       <c r="E35" s="3">
-        <v>877600</v>
+        <v>877200</v>
       </c>
       <c r="F35" s="3">
-        <v>991700</v>
+        <v>991300</v>
       </c>
       <c r="G35" s="3">
-        <v>896100</v>
+        <v>895700</v>
       </c>
       <c r="H35" s="3">
-        <v>812700</v>
+        <v>812400</v>
       </c>
       <c r="I35" s="3">
-        <v>839000</v>
+        <v>838700</v>
       </c>
       <c r="J35" s="3">
-        <v>767400</v>
+        <v>767100</v>
       </c>
       <c r="K35" s="3">
         <v>670100</v>
@@ -1824,13 +1824,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1334000</v>
+        <v>1333400</v>
       </c>
       <c r="E41" s="3">
-        <v>1340900</v>
+        <v>1340300</v>
       </c>
       <c r="F41" s="3">
-        <v>167900</v>
+        <v>167800</v>
       </c>
       <c r="G41" s="3">
         <v>144500</v>
@@ -1839,7 +1839,7 @@
         <v>130200</v>
       </c>
       <c r="I41" s="3">
-        <v>468300</v>
+        <v>468100</v>
       </c>
       <c r="J41" s="3">
         <v>239600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>970600</v>
+        <v>970200</v>
       </c>
       <c r="E43" s="3">
-        <v>980300</v>
+        <v>979900</v>
       </c>
       <c r="F43" s="3">
-        <v>1073400</v>
+        <v>1073000</v>
       </c>
       <c r="G43" s="3">
-        <v>1166600</v>
+        <v>1166100</v>
       </c>
       <c r="H43" s="3">
-        <v>1014600</v>
+        <v>1014200</v>
       </c>
       <c r="I43" s="3">
-        <v>871000</v>
+        <v>870700</v>
       </c>
       <c r="J43" s="3">
-        <v>866400</v>
+        <v>866000</v>
       </c>
       <c r="K43" s="3">
         <v>814400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>820400</v>
+        <v>820100</v>
       </c>
       <c r="E44" s="3">
-        <v>844100</v>
+        <v>843800</v>
       </c>
       <c r="F44" s="3">
-        <v>860400</v>
+        <v>860100</v>
       </c>
       <c r="G44" s="3">
-        <v>740200</v>
+        <v>739900</v>
       </c>
       <c r="H44" s="3">
-        <v>724300</v>
+        <v>724000</v>
       </c>
       <c r="I44" s="3">
-        <v>734400</v>
+        <v>734100</v>
       </c>
       <c r="J44" s="3">
-        <v>685400</v>
+        <v>685200</v>
       </c>
       <c r="K44" s="3">
         <v>630000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>615900</v>
+        <v>615600</v>
       </c>
       <c r="E45" s="3">
-        <v>709800</v>
+        <v>709500</v>
       </c>
       <c r="F45" s="3">
-        <v>455500</v>
+        <v>455300</v>
       </c>
       <c r="G45" s="3">
-        <v>385900</v>
+        <v>385700</v>
       </c>
       <c r="H45" s="3">
-        <v>378500</v>
+        <v>378300</v>
       </c>
       <c r="I45" s="3">
-        <v>441300</v>
+        <v>441100</v>
       </c>
       <c r="J45" s="3">
-        <v>536700</v>
+        <v>536400</v>
       </c>
       <c r="K45" s="3">
         <v>373700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3740900</v>
+        <v>3739400</v>
       </c>
       <c r="E46" s="3">
-        <v>3875000</v>
+        <v>3873500</v>
       </c>
       <c r="F46" s="3">
-        <v>2557200</v>
+        <v>2556200</v>
       </c>
       <c r="G46" s="3">
-        <v>2437100</v>
+        <v>2436200</v>
       </c>
       <c r="H46" s="3">
-        <v>2247600</v>
+        <v>2246700</v>
       </c>
       <c r="I46" s="3">
-        <v>2515000</v>
+        <v>2514000</v>
       </c>
       <c r="J46" s="3">
-        <v>2328100</v>
+        <v>2327200</v>
       </c>
       <c r="K46" s="3">
         <v>2235800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300800</v>
+        <v>300700</v>
       </c>
       <c r="E47" s="3">
-        <v>310800</v>
+        <v>310700</v>
       </c>
       <c r="F47" s="3">
-        <v>313900</v>
+        <v>313800</v>
       </c>
       <c r="G47" s="3">
-        <v>283300</v>
+        <v>283200</v>
       </c>
       <c r="H47" s="3">
-        <v>278200</v>
+        <v>278100</v>
       </c>
       <c r="I47" s="3">
-        <v>267200</v>
+        <v>267100</v>
       </c>
       <c r="J47" s="3">
-        <v>245000</v>
+        <v>244900</v>
       </c>
       <c r="K47" s="3">
         <v>187600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>736600</v>
+        <v>736300</v>
       </c>
       <c r="E48" s="3">
-        <v>816300</v>
+        <v>816000</v>
       </c>
       <c r="F48" s="3">
-        <v>312200</v>
+        <v>312100</v>
       </c>
       <c r="G48" s="3">
-        <v>304700</v>
+        <v>304600</v>
       </c>
       <c r="H48" s="3">
-        <v>311400</v>
+        <v>311200</v>
       </c>
       <c r="I48" s="3">
-        <v>344900</v>
+        <v>344700</v>
       </c>
       <c r="J48" s="3">
-        <v>371400</v>
+        <v>371300</v>
       </c>
       <c r="K48" s="3">
         <v>379600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6787900</v>
+        <v>6785200</v>
       </c>
       <c r="E49" s="3">
-        <v>6988000</v>
+        <v>6985300</v>
       </c>
       <c r="F49" s="3">
-        <v>6504800</v>
+        <v>6502200</v>
       </c>
       <c r="G49" s="3">
-        <v>6139900</v>
+        <v>6137500</v>
       </c>
       <c r="H49" s="3">
-        <v>5927500</v>
+        <v>5925100</v>
       </c>
       <c r="I49" s="3">
-        <v>5843200</v>
+        <v>5840900</v>
       </c>
       <c r="J49" s="3">
-        <v>6049400</v>
+        <v>6047000</v>
       </c>
       <c r="K49" s="3">
         <v>5645900</v>
@@ -2253,13 +2253,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>226000</v>
+        <v>225900</v>
       </c>
       <c r="E52" s="3">
-        <v>217600</v>
+        <v>217500</v>
       </c>
       <c r="F52" s="3">
-        <v>220600</v>
+        <v>220500</v>
       </c>
       <c r="G52" s="3">
         <v>192000</v>
@@ -2268,10 +2268,10 @@
         <v>181900</v>
       </c>
       <c r="I52" s="3">
-        <v>209500</v>
+        <v>209400</v>
       </c>
       <c r="J52" s="3">
-        <v>259700</v>
+        <v>259600</v>
       </c>
       <c r="K52" s="3">
         <v>310000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11792300</v>
+        <v>11787600</v>
       </c>
       <c r="E54" s="3">
-        <v>12207800</v>
+        <v>12203000</v>
       </c>
       <c r="F54" s="3">
-        <v>9908700</v>
+        <v>9904800</v>
       </c>
       <c r="G54" s="3">
-        <v>9357100</v>
+        <v>9353400</v>
       </c>
       <c r="H54" s="3">
-        <v>8946600</v>
+        <v>8943100</v>
       </c>
       <c r="I54" s="3">
-        <v>9179900</v>
+        <v>9176200</v>
       </c>
       <c r="J54" s="3">
-        <v>9253600</v>
+        <v>9249900</v>
       </c>
       <c r="K54" s="3">
         <v>8758900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>699800</v>
+        <v>699500</v>
       </c>
       <c r="E57" s="3">
-        <v>805400</v>
+        <v>805100</v>
       </c>
       <c r="F57" s="3">
-        <v>870500</v>
+        <v>870200</v>
       </c>
       <c r="G57" s="3">
-        <v>890900</v>
+        <v>890500</v>
       </c>
       <c r="H57" s="3">
-        <v>788400</v>
+        <v>788100</v>
       </c>
       <c r="I57" s="3">
-        <v>869700</v>
+        <v>869400</v>
       </c>
       <c r="J57" s="3">
-        <v>874300</v>
+        <v>873900</v>
       </c>
       <c r="K57" s="3">
         <v>826700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>440100</v>
+        <v>439900</v>
       </c>
       <c r="E58" s="3">
-        <v>384300</v>
+        <v>384100</v>
       </c>
       <c r="F58" s="3">
         <v>89100</v>
       </c>
       <c r="G58" s="3">
-        <v>273700</v>
+        <v>273500</v>
       </c>
       <c r="H58" s="3">
         <v>96100</v>
       </c>
       <c r="I58" s="3">
-        <v>150800</v>
+        <v>150700</v>
       </c>
       <c r="J58" s="3">
-        <v>181300</v>
+        <v>181200</v>
       </c>
       <c r="K58" s="3">
         <v>62700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1846100</v>
+        <v>1845400</v>
       </c>
       <c r="E59" s="3">
-        <v>1680300</v>
+        <v>1679600</v>
       </c>
       <c r="F59" s="3">
-        <v>1304500</v>
+        <v>1304000</v>
       </c>
       <c r="G59" s="3">
-        <v>1284600</v>
+        <v>1284100</v>
       </c>
       <c r="H59" s="3">
-        <v>1236300</v>
+        <v>1235800</v>
       </c>
       <c r="I59" s="3">
-        <v>1160900</v>
+        <v>1160400</v>
       </c>
       <c r="J59" s="3">
-        <v>1384200</v>
+        <v>1383700</v>
       </c>
       <c r="K59" s="3">
         <v>1276700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2985900</v>
+        <v>2984700</v>
       </c>
       <c r="E60" s="3">
-        <v>2870000</v>
+        <v>2868900</v>
       </c>
       <c r="F60" s="3">
-        <v>2264200</v>
+        <v>2263300</v>
       </c>
       <c r="G60" s="3">
-        <v>2449100</v>
+        <v>2448100</v>
       </c>
       <c r="H60" s="3">
-        <v>2120900</v>
+        <v>2120000</v>
       </c>
       <c r="I60" s="3">
-        <v>2181400</v>
+        <v>2180500</v>
       </c>
       <c r="J60" s="3">
-        <v>2439800</v>
+        <v>2438800</v>
       </c>
       <c r="K60" s="3">
         <v>2166100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2840400</v>
+        <v>2839200</v>
       </c>
       <c r="E61" s="3">
-        <v>3119800</v>
+        <v>3118500</v>
       </c>
       <c r="F61" s="3">
-        <v>1741000</v>
+        <v>1740300</v>
       </c>
       <c r="G61" s="3">
-        <v>1140100</v>
+        <v>1139700</v>
       </c>
       <c r="H61" s="3">
-        <v>1365600</v>
+        <v>1365100</v>
       </c>
       <c r="I61" s="3">
-        <v>1349500</v>
+        <v>1348900</v>
       </c>
       <c r="J61" s="3">
-        <v>1488600</v>
+        <v>1488000</v>
       </c>
       <c r="K61" s="3">
         <v>2026600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>481400</v>
+        <v>481300</v>
       </c>
       <c r="E62" s="3">
-        <v>515300</v>
+        <v>515100</v>
       </c>
       <c r="F62" s="3">
-        <v>499200</v>
+        <v>499000</v>
       </c>
       <c r="G62" s="3">
-        <v>519900</v>
+        <v>519700</v>
       </c>
       <c r="H62" s="3">
-        <v>590800</v>
+        <v>590500</v>
       </c>
       <c r="I62" s="3">
-        <v>574000</v>
+        <v>573700</v>
       </c>
       <c r="J62" s="3">
-        <v>550400</v>
+        <v>550200</v>
       </c>
       <c r="K62" s="3">
         <v>676600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6307700</v>
+        <v>6305200</v>
       </c>
       <c r="E66" s="3">
-        <v>6505100</v>
+        <v>6502500</v>
       </c>
       <c r="F66" s="3">
-        <v>4504300</v>
+        <v>4502600</v>
       </c>
       <c r="G66" s="3">
-        <v>4109200</v>
+        <v>4107500</v>
       </c>
       <c r="H66" s="3">
-        <v>4077200</v>
+        <v>4075600</v>
       </c>
       <c r="I66" s="3">
-        <v>4104800</v>
+        <v>4103200</v>
       </c>
       <c r="J66" s="3">
-        <v>4478800</v>
+        <v>4477000</v>
       </c>
       <c r="K66" s="3">
         <v>4869300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3715000</v>
+        <v>3713600</v>
       </c>
       <c r="E72" s="3">
-        <v>3692600</v>
+        <v>3691100</v>
       </c>
       <c r="F72" s="3">
-        <v>3578100</v>
+        <v>3576700</v>
       </c>
       <c r="G72" s="3">
-        <v>3337600</v>
+        <v>3336300</v>
       </c>
       <c r="H72" s="3">
-        <v>2978800</v>
+        <v>2977600</v>
       </c>
       <c r="I72" s="3">
-        <v>2966600</v>
+        <v>2965400</v>
       </c>
       <c r="J72" s="3">
-        <v>2400400</v>
+        <v>2399400</v>
       </c>
       <c r="K72" s="3">
         <v>1836900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5484500</v>
+        <v>5482400</v>
       </c>
       <c r="E76" s="3">
-        <v>5702700</v>
+        <v>5700500</v>
       </c>
       <c r="F76" s="3">
-        <v>5404400</v>
+        <v>5402200</v>
       </c>
       <c r="G76" s="3">
-        <v>5247900</v>
+        <v>5245800</v>
       </c>
       <c r="H76" s="3">
-        <v>4869400</v>
+        <v>4867400</v>
       </c>
       <c r="I76" s="3">
-        <v>5075000</v>
+        <v>5073000</v>
       </c>
       <c r="J76" s="3">
-        <v>4774800</v>
+        <v>4772900</v>
       </c>
       <c r="K76" s="3">
         <v>3889600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1074800</v>
+        <v>1074400</v>
       </c>
       <c r="E81" s="3">
-        <v>877600</v>
+        <v>877200</v>
       </c>
       <c r="F81" s="3">
-        <v>991700</v>
+        <v>991300</v>
       </c>
       <c r="G81" s="3">
-        <v>896100</v>
+        <v>895700</v>
       </c>
       <c r="H81" s="3">
-        <v>812700</v>
+        <v>812400</v>
       </c>
       <c r="I81" s="3">
-        <v>839000</v>
+        <v>838700</v>
       </c>
       <c r="J81" s="3">
-        <v>767400</v>
+        <v>767100</v>
       </c>
       <c r="K81" s="3">
         <v>670100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>395700</v>
+        <v>395500</v>
       </c>
       <c r="E83" s="3">
-        <v>444100</v>
+        <v>443900</v>
       </c>
       <c r="F83" s="3">
-        <v>308000</v>
+        <v>307900</v>
       </c>
       <c r="G83" s="3">
-        <v>308300</v>
+        <v>308100</v>
       </c>
       <c r="H83" s="3">
-        <v>296100</v>
+        <v>296000</v>
       </c>
       <c r="I83" s="3">
-        <v>314100</v>
+        <v>313900</v>
       </c>
       <c r="J83" s="3">
-        <v>332900</v>
+        <v>332800</v>
       </c>
       <c r="K83" s="3">
         <v>346400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1661100</v>
+        <v>1660500</v>
       </c>
       <c r="E89" s="3">
-        <v>1521900</v>
+        <v>1521300</v>
       </c>
       <c r="F89" s="3">
-        <v>1282700</v>
+        <v>1282200</v>
       </c>
       <c r="G89" s="3">
-        <v>1172400</v>
+        <v>1171900</v>
       </c>
       <c r="H89" s="3">
-        <v>1066500</v>
+        <v>1066100</v>
       </c>
       <c r="I89" s="3">
-        <v>1046500</v>
+        <v>1046100</v>
       </c>
       <c r="J89" s="3">
-        <v>1012200</v>
+        <v>1011800</v>
       </c>
       <c r="K89" s="3">
         <v>916000</v>
@@ -3594,13 +3594,13 @@
         <v>-95600</v>
       </c>
       <c r="E91" s="3">
-        <v>-100900</v>
+        <v>-100800</v>
       </c>
       <c r="F91" s="3">
         <v>-127200</v>
       </c>
       <c r="G91" s="3">
-        <v>-112500</v>
+        <v>-112400</v>
       </c>
       <c r="H91" s="3">
         <v>-88400</v>
@@ -3609,7 +3609,7 @@
         <v>-129900</v>
       </c>
       <c r="J91" s="3">
-        <v>-96200</v>
+        <v>-96100</v>
       </c>
       <c r="K91" s="3">
         <v>-141500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312100</v>
+        <v>-312000</v>
       </c>
       <c r="E94" s="3">
-        <v>-449400</v>
+        <v>-449200</v>
       </c>
       <c r="F94" s="3">
-        <v>-746400</v>
+        <v>-746100</v>
       </c>
       <c r="G94" s="3">
-        <v>-453300</v>
+        <v>-453100</v>
       </c>
       <c r="H94" s="3">
-        <v>-465000</v>
+        <v>-464800</v>
       </c>
       <c r="I94" s="3">
-        <v>-300500</v>
+        <v>-300300</v>
       </c>
       <c r="J94" s="3">
-        <v>-201900</v>
+        <v>-201800</v>
       </c>
       <c r="K94" s="3">
         <v>-250400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1297900</v>
+        <v>-1297400</v>
       </c>
       <c r="E100" s="3">
         <v>73900</v>
       </c>
       <c r="F100" s="3">
-        <v>-493900</v>
+        <v>-493700</v>
       </c>
       <c r="G100" s="3">
-        <v>-690100</v>
+        <v>-689800</v>
       </c>
       <c r="H100" s="3">
-        <v>-928700</v>
+        <v>-928300</v>
       </c>
       <c r="I100" s="3">
-        <v>-523100</v>
+        <v>-522900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1023400</v>
+        <v>-1023000</v>
       </c>
       <c r="K100" s="3">
         <v>-322800</v>
@@ -4001,7 +4001,7 @@
         <v>-6900</v>
       </c>
       <c r="E102" s="3">
-        <v>1173000</v>
+        <v>1172500</v>
       </c>
       <c r="F102" s="3">
         <v>23300</v>
@@ -4010,13 +4010,13 @@
         <v>14300</v>
       </c>
       <c r="H102" s="3">
-        <v>-338100</v>
+        <v>-338000</v>
       </c>
       <c r="I102" s="3">
-        <v>228700</v>
+        <v>228600</v>
       </c>
       <c r="J102" s="3">
-        <v>-180900</v>
+        <v>-180800</v>
       </c>
       <c r="K102" s="3">
         <v>334900</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9516400</v>
+        <v>9296900</v>
       </c>
       <c r="E8" s="3">
-        <v>9545700</v>
+        <v>9325500</v>
       </c>
       <c r="F8" s="3">
-        <v>9504200</v>
+        <v>9285000</v>
       </c>
       <c r="G8" s="3">
-        <v>9029900</v>
+        <v>8821600</v>
       </c>
       <c r="H8" s="3">
-        <v>8510600</v>
+        <v>8314300</v>
       </c>
       <c r="I8" s="3">
-        <v>8383600</v>
+        <v>8190200</v>
       </c>
       <c r="J8" s="3">
-        <v>8072700</v>
+        <v>7886500</v>
       </c>
       <c r="K8" s="3">
         <v>8186300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1210500</v>
+        <v>1182600</v>
       </c>
       <c r="E9" s="3">
-        <v>1253900</v>
+        <v>1225000</v>
       </c>
       <c r="F9" s="3">
-        <v>989700</v>
+        <v>966900</v>
       </c>
       <c r="G9" s="3">
-        <v>952300</v>
+        <v>930300</v>
       </c>
       <c r="H9" s="3">
-        <v>926500</v>
+        <v>905100</v>
       </c>
       <c r="I9" s="3">
-        <v>933400</v>
+        <v>911800</v>
       </c>
       <c r="J9" s="3">
-        <v>879600</v>
+        <v>859300</v>
       </c>
       <c r="K9" s="3">
         <v>952900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8305800</v>
+        <v>8114300</v>
       </c>
       <c r="E10" s="3">
-        <v>8291700</v>
+        <v>8100500</v>
       </c>
       <c r="F10" s="3">
-        <v>8514400</v>
+        <v>8318000</v>
       </c>
       <c r="G10" s="3">
-        <v>8077600</v>
+        <v>7891300</v>
       </c>
       <c r="H10" s="3">
-        <v>7584100</v>
+        <v>7409100</v>
       </c>
       <c r="I10" s="3">
-        <v>7450200</v>
+        <v>7278400</v>
       </c>
       <c r="J10" s="3">
-        <v>7193100</v>
+        <v>7027200</v>
       </c>
       <c r="K10" s="3">
         <v>7233400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="E14" s="3">
-        <v>196300</v>
+        <v>191800</v>
       </c>
       <c r="F14" s="3">
-        <v>60800</v>
+        <v>59400</v>
       </c>
       <c r="G14" s="3">
-        <v>108200</v>
+        <v>105700</v>
       </c>
       <c r="H14" s="3">
-        <v>77600</v>
+        <v>75800</v>
       </c>
       <c r="I14" s="3">
-        <v>22800</v>
+        <v>22300</v>
       </c>
       <c r="J14" s="3">
-        <v>32300</v>
+        <v>31600</v>
       </c>
       <c r="K14" s="3">
         <v>99300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8074000</v>
+        <v>7887800</v>
       </c>
       <c r="E17" s="3">
-        <v>8355800</v>
+        <v>8163100</v>
       </c>
       <c r="F17" s="3">
-        <v>8188200</v>
+        <v>7999300</v>
       </c>
       <c r="G17" s="3">
-        <v>7860600</v>
+        <v>7679300</v>
       </c>
       <c r="H17" s="3">
-        <v>7397900</v>
+        <v>7227200</v>
       </c>
       <c r="I17" s="3">
-        <v>7243500</v>
+        <v>7076500</v>
       </c>
       <c r="J17" s="3">
-        <v>7030100</v>
+        <v>6868000</v>
       </c>
       <c r="K17" s="3">
         <v>7305100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1442300</v>
+        <v>1409100</v>
       </c>
       <c r="E18" s="3">
-        <v>1189900</v>
+        <v>1162400</v>
       </c>
       <c r="F18" s="3">
-        <v>1316000</v>
+        <v>1285600</v>
       </c>
       <c r="G18" s="3">
-        <v>1169200</v>
+        <v>1142300</v>
       </c>
       <c r="H18" s="3">
-        <v>1112700</v>
+        <v>1087000</v>
       </c>
       <c r="I18" s="3">
-        <v>1140100</v>
+        <v>1113800</v>
       </c>
       <c r="J18" s="3">
-        <v>1042600</v>
+        <v>1018500</v>
       </c>
       <c r="K18" s="3">
         <v>881200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1836000</v>
+        <v>1797000</v>
       </c>
       <c r="E21" s="3">
-        <v>1631700</v>
+        <v>1597800</v>
       </c>
       <c r="F21" s="3">
-        <v>1622400</v>
+        <v>1587500</v>
       </c>
       <c r="G21" s="3">
-        <v>1475900</v>
+        <v>1444500</v>
       </c>
       <c r="H21" s="3">
-        <v>1407300</v>
+        <v>1377300</v>
       </c>
       <c r="I21" s="3">
-        <v>1452500</v>
+        <v>1421700</v>
       </c>
       <c r="J21" s="3">
-        <v>1373700</v>
+        <v>1344900</v>
       </c>
       <c r="K21" s="3">
         <v>1232300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1442300</v>
+        <v>1409100</v>
       </c>
       <c r="E23" s="3">
-        <v>1189900</v>
+        <v>1162400</v>
       </c>
       <c r="F23" s="3">
-        <v>1316000</v>
+        <v>1285600</v>
       </c>
       <c r="G23" s="3">
-        <v>1169200</v>
+        <v>1142300</v>
       </c>
       <c r="H23" s="3">
-        <v>1112700</v>
+        <v>1087000</v>
       </c>
       <c r="I23" s="3">
-        <v>1140100</v>
+        <v>1113800</v>
       </c>
       <c r="J23" s="3">
-        <v>1042600</v>
+        <v>1018500</v>
       </c>
       <c r="K23" s="3">
         <v>881200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>368000</v>
+        <v>359500</v>
       </c>
       <c r="E24" s="3">
-        <v>312600</v>
+        <v>305400</v>
       </c>
       <c r="F24" s="3">
-        <v>324700</v>
+        <v>317200</v>
       </c>
       <c r="G24" s="3">
-        <v>273500</v>
+        <v>267200</v>
       </c>
       <c r="H24" s="3">
-        <v>300300</v>
+        <v>293400</v>
       </c>
       <c r="I24" s="3">
-        <v>301400</v>
+        <v>294400</v>
       </c>
       <c r="J24" s="3">
-        <v>275400</v>
+        <v>269100</v>
       </c>
       <c r="K24" s="3">
         <v>211100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1074400</v>
+        <v>1049600</v>
       </c>
       <c r="E26" s="3">
-        <v>877200</v>
+        <v>857000</v>
       </c>
       <c r="F26" s="3">
-        <v>991300</v>
+        <v>968400</v>
       </c>
       <c r="G26" s="3">
-        <v>895700</v>
+        <v>875000</v>
       </c>
       <c r="H26" s="3">
-        <v>812400</v>
+        <v>793600</v>
       </c>
       <c r="I26" s="3">
-        <v>838700</v>
+        <v>819300</v>
       </c>
       <c r="J26" s="3">
-        <v>767100</v>
+        <v>749400</v>
       </c>
       <c r="K26" s="3">
         <v>670100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1074400</v>
+        <v>1049600</v>
       </c>
       <c r="E27" s="3">
-        <v>877200</v>
+        <v>857000</v>
       </c>
       <c r="F27" s="3">
-        <v>991300</v>
+        <v>968400</v>
       </c>
       <c r="G27" s="3">
-        <v>895700</v>
+        <v>875000</v>
       </c>
       <c r="H27" s="3">
-        <v>812400</v>
+        <v>793600</v>
       </c>
       <c r="I27" s="3">
-        <v>838700</v>
+        <v>819300</v>
       </c>
       <c r="J27" s="3">
-        <v>767100</v>
+        <v>749400</v>
       </c>
       <c r="K27" s="3">
         <v>670100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1074400</v>
+        <v>1049600</v>
       </c>
       <c r="E33" s="3">
-        <v>877200</v>
+        <v>857000</v>
       </c>
       <c r="F33" s="3">
-        <v>991300</v>
+        <v>968400</v>
       </c>
       <c r="G33" s="3">
-        <v>895700</v>
+        <v>875000</v>
       </c>
       <c r="H33" s="3">
-        <v>812400</v>
+        <v>793600</v>
       </c>
       <c r="I33" s="3">
-        <v>838700</v>
+        <v>819300</v>
       </c>
       <c r="J33" s="3">
-        <v>767100</v>
+        <v>749400</v>
       </c>
       <c r="K33" s="3">
         <v>670100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1074400</v>
+        <v>1049600</v>
       </c>
       <c r="E35" s="3">
-        <v>877200</v>
+        <v>857000</v>
       </c>
       <c r="F35" s="3">
-        <v>991300</v>
+        <v>968400</v>
       </c>
       <c r="G35" s="3">
-        <v>895700</v>
+        <v>875000</v>
       </c>
       <c r="H35" s="3">
-        <v>812400</v>
+        <v>793600</v>
       </c>
       <c r="I35" s="3">
-        <v>838700</v>
+        <v>819300</v>
       </c>
       <c r="J35" s="3">
-        <v>767100</v>
+        <v>749400</v>
       </c>
       <c r="K35" s="3">
         <v>670100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1333400</v>
+        <v>1302700</v>
       </c>
       <c r="E41" s="3">
-        <v>1340300</v>
+        <v>1309400</v>
       </c>
       <c r="F41" s="3">
-        <v>167800</v>
+        <v>163900</v>
       </c>
       <c r="G41" s="3">
-        <v>144500</v>
+        <v>141100</v>
       </c>
       <c r="H41" s="3">
-        <v>130200</v>
+        <v>127200</v>
       </c>
       <c r="I41" s="3">
-        <v>468100</v>
+        <v>457300</v>
       </c>
       <c r="J41" s="3">
-        <v>239600</v>
+        <v>234000</v>
       </c>
       <c r="K41" s="3">
         <v>417700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>970200</v>
+        <v>947900</v>
       </c>
       <c r="E43" s="3">
-        <v>979900</v>
+        <v>957300</v>
       </c>
       <c r="F43" s="3">
-        <v>1073000</v>
+        <v>1048200</v>
       </c>
       <c r="G43" s="3">
-        <v>1166100</v>
+        <v>1139200</v>
       </c>
       <c r="H43" s="3">
-        <v>1014200</v>
+        <v>990800</v>
       </c>
       <c r="I43" s="3">
-        <v>870700</v>
+        <v>850600</v>
       </c>
       <c r="J43" s="3">
-        <v>866000</v>
+        <v>846000</v>
       </c>
       <c r="K43" s="3">
         <v>814400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>820100</v>
+        <v>801200</v>
       </c>
       <c r="E44" s="3">
-        <v>843800</v>
+        <v>824300</v>
       </c>
       <c r="F44" s="3">
-        <v>860100</v>
+        <v>840300</v>
       </c>
       <c r="G44" s="3">
-        <v>739900</v>
+        <v>722800</v>
       </c>
       <c r="H44" s="3">
-        <v>724000</v>
+        <v>707300</v>
       </c>
       <c r="I44" s="3">
-        <v>734100</v>
+        <v>717200</v>
       </c>
       <c r="J44" s="3">
-        <v>685200</v>
+        <v>669400</v>
       </c>
       <c r="K44" s="3">
         <v>630000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>615600</v>
+        <v>601400</v>
       </c>
       <c r="E45" s="3">
-        <v>709500</v>
+        <v>693100</v>
       </c>
       <c r="F45" s="3">
-        <v>455300</v>
+        <v>444800</v>
       </c>
       <c r="G45" s="3">
-        <v>385700</v>
+        <v>376800</v>
       </c>
       <c r="H45" s="3">
-        <v>378300</v>
+        <v>369600</v>
       </c>
       <c r="I45" s="3">
-        <v>441100</v>
+        <v>431000</v>
       </c>
       <c r="J45" s="3">
-        <v>536400</v>
+        <v>524100</v>
       </c>
       <c r="K45" s="3">
         <v>373700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3739400</v>
+        <v>3653100</v>
       </c>
       <c r="E46" s="3">
-        <v>3873500</v>
+        <v>3784100</v>
       </c>
       <c r="F46" s="3">
-        <v>2556200</v>
+        <v>2497200</v>
       </c>
       <c r="G46" s="3">
-        <v>2436200</v>
+        <v>2380000</v>
       </c>
       <c r="H46" s="3">
-        <v>2246700</v>
+        <v>2194900</v>
       </c>
       <c r="I46" s="3">
-        <v>2514000</v>
+        <v>2456100</v>
       </c>
       <c r="J46" s="3">
-        <v>2327200</v>
+        <v>2273500</v>
       </c>
       <c r="K46" s="3">
         <v>2235800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300700</v>
+        <v>293800</v>
       </c>
       <c r="E47" s="3">
-        <v>310700</v>
+        <v>303500</v>
       </c>
       <c r="F47" s="3">
-        <v>313800</v>
+        <v>306600</v>
       </c>
       <c r="G47" s="3">
-        <v>283200</v>
+        <v>276700</v>
       </c>
       <c r="H47" s="3">
-        <v>278100</v>
+        <v>271700</v>
       </c>
       <c r="I47" s="3">
-        <v>267100</v>
+        <v>261000</v>
       </c>
       <c r="J47" s="3">
-        <v>244900</v>
+        <v>239200</v>
       </c>
       <c r="K47" s="3">
         <v>187600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>736300</v>
+        <v>719300</v>
       </c>
       <c r="E48" s="3">
-        <v>816000</v>
+        <v>797200</v>
       </c>
       <c r="F48" s="3">
-        <v>312100</v>
+        <v>304900</v>
       </c>
       <c r="G48" s="3">
-        <v>304600</v>
+        <v>297500</v>
       </c>
       <c r="H48" s="3">
-        <v>311200</v>
+        <v>304100</v>
       </c>
       <c r="I48" s="3">
-        <v>344700</v>
+        <v>336800</v>
       </c>
       <c r="J48" s="3">
-        <v>371300</v>
+        <v>362700</v>
       </c>
       <c r="K48" s="3">
         <v>379600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6785200</v>
+        <v>6628700</v>
       </c>
       <c r="E49" s="3">
-        <v>6985300</v>
+        <v>6824200</v>
       </c>
       <c r="F49" s="3">
-        <v>6502200</v>
+        <v>6352200</v>
       </c>
       <c r="G49" s="3">
-        <v>6137500</v>
+        <v>5995900</v>
       </c>
       <c r="H49" s="3">
-        <v>5925100</v>
+        <v>5788500</v>
       </c>
       <c r="I49" s="3">
-        <v>5840900</v>
+        <v>5706200</v>
       </c>
       <c r="J49" s="3">
-        <v>6047000</v>
+        <v>5907600</v>
       </c>
       <c r="K49" s="3">
         <v>5645900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>225900</v>
+        <v>220700</v>
       </c>
       <c r="E52" s="3">
-        <v>217500</v>
+        <v>212500</v>
       </c>
       <c r="F52" s="3">
-        <v>220500</v>
+        <v>215400</v>
       </c>
       <c r="G52" s="3">
-        <v>192000</v>
+        <v>187500</v>
       </c>
       <c r="H52" s="3">
-        <v>181900</v>
+        <v>177700</v>
       </c>
       <c r="I52" s="3">
-        <v>209400</v>
+        <v>204600</v>
       </c>
       <c r="J52" s="3">
-        <v>259600</v>
+        <v>253600</v>
       </c>
       <c r="K52" s="3">
         <v>310000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11787600</v>
+        <v>11515700</v>
       </c>
       <c r="E54" s="3">
-        <v>12203000</v>
+        <v>11921500</v>
       </c>
       <c r="F54" s="3">
-        <v>9904800</v>
+        <v>9676300</v>
       </c>
       <c r="G54" s="3">
-        <v>9353400</v>
+        <v>9137600</v>
       </c>
       <c r="H54" s="3">
-        <v>8943100</v>
+        <v>8736800</v>
       </c>
       <c r="I54" s="3">
-        <v>9176200</v>
+        <v>8964600</v>
       </c>
       <c r="J54" s="3">
-        <v>9249900</v>
+        <v>9036600</v>
       </c>
       <c r="K54" s="3">
         <v>8758900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>699500</v>
+        <v>683400</v>
       </c>
       <c r="E57" s="3">
-        <v>805100</v>
+        <v>786500</v>
       </c>
       <c r="F57" s="3">
-        <v>870200</v>
+        <v>850100</v>
       </c>
       <c r="G57" s="3">
-        <v>890500</v>
+        <v>870000</v>
       </c>
       <c r="H57" s="3">
-        <v>788100</v>
+        <v>769900</v>
       </c>
       <c r="I57" s="3">
-        <v>869400</v>
+        <v>849300</v>
       </c>
       <c r="J57" s="3">
-        <v>873900</v>
+        <v>853800</v>
       </c>
       <c r="K57" s="3">
         <v>826700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>439900</v>
+        <v>429700</v>
       </c>
       <c r="E58" s="3">
-        <v>384100</v>
+        <v>375300</v>
       </c>
       <c r="F58" s="3">
-        <v>89100</v>
+        <v>87000</v>
       </c>
       <c r="G58" s="3">
-        <v>273500</v>
+        <v>267200</v>
       </c>
       <c r="H58" s="3">
-        <v>96100</v>
+        <v>93900</v>
       </c>
       <c r="I58" s="3">
-        <v>150700</v>
+        <v>147200</v>
       </c>
       <c r="J58" s="3">
-        <v>181200</v>
+        <v>177000</v>
       </c>
       <c r="K58" s="3">
         <v>62700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1845400</v>
+        <v>1802800</v>
       </c>
       <c r="E59" s="3">
-        <v>1679600</v>
+        <v>1640900</v>
       </c>
       <c r="F59" s="3">
-        <v>1304000</v>
+        <v>1273900</v>
       </c>
       <c r="G59" s="3">
-        <v>1284100</v>
+        <v>1254400</v>
       </c>
       <c r="H59" s="3">
-        <v>1235800</v>
+        <v>1207300</v>
       </c>
       <c r="I59" s="3">
-        <v>1160400</v>
+        <v>1133700</v>
       </c>
       <c r="J59" s="3">
-        <v>1383700</v>
+        <v>1351800</v>
       </c>
       <c r="K59" s="3">
         <v>1276700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2984700</v>
+        <v>2915900</v>
       </c>
       <c r="E60" s="3">
-        <v>2868900</v>
+        <v>2802700</v>
       </c>
       <c r="F60" s="3">
-        <v>2263300</v>
+        <v>2211100</v>
       </c>
       <c r="G60" s="3">
-        <v>2448100</v>
+        <v>2391700</v>
       </c>
       <c r="H60" s="3">
-        <v>2120000</v>
+        <v>2071100</v>
       </c>
       <c r="I60" s="3">
-        <v>2180500</v>
+        <v>2130200</v>
       </c>
       <c r="J60" s="3">
-        <v>2438800</v>
+        <v>2382600</v>
       </c>
       <c r="K60" s="3">
         <v>2166100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2839200</v>
+        <v>2773700</v>
       </c>
       <c r="E61" s="3">
-        <v>3118500</v>
+        <v>3046600</v>
       </c>
       <c r="F61" s="3">
-        <v>1740300</v>
+        <v>1700200</v>
       </c>
       <c r="G61" s="3">
-        <v>1139700</v>
+        <v>1113400</v>
       </c>
       <c r="H61" s="3">
-        <v>1365100</v>
+        <v>1333600</v>
       </c>
       <c r="I61" s="3">
-        <v>1348900</v>
+        <v>1317800</v>
       </c>
       <c r="J61" s="3">
-        <v>1488000</v>
+        <v>1453700</v>
       </c>
       <c r="K61" s="3">
         <v>2026600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>481300</v>
+        <v>470200</v>
       </c>
       <c r="E62" s="3">
-        <v>515100</v>
+        <v>503200</v>
       </c>
       <c r="F62" s="3">
-        <v>499000</v>
+        <v>487400</v>
       </c>
       <c r="G62" s="3">
-        <v>519700</v>
+        <v>507700</v>
       </c>
       <c r="H62" s="3">
-        <v>590500</v>
+        <v>576900</v>
       </c>
       <c r="I62" s="3">
-        <v>573700</v>
+        <v>560500</v>
       </c>
       <c r="J62" s="3">
-        <v>550200</v>
+        <v>537500</v>
       </c>
       <c r="K62" s="3">
         <v>676600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6305200</v>
+        <v>6159800</v>
       </c>
       <c r="E66" s="3">
-        <v>6502500</v>
+        <v>6352500</v>
       </c>
       <c r="F66" s="3">
-        <v>4502600</v>
+        <v>4398700</v>
       </c>
       <c r="G66" s="3">
-        <v>4107500</v>
+        <v>4012800</v>
       </c>
       <c r="H66" s="3">
-        <v>4075600</v>
+        <v>3981600</v>
       </c>
       <c r="I66" s="3">
-        <v>4103200</v>
+        <v>4008500</v>
       </c>
       <c r="J66" s="3">
-        <v>4477000</v>
+        <v>4373800</v>
       </c>
       <c r="K66" s="3">
         <v>4869300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3713600</v>
+        <v>3627900</v>
       </c>
       <c r="E72" s="3">
-        <v>3691100</v>
+        <v>3606000</v>
       </c>
       <c r="F72" s="3">
-        <v>3576700</v>
+        <v>3494200</v>
       </c>
       <c r="G72" s="3">
-        <v>3336300</v>
+        <v>3259300</v>
       </c>
       <c r="H72" s="3">
-        <v>2977600</v>
+        <v>2909000</v>
       </c>
       <c r="I72" s="3">
-        <v>2965400</v>
+        <v>2897000</v>
       </c>
       <c r="J72" s="3">
-        <v>2399400</v>
+        <v>2344100</v>
       </c>
       <c r="K72" s="3">
         <v>1836900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5482400</v>
+        <v>5355900</v>
       </c>
       <c r="E76" s="3">
-        <v>5700500</v>
+        <v>5569000</v>
       </c>
       <c r="F76" s="3">
-        <v>5402200</v>
+        <v>5277600</v>
       </c>
       <c r="G76" s="3">
-        <v>5245800</v>
+        <v>5124800</v>
       </c>
       <c r="H76" s="3">
-        <v>4867400</v>
+        <v>4755200</v>
       </c>
       <c r="I76" s="3">
-        <v>5073000</v>
+        <v>4956000</v>
       </c>
       <c r="J76" s="3">
-        <v>4772900</v>
+        <v>4662800</v>
       </c>
       <c r="K76" s="3">
         <v>3889600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1074400</v>
+        <v>1049600</v>
       </c>
       <c r="E81" s="3">
-        <v>877200</v>
+        <v>857000</v>
       </c>
       <c r="F81" s="3">
-        <v>991300</v>
+        <v>968400</v>
       </c>
       <c r="G81" s="3">
-        <v>895700</v>
+        <v>875000</v>
       </c>
       <c r="H81" s="3">
-        <v>812400</v>
+        <v>793600</v>
       </c>
       <c r="I81" s="3">
-        <v>838700</v>
+        <v>819300</v>
       </c>
       <c r="J81" s="3">
-        <v>767100</v>
+        <v>749400</v>
       </c>
       <c r="K81" s="3">
         <v>670100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>395500</v>
+        <v>386400</v>
       </c>
       <c r="E83" s="3">
-        <v>443900</v>
+        <v>433700</v>
       </c>
       <c r="F83" s="3">
-        <v>307900</v>
+        <v>300800</v>
       </c>
       <c r="G83" s="3">
-        <v>308100</v>
+        <v>301000</v>
       </c>
       <c r="H83" s="3">
-        <v>296000</v>
+        <v>289200</v>
       </c>
       <c r="I83" s="3">
-        <v>313900</v>
+        <v>306700</v>
       </c>
       <c r="J83" s="3">
-        <v>332800</v>
+        <v>325100</v>
       </c>
       <c r="K83" s="3">
         <v>346400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1660500</v>
+        <v>1622200</v>
       </c>
       <c r="E89" s="3">
-        <v>1521300</v>
+        <v>1486200</v>
       </c>
       <c r="F89" s="3">
-        <v>1282200</v>
+        <v>1252600</v>
       </c>
       <c r="G89" s="3">
-        <v>1171900</v>
+        <v>1144900</v>
       </c>
       <c r="H89" s="3">
-        <v>1066100</v>
+        <v>1041500</v>
       </c>
       <c r="I89" s="3">
-        <v>1046100</v>
+        <v>1022000</v>
       </c>
       <c r="J89" s="3">
-        <v>1011800</v>
+        <v>988400</v>
       </c>
       <c r="K89" s="3">
         <v>916000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-95600</v>
+        <v>-93400</v>
       </c>
       <c r="E91" s="3">
-        <v>-100800</v>
+        <v>-98500</v>
       </c>
       <c r="F91" s="3">
-        <v>-127200</v>
+        <v>-124200</v>
       </c>
       <c r="G91" s="3">
-        <v>-112400</v>
+        <v>-109800</v>
       </c>
       <c r="H91" s="3">
-        <v>-88400</v>
+        <v>-86400</v>
       </c>
       <c r="I91" s="3">
-        <v>-129900</v>
+        <v>-126900</v>
       </c>
       <c r="J91" s="3">
-        <v>-96100</v>
+        <v>-93900</v>
       </c>
       <c r="K91" s="3">
         <v>-141500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312000</v>
+        <v>-304800</v>
       </c>
       <c r="E94" s="3">
-        <v>-449200</v>
+        <v>-438900</v>
       </c>
       <c r="F94" s="3">
-        <v>-746100</v>
+        <v>-728900</v>
       </c>
       <c r="G94" s="3">
-        <v>-453100</v>
+        <v>-442700</v>
       </c>
       <c r="H94" s="3">
-        <v>-464800</v>
+        <v>-454000</v>
       </c>
       <c r="I94" s="3">
-        <v>-300300</v>
+        <v>-293400</v>
       </c>
       <c r="J94" s="3">
-        <v>-201800</v>
+        <v>-197100</v>
       </c>
       <c r="K94" s="3">
         <v>-250400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1297400</v>
+        <v>-1267500</v>
       </c>
       <c r="E100" s="3">
-        <v>73900</v>
+        <v>72200</v>
       </c>
       <c r="F100" s="3">
-        <v>-493700</v>
+        <v>-482300</v>
       </c>
       <c r="G100" s="3">
-        <v>-689800</v>
+        <v>-673900</v>
       </c>
       <c r="H100" s="3">
-        <v>-928300</v>
+        <v>-906900</v>
       </c>
       <c r="I100" s="3">
-        <v>-522900</v>
+        <v>-510800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1023000</v>
+        <v>-999400</v>
       </c>
       <c r="K100" s="3">
         <v>-322800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-58000</v>
+        <v>-56600</v>
       </c>
       <c r="E101" s="3">
-        <v>26600</v>
+        <v>26000</v>
       </c>
       <c r="F101" s="3">
-        <v>-19000</v>
+        <v>-18600</v>
       </c>
       <c r="G101" s="3">
-        <v>-14700</v>
+        <v>-14400</v>
       </c>
       <c r="H101" s="3">
-        <v>-11000</v>
+        <v>-10700</v>
       </c>
       <c r="I101" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="J101" s="3">
-        <v>32200</v>
+        <v>31500</v>
       </c>
       <c r="K101" s="3">
         <v>-7900</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="E102" s="3">
-        <v>1172500</v>
+        <v>1145500</v>
       </c>
       <c r="F102" s="3">
-        <v>23300</v>
+        <v>22800</v>
       </c>
       <c r="G102" s="3">
-        <v>14300</v>
+        <v>14000</v>
       </c>
       <c r="H102" s="3">
-        <v>-338000</v>
+        <v>-330200</v>
       </c>
       <c r="I102" s="3">
-        <v>228600</v>
+        <v>223300</v>
       </c>
       <c r="J102" s="3">
-        <v>-180800</v>
+        <v>-176700</v>
       </c>
       <c r="K102" s="3">
         <v>334900</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9296900</v>
+        <v>9383100</v>
       </c>
       <c r="E8" s="3">
-        <v>9325500</v>
+        <v>9412000</v>
       </c>
       <c r="F8" s="3">
-        <v>9285000</v>
+        <v>9371100</v>
       </c>
       <c r="G8" s="3">
-        <v>8821600</v>
+        <v>8903400</v>
       </c>
       <c r="H8" s="3">
-        <v>8314300</v>
+        <v>8391400</v>
       </c>
       <c r="I8" s="3">
-        <v>8190200</v>
+        <v>8266200</v>
       </c>
       <c r="J8" s="3">
-        <v>7886500</v>
+        <v>7959600</v>
       </c>
       <c r="K8" s="3">
         <v>8186300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1182600</v>
+        <v>1193600</v>
       </c>
       <c r="E9" s="3">
-        <v>1225000</v>
+        <v>1236400</v>
       </c>
       <c r="F9" s="3">
-        <v>966900</v>
+        <v>975900</v>
       </c>
       <c r="G9" s="3">
-        <v>930300</v>
+        <v>938900</v>
       </c>
       <c r="H9" s="3">
-        <v>905100</v>
+        <v>913500</v>
       </c>
       <c r="I9" s="3">
-        <v>911800</v>
+        <v>920300</v>
       </c>
       <c r="J9" s="3">
-        <v>859300</v>
+        <v>867300</v>
       </c>
       <c r="K9" s="3">
         <v>952900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8114300</v>
+        <v>8189500</v>
       </c>
       <c r="E10" s="3">
-        <v>8100500</v>
+        <v>8175600</v>
       </c>
       <c r="F10" s="3">
-        <v>8318000</v>
+        <v>8395200</v>
       </c>
       <c r="G10" s="3">
-        <v>7891300</v>
+        <v>7964500</v>
       </c>
       <c r="H10" s="3">
-        <v>7409100</v>
+        <v>7477800</v>
       </c>
       <c r="I10" s="3">
-        <v>7278400</v>
+        <v>7345900</v>
       </c>
       <c r="J10" s="3">
-        <v>7027200</v>
+        <v>7092300</v>
       </c>
       <c r="K10" s="3">
         <v>7233400</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E14" s="3">
-        <v>191800</v>
+        <v>193600</v>
       </c>
       <c r="F14" s="3">
-        <v>59400</v>
+        <v>59900</v>
       </c>
       <c r="G14" s="3">
-        <v>105700</v>
+        <v>106700</v>
       </c>
       <c r="H14" s="3">
-        <v>75800</v>
+        <v>76600</v>
       </c>
       <c r="I14" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="J14" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="K14" s="3">
         <v>99300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7887800</v>
+        <v>7961000</v>
       </c>
       <c r="E17" s="3">
-        <v>8163100</v>
+        <v>8238800</v>
       </c>
       <c r="F17" s="3">
-        <v>7999300</v>
+        <v>8073500</v>
       </c>
       <c r="G17" s="3">
-        <v>7679300</v>
+        <v>7750500</v>
       </c>
       <c r="H17" s="3">
-        <v>7227200</v>
+        <v>7294300</v>
       </c>
       <c r="I17" s="3">
-        <v>7076500</v>
+        <v>7142100</v>
       </c>
       <c r="J17" s="3">
-        <v>6868000</v>
+        <v>6931700</v>
       </c>
       <c r="K17" s="3">
         <v>7305100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1409100</v>
+        <v>1422100</v>
       </c>
       <c r="E18" s="3">
-        <v>1162400</v>
+        <v>1173200</v>
       </c>
       <c r="F18" s="3">
-        <v>1285600</v>
+        <v>1297500</v>
       </c>
       <c r="G18" s="3">
-        <v>1142300</v>
+        <v>1152900</v>
       </c>
       <c r="H18" s="3">
-        <v>1087000</v>
+        <v>1097100</v>
       </c>
       <c r="I18" s="3">
-        <v>1113800</v>
+        <v>1124100</v>
       </c>
       <c r="J18" s="3">
-        <v>1018500</v>
+        <v>1028000</v>
       </c>
       <c r="K18" s="3">
         <v>881200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1797000</v>
+        <v>1810900</v>
       </c>
       <c r="E21" s="3">
-        <v>1597800</v>
+        <v>1609500</v>
       </c>
       <c r="F21" s="3">
-        <v>1587500</v>
+        <v>1600100</v>
       </c>
       <c r="G21" s="3">
-        <v>1444500</v>
+        <v>1455700</v>
       </c>
       <c r="H21" s="3">
-        <v>1377300</v>
+        <v>1388000</v>
       </c>
       <c r="I21" s="3">
-        <v>1421700</v>
+        <v>1432700</v>
       </c>
       <c r="J21" s="3">
-        <v>1344900</v>
+        <v>1355000</v>
       </c>
       <c r="K21" s="3">
         <v>1232300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1409100</v>
+        <v>1422100</v>
       </c>
       <c r="E23" s="3">
-        <v>1162400</v>
+        <v>1173200</v>
       </c>
       <c r="F23" s="3">
-        <v>1285600</v>
+        <v>1297500</v>
       </c>
       <c r="G23" s="3">
-        <v>1142300</v>
+        <v>1152900</v>
       </c>
       <c r="H23" s="3">
-        <v>1087000</v>
+        <v>1097100</v>
       </c>
       <c r="I23" s="3">
-        <v>1113800</v>
+        <v>1124100</v>
       </c>
       <c r="J23" s="3">
-        <v>1018500</v>
+        <v>1028000</v>
       </c>
       <c r="K23" s="3">
         <v>881200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>359500</v>
+        <v>362800</v>
       </c>
       <c r="E24" s="3">
-        <v>305400</v>
+        <v>308300</v>
       </c>
       <c r="F24" s="3">
-        <v>317200</v>
+        <v>320100</v>
       </c>
       <c r="G24" s="3">
-        <v>267200</v>
+        <v>269700</v>
       </c>
       <c r="H24" s="3">
-        <v>293400</v>
+        <v>296100</v>
       </c>
       <c r="I24" s="3">
-        <v>294400</v>
+        <v>297200</v>
       </c>
       <c r="J24" s="3">
-        <v>269100</v>
+        <v>271600</v>
       </c>
       <c r="K24" s="3">
         <v>211100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1049600</v>
+        <v>1059300</v>
       </c>
       <c r="E26" s="3">
-        <v>857000</v>
+        <v>864900</v>
       </c>
       <c r="F26" s="3">
-        <v>968400</v>
+        <v>977400</v>
       </c>
       <c r="G26" s="3">
-        <v>875000</v>
+        <v>883200</v>
       </c>
       <c r="H26" s="3">
-        <v>793600</v>
+        <v>801000</v>
       </c>
       <c r="I26" s="3">
-        <v>819300</v>
+        <v>826900</v>
       </c>
       <c r="J26" s="3">
-        <v>749400</v>
+        <v>756400</v>
       </c>
       <c r="K26" s="3">
         <v>670100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1049600</v>
+        <v>1059300</v>
       </c>
       <c r="E27" s="3">
-        <v>857000</v>
+        <v>864900</v>
       </c>
       <c r="F27" s="3">
-        <v>968400</v>
+        <v>977400</v>
       </c>
       <c r="G27" s="3">
-        <v>875000</v>
+        <v>883200</v>
       </c>
       <c r="H27" s="3">
-        <v>793600</v>
+        <v>801000</v>
       </c>
       <c r="I27" s="3">
-        <v>819300</v>
+        <v>826900</v>
       </c>
       <c r="J27" s="3">
-        <v>749400</v>
+        <v>756400</v>
       </c>
       <c r="K27" s="3">
         <v>670100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1049600</v>
+        <v>1059300</v>
       </c>
       <c r="E33" s="3">
-        <v>857000</v>
+        <v>864900</v>
       </c>
       <c r="F33" s="3">
-        <v>968400</v>
+        <v>977400</v>
       </c>
       <c r="G33" s="3">
-        <v>875000</v>
+        <v>883200</v>
       </c>
       <c r="H33" s="3">
-        <v>793600</v>
+        <v>801000</v>
       </c>
       <c r="I33" s="3">
-        <v>819300</v>
+        <v>826900</v>
       </c>
       <c r="J33" s="3">
-        <v>749400</v>
+        <v>756400</v>
       </c>
       <c r="K33" s="3">
         <v>670100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1049600</v>
+        <v>1059300</v>
       </c>
       <c r="E35" s="3">
-        <v>857000</v>
+        <v>864900</v>
       </c>
       <c r="F35" s="3">
-        <v>968400</v>
+        <v>977400</v>
       </c>
       <c r="G35" s="3">
-        <v>875000</v>
+        <v>883200</v>
       </c>
       <c r="H35" s="3">
-        <v>793600</v>
+        <v>801000</v>
       </c>
       <c r="I35" s="3">
-        <v>819300</v>
+        <v>826900</v>
       </c>
       <c r="J35" s="3">
-        <v>749400</v>
+        <v>756400</v>
       </c>
       <c r="K35" s="3">
         <v>670100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1302700</v>
+        <v>1314800</v>
       </c>
       <c r="E41" s="3">
-        <v>1309400</v>
+        <v>1321600</v>
       </c>
       <c r="F41" s="3">
-        <v>163900</v>
+        <v>165500</v>
       </c>
       <c r="G41" s="3">
-        <v>141100</v>
+        <v>142400</v>
       </c>
       <c r="H41" s="3">
-        <v>127200</v>
+        <v>128300</v>
       </c>
       <c r="I41" s="3">
-        <v>457300</v>
+        <v>461600</v>
       </c>
       <c r="J41" s="3">
-        <v>234000</v>
+        <v>236200</v>
       </c>
       <c r="K41" s="3">
         <v>417700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>947900</v>
+        <v>956700</v>
       </c>
       <c r="E43" s="3">
-        <v>957300</v>
+        <v>966200</v>
       </c>
       <c r="F43" s="3">
-        <v>1048200</v>
+        <v>1057900</v>
       </c>
       <c r="G43" s="3">
-        <v>1139200</v>
+        <v>1149800</v>
       </c>
       <c r="H43" s="3">
-        <v>990800</v>
+        <v>1000000</v>
       </c>
       <c r="I43" s="3">
-        <v>850600</v>
+        <v>858500</v>
       </c>
       <c r="J43" s="3">
-        <v>846000</v>
+        <v>853900</v>
       </c>
       <c r="K43" s="3">
         <v>814400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>801200</v>
+        <v>808600</v>
       </c>
       <c r="E44" s="3">
-        <v>824300</v>
+        <v>832000</v>
       </c>
       <c r="F44" s="3">
-        <v>840300</v>
+        <v>848100</v>
       </c>
       <c r="G44" s="3">
-        <v>722800</v>
+        <v>729500</v>
       </c>
       <c r="H44" s="3">
-        <v>707300</v>
+        <v>713900</v>
       </c>
       <c r="I44" s="3">
-        <v>717200</v>
+        <v>723800</v>
       </c>
       <c r="J44" s="3">
-        <v>669400</v>
+        <v>675600</v>
       </c>
       <c r="K44" s="3">
         <v>630000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>601400</v>
+        <v>607000</v>
       </c>
       <c r="E45" s="3">
-        <v>693100</v>
+        <v>699500</v>
       </c>
       <c r="F45" s="3">
-        <v>444800</v>
+        <v>448900</v>
       </c>
       <c r="G45" s="3">
-        <v>376800</v>
+        <v>380300</v>
       </c>
       <c r="H45" s="3">
-        <v>369600</v>
+        <v>373000</v>
       </c>
       <c r="I45" s="3">
-        <v>431000</v>
+        <v>435000</v>
       </c>
       <c r="J45" s="3">
-        <v>524100</v>
+        <v>528900</v>
       </c>
       <c r="K45" s="3">
         <v>373700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3653100</v>
+        <v>3687000</v>
       </c>
       <c r="E46" s="3">
-        <v>3784100</v>
+        <v>3819200</v>
       </c>
       <c r="F46" s="3">
-        <v>2497200</v>
+        <v>2520400</v>
       </c>
       <c r="G46" s="3">
-        <v>2380000</v>
+        <v>2402100</v>
       </c>
       <c r="H46" s="3">
-        <v>2194900</v>
+        <v>2215300</v>
       </c>
       <c r="I46" s="3">
-        <v>2456100</v>
+        <v>2478800</v>
       </c>
       <c r="J46" s="3">
-        <v>2273500</v>
+        <v>2294600</v>
       </c>
       <c r="K46" s="3">
         <v>2235800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>293800</v>
+        <v>296500</v>
       </c>
       <c r="E47" s="3">
-        <v>303500</v>
+        <v>306400</v>
       </c>
       <c r="F47" s="3">
-        <v>306600</v>
+        <v>309400</v>
       </c>
       <c r="G47" s="3">
-        <v>276700</v>
+        <v>279200</v>
       </c>
       <c r="H47" s="3">
-        <v>271700</v>
+        <v>274200</v>
       </c>
       <c r="I47" s="3">
-        <v>261000</v>
+        <v>263400</v>
       </c>
       <c r="J47" s="3">
-        <v>239200</v>
+        <v>241500</v>
       </c>
       <c r="K47" s="3">
         <v>187600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>719300</v>
+        <v>726000</v>
       </c>
       <c r="E48" s="3">
-        <v>797200</v>
+        <v>804600</v>
       </c>
       <c r="F48" s="3">
-        <v>304900</v>
+        <v>307700</v>
       </c>
       <c r="G48" s="3">
-        <v>297500</v>
+        <v>300300</v>
       </c>
       <c r="H48" s="3">
-        <v>304100</v>
+        <v>306900</v>
       </c>
       <c r="I48" s="3">
-        <v>336800</v>
+        <v>339900</v>
       </c>
       <c r="J48" s="3">
-        <v>362700</v>
+        <v>366100</v>
       </c>
       <c r="K48" s="3">
         <v>379600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6628700</v>
+        <v>6690200</v>
       </c>
       <c r="E49" s="3">
-        <v>6824200</v>
+        <v>6887500</v>
       </c>
       <c r="F49" s="3">
-        <v>6352200</v>
+        <v>6411200</v>
       </c>
       <c r="G49" s="3">
-        <v>5995900</v>
+        <v>6051500</v>
       </c>
       <c r="H49" s="3">
-        <v>5788500</v>
+        <v>5842200</v>
       </c>
       <c r="I49" s="3">
-        <v>5706200</v>
+        <v>5759100</v>
       </c>
       <c r="J49" s="3">
-        <v>5907600</v>
+        <v>5962400</v>
       </c>
       <c r="K49" s="3">
         <v>5645900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>220700</v>
+        <v>222700</v>
       </c>
       <c r="E52" s="3">
-        <v>212500</v>
+        <v>214500</v>
       </c>
       <c r="F52" s="3">
-        <v>215400</v>
+        <v>217400</v>
       </c>
       <c r="G52" s="3">
-        <v>187500</v>
+        <v>189300</v>
       </c>
       <c r="H52" s="3">
-        <v>177700</v>
+        <v>179300</v>
       </c>
       <c r="I52" s="3">
-        <v>204600</v>
+        <v>206500</v>
       </c>
       <c r="J52" s="3">
-        <v>253600</v>
+        <v>255900</v>
       </c>
       <c r="K52" s="3">
         <v>310000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11515700</v>
+        <v>11622500</v>
       </c>
       <c r="E54" s="3">
-        <v>11921500</v>
+        <v>12032100</v>
       </c>
       <c r="F54" s="3">
-        <v>9676300</v>
+        <v>9766100</v>
       </c>
       <c r="G54" s="3">
-        <v>9137600</v>
+        <v>9222400</v>
       </c>
       <c r="H54" s="3">
-        <v>8736800</v>
+        <v>8817800</v>
       </c>
       <c r="I54" s="3">
-        <v>8964600</v>
+        <v>9047700</v>
       </c>
       <c r="J54" s="3">
-        <v>9036600</v>
+        <v>9120400</v>
       </c>
       <c r="K54" s="3">
         <v>8758900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>683400</v>
+        <v>689700</v>
       </c>
       <c r="E57" s="3">
-        <v>786500</v>
+        <v>793800</v>
       </c>
       <c r="F57" s="3">
-        <v>850100</v>
+        <v>858000</v>
       </c>
       <c r="G57" s="3">
-        <v>870000</v>
+        <v>878100</v>
       </c>
       <c r="H57" s="3">
-        <v>769900</v>
+        <v>777100</v>
       </c>
       <c r="I57" s="3">
-        <v>849300</v>
+        <v>857200</v>
       </c>
       <c r="J57" s="3">
-        <v>853800</v>
+        <v>861700</v>
       </c>
       <c r="K57" s="3">
         <v>826700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>429700</v>
+        <v>433700</v>
       </c>
       <c r="E58" s="3">
-        <v>375300</v>
+        <v>378700</v>
       </c>
       <c r="F58" s="3">
-        <v>87000</v>
+        <v>87800</v>
       </c>
       <c r="G58" s="3">
-        <v>267200</v>
+        <v>269700</v>
       </c>
       <c r="H58" s="3">
-        <v>93900</v>
+        <v>94800</v>
       </c>
       <c r="I58" s="3">
-        <v>147200</v>
+        <v>148600</v>
       </c>
       <c r="J58" s="3">
-        <v>177000</v>
+        <v>178700</v>
       </c>
       <c r="K58" s="3">
         <v>62700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1802800</v>
+        <v>1819500</v>
       </c>
       <c r="E59" s="3">
-        <v>1640900</v>
+        <v>1656100</v>
       </c>
       <c r="F59" s="3">
-        <v>1273900</v>
+        <v>1285800</v>
       </c>
       <c r="G59" s="3">
-        <v>1254400</v>
+        <v>1266100</v>
       </c>
       <c r="H59" s="3">
-        <v>1207300</v>
+        <v>1218500</v>
       </c>
       <c r="I59" s="3">
-        <v>1133700</v>
+        <v>1144200</v>
       </c>
       <c r="J59" s="3">
-        <v>1351800</v>
+        <v>1364300</v>
       </c>
       <c r="K59" s="3">
         <v>1276700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2915900</v>
+        <v>2942900</v>
       </c>
       <c r="E60" s="3">
-        <v>2802700</v>
+        <v>2828700</v>
       </c>
       <c r="F60" s="3">
-        <v>2211100</v>
+        <v>2231600</v>
       </c>
       <c r="G60" s="3">
-        <v>2391700</v>
+        <v>2413800</v>
       </c>
       <c r="H60" s="3">
-        <v>2071100</v>
+        <v>2090300</v>
       </c>
       <c r="I60" s="3">
-        <v>2130200</v>
+        <v>2150000</v>
       </c>
       <c r="J60" s="3">
-        <v>2382600</v>
+        <v>2404600</v>
       </c>
       <c r="K60" s="3">
         <v>2166100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2773700</v>
+        <v>2799500</v>
       </c>
       <c r="E61" s="3">
-        <v>3046600</v>
+        <v>3074900</v>
       </c>
       <c r="F61" s="3">
-        <v>1700200</v>
+        <v>1715900</v>
       </c>
       <c r="G61" s="3">
-        <v>1113400</v>
+        <v>1123700</v>
       </c>
       <c r="H61" s="3">
-        <v>1333600</v>
+        <v>1346000</v>
       </c>
       <c r="I61" s="3">
-        <v>1317800</v>
+        <v>1330000</v>
       </c>
       <c r="J61" s="3">
-        <v>1453700</v>
+        <v>1467200</v>
       </c>
       <c r="K61" s="3">
         <v>2026600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>470200</v>
+        <v>474500</v>
       </c>
       <c r="E62" s="3">
-        <v>503200</v>
+        <v>507900</v>
       </c>
       <c r="F62" s="3">
-        <v>487400</v>
+        <v>492000</v>
       </c>
       <c r="G62" s="3">
-        <v>507700</v>
+        <v>512400</v>
       </c>
       <c r="H62" s="3">
-        <v>576900</v>
+        <v>582200</v>
       </c>
       <c r="I62" s="3">
-        <v>560500</v>
+        <v>565700</v>
       </c>
       <c r="J62" s="3">
-        <v>537500</v>
+        <v>542500</v>
       </c>
       <c r="K62" s="3">
         <v>676600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6159800</v>
+        <v>6216900</v>
       </c>
       <c r="E66" s="3">
-        <v>6352500</v>
+        <v>6411400</v>
       </c>
       <c r="F66" s="3">
-        <v>4398700</v>
+        <v>4439500</v>
       </c>
       <c r="G66" s="3">
-        <v>4012800</v>
+        <v>4050000</v>
       </c>
       <c r="H66" s="3">
-        <v>3981600</v>
+        <v>4018500</v>
       </c>
       <c r="I66" s="3">
-        <v>4008500</v>
+        <v>4045700</v>
       </c>
       <c r="J66" s="3">
-        <v>4373800</v>
+        <v>4414300</v>
       </c>
       <c r="K66" s="3">
         <v>4869300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3627900</v>
+        <v>3661600</v>
       </c>
       <c r="E72" s="3">
-        <v>3606000</v>
+        <v>3639400</v>
       </c>
       <c r="F72" s="3">
-        <v>3494200</v>
+        <v>3526600</v>
       </c>
       <c r="G72" s="3">
-        <v>3259300</v>
+        <v>3289500</v>
       </c>
       <c r="H72" s="3">
-        <v>2909000</v>
+        <v>2935900</v>
       </c>
       <c r="I72" s="3">
-        <v>2897000</v>
+        <v>2923900</v>
       </c>
       <c r="J72" s="3">
-        <v>2344100</v>
+        <v>2365800</v>
       </c>
       <c r="K72" s="3">
         <v>1836900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5355900</v>
+        <v>5405600</v>
       </c>
       <c r="E76" s="3">
-        <v>5569000</v>
+        <v>5620600</v>
       </c>
       <c r="F76" s="3">
-        <v>5277600</v>
+        <v>5326600</v>
       </c>
       <c r="G76" s="3">
-        <v>5124800</v>
+        <v>5172400</v>
       </c>
       <c r="H76" s="3">
-        <v>4755200</v>
+        <v>4799300</v>
       </c>
       <c r="I76" s="3">
-        <v>4956000</v>
+        <v>5002000</v>
       </c>
       <c r="J76" s="3">
-        <v>4662800</v>
+        <v>4706100</v>
       </c>
       <c r="K76" s="3">
         <v>3889600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1049600</v>
+        <v>1059300</v>
       </c>
       <c r="E81" s="3">
-        <v>857000</v>
+        <v>864900</v>
       </c>
       <c r="F81" s="3">
-        <v>968400</v>
+        <v>977400</v>
       </c>
       <c r="G81" s="3">
-        <v>875000</v>
+        <v>883200</v>
       </c>
       <c r="H81" s="3">
-        <v>793600</v>
+        <v>801000</v>
       </c>
       <c r="I81" s="3">
-        <v>819300</v>
+        <v>826900</v>
       </c>
       <c r="J81" s="3">
-        <v>749400</v>
+        <v>756400</v>
       </c>
       <c r="K81" s="3">
         <v>670100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>386400</v>
+        <v>390000</v>
       </c>
       <c r="E83" s="3">
-        <v>433700</v>
+        <v>437700</v>
       </c>
       <c r="F83" s="3">
-        <v>300800</v>
+        <v>303500</v>
       </c>
       <c r="G83" s="3">
-        <v>301000</v>
+        <v>303800</v>
       </c>
       <c r="H83" s="3">
-        <v>289200</v>
+        <v>291900</v>
       </c>
       <c r="I83" s="3">
-        <v>306700</v>
+        <v>309500</v>
       </c>
       <c r="J83" s="3">
-        <v>325100</v>
+        <v>328100</v>
       </c>
       <c r="K83" s="3">
         <v>346400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1622200</v>
+        <v>1637200</v>
       </c>
       <c r="E89" s="3">
-        <v>1486200</v>
+        <v>1500000</v>
       </c>
       <c r="F89" s="3">
-        <v>1252600</v>
+        <v>1264200</v>
       </c>
       <c r="G89" s="3">
-        <v>1144900</v>
+        <v>1155500</v>
       </c>
       <c r="H89" s="3">
-        <v>1041500</v>
+        <v>1051200</v>
       </c>
       <c r="I89" s="3">
-        <v>1022000</v>
+        <v>1031500</v>
       </c>
       <c r="J89" s="3">
-        <v>988400</v>
+        <v>997600</v>
       </c>
       <c r="K89" s="3">
         <v>916000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-93400</v>
+        <v>-94200</v>
       </c>
       <c r="E91" s="3">
-        <v>-98500</v>
+        <v>-99400</v>
       </c>
       <c r="F91" s="3">
-        <v>-124200</v>
+        <v>-125400</v>
       </c>
       <c r="G91" s="3">
-        <v>-109800</v>
+        <v>-110800</v>
       </c>
       <c r="H91" s="3">
-        <v>-86400</v>
+        <v>-87200</v>
       </c>
       <c r="I91" s="3">
-        <v>-126900</v>
+        <v>-128100</v>
       </c>
       <c r="J91" s="3">
-        <v>-93900</v>
+        <v>-94800</v>
       </c>
       <c r="K91" s="3">
         <v>-141500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-304800</v>
+        <v>-307600</v>
       </c>
       <c r="E94" s="3">
-        <v>-438900</v>
+        <v>-442900</v>
       </c>
       <c r="F94" s="3">
-        <v>-728900</v>
+        <v>-735700</v>
       </c>
       <c r="G94" s="3">
-        <v>-442700</v>
+        <v>-446800</v>
       </c>
       <c r="H94" s="3">
-        <v>-454000</v>
+        <v>-458300</v>
       </c>
       <c r="I94" s="3">
-        <v>-293400</v>
+        <v>-296100</v>
       </c>
       <c r="J94" s="3">
-        <v>-197100</v>
+        <v>-199000</v>
       </c>
       <c r="K94" s="3">
         <v>-250400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1267500</v>
+        <v>-1279200</v>
       </c>
       <c r="E100" s="3">
-        <v>72200</v>
+        <v>72900</v>
       </c>
       <c r="F100" s="3">
-        <v>-482300</v>
+        <v>-486800</v>
       </c>
       <c r="G100" s="3">
-        <v>-673900</v>
+        <v>-680200</v>
       </c>
       <c r="H100" s="3">
-        <v>-906900</v>
+        <v>-915300</v>
       </c>
       <c r="I100" s="3">
-        <v>-510800</v>
+        <v>-515600</v>
       </c>
       <c r="J100" s="3">
-        <v>-999400</v>
+        <v>-1008700</v>
       </c>
       <c r="K100" s="3">
         <v>-322800</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-56600</v>
+        <v>-57200</v>
       </c>
       <c r="E101" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="F101" s="3">
-        <v>-18600</v>
+        <v>-18800</v>
       </c>
       <c r="G101" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="H101" s="3">
-        <v>-10700</v>
+        <v>-10800</v>
       </c>
       <c r="I101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J101" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="K101" s="3">
         <v>-7900</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="E102" s="3">
-        <v>1145500</v>
+        <v>1156100</v>
       </c>
       <c r="F102" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="G102" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H102" s="3">
-        <v>-330200</v>
+        <v>-333200</v>
       </c>
       <c r="I102" s="3">
-        <v>223300</v>
+        <v>225400</v>
       </c>
       <c r="J102" s="3">
-        <v>-176700</v>
+        <v>-178300</v>
       </c>
       <c r="K102" s="3">
         <v>334900</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>GIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41547</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41182</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40816</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9383100</v>
+        <v>9661500</v>
       </c>
       <c r="E8" s="3">
-        <v>9412000</v>
+        <v>9105500</v>
       </c>
       <c r="F8" s="3">
-        <v>9371100</v>
+        <v>9133500</v>
       </c>
       <c r="G8" s="3">
-        <v>8903400</v>
+        <v>9093800</v>
       </c>
       <c r="H8" s="3">
-        <v>8391400</v>
+        <v>8640000</v>
       </c>
       <c r="I8" s="3">
-        <v>8266200</v>
+        <v>8143100</v>
       </c>
       <c r="J8" s="3">
+        <v>8021600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7959600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8186300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7675300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3551700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3245000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1193600</v>
+        <v>1066000</v>
       </c>
       <c r="E9" s="3">
-        <v>1236400</v>
+        <v>1112200</v>
       </c>
       <c r="F9" s="3">
-        <v>975900</v>
+        <v>1157800</v>
       </c>
       <c r="G9" s="3">
-        <v>938900</v>
+        <v>898800</v>
       </c>
       <c r="H9" s="3">
-        <v>913500</v>
+        <v>858400</v>
       </c>
       <c r="I9" s="3">
-        <v>920300</v>
+        <v>844100</v>
       </c>
       <c r="J9" s="3">
+        <v>852500</v>
+      </c>
+      <c r="K9" s="3">
         <v>867300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>952900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>975400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3145700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2835500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8189500</v>
+        <v>8595400</v>
       </c>
       <c r="E10" s="3">
-        <v>8175600</v>
+        <v>7993300</v>
       </c>
       <c r="F10" s="3">
-        <v>8395200</v>
+        <v>7975700</v>
       </c>
       <c r="G10" s="3">
-        <v>7964500</v>
+        <v>8195100</v>
       </c>
       <c r="H10" s="3">
-        <v>7477800</v>
+        <v>7781700</v>
       </c>
       <c r="I10" s="3">
-        <v>7345900</v>
+        <v>7299000</v>
       </c>
       <c r="J10" s="3">
+        <v>7169100</v>
+      </c>
+      <c r="K10" s="3">
         <v>7092300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7233400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6699900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>406000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>409500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,71 +944,77 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13200</v>
+        <v>24400</v>
       </c>
       <c r="E14" s="3">
-        <v>193600</v>
+        <v>12800</v>
       </c>
       <c r="F14" s="3">
-        <v>59900</v>
+        <v>187800</v>
       </c>
       <c r="G14" s="3">
-        <v>106700</v>
+        <v>58100</v>
       </c>
       <c r="H14" s="3">
-        <v>76600</v>
+        <v>103500</v>
       </c>
       <c r="I14" s="3">
-        <v>22500</v>
+        <v>74300</v>
       </c>
       <c r="J14" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K14" s="3">
         <v>31900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>99300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>257600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>189800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>36500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>46100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>48300</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>52800</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>42400</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>40600</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1000,15 +1022,18 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>60400</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7961000</v>
+        <v>8184600</v>
       </c>
       <c r="E17" s="3">
-        <v>8238800</v>
+        <v>7725400</v>
       </c>
       <c r="F17" s="3">
-        <v>8073500</v>
+        <v>7995000</v>
       </c>
       <c r="G17" s="3">
-        <v>7750500</v>
+        <v>7834700</v>
       </c>
       <c r="H17" s="3">
-        <v>7294300</v>
+        <v>7521200</v>
       </c>
       <c r="I17" s="3">
-        <v>7142100</v>
+        <v>7078500</v>
       </c>
       <c r="J17" s="3">
+        <v>6930800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6931700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7305100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7197600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3356000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2831800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1422100</v>
+        <v>1476900</v>
       </c>
       <c r="E18" s="3">
-        <v>1173200</v>
+        <v>1380100</v>
       </c>
       <c r="F18" s="3">
-        <v>1297500</v>
+        <v>1138500</v>
       </c>
       <c r="G18" s="3">
-        <v>1152900</v>
+        <v>1259200</v>
       </c>
       <c r="H18" s="3">
-        <v>1097100</v>
+        <v>1118800</v>
       </c>
       <c r="I18" s="3">
-        <v>1124100</v>
+        <v>1064600</v>
       </c>
       <c r="J18" s="3">
+        <v>1090800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1028000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>881200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>477700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>195700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>413200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,8 +1148,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,48 +1187,54 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1810900</v>
+        <v>1821800</v>
       </c>
       <c r="E21" s="3">
-        <v>1609500</v>
+        <v>1752700</v>
       </c>
       <c r="F21" s="3">
-        <v>1600100</v>
+        <v>1556700</v>
       </c>
       <c r="G21" s="3">
-        <v>1455700</v>
+        <v>1549200</v>
       </c>
       <c r="H21" s="3">
-        <v>1388000</v>
+        <v>1409100</v>
       </c>
       <c r="I21" s="3">
-        <v>1432700</v>
+        <v>1343500</v>
       </c>
       <c r="J21" s="3">
+        <v>1386600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1355000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1232300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>808700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>368200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>585600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1422100</v>
+        <v>1476900</v>
       </c>
       <c r="E23" s="3">
-        <v>1173200</v>
+        <v>1380100</v>
       </c>
       <c r="F23" s="3">
-        <v>1297500</v>
+        <v>1138500</v>
       </c>
       <c r="G23" s="3">
-        <v>1152900</v>
+        <v>1259200</v>
       </c>
       <c r="H23" s="3">
-        <v>1097100</v>
+        <v>1118800</v>
       </c>
       <c r="I23" s="3">
-        <v>1124100</v>
+        <v>1064600</v>
       </c>
       <c r="J23" s="3">
+        <v>1090800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1028000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>881200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>477700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>195700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>413200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>362800</v>
+        <v>376000</v>
       </c>
       <c r="E24" s="3">
-        <v>308300</v>
+        <v>352100</v>
       </c>
       <c r="F24" s="3">
-        <v>320100</v>
+        <v>299100</v>
       </c>
       <c r="G24" s="3">
-        <v>269700</v>
+        <v>310700</v>
       </c>
       <c r="H24" s="3">
-        <v>296100</v>
+        <v>261700</v>
       </c>
       <c r="I24" s="3">
-        <v>297200</v>
+        <v>287400</v>
       </c>
       <c r="J24" s="3">
+        <v>288400</v>
+      </c>
+      <c r="K24" s="3">
         <v>271600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>211100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>130800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>76600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1059300</v>
+        <v>1100900</v>
       </c>
       <c r="E26" s="3">
-        <v>864900</v>
+        <v>1028000</v>
       </c>
       <c r="F26" s="3">
-        <v>977400</v>
+        <v>839400</v>
       </c>
       <c r="G26" s="3">
-        <v>883200</v>
+        <v>948500</v>
       </c>
       <c r="H26" s="3">
-        <v>801000</v>
+        <v>857000</v>
       </c>
       <c r="I26" s="3">
-        <v>826900</v>
+        <v>777300</v>
       </c>
       <c r="J26" s="3">
+        <v>802500</v>
+      </c>
+      <c r="K26" s="3">
         <v>756400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>670100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>346900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>97900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>336600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1059300</v>
+        <v>1100900</v>
       </c>
       <c r="E27" s="3">
-        <v>864900</v>
+        <v>1028000</v>
       </c>
       <c r="F27" s="3">
-        <v>977400</v>
+        <v>839400</v>
       </c>
       <c r="G27" s="3">
-        <v>883200</v>
+        <v>948500</v>
       </c>
       <c r="H27" s="3">
-        <v>801000</v>
+        <v>857000</v>
       </c>
       <c r="I27" s="3">
-        <v>826900</v>
+        <v>777300</v>
       </c>
       <c r="J27" s="3">
+        <v>802500</v>
+      </c>
+      <c r="K27" s="3">
         <v>756400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>670100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>346900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>97900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>336400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,9 +1649,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1622,48 +1691,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1059300</v>
+        <v>1100900</v>
       </c>
       <c r="E33" s="3">
-        <v>864900</v>
+        <v>1028000</v>
       </c>
       <c r="F33" s="3">
-        <v>977400</v>
+        <v>839400</v>
       </c>
       <c r="G33" s="3">
-        <v>883200</v>
+        <v>948500</v>
       </c>
       <c r="H33" s="3">
-        <v>801000</v>
+        <v>857000</v>
       </c>
       <c r="I33" s="3">
-        <v>826900</v>
+        <v>777300</v>
       </c>
       <c r="J33" s="3">
+        <v>802500</v>
+      </c>
+      <c r="K33" s="3">
         <v>756400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>670100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>346900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>97900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>336400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1059300</v>
+        <v>1100900</v>
       </c>
       <c r="E35" s="3">
-        <v>864900</v>
+        <v>1028000</v>
       </c>
       <c r="F35" s="3">
-        <v>977400</v>
+        <v>839400</v>
       </c>
       <c r="G35" s="3">
-        <v>883200</v>
+        <v>948500</v>
       </c>
       <c r="H35" s="3">
-        <v>801000</v>
+        <v>857000</v>
       </c>
       <c r="I35" s="3">
-        <v>826900</v>
+        <v>777300</v>
       </c>
       <c r="J35" s="3">
+        <v>802500</v>
+      </c>
+      <c r="K35" s="3">
         <v>756400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>670100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>346900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>97900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>336400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41547</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41182</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40816</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1314800</v>
+        <v>725700</v>
       </c>
       <c r="E41" s="3">
-        <v>1321600</v>
+        <v>1275900</v>
       </c>
       <c r="F41" s="3">
-        <v>165500</v>
+        <v>1282500</v>
       </c>
       <c r="G41" s="3">
-        <v>142400</v>
+        <v>160600</v>
       </c>
       <c r="H41" s="3">
-        <v>128300</v>
+        <v>138200</v>
       </c>
       <c r="I41" s="3">
-        <v>461600</v>
+        <v>124500</v>
       </c>
       <c r="J41" s="3">
+        <v>447900</v>
+      </c>
+      <c r="K41" s="3">
         <v>236200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>417700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>107200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1887,290 +1976,314 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>143000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>163500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>956700</v>
+        <v>1098400</v>
       </c>
       <c r="E43" s="3">
-        <v>966200</v>
+        <v>928400</v>
       </c>
       <c r="F43" s="3">
-        <v>1057900</v>
+        <v>937600</v>
       </c>
       <c r="G43" s="3">
-        <v>1149800</v>
+        <v>1026600</v>
       </c>
       <c r="H43" s="3">
-        <v>1000000</v>
+        <v>1115800</v>
       </c>
       <c r="I43" s="3">
-        <v>858500</v>
+        <v>970400</v>
       </c>
       <c r="J43" s="3">
+        <v>833100</v>
+      </c>
+      <c r="K43" s="3">
         <v>853900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>814400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1706200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2175800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>380100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>808600</v>
+        <v>894900</v>
       </c>
       <c r="E44" s="3">
-        <v>832000</v>
+        <v>784700</v>
       </c>
       <c r="F44" s="3">
-        <v>848100</v>
+        <v>807400</v>
       </c>
       <c r="G44" s="3">
-        <v>729500</v>
+        <v>823000</v>
       </c>
       <c r="H44" s="3">
-        <v>713900</v>
+        <v>707900</v>
       </c>
       <c r="I44" s="3">
-        <v>723800</v>
+        <v>692800</v>
       </c>
       <c r="J44" s="3">
+        <v>702400</v>
+      </c>
+      <c r="K44" s="3">
         <v>675600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>630000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>694000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1072900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>300400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>607000</v>
+        <v>546600</v>
       </c>
       <c r="E45" s="3">
-        <v>699500</v>
+        <v>589000</v>
       </c>
       <c r="F45" s="3">
-        <v>448900</v>
+        <v>678800</v>
       </c>
       <c r="G45" s="3">
-        <v>380300</v>
+        <v>435700</v>
       </c>
       <c r="H45" s="3">
-        <v>373000</v>
+        <v>369000</v>
       </c>
       <c r="I45" s="3">
-        <v>435000</v>
+        <v>362000</v>
       </c>
       <c r="J45" s="3">
+        <v>422100</v>
+      </c>
+      <c r="K45" s="3">
         <v>528900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>373700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>503800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>508400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>267400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3687000</v>
+        <v>3265500</v>
       </c>
       <c r="E46" s="3">
-        <v>3819200</v>
+        <v>3578000</v>
       </c>
       <c r="F46" s="3">
-        <v>2520400</v>
+        <v>3706200</v>
       </c>
       <c r="G46" s="3">
-        <v>2402100</v>
+        <v>2445800</v>
       </c>
       <c r="H46" s="3">
-        <v>2215300</v>
+        <v>2331000</v>
       </c>
       <c r="I46" s="3">
-        <v>2478800</v>
+        <v>2149700</v>
       </c>
       <c r="J46" s="3">
+        <v>2405500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2294600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2235800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2042100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2021200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1060300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>296500</v>
+        <v>20600</v>
       </c>
       <c r="E47" s="3">
-        <v>306400</v>
+        <v>114600</v>
       </c>
       <c r="F47" s="3">
-        <v>309400</v>
+        <v>117600</v>
       </c>
       <c r="G47" s="3">
-        <v>279200</v>
+        <v>132800</v>
       </c>
       <c r="H47" s="3">
-        <v>274200</v>
+        <v>88400</v>
       </c>
       <c r="I47" s="3">
-        <v>263400</v>
+        <v>83600</v>
       </c>
       <c r="J47" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K47" s="3">
         <v>241500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>187600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>165100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>35600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>726000</v>
+        <v>679300</v>
       </c>
       <c r="E48" s="3">
-        <v>804600</v>
+        <v>704500</v>
       </c>
       <c r="F48" s="3">
-        <v>307700</v>
+        <v>780800</v>
       </c>
       <c r="G48" s="3">
-        <v>300300</v>
+        <v>298600</v>
       </c>
       <c r="H48" s="3">
-        <v>306900</v>
+        <v>291400</v>
       </c>
       <c r="I48" s="3">
-        <v>339900</v>
+        <v>297800</v>
       </c>
       <c r="J48" s="3">
+        <v>329800</v>
+      </c>
+      <c r="K48" s="3">
         <v>366100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>379600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>361600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>731200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>384000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6690200</v>
+        <v>7027300</v>
       </c>
       <c r="E49" s="3">
-        <v>6887500</v>
+        <v>6665400</v>
       </c>
       <c r="F49" s="3">
-        <v>6411200</v>
+        <v>6863400</v>
       </c>
       <c r="G49" s="3">
-        <v>6051500</v>
+        <v>6388900</v>
       </c>
       <c r="H49" s="3">
-        <v>5842200</v>
+        <v>6055100</v>
       </c>
       <c r="I49" s="3">
-        <v>5759100</v>
+        <v>5851800</v>
       </c>
       <c r="J49" s="3">
+        <v>5747200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5962400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5645900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6051100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10341600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2561900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>222700</v>
+        <v>401900</v>
       </c>
       <c r="E52" s="3">
-        <v>214500</v>
+        <v>216200</v>
       </c>
       <c r="F52" s="3">
-        <v>217400</v>
+        <v>208200</v>
       </c>
       <c r="G52" s="3">
-        <v>189300</v>
+        <v>211000</v>
       </c>
       <c r="H52" s="3">
-        <v>179300</v>
+        <v>183700</v>
       </c>
       <c r="I52" s="3">
-        <v>206500</v>
+        <v>174000</v>
       </c>
       <c r="J52" s="3">
+        <v>200400</v>
+      </c>
+      <c r="K52" s="3">
         <v>255900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>310000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>351500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>535600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>42600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11622500</v>
+        <v>11394600</v>
       </c>
       <c r="E54" s="3">
-        <v>12032100</v>
+        <v>11278700</v>
       </c>
       <c r="F54" s="3">
-        <v>9766100</v>
+        <v>11676100</v>
       </c>
       <c r="G54" s="3">
-        <v>9222400</v>
+        <v>9477200</v>
       </c>
       <c r="H54" s="3">
-        <v>8817800</v>
+        <v>8949500</v>
       </c>
       <c r="I54" s="3">
-        <v>9047700</v>
+        <v>8557000</v>
       </c>
       <c r="J54" s="3">
+        <v>8780100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9120400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8758900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8280100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7955800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3577900</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>689700</v>
+        <v>763200</v>
       </c>
       <c r="E57" s="3">
-        <v>793800</v>
+        <v>669300</v>
       </c>
       <c r="F57" s="3">
-        <v>858000</v>
+        <v>770400</v>
       </c>
       <c r="G57" s="3">
-        <v>878100</v>
+        <v>832600</v>
       </c>
       <c r="H57" s="3">
-        <v>777100</v>
+        <v>852100</v>
       </c>
       <c r="I57" s="3">
-        <v>857200</v>
+        <v>754100</v>
       </c>
       <c r="J57" s="3">
+        <v>831900</v>
+      </c>
+      <c r="K57" s="3">
         <v>861700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>826700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>851700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1817900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>233300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>433700</v>
+        <v>188800</v>
       </c>
       <c r="E58" s="3">
-        <v>378700</v>
+        <v>420900</v>
       </c>
       <c r="F58" s="3">
-        <v>87800</v>
+        <v>367500</v>
       </c>
       <c r="G58" s="3">
-        <v>269700</v>
+        <v>85200</v>
       </c>
       <c r="H58" s="3">
-        <v>94800</v>
+        <v>261700</v>
       </c>
       <c r="I58" s="3">
-        <v>148600</v>
+        <v>92000</v>
       </c>
       <c r="J58" s="3">
+        <v>144200</v>
+      </c>
+      <c r="K58" s="3">
         <v>178700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>62700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>406600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>77900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>746400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1819500</v>
+        <v>1788200</v>
       </c>
       <c r="E59" s="3">
-        <v>1656100</v>
+        <v>1765700</v>
       </c>
       <c r="F59" s="3">
-        <v>1285800</v>
+        <v>1607100</v>
       </c>
       <c r="G59" s="3">
-        <v>1266100</v>
+        <v>1247700</v>
       </c>
       <c r="H59" s="3">
-        <v>1218500</v>
+        <v>1228600</v>
       </c>
       <c r="I59" s="3">
-        <v>1144200</v>
+        <v>1182400</v>
       </c>
       <c r="J59" s="3">
+        <v>1110300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1364300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1276700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1391900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2383800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>495800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2942900</v>
+        <v>2740100</v>
       </c>
       <c r="E60" s="3">
-        <v>2828700</v>
+        <v>2855900</v>
       </c>
       <c r="F60" s="3">
-        <v>2231600</v>
+        <v>2745000</v>
       </c>
       <c r="G60" s="3">
-        <v>2413800</v>
+        <v>2165600</v>
       </c>
       <c r="H60" s="3">
-        <v>2090300</v>
+        <v>2342400</v>
       </c>
       <c r="I60" s="3">
-        <v>2150000</v>
+        <v>2028500</v>
       </c>
       <c r="J60" s="3">
+        <v>2086400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2404600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2166100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2650100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2249400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1475400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2799500</v>
+        <v>2796800</v>
       </c>
       <c r="E61" s="3">
-        <v>3074900</v>
+        <v>2716600</v>
       </c>
       <c r="F61" s="3">
-        <v>1715900</v>
+        <v>2983900</v>
       </c>
       <c r="G61" s="3">
-        <v>1123700</v>
+        <v>1665200</v>
       </c>
       <c r="H61" s="3">
-        <v>1346000</v>
+        <v>1090500</v>
       </c>
       <c r="I61" s="3">
-        <v>1330000</v>
+        <v>1306100</v>
       </c>
       <c r="J61" s="3">
+        <v>1290700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1467200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2026600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1775100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2378500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>84300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>474500</v>
+        <v>396800</v>
       </c>
       <c r="E62" s="3">
-        <v>507900</v>
+        <v>460500</v>
       </c>
       <c r="F62" s="3">
-        <v>492000</v>
+        <v>492900</v>
       </c>
       <c r="G62" s="3">
-        <v>512400</v>
+        <v>477400</v>
       </c>
       <c r="H62" s="3">
-        <v>582200</v>
+        <v>497300</v>
       </c>
       <c r="I62" s="3">
-        <v>565700</v>
+        <v>565000</v>
       </c>
       <c r="J62" s="3">
+        <v>549000</v>
+      </c>
+      <c r="K62" s="3">
         <v>542500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>676600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>768100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1604300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>401400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6216900</v>
+        <v>5933800</v>
       </c>
       <c r="E66" s="3">
-        <v>6411400</v>
+        <v>6033000</v>
       </c>
       <c r="F66" s="3">
-        <v>4439500</v>
+        <v>6221800</v>
       </c>
       <c r="G66" s="3">
-        <v>4050000</v>
+        <v>4308200</v>
       </c>
       <c r="H66" s="3">
-        <v>4018500</v>
+        <v>3930200</v>
       </c>
       <c r="I66" s="3">
-        <v>4045700</v>
+        <v>3899700</v>
       </c>
       <c r="J66" s="3">
+        <v>3926000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4414300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4869300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5193400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5408400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1773200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3661600</v>
+        <v>4073400</v>
       </c>
       <c r="E72" s="3">
-        <v>3639400</v>
+        <v>3553200</v>
       </c>
       <c r="F72" s="3">
-        <v>3526600</v>
+        <v>3531800</v>
       </c>
       <c r="G72" s="3">
-        <v>3289500</v>
+        <v>3422300</v>
       </c>
       <c r="H72" s="3">
-        <v>2935900</v>
+        <v>3192200</v>
       </c>
       <c r="I72" s="3">
-        <v>2923900</v>
+        <v>2849100</v>
       </c>
       <c r="J72" s="3">
+        <v>2837400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2365800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1836900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1181200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1656900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>812500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5405600</v>
+        <v>5460800</v>
       </c>
       <c r="E76" s="3">
-        <v>5620600</v>
+        <v>5245700</v>
       </c>
       <c r="F76" s="3">
-        <v>5326600</v>
+        <v>5454400</v>
       </c>
       <c r="G76" s="3">
-        <v>5172400</v>
+        <v>5169000</v>
       </c>
       <c r="H76" s="3">
-        <v>4799300</v>
+        <v>5019400</v>
       </c>
       <c r="I76" s="3">
-        <v>5002000</v>
+        <v>4657300</v>
       </c>
       <c r="J76" s="3">
+        <v>4854000</v>
+      </c>
+      <c r="K76" s="3">
         <v>4706100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3889600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3086800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2547400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1804700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41547</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41182</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40816</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1059300</v>
+        <v>1100900</v>
       </c>
       <c r="E81" s="3">
-        <v>864900</v>
+        <v>1028000</v>
       </c>
       <c r="F81" s="3">
-        <v>977400</v>
+        <v>839400</v>
       </c>
       <c r="G81" s="3">
-        <v>883200</v>
+        <v>948500</v>
       </c>
       <c r="H81" s="3">
-        <v>801000</v>
+        <v>857000</v>
       </c>
       <c r="I81" s="3">
-        <v>826900</v>
+        <v>777300</v>
       </c>
       <c r="J81" s="3">
+        <v>802500</v>
+      </c>
+      <c r="K81" s="3">
         <v>756400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>670100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>346900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>97900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>336400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>390000</v>
+        <v>350300</v>
       </c>
       <c r="E83" s="3">
-        <v>437700</v>
+        <v>378400</v>
       </c>
       <c r="F83" s="3">
-        <v>303500</v>
+        <v>424800</v>
       </c>
       <c r="G83" s="3">
-        <v>303800</v>
+        <v>294600</v>
       </c>
       <c r="H83" s="3">
-        <v>291900</v>
+        <v>294800</v>
       </c>
       <c r="I83" s="3">
-        <v>309500</v>
+        <v>283200</v>
       </c>
       <c r="J83" s="3">
+        <v>300400</v>
+      </c>
+      <c r="K83" s="3">
         <v>328100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>346400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>331800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>172200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>171600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1637200</v>
+        <v>1400400</v>
       </c>
       <c r="E89" s="3">
-        <v>1500000</v>
+        <v>1588800</v>
       </c>
       <c r="F89" s="3">
-        <v>1264200</v>
+        <v>1455600</v>
       </c>
       <c r="G89" s="3">
-        <v>1155500</v>
+        <v>1226800</v>
       </c>
       <c r="H89" s="3">
-        <v>1051200</v>
+        <v>1121300</v>
       </c>
       <c r="I89" s="3">
-        <v>1031500</v>
+        <v>1020100</v>
       </c>
       <c r="J89" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="K89" s="3">
         <v>997600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>916000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>510900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>456400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>437900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-94200</v>
+        <v>-117200</v>
       </c>
       <c r="E91" s="3">
-        <v>-99400</v>
+        <v>-91500</v>
       </c>
       <c r="F91" s="3">
-        <v>-125400</v>
+        <v>-96500</v>
       </c>
       <c r="G91" s="3">
-        <v>-110800</v>
+        <v>-121700</v>
       </c>
       <c r="H91" s="3">
-        <v>-87200</v>
+        <v>-107600</v>
       </c>
       <c r="I91" s="3">
-        <v>-128100</v>
+        <v>-84600</v>
       </c>
       <c r="J91" s="3">
+        <v>-124300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-94800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-141500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-108000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-92000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-307600</v>
+        <v>-684700</v>
       </c>
       <c r="E94" s="3">
-        <v>-442900</v>
+        <v>-298500</v>
       </c>
       <c r="F94" s="3">
-        <v>-735700</v>
+        <v>-429800</v>
       </c>
       <c r="G94" s="3">
-        <v>-446800</v>
+        <v>-713900</v>
       </c>
       <c r="H94" s="3">
-        <v>-458300</v>
+        <v>-433600</v>
       </c>
       <c r="I94" s="3">
-        <v>-296100</v>
+        <v>-444700</v>
       </c>
       <c r="J94" s="3">
+        <v>-287400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-199000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-250400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-178000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2120300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1279200</v>
+        <v>-1194700</v>
       </c>
       <c r="E100" s="3">
-        <v>72900</v>
+        <v>-1241400</v>
       </c>
       <c r="F100" s="3">
-        <v>-486800</v>
+        <v>70700</v>
       </c>
       <c r="G100" s="3">
-        <v>-680200</v>
+        <v>-472400</v>
       </c>
       <c r="H100" s="3">
-        <v>-915300</v>
+        <v>-660000</v>
       </c>
       <c r="I100" s="3">
-        <v>-515600</v>
+        <v>-888300</v>
       </c>
       <c r="J100" s="3">
+        <v>-500300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1008700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-322800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-339400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-377700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-57200</v>
+        <v>-34900</v>
       </c>
       <c r="E101" s="3">
-        <v>26200</v>
+        <v>-55500</v>
       </c>
       <c r="F101" s="3">
-        <v>-18800</v>
+        <v>25400</v>
       </c>
       <c r="G101" s="3">
-        <v>-14500</v>
+        <v>-18200</v>
       </c>
       <c r="H101" s="3">
-        <v>-10800</v>
+        <v>-14100</v>
       </c>
       <c r="I101" s="3">
-        <v>5600</v>
+        <v>-10500</v>
       </c>
       <c r="J101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K101" s="3">
         <v>31700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6800</v>
+        <v>-514000</v>
       </c>
       <c r="E102" s="3">
-        <v>1156100</v>
+        <v>-6600</v>
       </c>
       <c r="F102" s="3">
-        <v>23000</v>
+        <v>1121900</v>
       </c>
       <c r="G102" s="3">
-        <v>14100</v>
+        <v>22300</v>
       </c>
       <c r="H102" s="3">
-        <v>-333200</v>
+        <v>13700</v>
       </c>
       <c r="I102" s="3">
-        <v>225400</v>
+        <v>-323400</v>
       </c>
       <c r="J102" s="3">
+        <v>218700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-178300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>334900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-36800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9661500</v>
+        <v>9305800</v>
       </c>
       <c r="E8" s="3">
-        <v>9105500</v>
+        <v>8770300</v>
       </c>
       <c r="F8" s="3">
-        <v>9133500</v>
+        <v>8797300</v>
       </c>
       <c r="G8" s="3">
-        <v>9093800</v>
+        <v>8759100</v>
       </c>
       <c r="H8" s="3">
-        <v>8640000</v>
+        <v>8322000</v>
       </c>
       <c r="I8" s="3">
-        <v>8143100</v>
+        <v>7843400</v>
       </c>
       <c r="J8" s="3">
-        <v>8021600</v>
+        <v>7726400</v>
       </c>
       <c r="K8" s="3">
         <v>7959600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1066000</v>
+        <v>1026800</v>
       </c>
       <c r="E9" s="3">
-        <v>1112200</v>
+        <v>1071300</v>
       </c>
       <c r="F9" s="3">
-        <v>1157800</v>
+        <v>1115200</v>
       </c>
       <c r="G9" s="3">
-        <v>898800</v>
+        <v>865700</v>
       </c>
       <c r="H9" s="3">
-        <v>858400</v>
+        <v>826800</v>
       </c>
       <c r="I9" s="3">
-        <v>844100</v>
+        <v>813000</v>
       </c>
       <c r="J9" s="3">
-        <v>852500</v>
+        <v>821100</v>
       </c>
       <c r="K9" s="3">
         <v>867300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8595400</v>
+        <v>8279000</v>
       </c>
       <c r="E10" s="3">
-        <v>7993300</v>
+        <v>7699100</v>
       </c>
       <c r="F10" s="3">
-        <v>7975700</v>
+        <v>7682100</v>
       </c>
       <c r="G10" s="3">
-        <v>8195100</v>
+        <v>7893400</v>
       </c>
       <c r="H10" s="3">
-        <v>7781700</v>
+        <v>7495200</v>
       </c>
       <c r="I10" s="3">
-        <v>7299000</v>
+        <v>7030400</v>
       </c>
       <c r="J10" s="3">
-        <v>7169100</v>
+        <v>6905200</v>
       </c>
       <c r="K10" s="3">
         <v>7092300</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24400</v>
+        <v>23500</v>
       </c>
       <c r="E14" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="F14" s="3">
-        <v>187800</v>
+        <v>180900</v>
       </c>
       <c r="G14" s="3">
-        <v>58100</v>
+        <v>56000</v>
       </c>
       <c r="H14" s="3">
-        <v>103500</v>
+        <v>99700</v>
       </c>
       <c r="I14" s="3">
-        <v>74300</v>
+        <v>71600</v>
       </c>
       <c r="J14" s="3">
-        <v>21900</v>
+        <v>21000</v>
       </c>
       <c r="K14" s="3">
         <v>31900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>36500</v>
+        <v>35100</v>
       </c>
       <c r="E15" s="3">
-        <v>46100</v>
+        <v>44400</v>
       </c>
       <c r="F15" s="3">
-        <v>42000</v>
+        <v>40400</v>
       </c>
       <c r="G15" s="3">
-        <v>48300</v>
+        <v>46500</v>
       </c>
       <c r="H15" s="3">
-        <v>52800</v>
+        <v>50900</v>
       </c>
       <c r="I15" s="3">
-        <v>42400</v>
+        <v>40900</v>
       </c>
       <c r="J15" s="3">
-        <v>40600</v>
+        <v>39100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8184600</v>
+        <v>7883300</v>
       </c>
       <c r="E17" s="3">
-        <v>7725400</v>
+        <v>7441100</v>
       </c>
       <c r="F17" s="3">
-        <v>7995000</v>
+        <v>7700700</v>
       </c>
       <c r="G17" s="3">
-        <v>7834700</v>
+        <v>7546300</v>
       </c>
       <c r="H17" s="3">
-        <v>7521200</v>
+        <v>7244400</v>
       </c>
       <c r="I17" s="3">
-        <v>7078500</v>
+        <v>6817900</v>
       </c>
       <c r="J17" s="3">
-        <v>6930800</v>
+        <v>6675700</v>
       </c>
       <c r="K17" s="3">
         <v>6931700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1476900</v>
+        <v>1422500</v>
       </c>
       <c r="E18" s="3">
-        <v>1380100</v>
+        <v>1329300</v>
       </c>
       <c r="F18" s="3">
-        <v>1138500</v>
+        <v>1096600</v>
       </c>
       <c r="G18" s="3">
-        <v>1259200</v>
+        <v>1212800</v>
       </c>
       <c r="H18" s="3">
-        <v>1118800</v>
+        <v>1077600</v>
       </c>
       <c r="I18" s="3">
-        <v>1064600</v>
+        <v>1025500</v>
       </c>
       <c r="J18" s="3">
-        <v>1090800</v>
+        <v>1050700</v>
       </c>
       <c r="K18" s="3">
         <v>1028000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1821800</v>
+        <v>1760500</v>
       </c>
       <c r="E21" s="3">
-        <v>1752700</v>
+        <v>1694400</v>
       </c>
       <c r="F21" s="3">
-        <v>1556700</v>
+        <v>1506400</v>
       </c>
       <c r="G21" s="3">
-        <v>1549200</v>
+        <v>1497000</v>
       </c>
       <c r="H21" s="3">
-        <v>1409100</v>
+        <v>1362000</v>
       </c>
       <c r="I21" s="3">
-        <v>1343500</v>
+        <v>1298700</v>
       </c>
       <c r="J21" s="3">
-        <v>1386600</v>
+        <v>1340500</v>
       </c>
       <c r="K21" s="3">
         <v>1355000</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1476900</v>
+        <v>1422500</v>
       </c>
       <c r="E23" s="3">
-        <v>1380100</v>
+        <v>1329300</v>
       </c>
       <c r="F23" s="3">
-        <v>1138500</v>
+        <v>1096600</v>
       </c>
       <c r="G23" s="3">
-        <v>1259200</v>
+        <v>1212800</v>
       </c>
       <c r="H23" s="3">
-        <v>1118800</v>
+        <v>1077600</v>
       </c>
       <c r="I23" s="3">
-        <v>1064600</v>
+        <v>1025500</v>
       </c>
       <c r="J23" s="3">
-        <v>1090800</v>
+        <v>1050700</v>
       </c>
       <c r="K23" s="3">
         <v>1028000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>376000</v>
+        <v>362200</v>
       </c>
       <c r="E24" s="3">
-        <v>352100</v>
+        <v>339100</v>
       </c>
       <c r="F24" s="3">
-        <v>299100</v>
+        <v>288100</v>
       </c>
       <c r="G24" s="3">
-        <v>310700</v>
+        <v>299200</v>
       </c>
       <c r="H24" s="3">
-        <v>261700</v>
+        <v>252100</v>
       </c>
       <c r="I24" s="3">
-        <v>287400</v>
+        <v>276800</v>
       </c>
       <c r="J24" s="3">
-        <v>288400</v>
+        <v>277800</v>
       </c>
       <c r="K24" s="3">
         <v>271600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1100900</v>
+        <v>1060300</v>
       </c>
       <c r="E26" s="3">
-        <v>1028000</v>
+        <v>990100</v>
       </c>
       <c r="F26" s="3">
-        <v>839400</v>
+        <v>808500</v>
       </c>
       <c r="G26" s="3">
-        <v>948500</v>
+        <v>913600</v>
       </c>
       <c r="H26" s="3">
-        <v>857000</v>
+        <v>825500</v>
       </c>
       <c r="I26" s="3">
-        <v>777300</v>
+        <v>748700</v>
       </c>
       <c r="J26" s="3">
-        <v>802500</v>
+        <v>772900</v>
       </c>
       <c r="K26" s="3">
         <v>756400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1100900</v>
+        <v>1060300</v>
       </c>
       <c r="E27" s="3">
-        <v>1028000</v>
+        <v>990100</v>
       </c>
       <c r="F27" s="3">
-        <v>839400</v>
+        <v>808500</v>
       </c>
       <c r="G27" s="3">
-        <v>948500</v>
+        <v>913600</v>
       </c>
       <c r="H27" s="3">
-        <v>857000</v>
+        <v>825500</v>
       </c>
       <c r="I27" s="3">
-        <v>777300</v>
+        <v>748700</v>
       </c>
       <c r="J27" s="3">
-        <v>802500</v>
+        <v>772900</v>
       </c>
       <c r="K27" s="3">
         <v>756400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1100900</v>
+        <v>1060300</v>
       </c>
       <c r="E33" s="3">
-        <v>1028000</v>
+        <v>990100</v>
       </c>
       <c r="F33" s="3">
-        <v>839400</v>
+        <v>808500</v>
       </c>
       <c r="G33" s="3">
-        <v>948500</v>
+        <v>913600</v>
       </c>
       <c r="H33" s="3">
-        <v>857000</v>
+        <v>825500</v>
       </c>
       <c r="I33" s="3">
-        <v>777300</v>
+        <v>748700</v>
       </c>
       <c r="J33" s="3">
-        <v>802500</v>
+        <v>772900</v>
       </c>
       <c r="K33" s="3">
         <v>756400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1100900</v>
+        <v>1060300</v>
       </c>
       <c r="E35" s="3">
-        <v>1028000</v>
+        <v>990100</v>
       </c>
       <c r="F35" s="3">
-        <v>839400</v>
+        <v>808500</v>
       </c>
       <c r="G35" s="3">
-        <v>948500</v>
+        <v>913600</v>
       </c>
       <c r="H35" s="3">
-        <v>857000</v>
+        <v>825500</v>
       </c>
       <c r="I35" s="3">
-        <v>777300</v>
+        <v>748700</v>
       </c>
       <c r="J35" s="3">
-        <v>802500</v>
+        <v>772900</v>
       </c>
       <c r="K35" s="3">
         <v>756400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>725700</v>
+        <v>699000</v>
       </c>
       <c r="E41" s="3">
-        <v>1275900</v>
+        <v>1228900</v>
       </c>
       <c r="F41" s="3">
-        <v>1282500</v>
+        <v>1235200</v>
       </c>
       <c r="G41" s="3">
-        <v>160600</v>
+        <v>154600</v>
       </c>
       <c r="H41" s="3">
-        <v>138200</v>
+        <v>133100</v>
       </c>
       <c r="I41" s="3">
-        <v>124500</v>
+        <v>120000</v>
       </c>
       <c r="J41" s="3">
-        <v>447900</v>
+        <v>431400</v>
       </c>
       <c r="K41" s="3">
         <v>236200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1098400</v>
+        <v>1057900</v>
       </c>
       <c r="E43" s="3">
-        <v>928400</v>
+        <v>894200</v>
       </c>
       <c r="F43" s="3">
-        <v>937600</v>
+        <v>903100</v>
       </c>
       <c r="G43" s="3">
-        <v>1026600</v>
+        <v>988900</v>
       </c>
       <c r="H43" s="3">
-        <v>1115800</v>
+        <v>1074700</v>
       </c>
       <c r="I43" s="3">
-        <v>970400</v>
+        <v>934700</v>
       </c>
       <c r="J43" s="3">
-        <v>833100</v>
+        <v>802400</v>
       </c>
       <c r="K43" s="3">
         <v>853900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>894900</v>
+        <v>862000</v>
       </c>
       <c r="E44" s="3">
-        <v>784700</v>
+        <v>755800</v>
       </c>
       <c r="F44" s="3">
-        <v>807400</v>
+        <v>777600</v>
       </c>
       <c r="G44" s="3">
-        <v>823000</v>
+        <v>792700</v>
       </c>
       <c r="H44" s="3">
-        <v>707900</v>
+        <v>681900</v>
       </c>
       <c r="I44" s="3">
-        <v>692800</v>
+        <v>667300</v>
       </c>
       <c r="J44" s="3">
-        <v>702400</v>
+        <v>676600</v>
       </c>
       <c r="K44" s="3">
         <v>675600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>546600</v>
+        <v>526500</v>
       </c>
       <c r="E45" s="3">
-        <v>589000</v>
+        <v>567400</v>
       </c>
       <c r="F45" s="3">
-        <v>678800</v>
+        <v>653900</v>
       </c>
       <c r="G45" s="3">
-        <v>435700</v>
+        <v>419600</v>
       </c>
       <c r="H45" s="3">
-        <v>369000</v>
+        <v>355500</v>
       </c>
       <c r="I45" s="3">
-        <v>362000</v>
+        <v>348700</v>
       </c>
       <c r="J45" s="3">
-        <v>422100</v>
+        <v>406600</v>
       </c>
       <c r="K45" s="3">
         <v>528900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3265500</v>
+        <v>3145300</v>
       </c>
       <c r="E46" s="3">
-        <v>3578000</v>
+        <v>3446200</v>
       </c>
       <c r="F46" s="3">
-        <v>3706200</v>
+        <v>3569800</v>
       </c>
       <c r="G46" s="3">
-        <v>2445800</v>
+        <v>2355800</v>
       </c>
       <c r="H46" s="3">
-        <v>2331000</v>
+        <v>2245200</v>
       </c>
       <c r="I46" s="3">
-        <v>2149700</v>
+        <v>2070600</v>
       </c>
       <c r="J46" s="3">
-        <v>2405500</v>
+        <v>2316900</v>
       </c>
       <c r="K46" s="3">
         <v>2294600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20600</v>
+        <v>19800</v>
       </c>
       <c r="E47" s="3">
-        <v>114600</v>
+        <v>110400</v>
       </c>
       <c r="F47" s="3">
-        <v>117600</v>
+        <v>113200</v>
       </c>
       <c r="G47" s="3">
-        <v>132800</v>
+        <v>127900</v>
       </c>
       <c r="H47" s="3">
-        <v>88400</v>
+        <v>85100</v>
       </c>
       <c r="I47" s="3">
-        <v>83600</v>
+        <v>80500</v>
       </c>
       <c r="J47" s="3">
-        <v>97100</v>
+        <v>93600</v>
       </c>
       <c r="K47" s="3">
         <v>241500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>679300</v>
+        <v>654300</v>
       </c>
       <c r="E48" s="3">
-        <v>704500</v>
+        <v>678600</v>
       </c>
       <c r="F48" s="3">
-        <v>780800</v>
+        <v>752000</v>
       </c>
       <c r="G48" s="3">
-        <v>298600</v>
+        <v>287600</v>
       </c>
       <c r="H48" s="3">
-        <v>291400</v>
+        <v>280700</v>
       </c>
       <c r="I48" s="3">
-        <v>297800</v>
+        <v>286800</v>
       </c>
       <c r="J48" s="3">
-        <v>329800</v>
+        <v>317700</v>
       </c>
       <c r="K48" s="3">
         <v>366100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7027300</v>
+        <v>6768600</v>
       </c>
       <c r="E49" s="3">
-        <v>6665400</v>
+        <v>6420100</v>
       </c>
       <c r="F49" s="3">
-        <v>6863400</v>
+        <v>6610800</v>
       </c>
       <c r="G49" s="3">
-        <v>6388900</v>
+        <v>6153700</v>
       </c>
       <c r="H49" s="3">
-        <v>6055100</v>
+        <v>5832200</v>
       </c>
       <c r="I49" s="3">
-        <v>5851800</v>
+        <v>5636400</v>
       </c>
       <c r="J49" s="3">
-        <v>5747200</v>
+        <v>5535600</v>
       </c>
       <c r="K49" s="3">
         <v>5962400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>401900</v>
+        <v>387100</v>
       </c>
       <c r="E52" s="3">
-        <v>216200</v>
+        <v>208200</v>
       </c>
       <c r="F52" s="3">
-        <v>208200</v>
+        <v>200500</v>
       </c>
       <c r="G52" s="3">
-        <v>211000</v>
+        <v>203200</v>
       </c>
       <c r="H52" s="3">
-        <v>183700</v>
+        <v>176900</v>
       </c>
       <c r="I52" s="3">
-        <v>174000</v>
+        <v>167600</v>
       </c>
       <c r="J52" s="3">
-        <v>200400</v>
+        <v>193000</v>
       </c>
       <c r="K52" s="3">
         <v>255900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11394600</v>
+        <v>10975200</v>
       </c>
       <c r="E54" s="3">
-        <v>11278700</v>
+        <v>10863500</v>
       </c>
       <c r="F54" s="3">
-        <v>11676100</v>
+        <v>11246300</v>
       </c>
       <c r="G54" s="3">
-        <v>9477200</v>
+        <v>9128300</v>
       </c>
       <c r="H54" s="3">
-        <v>8949500</v>
+        <v>8620100</v>
       </c>
       <c r="I54" s="3">
-        <v>8557000</v>
+        <v>8242000</v>
       </c>
       <c r="J54" s="3">
-        <v>8780100</v>
+        <v>8456900</v>
       </c>
       <c r="K54" s="3">
         <v>9120400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>763200</v>
+        <v>735100</v>
       </c>
       <c r="E57" s="3">
-        <v>669300</v>
+        <v>644700</v>
       </c>
       <c r="F57" s="3">
-        <v>770400</v>
+        <v>742000</v>
       </c>
       <c r="G57" s="3">
-        <v>832600</v>
+        <v>802000</v>
       </c>
       <c r="H57" s="3">
-        <v>852100</v>
+        <v>820700</v>
       </c>
       <c r="I57" s="3">
-        <v>754100</v>
+        <v>726300</v>
       </c>
       <c r="J57" s="3">
-        <v>831900</v>
+        <v>801200</v>
       </c>
       <c r="K57" s="3">
         <v>861700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>188800</v>
+        <v>181800</v>
       </c>
       <c r="E58" s="3">
-        <v>420900</v>
+        <v>405400</v>
       </c>
       <c r="F58" s="3">
-        <v>367500</v>
+        <v>354000</v>
       </c>
       <c r="G58" s="3">
-        <v>85200</v>
+        <v>82100</v>
       </c>
       <c r="H58" s="3">
-        <v>261700</v>
+        <v>252100</v>
       </c>
       <c r="I58" s="3">
-        <v>92000</v>
+        <v>88600</v>
       </c>
       <c r="J58" s="3">
-        <v>144200</v>
+        <v>138900</v>
       </c>
       <c r="K58" s="3">
         <v>178700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1788200</v>
+        <v>1722400</v>
       </c>
       <c r="E59" s="3">
-        <v>1765700</v>
+        <v>1700700</v>
       </c>
       <c r="F59" s="3">
-        <v>1607100</v>
+        <v>1548000</v>
       </c>
       <c r="G59" s="3">
-        <v>1247700</v>
+        <v>1201800</v>
       </c>
       <c r="H59" s="3">
-        <v>1228600</v>
+        <v>1183400</v>
       </c>
       <c r="I59" s="3">
-        <v>1182400</v>
+        <v>1138900</v>
       </c>
       <c r="J59" s="3">
-        <v>1110300</v>
+        <v>1069500</v>
       </c>
       <c r="K59" s="3">
         <v>1364300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2740100</v>
+        <v>2639300</v>
       </c>
       <c r="E60" s="3">
-        <v>2855900</v>
+        <v>2750700</v>
       </c>
       <c r="F60" s="3">
-        <v>2745000</v>
+        <v>2644000</v>
       </c>
       <c r="G60" s="3">
-        <v>2165600</v>
+        <v>2085900</v>
       </c>
       <c r="H60" s="3">
-        <v>2342400</v>
+        <v>2256200</v>
       </c>
       <c r="I60" s="3">
-        <v>2028500</v>
+        <v>1953800</v>
       </c>
       <c r="J60" s="3">
-        <v>2086400</v>
+        <v>2009600</v>
       </c>
       <c r="K60" s="3">
         <v>2404600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2796800</v>
+        <v>2693900</v>
       </c>
       <c r="E61" s="3">
-        <v>2716600</v>
+        <v>2616600</v>
       </c>
       <c r="F61" s="3">
-        <v>2983900</v>
+        <v>2874100</v>
       </c>
       <c r="G61" s="3">
-        <v>1665200</v>
+        <v>1603900</v>
       </c>
       <c r="H61" s="3">
-        <v>1090500</v>
+        <v>1050300</v>
       </c>
       <c r="I61" s="3">
-        <v>1306100</v>
+        <v>1258100</v>
       </c>
       <c r="J61" s="3">
-        <v>1290700</v>
+        <v>1243200</v>
       </c>
       <c r="K61" s="3">
         <v>1467200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>396800</v>
+        <v>382200</v>
       </c>
       <c r="E62" s="3">
-        <v>460500</v>
+        <v>443500</v>
       </c>
       <c r="F62" s="3">
-        <v>492900</v>
+        <v>474700</v>
       </c>
       <c r="G62" s="3">
-        <v>477400</v>
+        <v>459800</v>
       </c>
       <c r="H62" s="3">
-        <v>497300</v>
+        <v>479000</v>
       </c>
       <c r="I62" s="3">
-        <v>565000</v>
+        <v>544200</v>
       </c>
       <c r="J62" s="3">
-        <v>549000</v>
+        <v>528800</v>
       </c>
       <c r="K62" s="3">
         <v>542500</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5933800</v>
+        <v>5715400</v>
       </c>
       <c r="E66" s="3">
-        <v>6033000</v>
+        <v>5810900</v>
       </c>
       <c r="F66" s="3">
-        <v>6221800</v>
+        <v>5992700</v>
       </c>
       <c r="G66" s="3">
-        <v>4308200</v>
+        <v>4149600</v>
       </c>
       <c r="H66" s="3">
-        <v>3930200</v>
+        <v>3785500</v>
       </c>
       <c r="I66" s="3">
-        <v>3899700</v>
+        <v>3756100</v>
       </c>
       <c r="J66" s="3">
-        <v>3926000</v>
+        <v>3781500</v>
       </c>
       <c r="K66" s="3">
         <v>4414300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4073400</v>
+        <v>3923500</v>
       </c>
       <c r="E72" s="3">
-        <v>3553200</v>
+        <v>3422400</v>
       </c>
       <c r="F72" s="3">
-        <v>3531800</v>
+        <v>3401800</v>
       </c>
       <c r="G72" s="3">
-        <v>3422300</v>
+        <v>3296300</v>
       </c>
       <c r="H72" s="3">
-        <v>3192200</v>
+        <v>3074700</v>
       </c>
       <c r="I72" s="3">
-        <v>2849100</v>
+        <v>2744200</v>
       </c>
       <c r="J72" s="3">
-        <v>2837400</v>
+        <v>2732900</v>
       </c>
       <c r="K72" s="3">
         <v>2365800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5460800</v>
+        <v>5259800</v>
       </c>
       <c r="E76" s="3">
-        <v>5245700</v>
+        <v>5052600</v>
       </c>
       <c r="F76" s="3">
-        <v>5454400</v>
+        <v>5253600</v>
       </c>
       <c r="G76" s="3">
-        <v>5169000</v>
+        <v>4978700</v>
       </c>
       <c r="H76" s="3">
-        <v>5019400</v>
+        <v>4834600</v>
       </c>
       <c r="I76" s="3">
-        <v>4657300</v>
+        <v>4485900</v>
       </c>
       <c r="J76" s="3">
-        <v>4854000</v>
+        <v>4675300</v>
       </c>
       <c r="K76" s="3">
         <v>4706100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1100900</v>
+        <v>1060300</v>
       </c>
       <c r="E81" s="3">
-        <v>1028000</v>
+        <v>990100</v>
       </c>
       <c r="F81" s="3">
-        <v>839400</v>
+        <v>808500</v>
       </c>
       <c r="G81" s="3">
-        <v>948500</v>
+        <v>913600</v>
       </c>
       <c r="H81" s="3">
-        <v>857000</v>
+        <v>825500</v>
       </c>
       <c r="I81" s="3">
-        <v>777300</v>
+        <v>748700</v>
       </c>
       <c r="J81" s="3">
-        <v>802500</v>
+        <v>772900</v>
       </c>
       <c r="K81" s="3">
         <v>756400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>350300</v>
+        <v>337400</v>
       </c>
       <c r="E83" s="3">
-        <v>378400</v>
+        <v>364500</v>
       </c>
       <c r="F83" s="3">
-        <v>424800</v>
+        <v>409100</v>
       </c>
       <c r="G83" s="3">
-        <v>294600</v>
+        <v>283700</v>
       </c>
       <c r="H83" s="3">
-        <v>294800</v>
+        <v>284000</v>
       </c>
       <c r="I83" s="3">
-        <v>283200</v>
+        <v>272800</v>
       </c>
       <c r="J83" s="3">
-        <v>300400</v>
+        <v>289300</v>
       </c>
       <c r="K83" s="3">
         <v>328100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1400400</v>
+        <v>1348800</v>
       </c>
       <c r="E89" s="3">
-        <v>1588800</v>
+        <v>1530300</v>
       </c>
       <c r="F89" s="3">
-        <v>1455600</v>
+        <v>1402000</v>
       </c>
       <c r="G89" s="3">
-        <v>1226800</v>
+        <v>1181700</v>
       </c>
       <c r="H89" s="3">
-        <v>1121300</v>
+        <v>1080100</v>
       </c>
       <c r="I89" s="3">
-        <v>1020100</v>
+        <v>982500</v>
       </c>
       <c r="J89" s="3">
-        <v>1001000</v>
+        <v>964100</v>
       </c>
       <c r="K89" s="3">
         <v>997600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-112900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-117200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-91500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-96500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-121700</v>
-      </c>
       <c r="H91" s="3">
-        <v>-107600</v>
+        <v>-103600</v>
       </c>
       <c r="I91" s="3">
-        <v>-84600</v>
+        <v>-81500</v>
       </c>
       <c r="J91" s="3">
-        <v>-124300</v>
+        <v>-119700</v>
       </c>
       <c r="K91" s="3">
         <v>-94800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-684700</v>
+        <v>-659500</v>
       </c>
       <c r="E94" s="3">
-        <v>-298500</v>
+        <v>-287500</v>
       </c>
       <c r="F94" s="3">
-        <v>-429800</v>
+        <v>-414000</v>
       </c>
       <c r="G94" s="3">
-        <v>-713900</v>
+        <v>-687600</v>
       </c>
       <c r="H94" s="3">
-        <v>-433600</v>
+        <v>-417600</v>
       </c>
       <c r="I94" s="3">
-        <v>-444700</v>
+        <v>-428300</v>
       </c>
       <c r="J94" s="3">
-        <v>-287400</v>
+        <v>-276800</v>
       </c>
       <c r="K94" s="3">
         <v>-199000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1194700</v>
+        <v>-1150700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1241400</v>
+        <v>-1195700</v>
       </c>
       <c r="F100" s="3">
-        <v>70700</v>
+        <v>68100</v>
       </c>
       <c r="G100" s="3">
-        <v>-472400</v>
+        <v>-455000</v>
       </c>
       <c r="H100" s="3">
-        <v>-660000</v>
+        <v>-635700</v>
       </c>
       <c r="I100" s="3">
-        <v>-888300</v>
+        <v>-855600</v>
       </c>
       <c r="J100" s="3">
-        <v>-500300</v>
+        <v>-481900</v>
       </c>
       <c r="K100" s="3">
         <v>-1008700</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34900</v>
+        <v>-33600</v>
       </c>
       <c r="E101" s="3">
-        <v>-55500</v>
+        <v>-53400</v>
       </c>
       <c r="F101" s="3">
-        <v>25400</v>
+        <v>24500</v>
       </c>
       <c r="G101" s="3">
-        <v>-18200</v>
+        <v>-17500</v>
       </c>
       <c r="H101" s="3">
-        <v>-14100</v>
+        <v>-13500</v>
       </c>
       <c r="I101" s="3">
-        <v>-10500</v>
+        <v>-10100</v>
       </c>
       <c r="J101" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K101" s="3">
         <v>31700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-514000</v>
+        <v>-495100</v>
       </c>
       <c r="E102" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="F102" s="3">
-        <v>1121900</v>
+        <v>1080600</v>
       </c>
       <c r="G102" s="3">
-        <v>22300</v>
+        <v>21500</v>
       </c>
       <c r="H102" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="I102" s="3">
-        <v>-323400</v>
+        <v>-311500</v>
       </c>
       <c r="J102" s="3">
-        <v>218700</v>
+        <v>210700</v>
       </c>
       <c r="K102" s="3">
         <v>-178300</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9305800</v>
+        <v>9531300</v>
       </c>
       <c r="E8" s="3">
-        <v>8770300</v>
+        <v>8982800</v>
       </c>
       <c r="F8" s="3">
-        <v>8797300</v>
+        <v>9010400</v>
       </c>
       <c r="G8" s="3">
-        <v>8759100</v>
+        <v>8971300</v>
       </c>
       <c r="H8" s="3">
-        <v>8322000</v>
+        <v>8523600</v>
       </c>
       <c r="I8" s="3">
-        <v>7843400</v>
+        <v>8033400</v>
       </c>
       <c r="J8" s="3">
-        <v>7726400</v>
+        <v>7913500</v>
       </c>
       <c r="K8" s="3">
         <v>7959600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1026800</v>
+        <v>1051700</v>
       </c>
       <c r="E9" s="3">
-        <v>1071300</v>
+        <v>1097200</v>
       </c>
       <c r="F9" s="3">
-        <v>1115200</v>
+        <v>1142200</v>
       </c>
       <c r="G9" s="3">
-        <v>865700</v>
+        <v>886700</v>
       </c>
       <c r="H9" s="3">
-        <v>826800</v>
+        <v>846800</v>
       </c>
       <c r="I9" s="3">
-        <v>813000</v>
+        <v>832700</v>
       </c>
       <c r="J9" s="3">
-        <v>821100</v>
+        <v>841000</v>
       </c>
       <c r="K9" s="3">
         <v>867300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8279000</v>
+        <v>8479600</v>
       </c>
       <c r="E10" s="3">
-        <v>7699100</v>
+        <v>7885600</v>
       </c>
       <c r="F10" s="3">
-        <v>7682100</v>
+        <v>7868200</v>
       </c>
       <c r="G10" s="3">
-        <v>7893400</v>
+        <v>8084600</v>
       </c>
       <c r="H10" s="3">
-        <v>7495200</v>
+        <v>7676800</v>
       </c>
       <c r="I10" s="3">
-        <v>7030400</v>
+        <v>7200700</v>
       </c>
       <c r="J10" s="3">
-        <v>6905200</v>
+        <v>7072500</v>
       </c>
       <c r="K10" s="3">
         <v>7092300</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="E14" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="F14" s="3">
-        <v>180900</v>
+        <v>185300</v>
       </c>
       <c r="G14" s="3">
-        <v>56000</v>
+        <v>57300</v>
       </c>
       <c r="H14" s="3">
-        <v>99700</v>
+        <v>102100</v>
       </c>
       <c r="I14" s="3">
-        <v>71600</v>
+        <v>73300</v>
       </c>
       <c r="J14" s="3">
-        <v>21000</v>
+        <v>21600</v>
       </c>
       <c r="K14" s="3">
         <v>31900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35100</v>
+        <v>36000</v>
       </c>
       <c r="E15" s="3">
-        <v>44400</v>
+        <v>45500</v>
       </c>
       <c r="F15" s="3">
-        <v>40400</v>
+        <v>41400</v>
       </c>
       <c r="G15" s="3">
-        <v>46500</v>
+        <v>47600</v>
       </c>
       <c r="H15" s="3">
-        <v>50900</v>
+        <v>52100</v>
       </c>
       <c r="I15" s="3">
-        <v>40900</v>
+        <v>41800</v>
       </c>
       <c r="J15" s="3">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7883300</v>
+        <v>8074200</v>
       </c>
       <c r="E17" s="3">
-        <v>7441100</v>
+        <v>7621300</v>
       </c>
       <c r="F17" s="3">
-        <v>7700700</v>
+        <v>7887300</v>
       </c>
       <c r="G17" s="3">
-        <v>7546300</v>
+        <v>7729100</v>
       </c>
       <c r="H17" s="3">
-        <v>7244400</v>
+        <v>7419900</v>
       </c>
       <c r="I17" s="3">
-        <v>6817900</v>
+        <v>6983100</v>
       </c>
       <c r="J17" s="3">
-        <v>6675700</v>
+        <v>6837400</v>
       </c>
       <c r="K17" s="3">
         <v>6931700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1422500</v>
+        <v>1457000</v>
       </c>
       <c r="E18" s="3">
-        <v>1329300</v>
+        <v>1361500</v>
       </c>
       <c r="F18" s="3">
-        <v>1096600</v>
+        <v>1123200</v>
       </c>
       <c r="G18" s="3">
-        <v>1212800</v>
+        <v>1242200</v>
       </c>
       <c r="H18" s="3">
-        <v>1077600</v>
+        <v>1103700</v>
       </c>
       <c r="I18" s="3">
-        <v>1025500</v>
+        <v>1050300</v>
       </c>
       <c r="J18" s="3">
-        <v>1050700</v>
+        <v>1076100</v>
       </c>
       <c r="K18" s="3">
         <v>1028000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1760500</v>
+        <v>1803900</v>
       </c>
       <c r="E21" s="3">
-        <v>1694400</v>
+        <v>1736200</v>
       </c>
       <c r="F21" s="3">
-        <v>1506400</v>
+        <v>1543700</v>
       </c>
       <c r="G21" s="3">
-        <v>1497000</v>
+        <v>1533800</v>
       </c>
       <c r="H21" s="3">
-        <v>1362000</v>
+        <v>1395600</v>
       </c>
       <c r="I21" s="3">
-        <v>1298700</v>
+        <v>1330700</v>
       </c>
       <c r="J21" s="3">
-        <v>1340500</v>
+        <v>1373600</v>
       </c>
       <c r="K21" s="3">
         <v>1355000</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1422500</v>
+        <v>1457000</v>
       </c>
       <c r="E23" s="3">
-        <v>1329300</v>
+        <v>1361500</v>
       </c>
       <c r="F23" s="3">
-        <v>1096600</v>
+        <v>1123200</v>
       </c>
       <c r="G23" s="3">
-        <v>1212800</v>
+        <v>1242200</v>
       </c>
       <c r="H23" s="3">
-        <v>1077600</v>
+        <v>1103700</v>
       </c>
       <c r="I23" s="3">
-        <v>1025500</v>
+        <v>1050300</v>
       </c>
       <c r="J23" s="3">
-        <v>1050700</v>
+        <v>1076100</v>
       </c>
       <c r="K23" s="3">
         <v>1028000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>362200</v>
+        <v>371000</v>
       </c>
       <c r="E24" s="3">
-        <v>339100</v>
+        <v>347300</v>
       </c>
       <c r="F24" s="3">
-        <v>288100</v>
+        <v>295100</v>
       </c>
       <c r="G24" s="3">
-        <v>299200</v>
+        <v>306500</v>
       </c>
       <c r="H24" s="3">
-        <v>252100</v>
+        <v>258200</v>
       </c>
       <c r="I24" s="3">
-        <v>276800</v>
+        <v>283500</v>
       </c>
       <c r="J24" s="3">
-        <v>277800</v>
+        <v>284500</v>
       </c>
       <c r="K24" s="3">
         <v>271600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1060300</v>
+        <v>1086000</v>
       </c>
       <c r="E26" s="3">
-        <v>990100</v>
+        <v>1014100</v>
       </c>
       <c r="F26" s="3">
-        <v>808500</v>
+        <v>828000</v>
       </c>
       <c r="G26" s="3">
-        <v>913600</v>
+        <v>935700</v>
       </c>
       <c r="H26" s="3">
-        <v>825500</v>
+        <v>845500</v>
       </c>
       <c r="I26" s="3">
-        <v>748700</v>
+        <v>766800</v>
       </c>
       <c r="J26" s="3">
-        <v>772900</v>
+        <v>791600</v>
       </c>
       <c r="K26" s="3">
         <v>756400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1060300</v>
+        <v>1086000</v>
       </c>
       <c r="E27" s="3">
-        <v>990100</v>
+        <v>1014100</v>
       </c>
       <c r="F27" s="3">
-        <v>808500</v>
+        <v>828000</v>
       </c>
       <c r="G27" s="3">
-        <v>913600</v>
+        <v>935700</v>
       </c>
       <c r="H27" s="3">
-        <v>825500</v>
+        <v>845500</v>
       </c>
       <c r="I27" s="3">
-        <v>748700</v>
+        <v>766800</v>
       </c>
       <c r="J27" s="3">
-        <v>772900</v>
+        <v>791600</v>
       </c>
       <c r="K27" s="3">
         <v>756400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1060300</v>
+        <v>1086000</v>
       </c>
       <c r="E33" s="3">
-        <v>990100</v>
+        <v>1014100</v>
       </c>
       <c r="F33" s="3">
-        <v>808500</v>
+        <v>828000</v>
       </c>
       <c r="G33" s="3">
-        <v>913600</v>
+        <v>935700</v>
       </c>
       <c r="H33" s="3">
-        <v>825500</v>
+        <v>845500</v>
       </c>
       <c r="I33" s="3">
-        <v>748700</v>
+        <v>766800</v>
       </c>
       <c r="J33" s="3">
-        <v>772900</v>
+        <v>791600</v>
       </c>
       <c r="K33" s="3">
         <v>756400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1060300</v>
+        <v>1086000</v>
       </c>
       <c r="E35" s="3">
-        <v>990100</v>
+        <v>1014100</v>
       </c>
       <c r="F35" s="3">
-        <v>808500</v>
+        <v>828000</v>
       </c>
       <c r="G35" s="3">
-        <v>913600</v>
+        <v>935700</v>
       </c>
       <c r="H35" s="3">
-        <v>825500</v>
+        <v>845500</v>
       </c>
       <c r="I35" s="3">
-        <v>748700</v>
+        <v>766800</v>
       </c>
       <c r="J35" s="3">
-        <v>772900</v>
+        <v>791600</v>
       </c>
       <c r="K35" s="3">
         <v>756400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>699000</v>
+        <v>715900</v>
       </c>
       <c r="E41" s="3">
-        <v>1228900</v>
+        <v>1258700</v>
       </c>
       <c r="F41" s="3">
-        <v>1235200</v>
+        <v>1265200</v>
       </c>
       <c r="G41" s="3">
-        <v>154600</v>
+        <v>158400</v>
       </c>
       <c r="H41" s="3">
-        <v>133100</v>
+        <v>136400</v>
       </c>
       <c r="I41" s="3">
-        <v>120000</v>
+        <v>122900</v>
       </c>
       <c r="J41" s="3">
-        <v>431400</v>
+        <v>441900</v>
       </c>
       <c r="K41" s="3">
         <v>236200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1057900</v>
+        <v>1083600</v>
       </c>
       <c r="E43" s="3">
-        <v>894200</v>
+        <v>915800</v>
       </c>
       <c r="F43" s="3">
-        <v>903100</v>
+        <v>924900</v>
       </c>
       <c r="G43" s="3">
-        <v>988900</v>
+        <v>1012800</v>
       </c>
       <c r="H43" s="3">
-        <v>1074700</v>
+        <v>1100800</v>
       </c>
       <c r="I43" s="3">
-        <v>934700</v>
+        <v>957300</v>
       </c>
       <c r="J43" s="3">
-        <v>802400</v>
+        <v>821800</v>
       </c>
       <c r="K43" s="3">
         <v>853900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>862000</v>
+        <v>882800</v>
       </c>
       <c r="E44" s="3">
-        <v>755800</v>
+        <v>774100</v>
       </c>
       <c r="F44" s="3">
-        <v>777600</v>
+        <v>796500</v>
       </c>
       <c r="G44" s="3">
-        <v>792700</v>
+        <v>811900</v>
       </c>
       <c r="H44" s="3">
-        <v>681900</v>
+        <v>698400</v>
       </c>
       <c r="I44" s="3">
-        <v>667300</v>
+        <v>683400</v>
       </c>
       <c r="J44" s="3">
-        <v>676600</v>
+        <v>693000</v>
       </c>
       <c r="K44" s="3">
         <v>675600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>526500</v>
+        <v>539200</v>
       </c>
       <c r="E45" s="3">
-        <v>567400</v>
+        <v>581100</v>
       </c>
       <c r="F45" s="3">
-        <v>653900</v>
+        <v>669700</v>
       </c>
       <c r="G45" s="3">
-        <v>419600</v>
+        <v>429800</v>
       </c>
       <c r="H45" s="3">
-        <v>355500</v>
+        <v>364100</v>
       </c>
       <c r="I45" s="3">
-        <v>348700</v>
+        <v>357100</v>
       </c>
       <c r="J45" s="3">
-        <v>406600</v>
+        <v>416400</v>
       </c>
       <c r="K45" s="3">
         <v>528900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3145300</v>
+        <v>3221500</v>
       </c>
       <c r="E46" s="3">
-        <v>3446200</v>
+        <v>3529700</v>
       </c>
       <c r="F46" s="3">
-        <v>3569800</v>
+        <v>3656300</v>
       </c>
       <c r="G46" s="3">
-        <v>2355800</v>
+        <v>2412900</v>
       </c>
       <c r="H46" s="3">
-        <v>2245200</v>
+        <v>2299600</v>
       </c>
       <c r="I46" s="3">
-        <v>2070600</v>
+        <v>2120800</v>
       </c>
       <c r="J46" s="3">
-        <v>2316900</v>
+        <v>2373100</v>
       </c>
       <c r="K46" s="3">
         <v>2294600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19800</v>
+        <v>20300</v>
       </c>
       <c r="E47" s="3">
-        <v>110400</v>
+        <v>113100</v>
       </c>
       <c r="F47" s="3">
-        <v>113200</v>
+        <v>116000</v>
       </c>
       <c r="G47" s="3">
-        <v>127900</v>
+        <v>131000</v>
       </c>
       <c r="H47" s="3">
-        <v>85100</v>
+        <v>87200</v>
       </c>
       <c r="I47" s="3">
-        <v>80500</v>
+        <v>82400</v>
       </c>
       <c r="J47" s="3">
-        <v>93600</v>
+        <v>95800</v>
       </c>
       <c r="K47" s="3">
         <v>241500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>654300</v>
+        <v>670200</v>
       </c>
       <c r="E48" s="3">
-        <v>678600</v>
+        <v>695000</v>
       </c>
       <c r="F48" s="3">
-        <v>752000</v>
+        <v>770200</v>
       </c>
       <c r="G48" s="3">
-        <v>287600</v>
+        <v>294600</v>
       </c>
       <c r="H48" s="3">
-        <v>280700</v>
+        <v>287500</v>
       </c>
       <c r="I48" s="3">
-        <v>286800</v>
+        <v>293800</v>
       </c>
       <c r="J48" s="3">
-        <v>317700</v>
+        <v>325400</v>
       </c>
       <c r="K48" s="3">
         <v>366100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6768600</v>
+        <v>6932600</v>
       </c>
       <c r="E49" s="3">
-        <v>6420100</v>
+        <v>6575600</v>
       </c>
       <c r="F49" s="3">
-        <v>6610800</v>
+        <v>6770900</v>
       </c>
       <c r="G49" s="3">
-        <v>6153700</v>
+        <v>6302800</v>
       </c>
       <c r="H49" s="3">
-        <v>5832200</v>
+        <v>5973500</v>
       </c>
       <c r="I49" s="3">
-        <v>5636400</v>
+        <v>5773000</v>
       </c>
       <c r="J49" s="3">
-        <v>5535600</v>
+        <v>5669700</v>
       </c>
       <c r="K49" s="3">
         <v>5962400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>387100</v>
+        <v>396400</v>
       </c>
       <c r="E52" s="3">
+        <v>213200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>205400</v>
+      </c>
+      <c r="G52" s="3">
         <v>208200</v>
       </c>
-      <c r="F52" s="3">
-        <v>200500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>203200</v>
-      </c>
       <c r="H52" s="3">
-        <v>176900</v>
+        <v>181200</v>
       </c>
       <c r="I52" s="3">
-        <v>167600</v>
+        <v>171700</v>
       </c>
       <c r="J52" s="3">
-        <v>193000</v>
+        <v>197700</v>
       </c>
       <c r="K52" s="3">
         <v>255900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10975200</v>
+        <v>11241000</v>
       </c>
       <c r="E54" s="3">
-        <v>10863500</v>
+        <v>11126700</v>
       </c>
       <c r="F54" s="3">
-        <v>11246300</v>
+        <v>11518800</v>
       </c>
       <c r="G54" s="3">
-        <v>9128300</v>
+        <v>9349400</v>
       </c>
       <c r="H54" s="3">
-        <v>8620100</v>
+        <v>8828900</v>
       </c>
       <c r="I54" s="3">
-        <v>8242000</v>
+        <v>8441600</v>
       </c>
       <c r="J54" s="3">
-        <v>8456900</v>
+        <v>8661700</v>
       </c>
       <c r="K54" s="3">
         <v>9120400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>735100</v>
+        <v>752900</v>
       </c>
       <c r="E57" s="3">
-        <v>644700</v>
+        <v>660300</v>
       </c>
       <c r="F57" s="3">
-        <v>742000</v>
+        <v>760000</v>
       </c>
       <c r="G57" s="3">
-        <v>802000</v>
+        <v>821400</v>
       </c>
       <c r="H57" s="3">
-        <v>820700</v>
+        <v>840600</v>
       </c>
       <c r="I57" s="3">
-        <v>726300</v>
+        <v>743900</v>
       </c>
       <c r="J57" s="3">
-        <v>801200</v>
+        <v>820600</v>
       </c>
       <c r="K57" s="3">
         <v>861700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>181800</v>
+        <v>186200</v>
       </c>
       <c r="E58" s="3">
-        <v>405400</v>
+        <v>415200</v>
       </c>
       <c r="F58" s="3">
-        <v>354000</v>
+        <v>362600</v>
       </c>
       <c r="G58" s="3">
-        <v>82100</v>
+        <v>84100</v>
       </c>
       <c r="H58" s="3">
-        <v>252100</v>
+        <v>258200</v>
       </c>
       <c r="I58" s="3">
-        <v>88600</v>
+        <v>90700</v>
       </c>
       <c r="J58" s="3">
-        <v>138900</v>
+        <v>142200</v>
       </c>
       <c r="K58" s="3">
         <v>178700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1722400</v>
+        <v>1764100</v>
       </c>
       <c r="E59" s="3">
-        <v>1700700</v>
+        <v>1741900</v>
       </c>
       <c r="F59" s="3">
-        <v>1548000</v>
+        <v>1585500</v>
       </c>
       <c r="G59" s="3">
-        <v>1201800</v>
+        <v>1230900</v>
       </c>
       <c r="H59" s="3">
-        <v>1183400</v>
+        <v>1212100</v>
       </c>
       <c r="I59" s="3">
-        <v>1138900</v>
+        <v>1166500</v>
       </c>
       <c r="J59" s="3">
-        <v>1069500</v>
+        <v>1095400</v>
       </c>
       <c r="K59" s="3">
         <v>1364300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2639300</v>
+        <v>2703200</v>
       </c>
       <c r="E60" s="3">
-        <v>2750700</v>
+        <v>2817400</v>
       </c>
       <c r="F60" s="3">
-        <v>2644000</v>
+        <v>2708000</v>
       </c>
       <c r="G60" s="3">
-        <v>2085900</v>
+        <v>2136400</v>
       </c>
       <c r="H60" s="3">
-        <v>2256200</v>
+        <v>2310900</v>
       </c>
       <c r="I60" s="3">
-        <v>1953800</v>
+        <v>2001100</v>
       </c>
       <c r="J60" s="3">
-        <v>2009600</v>
+        <v>2058300</v>
       </c>
       <c r="K60" s="3">
         <v>2404600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2693900</v>
+        <v>2759100</v>
       </c>
       <c r="E61" s="3">
-        <v>2616600</v>
+        <v>2680000</v>
       </c>
       <c r="F61" s="3">
-        <v>2874100</v>
+        <v>2943700</v>
       </c>
       <c r="G61" s="3">
-        <v>1603900</v>
+        <v>1642700</v>
       </c>
       <c r="H61" s="3">
-        <v>1050300</v>
+        <v>1075800</v>
       </c>
       <c r="I61" s="3">
-        <v>1258100</v>
+        <v>1288500</v>
       </c>
       <c r="J61" s="3">
-        <v>1243200</v>
+        <v>1273300</v>
       </c>
       <c r="K61" s="3">
         <v>1467200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>382200</v>
+        <v>391500</v>
       </c>
       <c r="E62" s="3">
-        <v>443500</v>
+        <v>454300</v>
       </c>
       <c r="F62" s="3">
-        <v>474700</v>
+        <v>486200</v>
       </c>
       <c r="G62" s="3">
-        <v>459800</v>
+        <v>471000</v>
       </c>
       <c r="H62" s="3">
-        <v>479000</v>
+        <v>490600</v>
       </c>
       <c r="I62" s="3">
-        <v>544200</v>
+        <v>557400</v>
       </c>
       <c r="J62" s="3">
-        <v>528800</v>
+        <v>541600</v>
       </c>
       <c r="K62" s="3">
         <v>542500</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5715400</v>
+        <v>5853800</v>
       </c>
       <c r="E66" s="3">
-        <v>5810900</v>
+        <v>5951700</v>
       </c>
       <c r="F66" s="3">
-        <v>5992700</v>
+        <v>6137900</v>
       </c>
       <c r="G66" s="3">
-        <v>4149600</v>
+        <v>4250100</v>
       </c>
       <c r="H66" s="3">
-        <v>3785500</v>
+        <v>3877200</v>
       </c>
       <c r="I66" s="3">
-        <v>3756100</v>
+        <v>3847100</v>
       </c>
       <c r="J66" s="3">
-        <v>3781500</v>
+        <v>3873100</v>
       </c>
       <c r="K66" s="3">
         <v>4414300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3923500</v>
+        <v>4018500</v>
       </c>
       <c r="E72" s="3">
-        <v>3422400</v>
+        <v>3505400</v>
       </c>
       <c r="F72" s="3">
-        <v>3401800</v>
+        <v>3484200</v>
       </c>
       <c r="G72" s="3">
-        <v>3296300</v>
+        <v>3376200</v>
       </c>
       <c r="H72" s="3">
-        <v>3074700</v>
+        <v>3149200</v>
       </c>
       <c r="I72" s="3">
-        <v>2744200</v>
+        <v>2810700</v>
       </c>
       <c r="J72" s="3">
-        <v>2732900</v>
+        <v>2799100</v>
       </c>
       <c r="K72" s="3">
         <v>2365800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5259800</v>
+        <v>5387200</v>
       </c>
       <c r="E76" s="3">
-        <v>5052600</v>
+        <v>5175000</v>
       </c>
       <c r="F76" s="3">
-        <v>5253600</v>
+        <v>5380900</v>
       </c>
       <c r="G76" s="3">
-        <v>4978700</v>
+        <v>5099300</v>
       </c>
       <c r="H76" s="3">
-        <v>4834600</v>
+        <v>4951700</v>
       </c>
       <c r="I76" s="3">
-        <v>4485900</v>
+        <v>4594500</v>
       </c>
       <c r="J76" s="3">
-        <v>4675300</v>
+        <v>4788600</v>
       </c>
       <c r="K76" s="3">
         <v>4706100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1060300</v>
+        <v>1086000</v>
       </c>
       <c r="E81" s="3">
-        <v>990100</v>
+        <v>1014100</v>
       </c>
       <c r="F81" s="3">
-        <v>808500</v>
+        <v>828000</v>
       </c>
       <c r="G81" s="3">
-        <v>913600</v>
+        <v>935700</v>
       </c>
       <c r="H81" s="3">
-        <v>825500</v>
+        <v>845500</v>
       </c>
       <c r="I81" s="3">
-        <v>748700</v>
+        <v>766800</v>
       </c>
       <c r="J81" s="3">
-        <v>772900</v>
+        <v>791600</v>
       </c>
       <c r="K81" s="3">
         <v>756400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>337400</v>
+        <v>345600</v>
       </c>
       <c r="E83" s="3">
-        <v>364500</v>
+        <v>373300</v>
       </c>
       <c r="F83" s="3">
-        <v>409100</v>
+        <v>419000</v>
       </c>
       <c r="G83" s="3">
-        <v>283700</v>
+        <v>290600</v>
       </c>
       <c r="H83" s="3">
-        <v>284000</v>
+        <v>290900</v>
       </c>
       <c r="I83" s="3">
-        <v>272800</v>
+        <v>279400</v>
       </c>
       <c r="J83" s="3">
-        <v>289300</v>
+        <v>296300</v>
       </c>
       <c r="K83" s="3">
         <v>328100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1348800</v>
+        <v>1381500</v>
       </c>
       <c r="E89" s="3">
-        <v>1530300</v>
+        <v>1567400</v>
       </c>
       <c r="F89" s="3">
-        <v>1402000</v>
+        <v>1436000</v>
       </c>
       <c r="G89" s="3">
-        <v>1181700</v>
+        <v>1210300</v>
       </c>
       <c r="H89" s="3">
-        <v>1080100</v>
+        <v>1106200</v>
       </c>
       <c r="I89" s="3">
-        <v>982500</v>
+        <v>1006300</v>
       </c>
       <c r="J89" s="3">
-        <v>964100</v>
+        <v>987500</v>
       </c>
       <c r="K89" s="3">
         <v>997600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-112900</v>
+        <v>-115700</v>
       </c>
       <c r="E91" s="3">
-        <v>-88100</v>
+        <v>-90200</v>
       </c>
       <c r="F91" s="3">
-        <v>-92900</v>
+        <v>-95200</v>
       </c>
       <c r="G91" s="3">
-        <v>-117200</v>
+        <v>-120000</v>
       </c>
       <c r="H91" s="3">
-        <v>-103600</v>
+        <v>-106100</v>
       </c>
       <c r="I91" s="3">
-        <v>-81500</v>
+        <v>-83500</v>
       </c>
       <c r="J91" s="3">
-        <v>-119700</v>
+        <v>-122600</v>
       </c>
       <c r="K91" s="3">
         <v>-94800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-659500</v>
+        <v>-675500</v>
       </c>
       <c r="E94" s="3">
-        <v>-287500</v>
+        <v>-294500</v>
       </c>
       <c r="F94" s="3">
-        <v>-414000</v>
+        <v>-424000</v>
       </c>
       <c r="G94" s="3">
-        <v>-687600</v>
+        <v>-704300</v>
       </c>
       <c r="H94" s="3">
-        <v>-417600</v>
+        <v>-427700</v>
       </c>
       <c r="I94" s="3">
-        <v>-428300</v>
+        <v>-438700</v>
       </c>
       <c r="J94" s="3">
-        <v>-276800</v>
+        <v>-283500</v>
       </c>
       <c r="K94" s="3">
         <v>-199000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1150700</v>
+        <v>-1178600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1195700</v>
+        <v>-1224600</v>
       </c>
       <c r="F100" s="3">
-        <v>68100</v>
+        <v>69800</v>
       </c>
       <c r="G100" s="3">
-        <v>-455000</v>
+        <v>-466000</v>
       </c>
       <c r="H100" s="3">
-        <v>-635700</v>
+        <v>-651100</v>
       </c>
       <c r="I100" s="3">
-        <v>-855600</v>
+        <v>-876300</v>
       </c>
       <c r="J100" s="3">
-        <v>-481900</v>
+        <v>-493600</v>
       </c>
       <c r="K100" s="3">
         <v>-1008700</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33600</v>
+        <v>-34400</v>
       </c>
       <c r="E101" s="3">
-        <v>-53400</v>
+        <v>-54700</v>
       </c>
       <c r="F101" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="G101" s="3">
-        <v>-17500</v>
+        <v>-18000</v>
       </c>
       <c r="H101" s="3">
-        <v>-13500</v>
+        <v>-13900</v>
       </c>
       <c r="I101" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="J101" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="K101" s="3">
         <v>31700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-495100</v>
+        <v>-507100</v>
       </c>
       <c r="E102" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="F102" s="3">
-        <v>1080600</v>
+        <v>1106800</v>
       </c>
       <c r="G102" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="H102" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="I102" s="3">
-        <v>-311500</v>
+        <v>-319000</v>
       </c>
       <c r="J102" s="3">
-        <v>210700</v>
+        <v>215800</v>
       </c>
       <c r="K102" s="3">
         <v>-178300</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9531300</v>
+        <v>9526400</v>
       </c>
       <c r="E8" s="3">
-        <v>8982800</v>
+        <v>8978200</v>
       </c>
       <c r="F8" s="3">
-        <v>9010400</v>
+        <v>9005800</v>
       </c>
       <c r="G8" s="3">
-        <v>8971300</v>
+        <v>8966700</v>
       </c>
       <c r="H8" s="3">
-        <v>8523600</v>
+        <v>8519200</v>
       </c>
       <c r="I8" s="3">
-        <v>8033400</v>
+        <v>8029300</v>
       </c>
       <c r="J8" s="3">
-        <v>7913500</v>
+        <v>7909500</v>
       </c>
       <c r="K8" s="3">
         <v>7959600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1051700</v>
+        <v>1051100</v>
       </c>
       <c r="E9" s="3">
-        <v>1097200</v>
+        <v>1096600</v>
       </c>
       <c r="F9" s="3">
-        <v>1142200</v>
+        <v>1141600</v>
       </c>
       <c r="G9" s="3">
-        <v>886700</v>
+        <v>886200</v>
       </c>
       <c r="H9" s="3">
-        <v>846800</v>
+        <v>846400</v>
       </c>
       <c r="I9" s="3">
-        <v>832700</v>
+        <v>832300</v>
       </c>
       <c r="J9" s="3">
-        <v>841000</v>
+        <v>840600</v>
       </c>
       <c r="K9" s="3">
         <v>867300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8479600</v>
+        <v>8475200</v>
       </c>
       <c r="E10" s="3">
-        <v>7885600</v>
+        <v>7881500</v>
       </c>
       <c r="F10" s="3">
-        <v>7868200</v>
+        <v>7864200</v>
       </c>
       <c r="G10" s="3">
-        <v>8084600</v>
+        <v>8080500</v>
       </c>
       <c r="H10" s="3">
-        <v>7676800</v>
+        <v>7672800</v>
       </c>
       <c r="I10" s="3">
-        <v>7200700</v>
+        <v>7197000</v>
       </c>
       <c r="J10" s="3">
-        <v>7072500</v>
+        <v>7068900</v>
       </c>
       <c r="K10" s="3">
         <v>7092300</v>
@@ -960,7 +960,7 @@
         <v>12600</v>
       </c>
       <c r="F14" s="3">
-        <v>185300</v>
+        <v>185200</v>
       </c>
       <c r="G14" s="3">
         <v>57300</v>
@@ -969,10 +969,10 @@
         <v>102100</v>
       </c>
       <c r="I14" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="J14" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="K14" s="3">
         <v>31900</v>
@@ -999,7 +999,7 @@
         <v>36000</v>
       </c>
       <c r="E15" s="3">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="F15" s="3">
         <v>41400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8074200</v>
+        <v>8070100</v>
       </c>
       <c r="E17" s="3">
-        <v>7621300</v>
+        <v>7617400</v>
       </c>
       <c r="F17" s="3">
-        <v>7887300</v>
+        <v>7883200</v>
       </c>
       <c r="G17" s="3">
-        <v>7729100</v>
+        <v>7725100</v>
       </c>
       <c r="H17" s="3">
-        <v>7419900</v>
+        <v>7416100</v>
       </c>
       <c r="I17" s="3">
-        <v>6983100</v>
+        <v>6979500</v>
       </c>
       <c r="J17" s="3">
-        <v>6837400</v>
+        <v>6833900</v>
       </c>
       <c r="K17" s="3">
         <v>6931700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1457000</v>
+        <v>1456300</v>
       </c>
       <c r="E18" s="3">
-        <v>1361500</v>
+        <v>1360800</v>
       </c>
       <c r="F18" s="3">
-        <v>1123200</v>
+        <v>1122600</v>
       </c>
       <c r="G18" s="3">
-        <v>1242200</v>
+        <v>1241500</v>
       </c>
       <c r="H18" s="3">
-        <v>1103700</v>
+        <v>1103100</v>
       </c>
       <c r="I18" s="3">
-        <v>1050300</v>
+        <v>1049800</v>
       </c>
       <c r="J18" s="3">
-        <v>1076100</v>
+        <v>1075600</v>
       </c>
       <c r="K18" s="3">
         <v>1028000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1803900</v>
+        <v>1801700</v>
       </c>
       <c r="E21" s="3">
-        <v>1736200</v>
+        <v>1733900</v>
       </c>
       <c r="F21" s="3">
-        <v>1543700</v>
+        <v>1541400</v>
       </c>
       <c r="G21" s="3">
-        <v>1533800</v>
+        <v>1532000</v>
       </c>
       <c r="H21" s="3">
-        <v>1395600</v>
+        <v>1393800</v>
       </c>
       <c r="I21" s="3">
-        <v>1330700</v>
+        <v>1329000</v>
       </c>
       <c r="J21" s="3">
-        <v>1373600</v>
+        <v>1371800</v>
       </c>
       <c r="K21" s="3">
         <v>1355000</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1457000</v>
+        <v>1456300</v>
       </c>
       <c r="E23" s="3">
-        <v>1361500</v>
+        <v>1360800</v>
       </c>
       <c r="F23" s="3">
-        <v>1123200</v>
+        <v>1122600</v>
       </c>
       <c r="G23" s="3">
-        <v>1242200</v>
+        <v>1241500</v>
       </c>
       <c r="H23" s="3">
-        <v>1103700</v>
+        <v>1103100</v>
       </c>
       <c r="I23" s="3">
-        <v>1050300</v>
+        <v>1049800</v>
       </c>
       <c r="J23" s="3">
-        <v>1076100</v>
+        <v>1075600</v>
       </c>
       <c r="K23" s="3">
         <v>1028000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>371000</v>
+        <v>370800</v>
       </c>
       <c r="E24" s="3">
-        <v>347300</v>
+        <v>347200</v>
       </c>
       <c r="F24" s="3">
-        <v>295100</v>
+        <v>295000</v>
       </c>
       <c r="G24" s="3">
-        <v>306500</v>
+        <v>306300</v>
       </c>
       <c r="H24" s="3">
-        <v>258200</v>
+        <v>258100</v>
       </c>
       <c r="I24" s="3">
-        <v>283500</v>
+        <v>283300</v>
       </c>
       <c r="J24" s="3">
-        <v>284500</v>
+        <v>284300</v>
       </c>
       <c r="K24" s="3">
         <v>271600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1086000</v>
+        <v>1085500</v>
       </c>
       <c r="E26" s="3">
-        <v>1014100</v>
+        <v>1013600</v>
       </c>
       <c r="F26" s="3">
-        <v>828000</v>
+        <v>827600</v>
       </c>
       <c r="G26" s="3">
-        <v>935700</v>
+        <v>935200</v>
       </c>
       <c r="H26" s="3">
-        <v>845500</v>
+        <v>845000</v>
       </c>
       <c r="I26" s="3">
-        <v>766800</v>
+        <v>766400</v>
       </c>
       <c r="J26" s="3">
-        <v>791600</v>
+        <v>791200</v>
       </c>
       <c r="K26" s="3">
         <v>756400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1086000</v>
+        <v>1085500</v>
       </c>
       <c r="E27" s="3">
-        <v>1014100</v>
+        <v>1013600</v>
       </c>
       <c r="F27" s="3">
-        <v>828000</v>
+        <v>827600</v>
       </c>
       <c r="G27" s="3">
-        <v>935700</v>
+        <v>935200</v>
       </c>
       <c r="H27" s="3">
-        <v>845500</v>
+        <v>845000</v>
       </c>
       <c r="I27" s="3">
-        <v>766800</v>
+        <v>766400</v>
       </c>
       <c r="J27" s="3">
-        <v>791600</v>
+        <v>791200</v>
       </c>
       <c r="K27" s="3">
         <v>756400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1086000</v>
+        <v>1085500</v>
       </c>
       <c r="E33" s="3">
-        <v>1014100</v>
+        <v>1013600</v>
       </c>
       <c r="F33" s="3">
-        <v>828000</v>
+        <v>827600</v>
       </c>
       <c r="G33" s="3">
-        <v>935700</v>
+        <v>935200</v>
       </c>
       <c r="H33" s="3">
-        <v>845500</v>
+        <v>845000</v>
       </c>
       <c r="I33" s="3">
-        <v>766800</v>
+        <v>766400</v>
       </c>
       <c r="J33" s="3">
-        <v>791600</v>
+        <v>791200</v>
       </c>
       <c r="K33" s="3">
         <v>756400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1086000</v>
+        <v>1085500</v>
       </c>
       <c r="E35" s="3">
-        <v>1014100</v>
+        <v>1013600</v>
       </c>
       <c r="F35" s="3">
-        <v>828000</v>
+        <v>827600</v>
       </c>
       <c r="G35" s="3">
-        <v>935700</v>
+        <v>935200</v>
       </c>
       <c r="H35" s="3">
-        <v>845500</v>
+        <v>845000</v>
       </c>
       <c r="I35" s="3">
-        <v>766800</v>
+        <v>766400</v>
       </c>
       <c r="J35" s="3">
-        <v>791600</v>
+        <v>791200</v>
       </c>
       <c r="K35" s="3">
         <v>756400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>715900</v>
+        <v>715500</v>
       </c>
       <c r="E41" s="3">
-        <v>1258700</v>
+        <v>1258000</v>
       </c>
       <c r="F41" s="3">
-        <v>1265200</v>
+        <v>1264500</v>
       </c>
       <c r="G41" s="3">
-        <v>158400</v>
+        <v>158300</v>
       </c>
       <c r="H41" s="3">
-        <v>136400</v>
+        <v>136300</v>
       </c>
       <c r="I41" s="3">
-        <v>122900</v>
+        <v>122800</v>
       </c>
       <c r="J41" s="3">
-        <v>441900</v>
+        <v>441600</v>
       </c>
       <c r="K41" s="3">
         <v>236200</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1083600</v>
+        <v>1083000</v>
       </c>
       <c r="E43" s="3">
-        <v>915800</v>
+        <v>915400</v>
       </c>
       <c r="F43" s="3">
-        <v>924900</v>
+        <v>924500</v>
       </c>
       <c r="G43" s="3">
-        <v>1012800</v>
+        <v>1012300</v>
       </c>
       <c r="H43" s="3">
-        <v>1100800</v>
+        <v>1100200</v>
       </c>
       <c r="I43" s="3">
-        <v>957300</v>
+        <v>956900</v>
       </c>
       <c r="J43" s="3">
-        <v>821800</v>
+        <v>821400</v>
       </c>
       <c r="K43" s="3">
         <v>853900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>882800</v>
+        <v>882400</v>
       </c>
       <c r="E44" s="3">
-        <v>774100</v>
+        <v>773700</v>
       </c>
       <c r="F44" s="3">
-        <v>796500</v>
+        <v>796100</v>
       </c>
       <c r="G44" s="3">
-        <v>811900</v>
+        <v>811500</v>
       </c>
       <c r="H44" s="3">
-        <v>698400</v>
+        <v>698000</v>
       </c>
       <c r="I44" s="3">
-        <v>683400</v>
+        <v>683100</v>
       </c>
       <c r="J44" s="3">
-        <v>693000</v>
+        <v>692600</v>
       </c>
       <c r="K44" s="3">
         <v>675600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>539200</v>
+        <v>538900</v>
       </c>
       <c r="E45" s="3">
-        <v>581100</v>
+        <v>580800</v>
       </c>
       <c r="F45" s="3">
-        <v>669700</v>
+        <v>669300</v>
       </c>
       <c r="G45" s="3">
-        <v>429800</v>
+        <v>429600</v>
       </c>
       <c r="H45" s="3">
-        <v>364100</v>
+        <v>363900</v>
       </c>
       <c r="I45" s="3">
-        <v>357100</v>
+        <v>356900</v>
       </c>
       <c r="J45" s="3">
-        <v>416400</v>
+        <v>416200</v>
       </c>
       <c r="K45" s="3">
         <v>528900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3221500</v>
+        <v>3219900</v>
       </c>
       <c r="E46" s="3">
-        <v>3529700</v>
+        <v>3527900</v>
       </c>
       <c r="F46" s="3">
-        <v>3656300</v>
+        <v>3654400</v>
       </c>
       <c r="G46" s="3">
-        <v>2412900</v>
+        <v>2411600</v>
       </c>
       <c r="H46" s="3">
-        <v>2299600</v>
+        <v>2298400</v>
       </c>
       <c r="I46" s="3">
-        <v>2120800</v>
+        <v>2119700</v>
       </c>
       <c r="J46" s="3">
-        <v>2373100</v>
+        <v>2371900</v>
       </c>
       <c r="K46" s="3">
         <v>2294600</v>
@@ -2165,10 +2165,10 @@
         <v>20300</v>
       </c>
       <c r="E47" s="3">
-        <v>113100</v>
+        <v>113000</v>
       </c>
       <c r="F47" s="3">
-        <v>116000</v>
+        <v>115900</v>
       </c>
       <c r="G47" s="3">
         <v>131000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>670200</v>
+        <v>669800</v>
       </c>
       <c r="E48" s="3">
-        <v>695000</v>
+        <v>694700</v>
       </c>
       <c r="F48" s="3">
-        <v>770200</v>
+        <v>769800</v>
       </c>
       <c r="G48" s="3">
-        <v>294600</v>
+        <v>294400</v>
       </c>
       <c r="H48" s="3">
-        <v>287500</v>
+        <v>287300</v>
       </c>
       <c r="I48" s="3">
-        <v>293800</v>
+        <v>293600</v>
       </c>
       <c r="J48" s="3">
-        <v>325400</v>
+        <v>325200</v>
       </c>
       <c r="K48" s="3">
         <v>366100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6932600</v>
+        <v>6929000</v>
       </c>
       <c r="E49" s="3">
-        <v>6575600</v>
+        <v>6572200</v>
       </c>
       <c r="F49" s="3">
-        <v>6770900</v>
+        <v>6767500</v>
       </c>
       <c r="G49" s="3">
-        <v>6302800</v>
+        <v>6299600</v>
       </c>
       <c r="H49" s="3">
-        <v>5973500</v>
+        <v>5970400</v>
       </c>
       <c r="I49" s="3">
-        <v>5773000</v>
+        <v>5770000</v>
       </c>
       <c r="J49" s="3">
-        <v>5669700</v>
+        <v>5666800</v>
       </c>
       <c r="K49" s="3">
         <v>5962400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>396400</v>
+        <v>396200</v>
       </c>
       <c r="E52" s="3">
-        <v>213200</v>
+        <v>213100</v>
       </c>
       <c r="F52" s="3">
-        <v>205400</v>
+        <v>205200</v>
       </c>
       <c r="G52" s="3">
-        <v>208200</v>
+        <v>208100</v>
       </c>
       <c r="H52" s="3">
-        <v>181200</v>
+        <v>181100</v>
       </c>
       <c r="I52" s="3">
-        <v>171700</v>
+        <v>171600</v>
       </c>
       <c r="J52" s="3">
-        <v>197700</v>
+        <v>197600</v>
       </c>
       <c r="K52" s="3">
         <v>255900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11241000</v>
+        <v>11235300</v>
       </c>
       <c r="E54" s="3">
-        <v>11126700</v>
+        <v>11121000</v>
       </c>
       <c r="F54" s="3">
-        <v>11518800</v>
+        <v>11512900</v>
       </c>
       <c r="G54" s="3">
-        <v>9349400</v>
+        <v>9344600</v>
       </c>
       <c r="H54" s="3">
-        <v>8828900</v>
+        <v>8824400</v>
       </c>
       <c r="I54" s="3">
-        <v>8441600</v>
+        <v>8437300</v>
       </c>
       <c r="J54" s="3">
-        <v>8661700</v>
+        <v>8657300</v>
       </c>
       <c r="K54" s="3">
         <v>9120400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>752900</v>
+        <v>752500</v>
       </c>
       <c r="E57" s="3">
-        <v>660300</v>
+        <v>659900</v>
       </c>
       <c r="F57" s="3">
-        <v>760000</v>
+        <v>759600</v>
       </c>
       <c r="G57" s="3">
-        <v>821400</v>
+        <v>821000</v>
       </c>
       <c r="H57" s="3">
-        <v>840600</v>
+        <v>840200</v>
       </c>
       <c r="I57" s="3">
-        <v>743900</v>
+        <v>743500</v>
       </c>
       <c r="J57" s="3">
-        <v>820600</v>
+        <v>820200</v>
       </c>
       <c r="K57" s="3">
         <v>861700</v>
@@ -2576,19 +2576,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>186200</v>
+        <v>186100</v>
       </c>
       <c r="E58" s="3">
-        <v>415200</v>
+        <v>415000</v>
       </c>
       <c r="F58" s="3">
-        <v>362600</v>
+        <v>362400</v>
       </c>
       <c r="G58" s="3">
-        <v>84100</v>
+        <v>84000</v>
       </c>
       <c r="H58" s="3">
-        <v>258200</v>
+        <v>258100</v>
       </c>
       <c r="I58" s="3">
         <v>90700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1764100</v>
+        <v>1763200</v>
       </c>
       <c r="E59" s="3">
-        <v>1741900</v>
+        <v>1741000</v>
       </c>
       <c r="F59" s="3">
-        <v>1585500</v>
+        <v>1584700</v>
       </c>
       <c r="G59" s="3">
-        <v>1230900</v>
+        <v>1230300</v>
       </c>
       <c r="H59" s="3">
-        <v>1212100</v>
+        <v>1211400</v>
       </c>
       <c r="I59" s="3">
-        <v>1166500</v>
+        <v>1165900</v>
       </c>
       <c r="J59" s="3">
-        <v>1095400</v>
+        <v>1094800</v>
       </c>
       <c r="K59" s="3">
         <v>1364300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2703200</v>
+        <v>2701800</v>
       </c>
       <c r="E60" s="3">
-        <v>2817400</v>
+        <v>2815900</v>
       </c>
       <c r="F60" s="3">
-        <v>2708000</v>
+        <v>2706600</v>
       </c>
       <c r="G60" s="3">
-        <v>2136400</v>
+        <v>2135300</v>
       </c>
       <c r="H60" s="3">
-        <v>2310900</v>
+        <v>2309700</v>
       </c>
       <c r="I60" s="3">
-        <v>2001100</v>
+        <v>2000100</v>
       </c>
       <c r="J60" s="3">
-        <v>2058300</v>
+        <v>2057200</v>
       </c>
       <c r="K60" s="3">
         <v>2404600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2759100</v>
+        <v>2757700</v>
       </c>
       <c r="E61" s="3">
-        <v>2680000</v>
+        <v>2678700</v>
       </c>
       <c r="F61" s="3">
-        <v>2943700</v>
+        <v>2942200</v>
       </c>
       <c r="G61" s="3">
-        <v>1642700</v>
+        <v>1641900</v>
       </c>
       <c r="H61" s="3">
-        <v>1075800</v>
+        <v>1075200</v>
       </c>
       <c r="I61" s="3">
-        <v>1288500</v>
+        <v>1287900</v>
       </c>
       <c r="J61" s="3">
-        <v>1273300</v>
+        <v>1272600</v>
       </c>
       <c r="K61" s="3">
         <v>1467200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>391500</v>
+        <v>391300</v>
       </c>
       <c r="E62" s="3">
-        <v>454300</v>
+        <v>454000</v>
       </c>
       <c r="F62" s="3">
-        <v>486200</v>
+        <v>486000</v>
       </c>
       <c r="G62" s="3">
-        <v>471000</v>
+        <v>470700</v>
       </c>
       <c r="H62" s="3">
-        <v>490600</v>
+        <v>490300</v>
       </c>
       <c r="I62" s="3">
-        <v>557400</v>
+        <v>557100</v>
       </c>
       <c r="J62" s="3">
-        <v>541600</v>
+        <v>541300</v>
       </c>
       <c r="K62" s="3">
         <v>542500</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5853800</v>
+        <v>5850800</v>
       </c>
       <c r="E66" s="3">
-        <v>5951700</v>
+        <v>5948600</v>
       </c>
       <c r="F66" s="3">
-        <v>6137900</v>
+        <v>6134800</v>
       </c>
       <c r="G66" s="3">
-        <v>4250100</v>
+        <v>4247900</v>
       </c>
       <c r="H66" s="3">
-        <v>3877200</v>
+        <v>3875200</v>
       </c>
       <c r="I66" s="3">
-        <v>3847100</v>
+        <v>3845100</v>
       </c>
       <c r="J66" s="3">
-        <v>3873100</v>
+        <v>3871100</v>
       </c>
       <c r="K66" s="3">
         <v>4414300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4018500</v>
+        <v>4016500</v>
       </c>
       <c r="E72" s="3">
-        <v>3505400</v>
+        <v>3503600</v>
       </c>
       <c r="F72" s="3">
-        <v>3484200</v>
+        <v>3482400</v>
       </c>
       <c r="G72" s="3">
-        <v>3376200</v>
+        <v>3374500</v>
       </c>
       <c r="H72" s="3">
-        <v>3149200</v>
+        <v>3147600</v>
       </c>
       <c r="I72" s="3">
-        <v>2810700</v>
+        <v>2809300</v>
       </c>
       <c r="J72" s="3">
-        <v>2799100</v>
+        <v>2797700</v>
       </c>
       <c r="K72" s="3">
         <v>2365800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5387200</v>
+        <v>5384400</v>
       </c>
       <c r="E76" s="3">
-        <v>5175000</v>
+        <v>5172300</v>
       </c>
       <c r="F76" s="3">
-        <v>5380900</v>
+        <v>5378100</v>
       </c>
       <c r="G76" s="3">
-        <v>5099300</v>
+        <v>5096700</v>
       </c>
       <c r="H76" s="3">
-        <v>4951700</v>
+        <v>4949200</v>
       </c>
       <c r="I76" s="3">
-        <v>4594500</v>
+        <v>4592200</v>
       </c>
       <c r="J76" s="3">
-        <v>4788600</v>
+        <v>4786100</v>
       </c>
       <c r="K76" s="3">
         <v>4706100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1086000</v>
+        <v>1085500</v>
       </c>
       <c r="E81" s="3">
-        <v>1014100</v>
+        <v>1013600</v>
       </c>
       <c r="F81" s="3">
-        <v>828000</v>
+        <v>827600</v>
       </c>
       <c r="G81" s="3">
-        <v>935700</v>
+        <v>935200</v>
       </c>
       <c r="H81" s="3">
-        <v>845500</v>
+        <v>845000</v>
       </c>
       <c r="I81" s="3">
-        <v>766800</v>
+        <v>766400</v>
       </c>
       <c r="J81" s="3">
-        <v>791600</v>
+        <v>791200</v>
       </c>
       <c r="K81" s="3">
         <v>756400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>345600</v>
+        <v>345400</v>
       </c>
       <c r="E83" s="3">
-        <v>373300</v>
+        <v>373200</v>
       </c>
       <c r="F83" s="3">
-        <v>419000</v>
+        <v>418800</v>
       </c>
       <c r="G83" s="3">
-        <v>290600</v>
+        <v>290400</v>
       </c>
       <c r="H83" s="3">
-        <v>290900</v>
+        <v>290700</v>
       </c>
       <c r="I83" s="3">
-        <v>279400</v>
+        <v>279300</v>
       </c>
       <c r="J83" s="3">
-        <v>296300</v>
+        <v>296200</v>
       </c>
       <c r="K83" s="3">
         <v>328100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1381500</v>
+        <v>1380800</v>
       </c>
       <c r="E89" s="3">
-        <v>1567400</v>
+        <v>1566500</v>
       </c>
       <c r="F89" s="3">
-        <v>1436000</v>
+        <v>1435200</v>
       </c>
       <c r="G89" s="3">
-        <v>1210300</v>
+        <v>1209700</v>
       </c>
       <c r="H89" s="3">
-        <v>1106200</v>
+        <v>1105700</v>
       </c>
       <c r="I89" s="3">
-        <v>1006300</v>
+        <v>1005800</v>
       </c>
       <c r="J89" s="3">
-        <v>987500</v>
+        <v>987000</v>
       </c>
       <c r="K89" s="3">
         <v>997600</v>
@@ -3811,13 +3811,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115700</v>
+        <v>-115600</v>
       </c>
       <c r="E91" s="3">
         <v>-90200</v>
       </c>
       <c r="F91" s="3">
-        <v>-95200</v>
+        <v>-95100</v>
       </c>
       <c r="G91" s="3">
         <v>-120000</v>
@@ -3826,10 +3826,10 @@
         <v>-106100</v>
       </c>
       <c r="I91" s="3">
-        <v>-83500</v>
+        <v>-83400</v>
       </c>
       <c r="J91" s="3">
-        <v>-122600</v>
+        <v>-122500</v>
       </c>
       <c r="K91" s="3">
         <v>-94800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-675500</v>
+        <v>-675200</v>
       </c>
       <c r="E94" s="3">
-        <v>-294500</v>
+        <v>-294300</v>
       </c>
       <c r="F94" s="3">
-        <v>-424000</v>
+        <v>-423800</v>
       </c>
       <c r="G94" s="3">
-        <v>-704300</v>
+        <v>-703900</v>
       </c>
       <c r="H94" s="3">
-        <v>-427700</v>
+        <v>-427500</v>
       </c>
       <c r="I94" s="3">
-        <v>-438700</v>
+        <v>-438500</v>
       </c>
       <c r="J94" s="3">
-        <v>-283500</v>
+        <v>-283400</v>
       </c>
       <c r="K94" s="3">
         <v>-199000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1178600</v>
+        <v>-1178000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1224600</v>
+        <v>-1224000</v>
       </c>
       <c r="F100" s="3">
-        <v>69800</v>
+        <v>69700</v>
       </c>
       <c r="G100" s="3">
-        <v>-466000</v>
+        <v>-465800</v>
       </c>
       <c r="H100" s="3">
-        <v>-651100</v>
+        <v>-650800</v>
       </c>
       <c r="I100" s="3">
-        <v>-876300</v>
+        <v>-875800</v>
       </c>
       <c r="J100" s="3">
-        <v>-493600</v>
+        <v>-493300</v>
       </c>
       <c r="K100" s="3">
         <v>-1008700</v>
@@ -4249,13 +4249,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-507100</v>
+        <v>-506800</v>
       </c>
       <c r="E102" s="3">
         <v>-6500</v>
       </c>
       <c r="F102" s="3">
-        <v>1106800</v>
+        <v>1106200</v>
       </c>
       <c r="G102" s="3">
         <v>22000</v>
@@ -4264,10 +4264,10 @@
         <v>13500</v>
       </c>
       <c r="I102" s="3">
-        <v>-319000</v>
+        <v>-318800</v>
       </c>
       <c r="J102" s="3">
-        <v>215800</v>
+        <v>215600</v>
       </c>
       <c r="K102" s="3">
         <v>-178300</v>

--- a/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GIB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>GIB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,201 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41912</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41547</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41182</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40816</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9526400</v>
+        <v>10393600</v>
       </c>
       <c r="E8" s="3">
-        <v>8978200</v>
+        <v>9354600</v>
       </c>
       <c r="F8" s="3">
-        <v>9005800</v>
+        <v>8816300</v>
       </c>
       <c r="G8" s="3">
-        <v>8966700</v>
+        <v>8843400</v>
       </c>
       <c r="H8" s="3">
-        <v>8519200</v>
+        <v>8805000</v>
       </c>
       <c r="I8" s="3">
-        <v>8029300</v>
+        <v>8365600</v>
       </c>
       <c r="J8" s="3">
+        <v>7884500</v>
+      </c>
+      <c r="K8" s="3">
         <v>7909500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7959600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8186300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7675300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3551700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3245000</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1051100</v>
+        <v>1083400</v>
       </c>
       <c r="E9" s="3">
-        <v>1096600</v>
+        <v>1032200</v>
       </c>
       <c r="F9" s="3">
-        <v>1141600</v>
+        <v>1076900</v>
       </c>
       <c r="G9" s="3">
-        <v>886200</v>
+        <v>1121100</v>
       </c>
       <c r="H9" s="3">
-        <v>846400</v>
+        <v>870200</v>
       </c>
       <c r="I9" s="3">
-        <v>832300</v>
+        <v>831100</v>
       </c>
       <c r="J9" s="3">
+        <v>817300</v>
+      </c>
+      <c r="K9" s="3">
         <v>840600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>867300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>952900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>975400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3145700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2835500</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8475200</v>
+        <v>9310200</v>
       </c>
       <c r="E10" s="3">
-        <v>7881500</v>
+        <v>8322400</v>
       </c>
       <c r="F10" s="3">
-        <v>7864200</v>
+        <v>7739400</v>
       </c>
       <c r="G10" s="3">
-        <v>8080500</v>
+        <v>7722400</v>
       </c>
       <c r="H10" s="3">
-        <v>7672800</v>
+        <v>7934800</v>
       </c>
       <c r="I10" s="3">
-        <v>7197000</v>
+        <v>7534500</v>
       </c>
       <c r="J10" s="3">
+        <v>7067200</v>
+      </c>
+      <c r="K10" s="3">
         <v>7068900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7092300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7233400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6699900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>406000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>409500</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +876,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,9 +918,12 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,93 +963,102 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24100</v>
+        <v>45700</v>
       </c>
       <c r="E14" s="3">
-        <v>12600</v>
+        <v>23600</v>
       </c>
       <c r="F14" s="3">
-        <v>185200</v>
+        <v>12400</v>
       </c>
       <c r="G14" s="3">
-        <v>57300</v>
+        <v>181900</v>
       </c>
       <c r="H14" s="3">
-        <v>102100</v>
+        <v>56300</v>
       </c>
       <c r="I14" s="3">
-        <v>73200</v>
+        <v>100200</v>
       </c>
       <c r="J14" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K14" s="3">
         <v>21500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>31900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>99300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>257600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>189800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>36000</v>
+        <v>41400</v>
       </c>
       <c r="E15" s="3">
-        <v>45400</v>
+        <v>35300</v>
       </c>
       <c r="F15" s="3">
-        <v>41400</v>
+        <v>44600</v>
       </c>
       <c r="G15" s="3">
-        <v>47600</v>
+        <v>40600</v>
       </c>
       <c r="H15" s="3">
-        <v>52100</v>
+        <v>46700</v>
       </c>
       <c r="I15" s="3">
-        <v>41800</v>
+        <v>51100</v>
       </c>
       <c r="J15" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K15" s="3">
         <v>40000</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>60400</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,92 +1072,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8070100</v>
+        <v>8795700</v>
       </c>
       <c r="E17" s="3">
-        <v>7617400</v>
+        <v>7924600</v>
       </c>
       <c r="F17" s="3">
-        <v>7883200</v>
+        <v>7480100</v>
       </c>
       <c r="G17" s="3">
-        <v>7725100</v>
+        <v>7741100</v>
       </c>
       <c r="H17" s="3">
-        <v>7416100</v>
+        <v>7585800</v>
       </c>
       <c r="I17" s="3">
-        <v>6979500</v>
+        <v>7282300</v>
       </c>
       <c r="J17" s="3">
+        <v>6853600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6833900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6931700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7305100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7197600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3356000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2831800</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1456300</v>
+        <v>1597900</v>
       </c>
       <c r="E18" s="3">
-        <v>1360800</v>
+        <v>1430000</v>
       </c>
       <c r="F18" s="3">
-        <v>1122600</v>
+        <v>1336200</v>
       </c>
       <c r="G18" s="3">
-        <v>1241500</v>
+        <v>1102300</v>
       </c>
       <c r="H18" s="3">
-        <v>1103100</v>
+        <v>1219200</v>
       </c>
       <c r="I18" s="3">
-        <v>1049800</v>
+        <v>1083200</v>
       </c>
       <c r="J18" s="3">
+        <v>1030800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1075600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1028000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>881200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>477700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>195700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>413200</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,8 +1181,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,51 +1223,57 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1801700</v>
+        <v>1968900</v>
       </c>
       <c r="E21" s="3">
-        <v>1733900</v>
+        <v>1771100</v>
       </c>
       <c r="F21" s="3">
-        <v>1541400</v>
+        <v>1704700</v>
       </c>
       <c r="G21" s="3">
-        <v>1532000</v>
+        <v>1515900</v>
       </c>
       <c r="H21" s="3">
-        <v>1393800</v>
+        <v>1506000</v>
       </c>
       <c r="I21" s="3">
-        <v>1329000</v>
+        <v>1370300</v>
       </c>
       <c r="J21" s="3">
+        <v>1306600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1371800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1355000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1232300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>808700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>368200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>585600</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1274,93 +1313,102 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1456300</v>
+        <v>1597900</v>
       </c>
       <c r="E23" s="3">
-        <v>1360800</v>
+        <v>1430000</v>
       </c>
       <c r="F23" s="3">
-        <v>1122600</v>
+        <v>1336200</v>
       </c>
       <c r="G23" s="3">
-        <v>1241500</v>
+        <v>1102300</v>
       </c>
       <c r="H23" s="3">
-        <v>1103100</v>
+        <v>1219200</v>
       </c>
       <c r="I23" s="3">
-        <v>1049800</v>
+        <v>1083200</v>
       </c>
       <c r="J23" s="3">
+        <v>1030800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1075600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1028000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>881200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>477700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>195700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>413200</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>370800</v>
+        <v>412000</v>
       </c>
       <c r="E24" s="3">
-        <v>347200</v>
+        <v>364100</v>
       </c>
       <c r="F24" s="3">
-        <v>295000</v>
+        <v>340900</v>
       </c>
       <c r="G24" s="3">
-        <v>306300</v>
+        <v>289600</v>
       </c>
       <c r="H24" s="3">
-        <v>258100</v>
+        <v>300800</v>
       </c>
       <c r="I24" s="3">
-        <v>283300</v>
+        <v>253400</v>
       </c>
       <c r="J24" s="3">
+        <v>278200</v>
+      </c>
+      <c r="K24" s="3">
         <v>284300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>271600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>211100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>130800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>76600</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,93 +1448,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1085500</v>
+        <v>1185900</v>
       </c>
       <c r="E26" s="3">
-        <v>1013600</v>
+        <v>1065900</v>
       </c>
       <c r="F26" s="3">
-        <v>827600</v>
+        <v>995300</v>
       </c>
       <c r="G26" s="3">
-        <v>935200</v>
+        <v>812700</v>
       </c>
       <c r="H26" s="3">
-        <v>845000</v>
+        <v>918400</v>
       </c>
       <c r="I26" s="3">
-        <v>766400</v>
+        <v>829800</v>
       </c>
       <c r="J26" s="3">
+        <v>752600</v>
+      </c>
+      <c r="K26" s="3">
         <v>791200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>756400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>670100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>346900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>97900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>336600</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1085500</v>
+        <v>1185900</v>
       </c>
       <c r="E27" s="3">
-        <v>1013600</v>
+        <v>1065900</v>
       </c>
       <c r="F27" s="3">
-        <v>827600</v>
+        <v>995300</v>
       </c>
       <c r="G27" s="3">
-        <v>935200</v>
+        <v>812700</v>
       </c>
       <c r="H27" s="3">
-        <v>845000</v>
+        <v>918400</v>
       </c>
       <c r="I27" s="3">
-        <v>766400</v>
+        <v>829800</v>
       </c>
       <c r="J27" s="3">
+        <v>752600</v>
+      </c>
+      <c r="K27" s="3">
         <v>791200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>756400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>670100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>346900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>97900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>336400</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1526,9 +1583,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1568,9 +1628,12 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1610,9 +1673,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1652,9 +1718,12 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1694,51 +1763,57 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1085500</v>
+        <v>1185900</v>
       </c>
       <c r="E33" s="3">
-        <v>1013600</v>
+        <v>1065900</v>
       </c>
       <c r="F33" s="3">
-        <v>827600</v>
+        <v>995300</v>
       </c>
       <c r="G33" s="3">
-        <v>935200</v>
+        <v>812700</v>
       </c>
       <c r="H33" s="3">
-        <v>845000</v>
+        <v>918400</v>
       </c>
       <c r="I33" s="3">
-        <v>766400</v>
+        <v>829800</v>
       </c>
       <c r="J33" s="3">
+        <v>752600</v>
+      </c>
+      <c r="K33" s="3">
         <v>791200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>756400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>670100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>346900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>97900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>336400</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1778,98 +1853,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1085500</v>
+        <v>1185900</v>
       </c>
       <c r="E35" s="3">
-        <v>1013600</v>
+        <v>1065900</v>
       </c>
       <c r="F35" s="3">
-        <v>827600</v>
+        <v>995300</v>
       </c>
       <c r="G35" s="3">
-        <v>935200</v>
+        <v>812700</v>
       </c>
       <c r="H35" s="3">
-        <v>845000</v>
+        <v>918400</v>
       </c>
       <c r="I35" s="3">
-        <v>766400</v>
+        <v>829800</v>
       </c>
       <c r="J35" s="3">
+        <v>752600</v>
+      </c>
+      <c r="K35" s="3">
         <v>791200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>756400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>670100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>346900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>97900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>336400</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41912</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41547</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41182</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40816</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1886,8 +1970,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1904,73 +1989,77 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>715500</v>
+        <v>1140200</v>
       </c>
       <c r="E41" s="3">
-        <v>1258000</v>
+        <v>702600</v>
       </c>
       <c r="F41" s="3">
-        <v>1264500</v>
+        <v>1235300</v>
       </c>
       <c r="G41" s="3">
-        <v>158300</v>
+        <v>1241700</v>
       </c>
       <c r="H41" s="3">
-        <v>136300</v>
+        <v>155500</v>
       </c>
       <c r="I41" s="3">
-        <v>122800</v>
+        <v>133800</v>
       </c>
       <c r="J41" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K41" s="3">
         <v>441600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>236200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>417700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>177000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>104600</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>58200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1979,311 +2068,335 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>143000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>163500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7800</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1083000</v>
+        <v>1141500</v>
       </c>
       <c r="E43" s="3">
-        <v>915400</v>
+        <v>1063500</v>
       </c>
       <c r="F43" s="3">
-        <v>924500</v>
+        <v>898900</v>
       </c>
       <c r="G43" s="3">
-        <v>1012300</v>
+        <v>907800</v>
       </c>
       <c r="H43" s="3">
-        <v>1100200</v>
+        <v>994000</v>
       </c>
       <c r="I43" s="3">
-        <v>956900</v>
+        <v>1080300</v>
       </c>
       <c r="J43" s="3">
+        <v>939600</v>
+      </c>
+      <c r="K43" s="3">
         <v>821400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>853900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>814400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1706200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2175800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>380100</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>882400</v>
+        <v>831500</v>
       </c>
       <c r="E44" s="3">
-        <v>773700</v>
+        <v>866500</v>
       </c>
       <c r="F44" s="3">
-        <v>796100</v>
+        <v>759800</v>
       </c>
       <c r="G44" s="3">
-        <v>811500</v>
+        <v>781700</v>
       </c>
       <c r="H44" s="3">
-        <v>698000</v>
+        <v>796800</v>
       </c>
       <c r="I44" s="3">
-        <v>683100</v>
+        <v>685400</v>
       </c>
       <c r="J44" s="3">
+        <v>670800</v>
+      </c>
+      <c r="K44" s="3">
         <v>692600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>675600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>630000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>694000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1072900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>300400</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>538900</v>
+        <v>415600</v>
       </c>
       <c r="E45" s="3">
-        <v>580800</v>
+        <v>529200</v>
       </c>
       <c r="F45" s="3">
-        <v>669300</v>
+        <v>570300</v>
       </c>
       <c r="G45" s="3">
-        <v>429600</v>
+        <v>657300</v>
       </c>
       <c r="H45" s="3">
-        <v>363900</v>
+        <v>421800</v>
       </c>
       <c r="I45" s="3">
-        <v>356900</v>
+        <v>357300</v>
       </c>
       <c r="J45" s="3">
+        <v>350500</v>
+      </c>
+      <c r="K45" s="3">
         <v>416200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>528900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>373700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>503800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>508400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>267400</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3219900</v>
+        <v>3586900</v>
       </c>
       <c r="E46" s="3">
-        <v>3527900</v>
+        <v>3161800</v>
       </c>
       <c r="F46" s="3">
-        <v>3654400</v>
+        <v>3464300</v>
       </c>
       <c r="G46" s="3">
-        <v>2411600</v>
+        <v>3588500</v>
       </c>
       <c r="H46" s="3">
-        <v>2298400</v>
+        <v>2368200</v>
       </c>
       <c r="I46" s="3">
-        <v>2119700</v>
+        <v>2257000</v>
       </c>
       <c r="J46" s="3">
+        <v>2081400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2371900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2294600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2235800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2042100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2021200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1060300</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20300</v>
+        <v>27500</v>
       </c>
       <c r="E47" s="3">
-        <v>113000</v>
+        <v>19900</v>
       </c>
       <c r="F47" s="3">
-        <v>115900</v>
+        <v>111000</v>
       </c>
       <c r="G47" s="3">
-        <v>131000</v>
+        <v>113800</v>
       </c>
       <c r="H47" s="3">
-        <v>87200</v>
+        <v>128600</v>
       </c>
       <c r="I47" s="3">
-        <v>82400</v>
+        <v>85600</v>
       </c>
       <c r="J47" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K47" s="3">
         <v>95800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>241500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>187600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>165100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>35600</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>669800</v>
+        <v>633700</v>
       </c>
       <c r="E48" s="3">
-        <v>694700</v>
+        <v>657700</v>
       </c>
       <c r="F48" s="3">
-        <v>769800</v>
+        <v>682200</v>
       </c>
       <c r="G48" s="3">
-        <v>294400</v>
+        <v>756000</v>
       </c>
       <c r="H48" s="3">
-        <v>287300</v>
+        <v>289100</v>
       </c>
       <c r="I48" s="3">
-        <v>293600</v>
+        <v>282100</v>
       </c>
       <c r="J48" s="3">
+        <v>288300</v>
+      </c>
+      <c r="K48" s="3">
         <v>325200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>366100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>379600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>361600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>731200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>384000</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6929000</v>
+        <v>7020000</v>
       </c>
       <c r="E49" s="3">
-        <v>6572200</v>
+        <v>6804100</v>
       </c>
       <c r="F49" s="3">
-        <v>6767500</v>
+        <v>6453700</v>
       </c>
       <c r="G49" s="3">
-        <v>6299600</v>
+        <v>6645400</v>
       </c>
       <c r="H49" s="3">
-        <v>5970400</v>
+        <v>6186000</v>
       </c>
       <c r="I49" s="3">
-        <v>5770000</v>
+        <v>5862700</v>
       </c>
       <c r="J49" s="3">
+        <v>5666000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5666800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5962400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5645900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6051100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10341600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2561900</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2323,9 +2436,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2365,51 +2481,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>396200</v>
+        <v>218300</v>
       </c>
       <c r="E52" s="3">
-        <v>213100</v>
+        <v>389100</v>
       </c>
       <c r="F52" s="3">
-        <v>205200</v>
+        <v>209300</v>
       </c>
       <c r="G52" s="3">
-        <v>208100</v>
+        <v>201500</v>
       </c>
       <c r="H52" s="3">
-        <v>181100</v>
+        <v>204300</v>
       </c>
       <c r="I52" s="3">
-        <v>171600</v>
+        <v>177800</v>
       </c>
       <c r="J52" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K52" s="3">
         <v>197600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>255900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>310000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>351500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>535600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>42600</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2449,51 +2571,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11235300</v>
+        <v>11486400</v>
       </c>
       <c r="E54" s="3">
-        <v>11121000</v>
+        <v>11032700</v>
       </c>
       <c r="F54" s="3">
-        <v>11512900</v>
+        <v>10920400</v>
       </c>
       <c r="G54" s="3">
-        <v>9344600</v>
+        <v>11305300</v>
       </c>
       <c r="H54" s="3">
-        <v>8824400</v>
+        <v>9176100</v>
       </c>
       <c r="I54" s="3">
-        <v>8437300</v>
+        <v>8665300</v>
       </c>
       <c r="J54" s="3">
+        <v>8285200</v>
+      </c>
+      <c r="K54" s="3">
         <v>8657300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9120400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8758900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8280100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7955800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3577900</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2510,8 +2638,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2528,260 +2657,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>752500</v>
+        <v>672200</v>
       </c>
       <c r="E57" s="3">
-        <v>659900</v>
+        <v>738900</v>
       </c>
       <c r="F57" s="3">
-        <v>759600</v>
+        <v>648000</v>
       </c>
       <c r="G57" s="3">
-        <v>821000</v>
+        <v>745900</v>
       </c>
       <c r="H57" s="3">
-        <v>840200</v>
+        <v>806200</v>
       </c>
       <c r="I57" s="3">
-        <v>743500</v>
+        <v>825000</v>
       </c>
       <c r="J57" s="3">
+        <v>730100</v>
+      </c>
+      <c r="K57" s="3">
         <v>820200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>861700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>826700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>851700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1817900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>233300</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>186100</v>
+        <v>987200</v>
       </c>
       <c r="E58" s="3">
-        <v>415000</v>
+        <v>182800</v>
       </c>
       <c r="F58" s="3">
-        <v>362400</v>
+        <v>407500</v>
       </c>
       <c r="G58" s="3">
-        <v>84000</v>
+        <v>355900</v>
       </c>
       <c r="H58" s="3">
-        <v>258100</v>
+        <v>82500</v>
       </c>
       <c r="I58" s="3">
-        <v>90700</v>
+        <v>253400</v>
       </c>
       <c r="J58" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K58" s="3">
         <v>142200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>178700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>62700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>406600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>77900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>746400</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1763200</v>
+        <v>1718200</v>
       </c>
       <c r="E59" s="3">
-        <v>1741000</v>
+        <v>1731400</v>
       </c>
       <c r="F59" s="3">
-        <v>1584700</v>
+        <v>1709600</v>
       </c>
       <c r="G59" s="3">
-        <v>1230300</v>
+        <v>1556100</v>
       </c>
       <c r="H59" s="3">
-        <v>1211400</v>
+        <v>1208100</v>
       </c>
       <c r="I59" s="3">
-        <v>1165900</v>
+        <v>1189600</v>
       </c>
       <c r="J59" s="3">
+        <v>1144900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1094800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1364300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1276700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1391900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2383800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>495800</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2701800</v>
+        <v>3377500</v>
       </c>
       <c r="E60" s="3">
-        <v>2815900</v>
+        <v>2653100</v>
       </c>
       <c r="F60" s="3">
-        <v>2706600</v>
+        <v>2765200</v>
       </c>
       <c r="G60" s="3">
-        <v>2135300</v>
+        <v>2657800</v>
       </c>
       <c r="H60" s="3">
-        <v>2309700</v>
+        <v>2096800</v>
       </c>
       <c r="I60" s="3">
-        <v>2000100</v>
+        <v>2268000</v>
       </c>
       <c r="J60" s="3">
+        <v>1964100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2057200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2404600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2166100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2650100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2249400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1475400</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2757700</v>
+        <v>1733500</v>
       </c>
       <c r="E61" s="3">
-        <v>2678700</v>
+        <v>2708000</v>
       </c>
       <c r="F61" s="3">
-        <v>2942200</v>
+        <v>2630400</v>
       </c>
       <c r="G61" s="3">
-        <v>1641900</v>
+        <v>2889100</v>
       </c>
       <c r="H61" s="3">
-        <v>1075200</v>
+        <v>1612300</v>
       </c>
       <c r="I61" s="3">
-        <v>1287900</v>
+        <v>1055800</v>
       </c>
       <c r="J61" s="3">
+        <v>1264700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1272600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1467200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2026600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1775100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2378500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>84300</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>391300</v>
+        <v>333700</v>
       </c>
       <c r="E62" s="3">
-        <v>454000</v>
+        <v>384200</v>
       </c>
       <c r="F62" s="3">
-        <v>486000</v>
+        <v>445900</v>
       </c>
       <c r="G62" s="3">
-        <v>470700</v>
+        <v>477200</v>
       </c>
       <c r="H62" s="3">
-        <v>490300</v>
+        <v>462300</v>
       </c>
       <c r="I62" s="3">
-        <v>557100</v>
+        <v>481500</v>
       </c>
       <c r="J62" s="3">
+        <v>547100</v>
+      </c>
+      <c r="K62" s="3">
         <v>541300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>542500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>676600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>768100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1604300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>401400</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2821,9 +2969,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2863,9 +3014,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2905,51 +3059,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5850800</v>
+        <v>5444700</v>
       </c>
       <c r="E66" s="3">
-        <v>5948600</v>
+        <v>5745300</v>
       </c>
       <c r="F66" s="3">
-        <v>6134800</v>
+        <v>5841400</v>
       </c>
       <c r="G66" s="3">
-        <v>4247900</v>
+        <v>6024100</v>
       </c>
       <c r="H66" s="3">
-        <v>3875200</v>
+        <v>4171300</v>
       </c>
       <c r="I66" s="3">
-        <v>3845100</v>
+        <v>3805400</v>
       </c>
       <c r="J66" s="3">
+        <v>3775800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3871100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4414300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4869300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5193400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5408400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1773200</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2966,8 +3126,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3007,9 +3168,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3049,9 +3213,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3091,9 +3258,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3133,51 +3303,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4016500</v>
+        <v>4601300</v>
       </c>
       <c r="E72" s="3">
-        <v>3503600</v>
+        <v>3944000</v>
       </c>
       <c r="F72" s="3">
-        <v>3482400</v>
+        <v>3440400</v>
       </c>
       <c r="G72" s="3">
-        <v>3374500</v>
+        <v>3419600</v>
       </c>
       <c r="H72" s="3">
-        <v>3147600</v>
+        <v>3313600</v>
       </c>
       <c r="I72" s="3">
-        <v>2809300</v>
+        <v>3090800</v>
       </c>
       <c r="J72" s="3">
+        <v>2758600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2797700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2365800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1836900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1181200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1656900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>812500</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3217,9 +3393,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3259,9 +3438,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3301,51 +3483,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5384400</v>
+        <v>6041700</v>
       </c>
       <c r="E76" s="3">
-        <v>5172300</v>
+        <v>5287300</v>
       </c>
       <c r="F76" s="3">
-        <v>5378100</v>
+        <v>5079100</v>
       </c>
       <c r="G76" s="3">
-        <v>5096700</v>
+        <v>5281100</v>
       </c>
       <c r="H76" s="3">
-        <v>4949200</v>
+        <v>5004800</v>
       </c>
       <c r="I76" s="3">
-        <v>4592200</v>
+        <v>4859900</v>
       </c>
       <c r="J76" s="3">
+        <v>4509400</v>
+      </c>
+      <c r="K76" s="3">
         <v>4786100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4706100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3889600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3086800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2547400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1804700</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3385,98 +3573,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41912</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41547</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41182</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40816</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1085500</v>
+        <v>1185900</v>
       </c>
       <c r="E81" s="3">
-        <v>1013600</v>
+        <v>1065900</v>
       </c>
       <c r="F81" s="3">
-        <v>827600</v>
+        <v>995300</v>
       </c>
       <c r="G81" s="3">
-        <v>935200</v>
+        <v>812700</v>
       </c>
       <c r="H81" s="3">
-        <v>845000</v>
+        <v>918400</v>
       </c>
       <c r="I81" s="3">
-        <v>766400</v>
+        <v>829800</v>
       </c>
       <c r="J81" s="3">
+        <v>752600</v>
+      </c>
+      <c r="K81" s="3">
         <v>791200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>756400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>670100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>346900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>97900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>336400</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3493,50 +3690,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>345400</v>
+        <v>368900</v>
       </c>
       <c r="E83" s="3">
-        <v>373200</v>
+        <v>339200</v>
       </c>
       <c r="F83" s="3">
-        <v>418800</v>
+        <v>366400</v>
       </c>
       <c r="G83" s="3">
-        <v>290400</v>
+        <v>411300</v>
       </c>
       <c r="H83" s="3">
-        <v>290700</v>
+        <v>285200</v>
       </c>
       <c r="I83" s="3">
-        <v>279300</v>
+        <v>285500</v>
       </c>
       <c r="J83" s="3">
+        <v>274200</v>
+      </c>
+      <c r="K83" s="3">
         <v>296200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>328100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>346400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>331800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>172200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>171600</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3576,9 +3777,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3618,9 +3822,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3660,9 +3867,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3702,9 +3912,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3744,51 +3957,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1380800</v>
+        <v>1535600</v>
       </c>
       <c r="E89" s="3">
-        <v>1566500</v>
+        <v>1355900</v>
       </c>
       <c r="F89" s="3">
-        <v>1435200</v>
+        <v>1538300</v>
       </c>
       <c r="G89" s="3">
-        <v>1209700</v>
+        <v>1409300</v>
       </c>
       <c r="H89" s="3">
-        <v>1105700</v>
+        <v>1187900</v>
       </c>
       <c r="I89" s="3">
-        <v>1005800</v>
+        <v>1085700</v>
       </c>
       <c r="J89" s="3">
+        <v>987700</v>
+      </c>
+      <c r="K89" s="3">
         <v>987000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>997600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>916000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>510900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>456400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>437900</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3805,50 +4024,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115600</v>
+        <v>-116200</v>
       </c>
       <c r="E91" s="3">
-        <v>-90200</v>
+        <v>-113500</v>
       </c>
       <c r="F91" s="3">
-        <v>-95100</v>
+        <v>-88600</v>
       </c>
       <c r="G91" s="3">
-        <v>-120000</v>
+        <v>-93400</v>
       </c>
       <c r="H91" s="3">
-        <v>-106100</v>
+        <v>-117800</v>
       </c>
       <c r="I91" s="3">
-        <v>-83400</v>
+        <v>-104100</v>
       </c>
       <c r="J91" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-122500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-94800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-141500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-108000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-92000</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3888,9 +4111,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3930,51 +4156,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-675200</v>
+        <v>-408500</v>
       </c>
       <c r="E94" s="3">
-        <v>-294300</v>
+        <v>-663000</v>
       </c>
       <c r="F94" s="3">
-        <v>-423800</v>
+        <v>-289000</v>
       </c>
       <c r="G94" s="3">
-        <v>-703900</v>
+        <v>-416200</v>
       </c>
       <c r="H94" s="3">
-        <v>-427500</v>
+        <v>-691200</v>
       </c>
       <c r="I94" s="3">
-        <v>-438500</v>
+        <v>-419800</v>
       </c>
       <c r="J94" s="3">
+        <v>-430600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-283400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-199000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-250400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-178000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2120300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100600</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3991,8 +4223,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4032,9 +4265,12 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4074,9 +4310,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4116,9 +4355,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4158,133 +4400,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1178000</v>
+        <v>-866900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1224000</v>
+        <v>-1156700</v>
       </c>
       <c r="F100" s="3">
-        <v>69700</v>
+        <v>-1201900</v>
       </c>
       <c r="G100" s="3">
-        <v>-465800</v>
+        <v>68500</v>
       </c>
       <c r="H100" s="3">
-        <v>-650800</v>
+        <v>-457400</v>
       </c>
       <c r="I100" s="3">
-        <v>-875800</v>
+        <v>-639100</v>
       </c>
       <c r="J100" s="3">
+        <v>-860000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-493300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1008700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-322800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-339400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-377700</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34400</v>
+        <v>6500</v>
       </c>
       <c r="E101" s="3">
-        <v>-54700</v>
+        <v>-33800</v>
       </c>
       <c r="F101" s="3">
-        <v>25100</v>
+        <v>-53700</v>
       </c>
       <c r="G101" s="3">
-        <v>-18000</v>
+        <v>24600</v>
       </c>
       <c r="H101" s="3">
-        <v>-13900</v>
+        <v>-17600</v>
       </c>
       <c r="I101" s="3">
-        <v>-10300</v>
+        <v>-13600</v>
       </c>
       <c r="J101" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K101" s="3">
         <v>5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3700</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-506800</v>
+        <v>266700</v>
       </c>
       <c r="E102" s="3">
-        <v>-6500</v>
+        <v>-497700</v>
       </c>
       <c r="F102" s="3">
-        <v>1106200</v>
+        <v>-6400</v>
       </c>
       <c r="G102" s="3">
-        <v>22000</v>
+        <v>1086300</v>
       </c>
       <c r="H102" s="3">
-        <v>13500</v>
+        <v>21600</v>
       </c>
       <c r="I102" s="3">
-        <v>-318800</v>
+        <v>13200</v>
       </c>
       <c r="J102" s="3">
+        <v>-313100</v>
+      </c>
+      <c r="K102" s="3">
         <v>215600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-178300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>334900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-36800</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
